--- a/NotSelectedParticipants.xlsx
+++ b/NotSelectedParticipants.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="262">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="272">
   <x:si>
     <x:t>Timestamp</x:t>
   </x:si>
@@ -41,33 +41,48 @@
     <x:t>Contact Number</x:t>
   </x:si>
   <x:si>
+    <x:t>Sara Sanders</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Male</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31-40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test@abc.com.sg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Guy Mills</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>David Preston</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Suzanne Price</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Female</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41-50</x:t>
+  </x:si>
+  <x:si>
     <x:t>Michelle Kelly</x:t>
   </x:si>
   <x:si>
-    <x:t>Female</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41-50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>test@abc.com.sg</x:t>
-  </x:si>
-  <x:si>
     <x:t>Christopher Chavez</x:t>
   </x:si>
   <x:si>
-    <x:t>Male</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31-40</x:t>
+    <x:t>Jeffery Barker</x:t>
   </x:si>
   <x:si>
     <x:t>Jon Wood</x:t>
   </x:si>
   <x:si>
-    <x:t>21-30</x:t>
-  </x:si>
-  <x:si>
     <x:t>Briana Griffin</x:t>
   </x:si>
   <x:si>
@@ -77,12 +92,24 @@
     <x:t>Amber Lucas</x:t>
   </x:si>
   <x:si>
+    <x:t>Eduardo Smith</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rachel Anderson</x:t>
+  </x:si>
+  <x:si>
     <x:t>Robert Lutz</x:t>
   </x:si>
   <x:si>
     <x:t>Julie Woods</x:t>
   </x:si>
   <x:si>
+    <x:t>Candice Decker PhD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Erik Oconnor</x:t>
+  </x:si>
+  <x:si>
     <x:t>Hunter Estes</x:t>
   </x:si>
   <x:si>
@@ -102,6 +129,9 @@
   </x:si>
   <x:si>
     <x:t>Joshua Cannon</x:t>
+  </x:si>
+  <x:si>
+    <x:t>George Hill</x:t>
   </x:si>
   <x:si>
     <x:t>Anna Carrillo</x:t>
@@ -1191,7 +1221,7 @@
     </x:row>
     <x:row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A2" s="1">
-        <x:v>45417.9076388889</x:v>
+        <x:v>45417.8819444444</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
         <x:v>6</x:v>
@@ -1206,252 +1236,252 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>29597549</x:v>
+        <x:v>95775763</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A3" s="1">
-        <x:v>45417.9145833333</x:v>
+        <x:v>45417.8930555556</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>95350918</x:v>
+        <x:v>71364235</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A4" s="1">
-        <x:v>45417.9194444444</x:v>
+        <x:v>45417.8951388889</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
-        <x:v>83650172</x:v>
+        <x:v>96221071</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A5" s="1">
-        <x:v>45417.9229166667</x:v>
+        <x:v>45417.9020833333</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
       <x:c r="E5" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
-        <x:v>41823611</x:v>
+        <x:v>31162803</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A6" s="1">
-        <x:v>45417.9256944444</x:v>
+        <x:v>45417.9076388889</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
-        <x:v>10389353</x:v>
+        <x:v>29597549</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A7" s="1">
-        <x:v>45417.9284722222</x:v>
+        <x:v>45417.9145833333</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>80276072</x:v>
+        <x:v>95350918</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A8" s="1">
-        <x:v>45417.9361111111</x:v>
+        <x:v>45417.9180555556</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
-        <x:v>95828882</x:v>
+        <x:v>58555238</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A9" s="1">
-        <x:v>45417.9375</x:v>
+        <x:v>45417.9194444444</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
-        <x:v>95466287</x:v>
+        <x:v>83650172</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A10" s="1">
-        <x:v>45417.9430555556</x:v>
+        <x:v>45417.9229166667</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
-        <x:v>75899760</x:v>
+        <x:v>41823611</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A11" s="1">
-        <x:v>45417.9451388889</x:v>
+        <x:v>45417.9256944444</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F11" s="0" t="n">
-        <x:v>64714222</x:v>
+        <x:v>10389353</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A12" s="1">
-        <x:v>45417.9479166667</x:v>
+        <x:v>45417.9284722222</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
-        <x:v>79920980</x:v>
+        <x:v>80276072</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A13" s="1">
-        <x:v>45417.9486111111</x:v>
+        <x:v>45417.9340277778</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F13" s="0" t="n">
-        <x:v>20272573</x:v>
+        <x:v>19978185</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A14" s="1">
-        <x:v>45417.9520833333</x:v>
+        <x:v>45417.9347222222</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
-        <x:v>51235820</x:v>
+        <x:v>15764979</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A15" s="1">
-        <x:v>45417.9534722222</x:v>
+        <x:v>45417.9361111111</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
         <x:v>25</x:v>
@@ -1460,158 +1490,158 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>76810268</x:v>
+        <x:v>95828882</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A16" s="1">
-        <x:v>45417.9555555556</x:v>
+        <x:v>45417.9375</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>43869042</x:v>
+        <x:v>95466287</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A17" s="1">
-        <x:v>45417.9597222222</x:v>
+        <x:v>45417.9381944444</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E17" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>18996598</x:v>
+        <x:v>18200415</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A18" s="1">
-        <x:v>45417.9618055556</x:v>
+        <x:v>45417.9395833333</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>73261856</x:v>
+        <x:v>58719994</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A19" s="1">
-        <x:v>45417.9638888889</x:v>
+        <x:v>45417.9430555556</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E19" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
-        <x:v>51685815</x:v>
+        <x:v>75899760</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A20" s="1">
-        <x:v>45417.9652777778</x:v>
+        <x:v>45417.9451388889</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F20" s="0" t="n">
-        <x:v>42016440</x:v>
+        <x:v>64714222</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A21" s="1">
-        <x:v>45417.9659722222</x:v>
+        <x:v>45417.9479166667</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E21" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F21" s="0" t="n">
-        <x:v>49147219</x:v>
+        <x:v>79920980</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A22" s="1">
-        <x:v>45417.9680555556</x:v>
+        <x:v>45417.9486111111</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E22" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F22" s="0" t="n">
-        <x:v>47518687</x:v>
+        <x:v>20272573</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:14">
       <x:c r="A23" s="1">
-        <x:v>45417.9680555556</x:v>
+        <x:v>45417.9520833333</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
         <x:v>33</x:v>
@@ -1620,78 +1650,78 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E23" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F23" s="0" t="n">
-        <x:v>94511350</x:v>
+        <x:v>51235820</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:14">
       <x:c r="A24" s="1">
-        <x:v>45417.96875</x:v>
+        <x:v>45417.9534722222</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E24" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F24" s="0" t="n">
-        <x:v>37130984</x:v>
+        <x:v>76810268</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:14">
       <x:c r="A25" s="1">
-        <x:v>45417.9708333333</x:v>
+        <x:v>45417.9555555556</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E25" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F25" s="0" t="n">
-        <x:v>35497334</x:v>
+        <x:v>43869042</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:14">
       <x:c r="A26" s="1">
-        <x:v>45417.9722222222</x:v>
+        <x:v>45417.9576388889</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E26" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
-        <x:v>43668577</x:v>
+        <x:v>74640463</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:14">
       <x:c r="A27" s="1">
-        <x:v>45417.9729166667</x:v>
+        <x:v>45417.9597222222</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
         <x:v>37</x:v>
@@ -1700,124 +1730,124 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E27" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
-        <x:v>31337203</x:v>
+        <x:v>18996598</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:14">
       <x:c r="A28" s="1">
-        <x:v>45417.9743055556</x:v>
+        <x:v>45417.9618055556</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
         <x:v>38</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E28" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F28" s="0" t="n">
-        <x:v>23172841</x:v>
+        <x:v>73261856</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:14">
       <x:c r="A29" s="1">
-        <x:v>45417.9770833333</x:v>
+        <x:v>45417.9638888889</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E29" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F29" s="0" t="n">
-        <x:v>77020975</x:v>
+        <x:v>51685815</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:14">
       <x:c r="A30" s="1">
-        <x:v>45417.9791666667</x:v>
+        <x:v>45417.9652777778</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E30" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F30" s="0" t="n">
-        <x:v>58493323</x:v>
+        <x:v>42016440</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:14">
       <x:c r="A31" s="1">
-        <x:v>45417.98125</x:v>
+        <x:v>45417.9659722222</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D31" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E31" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F31" s="0" t="n">
-        <x:v>10734113</x:v>
+        <x:v>49147219</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:14">
       <x:c r="A32" s="1">
-        <x:v>45417.9826388889</x:v>
+        <x:v>45417.9680555556</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>42</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E32" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F32" s="0" t="n">
-        <x:v>30890990</x:v>
+        <x:v>47518687</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:14">
       <x:c r="A33" s="1">
-        <x:v>45417.9847222222</x:v>
+        <x:v>45417.9680555556</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>43</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D33" s="0" t="s">
         <x:v>8</x:v>
@@ -1826,12 +1856,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
-        <x:v>72415145</x:v>
+        <x:v>94511350</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:14">
       <x:c r="A34" s="1">
-        <x:v>45417.9854166667</x:v>
+        <x:v>45417.96875</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>44</x:v>
@@ -1840,18 +1870,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D34" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E34" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F34" s="0" t="n">
-        <x:v>70622792</x:v>
+        <x:v>37130984</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:14">
       <x:c r="A35" s="1">
-        <x:v>45417.9861111111</x:v>
+        <x:v>45417.9708333333</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>45</x:v>
@@ -1860,64 +1890,64 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D35" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E35" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F35" s="0" t="n">
-        <x:v>92386611</x:v>
+        <x:v>35497334</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:14">
       <x:c r="A36" s="1">
-        <x:v>45417.9881944444</x:v>
+        <x:v>45417.9722222222</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D36" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E36" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
-        <x:v>47936639</x:v>
+        <x:v>43668577</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:14">
       <x:c r="A37" s="1">
-        <x:v>45417.9895833333</x:v>
+        <x:v>45417.9729166667</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>47</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D37" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E37" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
-        <x:v>87130517</x:v>
+        <x:v>31337203</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:14">
       <x:c r="A38" s="1">
-        <x:v>45417.9923611111</x:v>
+        <x:v>45417.9743055556</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>48</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D38" s="0" t="s">
         <x:v>8</x:v>
@@ -1926,38 +1956,38 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
-        <x:v>21268147</x:v>
+        <x:v>23172841</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:14">
       <x:c r="A39" s="1">
-        <x:v>45417.99375</x:v>
+        <x:v>45417.9770833333</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D39" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E39" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F39" s="0" t="n">
-        <x:v>99479268</x:v>
+        <x:v>77020975</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:14">
       <x:c r="A40" s="1">
-        <x:v>45417.9958333333</x:v>
+        <x:v>45417.9791666667</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>50</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D40" s="0" t="s">
         <x:v>8</x:v>
@@ -1966,52 +1996,52 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F40" s="0" t="n">
-        <x:v>84465016</x:v>
+        <x:v>58493323</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:14">
       <x:c r="A41" s="1">
-        <x:v>45417.9979166667</x:v>
+        <x:v>45417.98125</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>51</x:v>
       </x:c>
       <x:c r="C41" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D41" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E41" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
-        <x:v>25276200</x:v>
+        <x:v>10734113</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:14">
       <x:c r="A42" s="2">
-        <x:v>45418</x:v>
+        <x:v>45417.9826388889</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>52</x:v>
       </x:c>
       <x:c r="C42" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D42" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E42" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F42" s="0" t="n">
-        <x:v>55144869</x:v>
+        <x:v>30890990</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:14">
       <x:c r="A43" s="1">
-        <x:v>45418.0006944444</x:v>
+        <x:v>45417.9847222222</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>53</x:v>
@@ -2020,98 +2050,98 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D43" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E43" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F43" s="0" t="n">
-        <x:v>10990288</x:v>
+        <x:v>72415145</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:14">
       <x:c r="A44" s="1">
-        <x:v>45418.0041666667</x:v>
+        <x:v>45417.9854166667</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>54</x:v>
       </x:c>
       <x:c r="C44" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D44" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E44" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F44" s="0" t="n">
-        <x:v>62780801</x:v>
+        <x:v>70622792</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:14">
       <x:c r="A45" s="1">
-        <x:v>45418.0055555556</x:v>
+        <x:v>45417.9861111111</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>55</x:v>
       </x:c>
       <x:c r="C45" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D45" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E45" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F45" s="0" t="n">
-        <x:v>70340243</x:v>
+        <x:v>92386611</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:14">
       <x:c r="A46" s="1">
-        <x:v>45418.0069444444</x:v>
+        <x:v>45417.9881944444</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>56</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D46" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E46" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F46" s="0" t="n">
-        <x:v>50657040</x:v>
+        <x:v>47936639</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:14">
       <x:c r="A47" s="1">
-        <x:v>45418.0097222222</x:v>
+        <x:v>45417.9895833333</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
         <x:v>57</x:v>
       </x:c>
       <x:c r="C47" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D47" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E47" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
-        <x:v>15461399</x:v>
+        <x:v>87130517</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:14">
       <x:c r="A48" s="1">
-        <x:v>45418.0118055556</x:v>
+        <x:v>45417.9923611111</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
         <x:v>58</x:v>
@@ -2120,18 +2150,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D48" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E48" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F48" s="0" t="n">
-        <x:v>97545204</x:v>
+        <x:v>21268147</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:14">
       <x:c r="A49" s="1">
-        <x:v>45418.0145833333</x:v>
+        <x:v>45417.99375</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
         <x:v>59</x:v>
@@ -2140,38 +2170,38 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D49" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E49" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
-        <x:v>45349550</x:v>
+        <x:v>99479268</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:14">
       <x:c r="A50" s="1">
-        <x:v>45418.0173611111</x:v>
+        <x:v>45417.9958333333</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
         <x:v>60</x:v>
       </x:c>
       <x:c r="C50" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D50" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E50" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F50" s="0" t="n">
-        <x:v>34076498</x:v>
+        <x:v>84465016</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:14">
       <x:c r="A51" s="1">
-        <x:v>45418.0201388889</x:v>
+        <x:v>45417.9979166667</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
         <x:v>61</x:v>
@@ -2186,12 +2216,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F51" s="0" t="n">
-        <x:v>92040698</x:v>
+        <x:v>25276200</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:14">
       <x:c r="A52" s="1">
-        <x:v>45418.0229166667</x:v>
+        <x:v>45418</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
         <x:v>62</x:v>
@@ -2200,78 +2230,78 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D52" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E52" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F52" s="0" t="n">
-        <x:v>52744048</x:v>
+        <x:v>55144869</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:14">
       <x:c r="A53" s="1">
-        <x:v>45418.0236111111</x:v>
+        <x:v>45418.0006944444</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
         <x:v>63</x:v>
       </x:c>
       <x:c r="C53" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D53" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E53" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F53" s="0" t="n">
-        <x:v>89653477</x:v>
+        <x:v>10990288</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:14">
       <x:c r="A54" s="1">
-        <x:v>45418.0243055556</x:v>
+        <x:v>45418.0041666667</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
         <x:v>64</x:v>
       </x:c>
       <x:c r="C54" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D54" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E54" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F54" s="0" t="n">
-        <x:v>80629070</x:v>
+        <x:v>62780801</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:14">
       <x:c r="A55" s="1">
-        <x:v>45418.025</x:v>
+        <x:v>45418.0055555556</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
         <x:v>65</x:v>
       </x:c>
       <x:c r="C55" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D55" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E55" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F55" s="0" t="n">
-        <x:v>94465009</x:v>
+        <x:v>70340243</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:14">
       <x:c r="A56" s="1">
-        <x:v>45418.0263888889</x:v>
+        <x:v>45418.0069444444</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
         <x:v>66</x:v>
@@ -2280,138 +2310,138 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D56" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E56" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F56" s="0" t="n">
-        <x:v>37502353</x:v>
+        <x:v>50657040</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:14">
       <x:c r="A57" s="1">
-        <x:v>45418.0284722222</x:v>
+        <x:v>45418.0097222222</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
         <x:v>67</x:v>
       </x:c>
       <x:c r="C57" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D57" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E57" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F57" s="0" t="n">
-        <x:v>67626671</x:v>
+        <x:v>15461399</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:14">
       <x:c r="A58" s="1">
-        <x:v>45418.0298611111</x:v>
+        <x:v>45418.0118055556</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
         <x:v>68</x:v>
       </x:c>
       <x:c r="C58" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D58" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E58" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F58" s="0" t="n">
-        <x:v>25175278</x:v>
+        <x:v>97545204</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:14">
       <x:c r="A59" s="1">
-        <x:v>45418.0319444444</x:v>
+        <x:v>45418.0145833333</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
         <x:v>69</x:v>
       </x:c>
       <x:c r="C59" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D59" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E59" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F59" s="0" t="n">
-        <x:v>54919380</x:v>
+        <x:v>45349550</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:14">
       <x:c r="A60" s="1">
-        <x:v>45418.0333333333</x:v>
+        <x:v>45418.0173611111</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
         <x:v>70</x:v>
       </x:c>
       <x:c r="C60" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D60" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E60" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F60" s="0" t="n">
-        <x:v>48801212</x:v>
+        <x:v>34076498</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:14">
       <x:c r="A61" s="1">
-        <x:v>45418.0347222222</x:v>
+        <x:v>45418.0201388889</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
         <x:v>71</x:v>
       </x:c>
       <x:c r="C61" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D61" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E61" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F61" s="0" t="n">
-        <x:v>42251006</x:v>
+        <x:v>92040698</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:14">
       <x:c r="A62" s="1">
-        <x:v>45418.0347222222</x:v>
+        <x:v>45418.0229166667</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>72</x:v>
       </x:c>
       <x:c r="C62" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D62" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E62" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F62" s="0" t="n">
-        <x:v>46841664</x:v>
+        <x:v>52744048</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:14">
       <x:c r="A63" s="1">
-        <x:v>45418.0368055556</x:v>
+        <x:v>45418.0236111111</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
         <x:v>73</x:v>
@@ -2420,18 +2450,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D63" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E63" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F63" s="0" t="n">
-        <x:v>49346569</x:v>
+        <x:v>89653477</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:14">
       <x:c r="A64" s="1">
-        <x:v>45418.0388888889</x:v>
+        <x:v>45418.0243055556</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
         <x:v>74</x:v>
@@ -2440,18 +2470,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D64" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E64" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F64" s="0" t="n">
-        <x:v>74000167</x:v>
+        <x:v>80629070</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:14">
       <x:c r="A65" s="1">
-        <x:v>45418.0416666667</x:v>
+        <x:v>45418.025</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>75</x:v>
@@ -2460,84 +2490,84 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D65" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E65" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F65" s="0" t="n">
-        <x:v>39297038</x:v>
+        <x:v>94465009</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:14">
       <x:c r="A66" s="1">
-        <x:v>45418.0444444444</x:v>
+        <x:v>45418.0263888889</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
         <x:v>76</x:v>
       </x:c>
       <x:c r="C66" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D66" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E66" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F66" s="0" t="n">
-        <x:v>90250492</x:v>
+        <x:v>37502353</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:14">
       <x:c r="A67" s="1">
-        <x:v>45418.0465277778</x:v>
+        <x:v>45418.0284722222</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
         <x:v>77</x:v>
       </x:c>
       <x:c r="C67" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D67" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E67" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F67" s="0" t="n">
-        <x:v>45436512</x:v>
+        <x:v>67626671</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:14">
       <x:c r="A68" s="1">
-        <x:v>45418.0472222222</x:v>
+        <x:v>45418.0298611111</x:v>
       </x:c>
       <x:c r="B68" s="0" t="s">
         <x:v>78</x:v>
       </x:c>
       <x:c r="C68" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D68" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E68" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F68" s="0" t="n">
-        <x:v>91746455</x:v>
+        <x:v>25175278</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:14">
       <x:c r="A69" s="1">
-        <x:v>45418.0506944444</x:v>
+        <x:v>45418.0319444444</x:v>
       </x:c>
       <x:c r="B69" s="0" t="s">
         <x:v>79</x:v>
       </x:c>
       <x:c r="C69" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D69" s="0" t="s">
         <x:v>8</x:v>
@@ -2546,12 +2576,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F69" s="0" t="n">
-        <x:v>90086945</x:v>
+        <x:v>54919380</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:14">
       <x:c r="A70" s="1">
-        <x:v>45418.0527777778</x:v>
+        <x:v>45418.0333333333</x:v>
       </x:c>
       <x:c r="B70" s="0" t="s">
         <x:v>80</x:v>
@@ -2560,178 +2590,178 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D70" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E70" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F70" s="0" t="n">
-        <x:v>31168820</x:v>
+        <x:v>48801212</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:14">
       <x:c r="A71" s="1">
-        <x:v>45418.0534722222</x:v>
+        <x:v>45418.0347222222</x:v>
       </x:c>
       <x:c r="B71" s="0" t="s">
         <x:v>81</x:v>
       </x:c>
       <x:c r="C71" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D71" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E71" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F71" s="0" t="n">
-        <x:v>23420293</x:v>
+        <x:v>42251006</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:14">
       <x:c r="A72" s="1">
-        <x:v>45418.05625</x:v>
+        <x:v>45418.0347222222</x:v>
       </x:c>
       <x:c r="B72" s="0" t="s">
         <x:v>82</x:v>
       </x:c>
       <x:c r="C72" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D72" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E72" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F72" s="0" t="n">
-        <x:v>28345932</x:v>
+        <x:v>46841664</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:14">
       <x:c r="A73" s="1">
-        <x:v>45418.0583333333</x:v>
+        <x:v>45418.0368055556</x:v>
       </x:c>
       <x:c r="B73" s="0" t="s">
         <x:v>83</x:v>
       </x:c>
       <x:c r="C73" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D73" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E73" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F73" s="0" t="n">
-        <x:v>59338978</x:v>
+        <x:v>49346569</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:14">
       <x:c r="A74" s="1">
-        <x:v>45418.0604166667</x:v>
+        <x:v>45418.0388888889</x:v>
       </x:c>
       <x:c r="B74" s="0" t="s">
         <x:v>84</x:v>
       </x:c>
       <x:c r="C74" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D74" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E74" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F74" s="0" t="n">
-        <x:v>43006939</x:v>
+        <x:v>74000167</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:14">
       <x:c r="A75" s="1">
-        <x:v>45418.0618055556</x:v>
+        <x:v>45418.0416666667</x:v>
       </x:c>
       <x:c r="B75" s="0" t="s">
         <x:v>85</x:v>
       </x:c>
       <x:c r="C75" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D75" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E75" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F75" s="0" t="n">
-        <x:v>16253635</x:v>
+        <x:v>39297038</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:14">
       <x:c r="A76" s="1">
-        <x:v>45418.0638888889</x:v>
+        <x:v>45418.0444444444</x:v>
       </x:c>
       <x:c r="B76" s="0" t="s">
         <x:v>86</x:v>
       </x:c>
       <x:c r="C76" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D76" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E76" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F76" s="0" t="n">
-        <x:v>57173971</x:v>
+        <x:v>90250492</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:14">
       <x:c r="A77" s="1">
-        <x:v>45418.0645833333</x:v>
+        <x:v>45418.0465277778</x:v>
       </x:c>
       <x:c r="B77" s="0" t="s">
         <x:v>87</x:v>
       </x:c>
       <x:c r="C77" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D77" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E77" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F77" s="0" t="n">
-        <x:v>93036177</x:v>
+        <x:v>45436512</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:14">
       <x:c r="A78" s="1">
-        <x:v>45418.0666666667</x:v>
+        <x:v>45418.0472222222</x:v>
       </x:c>
       <x:c r="B78" s="0" t="s">
         <x:v>88</x:v>
       </x:c>
       <x:c r="C78" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D78" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E78" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F78" s="0" t="n">
-        <x:v>50885281</x:v>
+        <x:v>91746455</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:14">
       <x:c r="A79" s="1">
-        <x:v>45418.0673611111</x:v>
+        <x:v>45418.0506944444</x:v>
       </x:c>
       <x:c r="B79" s="0" t="s">
         <x:v>89</x:v>
@@ -2740,78 +2770,78 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D79" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E79" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F79" s="0" t="n">
-        <x:v>61710343</x:v>
+        <x:v>90086945</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:14">
       <x:c r="A80" s="1">
-        <x:v>45418.06875</x:v>
+        <x:v>45418.0527777778</x:v>
       </x:c>
       <x:c r="B80" s="0" t="s">
         <x:v>90</x:v>
       </x:c>
       <x:c r="C80" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D80" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E80" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F80" s="0" t="n">
-        <x:v>61400524</x:v>
+        <x:v>31168820</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:14">
       <x:c r="A81" s="1">
-        <x:v>45418.0715277778</x:v>
+        <x:v>45418.0534722222</x:v>
       </x:c>
       <x:c r="B81" s="0" t="s">
         <x:v>91</x:v>
       </x:c>
       <x:c r="C81" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D81" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E81" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F81" s="0" t="n">
-        <x:v>39175690</x:v>
+        <x:v>23420293</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:14">
       <x:c r="A82" s="1">
-        <x:v>45418.0736111111</x:v>
+        <x:v>45418.05625</x:v>
       </x:c>
       <x:c r="B82" s="0" t="s">
         <x:v>92</x:v>
       </x:c>
       <x:c r="C82" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D82" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E82" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F82" s="0" t="n">
-        <x:v>46685084</x:v>
+        <x:v>28345932</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:14">
       <x:c r="A83" s="1">
-        <x:v>45418.0763888889</x:v>
+        <x:v>45418.0583333333</x:v>
       </x:c>
       <x:c r="B83" s="0" t="s">
         <x:v>93</x:v>
@@ -2820,38 +2850,38 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D83" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E83" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F83" s="0" t="n">
-        <x:v>95957014</x:v>
+        <x:v>59338978</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:14">
       <x:c r="A84" s="1">
-        <x:v>45418.0763888889</x:v>
+        <x:v>45418.0604166667</x:v>
       </x:c>
       <x:c r="B84" s="0" t="s">
         <x:v>94</x:v>
       </x:c>
       <x:c r="C84" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D84" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E84" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F84" s="0" t="n">
-        <x:v>76837030</x:v>
+        <x:v>43006939</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:14">
       <x:c r="A85" s="1">
-        <x:v>45418.0777777778</x:v>
+        <x:v>45418.0618055556</x:v>
       </x:c>
       <x:c r="B85" s="0" t="s">
         <x:v>95</x:v>
@@ -2860,38 +2890,38 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D85" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E85" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F85" s="0" t="n">
-        <x:v>46832417</x:v>
+        <x:v>16253635</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:14">
       <x:c r="A86" s="1">
-        <x:v>45418.0805555556</x:v>
+        <x:v>45418.0638888889</x:v>
       </x:c>
       <x:c r="B86" s="0" t="s">
         <x:v>96</x:v>
       </x:c>
       <x:c r="C86" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D86" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E86" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F86" s="0" t="n">
-        <x:v>77130877</x:v>
+        <x:v>57173971</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:14">
       <x:c r="A87" s="1">
-        <x:v>45418.08125</x:v>
+        <x:v>45418.0645833333</x:v>
       </x:c>
       <x:c r="B87" s="0" t="s">
         <x:v>97</x:v>
@@ -2900,18 +2930,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D87" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E87" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F87" s="0" t="n">
-        <x:v>70581907</x:v>
+        <x:v>93036177</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:14">
       <x:c r="A88" s="1">
-        <x:v>45418.0840277778</x:v>
+        <x:v>45418.0666666667</x:v>
       </x:c>
       <x:c r="B88" s="0" t="s">
         <x:v>98</x:v>
@@ -2920,144 +2950,144 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D88" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E88" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F88" s="0" t="n">
-        <x:v>12717983</x:v>
+        <x:v>50885281</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:14">
       <x:c r="A89" s="1">
-        <x:v>45418.0847222222</x:v>
+        <x:v>45418.0673611111</x:v>
       </x:c>
       <x:c r="B89" s="0" t="s">
         <x:v>99</x:v>
       </x:c>
       <x:c r="C89" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D89" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E89" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F89" s="0" t="n">
-        <x:v>70569694</x:v>
+        <x:v>61710343</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:14">
       <x:c r="A90" s="1">
-        <x:v>45418.0875</x:v>
+        <x:v>45418.06875</x:v>
       </x:c>
       <x:c r="B90" s="0" t="s">
         <x:v>100</x:v>
       </x:c>
       <x:c r="C90" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D90" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E90" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F90" s="0" t="n">
-        <x:v>84782703</x:v>
+        <x:v>61400524</x:v>
       </x:c>
     </x:row>
     <x:row r="91" spans="1:14">
       <x:c r="A91" s="1">
-        <x:v>45418.0895833333</x:v>
+        <x:v>45418.0715277778</x:v>
       </x:c>
       <x:c r="B91" s="0" t="s">
         <x:v>101</x:v>
       </x:c>
       <x:c r="C91" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D91" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E91" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F91" s="0" t="n">
-        <x:v>33138593</x:v>
+        <x:v>39175690</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:14">
       <x:c r="A92" s="1">
-        <x:v>45418.0923611111</x:v>
+        <x:v>45418.0736111111</x:v>
       </x:c>
       <x:c r="B92" s="0" t="s">
         <x:v>102</x:v>
       </x:c>
       <x:c r="C92" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D92" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E92" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F92" s="0" t="n">
-        <x:v>67772525</x:v>
+        <x:v>46685084</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:14">
       <x:c r="A93" s="1">
-        <x:v>45418.0930555556</x:v>
+        <x:v>45418.0763888889</x:v>
       </x:c>
       <x:c r="B93" s="0" t="s">
         <x:v>103</x:v>
       </x:c>
       <x:c r="C93" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D93" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E93" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F93" s="0" t="n">
-        <x:v>94344798</x:v>
+        <x:v>95957014</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:14">
       <x:c r="A94" s="1">
-        <x:v>45418.0930555556</x:v>
+        <x:v>45418.0763888889</x:v>
       </x:c>
       <x:c r="B94" s="0" t="s">
         <x:v>104</x:v>
       </x:c>
       <x:c r="C94" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D94" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E94" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F94" s="0" t="n">
-        <x:v>77436532</x:v>
+        <x:v>76837030</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="1:14">
       <x:c r="A95" s="1">
-        <x:v>45418.0965277778</x:v>
+        <x:v>45418.0777777778</x:v>
       </x:c>
       <x:c r="B95" s="0" t="s">
         <x:v>105</x:v>
       </x:c>
       <x:c r="C95" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D95" s="0" t="s">
         <x:v>8</x:v>
@@ -3066,112 +3096,112 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F95" s="0" t="n">
-        <x:v>85537968</x:v>
+        <x:v>46832417</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:14">
       <x:c r="A96" s="1">
-        <x:v>45418.0993055556</x:v>
+        <x:v>45418.0805555556</x:v>
       </x:c>
       <x:c r="B96" s="0" t="s">
         <x:v>106</x:v>
       </x:c>
       <x:c r="C96" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D96" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E96" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F96" s="0" t="n">
-        <x:v>67432010</x:v>
+        <x:v>77130877</x:v>
       </x:c>
     </x:row>
     <x:row r="97" spans="1:14">
       <x:c r="A97" s="1">
-        <x:v>45418.1006944444</x:v>
+        <x:v>45418.08125</x:v>
       </x:c>
       <x:c r="B97" s="0" t="s">
         <x:v>107</x:v>
       </x:c>
       <x:c r="C97" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D97" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E97" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F97" s="0" t="n">
-        <x:v>66099165</x:v>
+        <x:v>70581907</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:14">
       <x:c r="A98" s="1">
-        <x:v>45418.1020833333</x:v>
+        <x:v>45418.0840277778</x:v>
       </x:c>
       <x:c r="B98" s="0" t="s">
         <x:v>108</x:v>
       </x:c>
       <x:c r="C98" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D98" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E98" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F98" s="0" t="n">
-        <x:v>66053161</x:v>
+        <x:v>12717983</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="1:14">
       <x:c r="A99" s="1">
-        <x:v>45418.1055555556</x:v>
+        <x:v>45418.0847222222</x:v>
       </x:c>
       <x:c r="B99" s="0" t="s">
         <x:v>109</x:v>
       </x:c>
       <x:c r="C99" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D99" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E99" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F99" s="0" t="n">
-        <x:v>26731814</x:v>
+        <x:v>70569694</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="1:14">
       <x:c r="A100" s="1">
-        <x:v>45418.1083333333</x:v>
+        <x:v>45418.0875</x:v>
       </x:c>
       <x:c r="B100" s="0" t="s">
         <x:v>110</x:v>
       </x:c>
       <x:c r="C100" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D100" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E100" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F100" s="0" t="n">
-        <x:v>51554360</x:v>
+        <x:v>84782703</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:14">
       <x:c r="A101" s="1">
-        <x:v>45418.1111111111</x:v>
+        <x:v>45418.0895833333</x:v>
       </x:c>
       <x:c r="B101" s="0" t="s">
         <x:v>111</x:v>
@@ -3180,78 +3210,78 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D101" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E101" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F101" s="0" t="n">
-        <x:v>34364597</x:v>
+        <x:v>33138593</x:v>
       </x:c>
     </x:row>
     <x:row r="102" spans="1:14">
       <x:c r="A102" s="1">
-        <x:v>45418.1145833333</x:v>
+        <x:v>45418.0923611111</x:v>
       </x:c>
       <x:c r="B102" s="0" t="s">
         <x:v>112</x:v>
       </x:c>
       <x:c r="C102" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D102" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E102" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F102" s="0" t="n">
-        <x:v>21930895</x:v>
+        <x:v>67772525</x:v>
       </x:c>
     </x:row>
     <x:row r="103" spans="1:14">
       <x:c r="A103" s="1">
-        <x:v>45418.1180555556</x:v>
+        <x:v>45418.0930555556</x:v>
       </x:c>
       <x:c r="B103" s="0" t="s">
         <x:v>113</x:v>
       </x:c>
       <x:c r="C103" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D103" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E103" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F103" s="0" t="n">
-        <x:v>33905104</x:v>
+        <x:v>94344798</x:v>
       </x:c>
     </x:row>
     <x:row r="104" spans="1:14">
       <x:c r="A104" s="1">
-        <x:v>45418.1194444444</x:v>
+        <x:v>45418.0930555556</x:v>
       </x:c>
       <x:c r="B104" s="0" t="s">
         <x:v>114</x:v>
       </x:c>
       <x:c r="C104" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D104" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E104" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F104" s="0" t="n">
-        <x:v>70030295</x:v>
+        <x:v>77436532</x:v>
       </x:c>
     </x:row>
     <x:row r="105" spans="1:14">
       <x:c r="A105" s="1">
-        <x:v>45418.1215277778</x:v>
+        <x:v>45418.0965277778</x:v>
       </x:c>
       <x:c r="B105" s="0" t="s">
         <x:v>115</x:v>
@@ -3260,18 +3290,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D105" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E105" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F105" s="0" t="n">
-        <x:v>96291852</x:v>
+        <x:v>85537968</x:v>
       </x:c>
     </x:row>
     <x:row r="106" spans="1:14">
       <x:c r="A106" s="1">
-        <x:v>45418.1243055556</x:v>
+        <x:v>45418.0993055556</x:v>
       </x:c>
       <x:c r="B106" s="0" t="s">
         <x:v>116</x:v>
@@ -3280,38 +3310,38 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D106" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E106" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F106" s="0" t="n">
-        <x:v>14326480</x:v>
+        <x:v>67432010</x:v>
       </x:c>
     </x:row>
     <x:row r="107" spans="1:14">
       <x:c r="A107" s="1">
-        <x:v>45418.1263888889</x:v>
+        <x:v>45418.1006944444</x:v>
       </x:c>
       <x:c r="B107" s="0" t="s">
         <x:v>117</x:v>
       </x:c>
       <x:c r="C107" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D107" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E107" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F107" s="0" t="n">
-        <x:v>58010259</x:v>
+        <x:v>66099165</x:v>
       </x:c>
     </x:row>
     <x:row r="108" spans="1:14">
       <x:c r="A108" s="1">
-        <x:v>45418.1284722222</x:v>
+        <x:v>45418.1020833333</x:v>
       </x:c>
       <x:c r="B108" s="0" t="s">
         <x:v>118</x:v>
@@ -3320,18 +3350,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D108" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E108" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F108" s="0" t="n">
-        <x:v>88958354</x:v>
+        <x:v>66053161</x:v>
       </x:c>
     </x:row>
     <x:row r="109" spans="1:14">
       <x:c r="A109" s="1">
-        <x:v>45418.1305555556</x:v>
+        <x:v>45418.1055555556</x:v>
       </x:c>
       <x:c r="B109" s="0" t="s">
         <x:v>119</x:v>
@@ -3340,158 +3370,158 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D109" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E109" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F109" s="0" t="n">
-        <x:v>70288477</x:v>
+        <x:v>26731814</x:v>
       </x:c>
     </x:row>
     <x:row r="110" spans="1:14">
       <x:c r="A110" s="1">
-        <x:v>45418.1333333333</x:v>
+        <x:v>45418.1083333333</x:v>
       </x:c>
       <x:c r="B110" s="0" t="s">
         <x:v>120</x:v>
       </x:c>
       <x:c r="C110" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D110" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E110" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F110" s="0" t="n">
-        <x:v>24330105</x:v>
+        <x:v>51554360</x:v>
       </x:c>
     </x:row>
     <x:row r="111" spans="1:14">
       <x:c r="A111" s="1">
-        <x:v>45418.1333333333</x:v>
+        <x:v>45418.1111111111</x:v>
       </x:c>
       <x:c r="B111" s="0" t="s">
         <x:v>121</x:v>
       </x:c>
       <x:c r="C111" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D111" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E111" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F111" s="0" t="n">
-        <x:v>56566845</x:v>
+        <x:v>34364597</x:v>
       </x:c>
     </x:row>
     <x:row r="112" spans="1:14">
       <x:c r="A112" s="1">
-        <x:v>45418.1368055556</x:v>
+        <x:v>45418.1145833333</x:v>
       </x:c>
       <x:c r="B112" s="0" t="s">
         <x:v>122</x:v>
       </x:c>
       <x:c r="C112" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D112" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E112" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F112" s="0" t="n">
-        <x:v>95951957</x:v>
+        <x:v>21930895</x:v>
       </x:c>
     </x:row>
     <x:row r="113" spans="1:14">
       <x:c r="A113" s="1">
-        <x:v>45418.1381944444</x:v>
+        <x:v>45418.1180555556</x:v>
       </x:c>
       <x:c r="B113" s="0" t="s">
         <x:v>123</x:v>
       </x:c>
       <x:c r="C113" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D113" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E113" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F113" s="0" t="n">
-        <x:v>10428667</x:v>
+        <x:v>33905104</x:v>
       </x:c>
     </x:row>
     <x:row r="114" spans="1:14">
       <x:c r="A114" s="1">
-        <x:v>45418.1409722222</x:v>
+        <x:v>45418.1194444444</x:v>
       </x:c>
       <x:c r="B114" s="0" t="s">
         <x:v>124</x:v>
       </x:c>
       <x:c r="C114" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D114" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E114" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F114" s="0" t="n">
-        <x:v>98819760</x:v>
+        <x:v>70030295</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:14">
       <x:c r="A115" s="1">
-        <x:v>45418.1416666667</x:v>
+        <x:v>45418.1215277778</x:v>
       </x:c>
       <x:c r="B115" s="0" t="s">
         <x:v>125</x:v>
       </x:c>
       <x:c r="C115" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D115" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E115" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F115" s="0" t="n">
-        <x:v>91816476</x:v>
+        <x:v>96291852</x:v>
       </x:c>
     </x:row>
     <x:row r="116" spans="1:14">
       <x:c r="A116" s="1">
-        <x:v>45418.1423611111</x:v>
+        <x:v>45418.1243055556</x:v>
       </x:c>
       <x:c r="B116" s="0" t="s">
         <x:v>126</x:v>
       </x:c>
       <x:c r="C116" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D116" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E116" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F116" s="0" t="n">
-        <x:v>45994672</x:v>
+        <x:v>14326480</x:v>
       </x:c>
     </x:row>
     <x:row r="117" spans="1:14">
       <x:c r="A117" s="1">
-        <x:v>45418.1444444444</x:v>
+        <x:v>45418.1263888889</x:v>
       </x:c>
       <x:c r="B117" s="0" t="s">
         <x:v>127</x:v>
@@ -3500,58 +3530,58 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D117" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E117" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F117" s="0" t="n">
-        <x:v>78104274</x:v>
+        <x:v>58010259</x:v>
       </x:c>
     </x:row>
     <x:row r="118" spans="1:14">
       <x:c r="A118" s="1">
-        <x:v>45418.1465277778</x:v>
+        <x:v>45418.1284722222</x:v>
       </x:c>
       <x:c r="B118" s="0" t="s">
         <x:v>128</x:v>
       </x:c>
       <x:c r="C118" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D118" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E118" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F118" s="0" t="n">
-        <x:v>38407318</x:v>
+        <x:v>88958354</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:14">
       <x:c r="A119" s="1">
-        <x:v>45418.1493055556</x:v>
+        <x:v>45418.1305555556</x:v>
       </x:c>
       <x:c r="B119" s="0" t="s">
         <x:v>129</x:v>
       </x:c>
       <x:c r="C119" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D119" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E119" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F119" s="0" t="n">
-        <x:v>48566742</x:v>
+        <x:v>70288477</x:v>
       </x:c>
     </x:row>
     <x:row r="120" spans="1:14">
       <x:c r="A120" s="1">
-        <x:v>45418.1506944444</x:v>
+        <x:v>45418.1333333333</x:v>
       </x:c>
       <x:c r="B120" s="0" t="s">
         <x:v>130</x:v>
@@ -3560,58 +3590,58 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D120" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E120" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F120" s="0" t="n">
-        <x:v>30832031</x:v>
+        <x:v>24330105</x:v>
       </x:c>
     </x:row>
     <x:row r="121" spans="1:14">
       <x:c r="A121" s="1">
-        <x:v>45418.1541666667</x:v>
+        <x:v>45418.1333333333</x:v>
       </x:c>
       <x:c r="B121" s="0" t="s">
         <x:v>131</x:v>
       </x:c>
       <x:c r="C121" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D121" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E121" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F121" s="0" t="n">
-        <x:v>52814396</x:v>
+        <x:v>56566845</x:v>
       </x:c>
     </x:row>
     <x:row r="122" spans="1:14">
       <x:c r="A122" s="1">
-        <x:v>45418.15625</x:v>
+        <x:v>45418.1368055556</x:v>
       </x:c>
       <x:c r="B122" s="0" t="s">
         <x:v>132</x:v>
       </x:c>
       <x:c r="C122" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D122" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E122" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F122" s="0" t="n">
-        <x:v>59642140</x:v>
+        <x:v>95951957</x:v>
       </x:c>
     </x:row>
     <x:row r="123" spans="1:14">
       <x:c r="A123" s="1">
-        <x:v>45418.1590277778</x:v>
+        <x:v>45418.1381944444</x:v>
       </x:c>
       <x:c r="B123" s="0" t="s">
         <x:v>133</x:v>
@@ -3626,12 +3656,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F123" s="0" t="n">
-        <x:v>58733626</x:v>
+        <x:v>10428667</x:v>
       </x:c>
     </x:row>
     <x:row r="124" spans="1:14">
       <x:c r="A124" s="1">
-        <x:v>45418.1618055556</x:v>
+        <x:v>45418.1409722222</x:v>
       </x:c>
       <x:c r="B124" s="0" t="s">
         <x:v>134</x:v>
@@ -3640,38 +3670,38 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D124" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E124" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F124" s="0" t="n">
-        <x:v>84835830</x:v>
+        <x:v>98819760</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:14">
       <x:c r="A125" s="1">
-        <x:v>45418.1638888889</x:v>
+        <x:v>45418.1416666667</x:v>
       </x:c>
       <x:c r="B125" s="0" t="s">
         <x:v>135</x:v>
       </x:c>
       <x:c r="C125" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D125" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E125" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F125" s="0" t="n">
-        <x:v>82127022</x:v>
+        <x:v>91816476</x:v>
       </x:c>
     </x:row>
     <x:row r="126" spans="1:14">
       <x:c r="A126" s="1">
-        <x:v>45418.1645833333</x:v>
+        <x:v>45418.1423611111</x:v>
       </x:c>
       <x:c r="B126" s="0" t="s">
         <x:v>136</x:v>
@@ -3680,84 +3710,84 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D126" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E126" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F126" s="0" t="n">
-        <x:v>10048868</x:v>
+        <x:v>45994672</x:v>
       </x:c>
     </x:row>
     <x:row r="127" spans="1:14">
       <x:c r="A127" s="1">
-        <x:v>45418.1666666667</x:v>
+        <x:v>45418.1444444444</x:v>
       </x:c>
       <x:c r="B127" s="0" t="s">
         <x:v>137</x:v>
       </x:c>
       <x:c r="C127" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D127" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E127" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F127" s="0" t="n">
-        <x:v>47740838</x:v>
+        <x:v>78104274</x:v>
       </x:c>
     </x:row>
     <x:row r="128" spans="1:14">
       <x:c r="A128" s="1">
-        <x:v>45418.1694444444</x:v>
+        <x:v>45418.1465277778</x:v>
       </x:c>
       <x:c r="B128" s="0" t="s">
         <x:v>138</x:v>
       </x:c>
       <x:c r="C128" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D128" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E128" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F128" s="0" t="n">
-        <x:v>16509642</x:v>
+        <x:v>38407318</x:v>
       </x:c>
     </x:row>
     <x:row r="129" spans="1:14">
       <x:c r="A129" s="1">
-        <x:v>45418.1708333333</x:v>
+        <x:v>45418.1493055556</x:v>
       </x:c>
       <x:c r="B129" s="0" t="s">
         <x:v>139</x:v>
       </x:c>
       <x:c r="C129" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D129" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E129" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F129" s="0" t="n">
-        <x:v>83459193</x:v>
+        <x:v>48566742</x:v>
       </x:c>
     </x:row>
     <x:row r="130" spans="1:14">
       <x:c r="A130" s="1">
-        <x:v>45418.1722222222</x:v>
+        <x:v>45418.1506944444</x:v>
       </x:c>
       <x:c r="B130" s="0" t="s">
         <x:v>140</x:v>
       </x:c>
       <x:c r="C130" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D130" s="0" t="s">
         <x:v>8</x:v>
@@ -3766,32 +3796,32 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F130" s="0" t="n">
-        <x:v>81577080</x:v>
+        <x:v>30832031</x:v>
       </x:c>
     </x:row>
     <x:row r="131" spans="1:14">
       <x:c r="A131" s="1">
-        <x:v>45418.1736111111</x:v>
+        <x:v>45418.1541666667</x:v>
       </x:c>
       <x:c r="B131" s="0" t="s">
         <x:v>141</x:v>
       </x:c>
       <x:c r="C131" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D131" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E131" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F131" s="0" t="n">
-        <x:v>45703844</x:v>
+        <x:v>52814396</x:v>
       </x:c>
     </x:row>
     <x:row r="132" spans="1:14">
       <x:c r="A132" s="1">
-        <x:v>45418.175</x:v>
+        <x:v>45418.15625</x:v>
       </x:c>
       <x:c r="B132" s="0" t="s">
         <x:v>142</x:v>
@@ -3800,58 +3830,58 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D132" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E132" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F132" s="0" t="n">
-        <x:v>11713264</x:v>
+        <x:v>59642140</x:v>
       </x:c>
     </x:row>
     <x:row r="133" spans="1:14">
       <x:c r="A133" s="1">
-        <x:v>45418.1756944444</x:v>
+        <x:v>45418.1590277778</x:v>
       </x:c>
       <x:c r="B133" s="0" t="s">
         <x:v>143</x:v>
       </x:c>
       <x:c r="C133" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D133" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E133" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F133" s="0" t="n">
-        <x:v>69587729</x:v>
+        <x:v>58733626</x:v>
       </x:c>
     </x:row>
     <x:row r="134" spans="1:14">
       <x:c r="A134" s="1">
-        <x:v>45418.1763888889</x:v>
+        <x:v>45418.1618055556</x:v>
       </x:c>
       <x:c r="B134" s="0" t="s">
         <x:v>144</x:v>
       </x:c>
       <x:c r="C134" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D134" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E134" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F134" s="0" t="n">
-        <x:v>67430415</x:v>
+        <x:v>84835830</x:v>
       </x:c>
     </x:row>
     <x:row r="135" spans="1:14">
       <x:c r="A135" s="1">
-        <x:v>45418.1791666667</x:v>
+        <x:v>45418.1638888889</x:v>
       </x:c>
       <x:c r="B135" s="0" t="s">
         <x:v>145</x:v>
@@ -3860,98 +3890,98 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D135" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E135" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F135" s="0" t="n">
-        <x:v>10637388</x:v>
+        <x:v>82127022</x:v>
       </x:c>
     </x:row>
     <x:row r="136" spans="1:14">
       <x:c r="A136" s="1">
-        <x:v>45418.1798611111</x:v>
+        <x:v>45418.1645833333</x:v>
       </x:c>
       <x:c r="B136" s="0" t="s">
         <x:v>146</x:v>
       </x:c>
       <x:c r="C136" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D136" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E136" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F136" s="0" t="n">
-        <x:v>54315890</x:v>
+        <x:v>10048868</x:v>
       </x:c>
     </x:row>
     <x:row r="137" spans="1:14">
       <x:c r="A137" s="1">
-        <x:v>45418.1826388889</x:v>
+        <x:v>45418.1666666667</x:v>
       </x:c>
       <x:c r="B137" s="0" t="s">
         <x:v>147</x:v>
       </x:c>
       <x:c r="C137" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D137" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E137" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F137" s="0" t="n">
-        <x:v>56749466</x:v>
+        <x:v>47740838</x:v>
       </x:c>
     </x:row>
     <x:row r="138" spans="1:14">
       <x:c r="A138" s="1">
-        <x:v>45418.1847222222</x:v>
+        <x:v>45418.1694444444</x:v>
       </x:c>
       <x:c r="B138" s="0" t="s">
         <x:v>148</x:v>
       </x:c>
       <x:c r="C138" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D138" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E138" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F138" s="0" t="n">
-        <x:v>64522412</x:v>
+        <x:v>16509642</x:v>
       </x:c>
     </x:row>
     <x:row r="139" spans="1:14">
       <x:c r="A139" s="1">
-        <x:v>45418.1861111111</x:v>
+        <x:v>45418.1708333333</x:v>
       </x:c>
       <x:c r="B139" s="0" t="s">
         <x:v>149</x:v>
       </x:c>
       <x:c r="C139" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D139" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E139" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F139" s="0" t="n">
-        <x:v>15220599</x:v>
+        <x:v>83459193</x:v>
       </x:c>
     </x:row>
     <x:row r="140" spans="1:14">
       <x:c r="A140" s="1">
-        <x:v>45418.1881944444</x:v>
+        <x:v>45418.1722222222</x:v>
       </x:c>
       <x:c r="B140" s="0" t="s">
         <x:v>150</x:v>
@@ -3960,178 +3990,178 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D140" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E140" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F140" s="0" t="n">
-        <x:v>74865690</x:v>
+        <x:v>81577080</x:v>
       </x:c>
     </x:row>
     <x:row r="141" spans="1:14">
       <x:c r="A141" s="1">
-        <x:v>45418.1895833333</x:v>
+        <x:v>45418.1736111111</x:v>
       </x:c>
       <x:c r="B141" s="0" t="s">
         <x:v>151</x:v>
       </x:c>
       <x:c r="C141" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D141" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E141" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F141" s="0" t="n">
-        <x:v>72860080</x:v>
+        <x:v>45703844</x:v>
       </x:c>
     </x:row>
     <x:row r="142" spans="1:14">
       <x:c r="A142" s="1">
-        <x:v>45418.1916666667</x:v>
+        <x:v>45418.175</x:v>
       </x:c>
       <x:c r="B142" s="0" t="s">
         <x:v>152</x:v>
       </x:c>
       <x:c r="C142" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D142" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E142" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F142" s="0" t="n">
-        <x:v>29167681</x:v>
+        <x:v>11713264</x:v>
       </x:c>
     </x:row>
     <x:row r="143" spans="1:14">
       <x:c r="A143" s="1">
-        <x:v>45418.1930555556</x:v>
+        <x:v>45418.1756944444</x:v>
       </x:c>
       <x:c r="B143" s="0" t="s">
         <x:v>153</x:v>
       </x:c>
       <x:c r="C143" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D143" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E143" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F143" s="0" t="n">
-        <x:v>87008694</x:v>
+        <x:v>69587729</x:v>
       </x:c>
     </x:row>
     <x:row r="144" spans="1:14">
       <x:c r="A144" s="1">
-        <x:v>45418.1944444444</x:v>
+        <x:v>45418.1763888889</x:v>
       </x:c>
       <x:c r="B144" s="0" t="s">
         <x:v>154</x:v>
       </x:c>
       <x:c r="C144" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D144" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E144" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F144" s="0" t="n">
-        <x:v>34166513</x:v>
+        <x:v>67430415</x:v>
       </x:c>
     </x:row>
     <x:row r="145" spans="1:14">
       <x:c r="A145" s="1">
-        <x:v>45418.1979166667</x:v>
+        <x:v>45418.1791666667</x:v>
       </x:c>
       <x:c r="B145" s="0" t="s">
         <x:v>155</x:v>
       </x:c>
       <x:c r="C145" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D145" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E145" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F145" s="0" t="n">
-        <x:v>97220671</x:v>
+        <x:v>10637388</x:v>
       </x:c>
     </x:row>
     <x:row r="146" spans="1:14">
       <x:c r="A146" s="1">
-        <x:v>45418.2006944444</x:v>
+        <x:v>45418.1798611111</x:v>
       </x:c>
       <x:c r="B146" s="0" t="s">
         <x:v>156</x:v>
       </x:c>
       <x:c r="C146" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D146" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E146" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F146" s="0" t="n">
-        <x:v>92169949</x:v>
+        <x:v>54315890</x:v>
       </x:c>
     </x:row>
     <x:row r="147" spans="1:14">
       <x:c r="A147" s="1">
-        <x:v>45418.2020833333</x:v>
+        <x:v>45418.1826388889</x:v>
       </x:c>
       <x:c r="B147" s="0" t="s">
         <x:v>157</x:v>
       </x:c>
       <x:c r="C147" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D147" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E147" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F147" s="0" t="n">
-        <x:v>89791560</x:v>
+        <x:v>56749466</x:v>
       </x:c>
     </x:row>
     <x:row r="148" spans="1:14">
       <x:c r="A148" s="1">
-        <x:v>45418.2027777778</x:v>
+        <x:v>45418.1847222222</x:v>
       </x:c>
       <x:c r="B148" s="0" t="s">
         <x:v>158</x:v>
       </x:c>
       <x:c r="C148" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D148" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E148" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F148" s="0" t="n">
-        <x:v>37363478</x:v>
+        <x:v>64522412</x:v>
       </x:c>
     </x:row>
     <x:row r="149" spans="1:14">
       <x:c r="A149" s="1">
-        <x:v>45418.2048611111</x:v>
+        <x:v>45418.1861111111</x:v>
       </x:c>
       <x:c r="B149" s="0" t="s">
         <x:v>159</x:v>
@@ -4140,24 +4170,24 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D149" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E149" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F149" s="0" t="n">
-        <x:v>57112826</x:v>
+        <x:v>15220599</x:v>
       </x:c>
     </x:row>
     <x:row r="150" spans="1:14">
       <x:c r="A150" s="1">
-        <x:v>45418.2069444444</x:v>
+        <x:v>45418.1881944444</x:v>
       </x:c>
       <x:c r="B150" s="0" t="s">
         <x:v>160</x:v>
       </x:c>
       <x:c r="C150" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D150" s="0" t="s">
         <x:v>8</x:v>
@@ -4166,52 +4196,52 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F150" s="0" t="n">
-        <x:v>51435636</x:v>
+        <x:v>74865690</x:v>
       </x:c>
     </x:row>
     <x:row r="151" spans="1:14">
       <x:c r="A151" s="1">
-        <x:v>45418.2104166667</x:v>
+        <x:v>45418.1895833333</x:v>
       </x:c>
       <x:c r="B151" s="0" t="s">
         <x:v>161</x:v>
       </x:c>
       <x:c r="C151" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D151" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E151" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F151" s="0" t="n">
-        <x:v>80018979</x:v>
+        <x:v>72860080</x:v>
       </x:c>
     </x:row>
     <x:row r="152" spans="1:14">
       <x:c r="A152" s="1">
-        <x:v>45418.2125</x:v>
+        <x:v>45418.1916666667</x:v>
       </x:c>
       <x:c r="B152" s="0" t="s">
         <x:v>162</x:v>
       </x:c>
       <x:c r="C152" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D152" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E152" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F152" s="0" t="n">
-        <x:v>90469641</x:v>
+        <x:v>29167681</x:v>
       </x:c>
     </x:row>
     <x:row r="153" spans="1:14">
       <x:c r="A153" s="1">
-        <x:v>45418.2131944444</x:v>
+        <x:v>45418.1930555556</x:v>
       </x:c>
       <x:c r="B153" s="0" t="s">
         <x:v>163</x:v>
@@ -4220,44 +4250,44 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D153" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E153" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F153" s="0" t="n">
-        <x:v>28351360</x:v>
+        <x:v>87008694</x:v>
       </x:c>
     </x:row>
     <x:row r="154" spans="1:14">
       <x:c r="A154" s="1">
-        <x:v>45418.2152777778</x:v>
+        <x:v>45418.1944444444</x:v>
       </x:c>
       <x:c r="B154" s="0" t="s">
         <x:v>164</x:v>
       </x:c>
       <x:c r="C154" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D154" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E154" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F154" s="0" t="n">
-        <x:v>13523149</x:v>
+        <x:v>34166513</x:v>
       </x:c>
     </x:row>
     <x:row r="155" spans="1:14">
       <x:c r="A155" s="1">
-        <x:v>45418.2173611111</x:v>
+        <x:v>45418.1979166667</x:v>
       </x:c>
       <x:c r="B155" s="0" t="s">
         <x:v>165</x:v>
       </x:c>
       <x:c r="C155" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D155" s="0" t="s">
         <x:v>8</x:v>
@@ -4266,172 +4296,172 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F155" s="0" t="n">
-        <x:v>11614637</x:v>
+        <x:v>97220671</x:v>
       </x:c>
     </x:row>
     <x:row r="156" spans="1:14">
       <x:c r="A156" s="1">
-        <x:v>45418.2180555556</x:v>
+        <x:v>45418.2006944444</x:v>
       </x:c>
       <x:c r="B156" s="0" t="s">
         <x:v>166</x:v>
       </x:c>
       <x:c r="C156" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D156" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E156" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F156" s="0" t="n">
-        <x:v>76468184</x:v>
+        <x:v>92169949</x:v>
       </x:c>
     </x:row>
     <x:row r="157" spans="1:14">
       <x:c r="A157" s="1">
-        <x:v>45418.2194444444</x:v>
+        <x:v>45418.2020833333</x:v>
       </x:c>
       <x:c r="B157" s="0" t="s">
         <x:v>167</x:v>
       </x:c>
       <x:c r="C157" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D157" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E157" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F157" s="0" t="n">
-        <x:v>81297455</x:v>
+        <x:v>89791560</x:v>
       </x:c>
     </x:row>
     <x:row r="158" spans="1:14">
       <x:c r="A158" s="1">
-        <x:v>45418.2222222222</x:v>
+        <x:v>45418.2027777778</x:v>
       </x:c>
       <x:c r="B158" s="0" t="s">
         <x:v>168</x:v>
       </x:c>
       <x:c r="C158" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D158" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E158" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F158" s="0" t="n">
-        <x:v>10067834</x:v>
+        <x:v>37363478</x:v>
       </x:c>
     </x:row>
     <x:row r="159" spans="1:14">
       <x:c r="A159" s="1">
-        <x:v>45418.2243055556</x:v>
+        <x:v>45418.2048611111</x:v>
       </x:c>
       <x:c r="B159" s="0" t="s">
         <x:v>169</x:v>
       </x:c>
       <x:c r="C159" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D159" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E159" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F159" s="0" t="n">
-        <x:v>93286797</x:v>
+        <x:v>57112826</x:v>
       </x:c>
     </x:row>
     <x:row r="160" spans="1:14">
       <x:c r="A160" s="1">
-        <x:v>45418.225</x:v>
+        <x:v>45418.2069444444</x:v>
       </x:c>
       <x:c r="B160" s="0" t="s">
         <x:v>170</x:v>
       </x:c>
       <x:c r="C160" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D160" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E160" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F160" s="0" t="n">
-        <x:v>63934467</x:v>
+        <x:v>51435636</x:v>
       </x:c>
     </x:row>
     <x:row r="161" spans="1:14">
       <x:c r="A161" s="1">
-        <x:v>45418.2263888889</x:v>
+        <x:v>45418.2104166667</x:v>
       </x:c>
       <x:c r="B161" s="0" t="s">
         <x:v>171</x:v>
       </x:c>
       <x:c r="C161" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D161" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E161" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F161" s="0" t="n">
-        <x:v>45724011</x:v>
+        <x:v>80018979</x:v>
       </x:c>
     </x:row>
     <x:row r="162" spans="1:14">
       <x:c r="A162" s="1">
-        <x:v>45418.2270833333</x:v>
+        <x:v>45418.2125</x:v>
       </x:c>
       <x:c r="B162" s="0" t="s">
         <x:v>172</x:v>
       </x:c>
       <x:c r="C162" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D162" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E162" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F162" s="0" t="n">
-        <x:v>23953863</x:v>
+        <x:v>90469641</x:v>
       </x:c>
     </x:row>
     <x:row r="163" spans="1:14">
       <x:c r="A163" s="1">
-        <x:v>45418.2270833333</x:v>
+        <x:v>45418.2131944444</x:v>
       </x:c>
       <x:c r="B163" s="0" t="s">
         <x:v>173</x:v>
       </x:c>
       <x:c r="C163" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D163" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E163" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F163" s="0" t="n">
-        <x:v>78782052</x:v>
+        <x:v>28351360</x:v>
       </x:c>
     </x:row>
     <x:row r="164" spans="1:14">
       <x:c r="A164" s="1">
-        <x:v>45418.2284722222</x:v>
+        <x:v>45418.2152777778</x:v>
       </x:c>
       <x:c r="B164" s="0" t="s">
         <x:v>174</x:v>
@@ -4440,98 +4470,98 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D164" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E164" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F164" s="0" t="n">
-        <x:v>28827175</x:v>
+        <x:v>13523149</x:v>
       </x:c>
     </x:row>
     <x:row r="165" spans="1:14">
       <x:c r="A165" s="1">
-        <x:v>45418.23125</x:v>
+        <x:v>45418.2173611111</x:v>
       </x:c>
       <x:c r="B165" s="0" t="s">
         <x:v>175</x:v>
       </x:c>
       <x:c r="C165" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D165" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E165" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F165" s="0" t="n">
-        <x:v>52186430</x:v>
+        <x:v>11614637</x:v>
       </x:c>
     </x:row>
     <x:row r="166" spans="1:14">
       <x:c r="A166" s="1">
-        <x:v>45418.2333333333</x:v>
+        <x:v>45418.2180555556</x:v>
       </x:c>
       <x:c r="B166" s="0" t="s">
         <x:v>176</x:v>
       </x:c>
       <x:c r="C166" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D166" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E166" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F166" s="0" t="n">
-        <x:v>82878653</x:v>
+        <x:v>76468184</x:v>
       </x:c>
     </x:row>
     <x:row r="167" spans="1:14">
       <x:c r="A167" s="1">
-        <x:v>45418.2340277778</x:v>
+        <x:v>45418.2194444444</x:v>
       </x:c>
       <x:c r="B167" s="0" t="s">
         <x:v>177</x:v>
       </x:c>
       <x:c r="C167" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D167" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E167" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F167" s="0" t="n">
-        <x:v>67616121</x:v>
+        <x:v>81297455</x:v>
       </x:c>
     </x:row>
     <x:row r="168" spans="1:14">
       <x:c r="A168" s="1">
-        <x:v>45418.2354166667</x:v>
+        <x:v>45418.2222222222</x:v>
       </x:c>
       <x:c r="B168" s="0" t="s">
         <x:v>178</x:v>
       </x:c>
       <x:c r="C168" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D168" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E168" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F168" s="0" t="n">
-        <x:v>98448265</x:v>
+        <x:v>10067834</x:v>
       </x:c>
     </x:row>
     <x:row r="169" spans="1:14">
       <x:c r="A169" s="1">
-        <x:v>45418.2381944444</x:v>
+        <x:v>45418.2243055556</x:v>
       </x:c>
       <x:c r="B169" s="0" t="s">
         <x:v>179</x:v>
@@ -4540,124 +4570,124 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D169" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E169" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F169" s="0" t="n">
-        <x:v>92430107</x:v>
+        <x:v>93286797</x:v>
       </x:c>
     </x:row>
     <x:row r="170" spans="1:14">
       <x:c r="A170" s="1">
-        <x:v>45418.2395833333</x:v>
+        <x:v>45418.225</x:v>
       </x:c>
       <x:c r="B170" s="0" t="s">
         <x:v>180</x:v>
       </x:c>
       <x:c r="C170" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D170" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E170" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F170" s="0" t="n">
-        <x:v>64604465</x:v>
+        <x:v>63934467</x:v>
       </x:c>
     </x:row>
     <x:row r="171" spans="1:14">
       <x:c r="A171" s="1">
-        <x:v>45418.2402777778</x:v>
+        <x:v>45418.2263888889</x:v>
       </x:c>
       <x:c r="B171" s="0" t="s">
         <x:v>181</x:v>
       </x:c>
       <x:c r="C171" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D171" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E171" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F171" s="0" t="n">
-        <x:v>84974385</x:v>
+        <x:v>45724011</x:v>
       </x:c>
     </x:row>
     <x:row r="172" spans="1:14">
       <x:c r="A172" s="1">
-        <x:v>45418.2402777778</x:v>
+        <x:v>45418.2270833333</x:v>
       </x:c>
       <x:c r="B172" s="0" t="s">
         <x:v>182</x:v>
       </x:c>
       <x:c r="C172" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D172" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E172" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F172" s="0" t="n">
-        <x:v>73222964</x:v>
+        <x:v>23953863</x:v>
       </x:c>
     </x:row>
     <x:row r="173" spans="1:14">
       <x:c r="A173" s="1">
-        <x:v>45418.2409722222</x:v>
+        <x:v>45418.2270833333</x:v>
       </x:c>
       <x:c r="B173" s="0" t="s">
         <x:v>183</x:v>
       </x:c>
       <x:c r="C173" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D173" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E173" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F173" s="0" t="n">
-        <x:v>35417724</x:v>
+        <x:v>78782052</x:v>
       </x:c>
     </x:row>
     <x:row r="174" spans="1:14">
       <x:c r="A174" s="1">
-        <x:v>45418.2444444444</x:v>
+        <x:v>45418.2284722222</x:v>
       </x:c>
       <x:c r="B174" s="0" t="s">
         <x:v>184</x:v>
       </x:c>
       <x:c r="C174" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D174" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E174" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F174" s="0" t="n">
-        <x:v>47898636</x:v>
+        <x:v>28827175</x:v>
       </x:c>
     </x:row>
     <x:row r="175" spans="1:14">
       <x:c r="A175" s="1">
-        <x:v>45418.2458333333</x:v>
+        <x:v>45418.23125</x:v>
       </x:c>
       <x:c r="B175" s="0" t="s">
         <x:v>185</x:v>
       </x:c>
       <x:c r="C175" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D175" s="0" t="s">
         <x:v>8</x:v>
@@ -4666,12 +4696,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F175" s="0" t="n">
-        <x:v>88866622</x:v>
+        <x:v>52186430</x:v>
       </x:c>
     </x:row>
     <x:row r="176" spans="1:14">
       <x:c r="A176" s="1">
-        <x:v>45418.2472222222</x:v>
+        <x:v>45418.2333333333</x:v>
       </x:c>
       <x:c r="B176" s="0" t="s">
         <x:v>186</x:v>
@@ -4680,98 +4710,98 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D176" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E176" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F176" s="0" t="n">
-        <x:v>46055816</x:v>
+        <x:v>82878653</x:v>
       </x:c>
     </x:row>
     <x:row r="177" spans="1:14">
       <x:c r="A177" s="1">
-        <x:v>45418.2493055556</x:v>
+        <x:v>45418.2340277778</x:v>
       </x:c>
       <x:c r="B177" s="0" t="s">
         <x:v>187</x:v>
       </x:c>
       <x:c r="C177" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D177" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E177" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F177" s="0" t="n">
-        <x:v>80522682</x:v>
+        <x:v>67616121</x:v>
       </x:c>
     </x:row>
     <x:row r="178" spans="1:14">
       <x:c r="A178" s="1">
-        <x:v>45418.2493055556</x:v>
+        <x:v>45418.2354166667</x:v>
       </x:c>
       <x:c r="B178" s="0" t="s">
         <x:v>188</x:v>
       </x:c>
       <x:c r="C178" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D178" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E178" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F178" s="0" t="n">
-        <x:v>41326641</x:v>
+        <x:v>98448265</x:v>
       </x:c>
     </x:row>
     <x:row r="179" spans="1:14">
       <x:c r="A179" s="1">
-        <x:v>45418.2506944444</x:v>
+        <x:v>45418.2381944444</x:v>
       </x:c>
       <x:c r="B179" s="0" t="s">
         <x:v>189</x:v>
       </x:c>
       <x:c r="C179" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D179" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E179" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F179" s="0" t="n">
-        <x:v>91493800</x:v>
+        <x:v>92430107</x:v>
       </x:c>
     </x:row>
     <x:row r="180" spans="1:14">
       <x:c r="A180" s="1">
-        <x:v>45418.2513888889</x:v>
+        <x:v>45418.2395833333</x:v>
       </x:c>
       <x:c r="B180" s="0" t="s">
         <x:v>190</x:v>
       </x:c>
       <x:c r="C180" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D180" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E180" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F180" s="0" t="n">
-        <x:v>88265359</x:v>
+        <x:v>64604465</x:v>
       </x:c>
     </x:row>
     <x:row r="181" spans="1:14">
       <x:c r="A181" s="1">
-        <x:v>45418.2527777778</x:v>
+        <x:v>45418.2402777778</x:v>
       </x:c>
       <x:c r="B181" s="0" t="s">
         <x:v>191</x:v>
@@ -4780,38 +4810,38 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D181" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E181" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F181" s="0" t="n">
-        <x:v>14116377</x:v>
+        <x:v>84974385</x:v>
       </x:c>
     </x:row>
     <x:row r="182" spans="1:14">
       <x:c r="A182" s="1">
-        <x:v>45418.2534722222</x:v>
+        <x:v>45418.2402777778</x:v>
       </x:c>
       <x:c r="B182" s="0" t="s">
         <x:v>192</x:v>
       </x:c>
       <x:c r="C182" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D182" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E182" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F182" s="0" t="n">
-        <x:v>61196937</x:v>
+        <x:v>73222964</x:v>
       </x:c>
     </x:row>
     <x:row r="183" spans="1:14">
       <x:c r="A183" s="1">
-        <x:v>45418.2555555556</x:v>
+        <x:v>45418.2409722222</x:v>
       </x:c>
       <x:c r="B183" s="0" t="s">
         <x:v>193</x:v>
@@ -4820,38 +4850,38 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D183" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E183" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F183" s="0" t="n">
-        <x:v>81496798</x:v>
+        <x:v>35417724</x:v>
       </x:c>
     </x:row>
     <x:row r="184" spans="1:14">
       <x:c r="A184" s="1">
-        <x:v>45418.25625</x:v>
+        <x:v>45418.2444444444</x:v>
       </x:c>
       <x:c r="B184" s="0" t="s">
         <x:v>194</x:v>
       </x:c>
       <x:c r="C184" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D184" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E184" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F184" s="0" t="n">
-        <x:v>73634687</x:v>
+        <x:v>47898636</x:v>
       </x:c>
     </x:row>
     <x:row r="185" spans="1:14">
       <x:c r="A185" s="1">
-        <x:v>45418.2576388889</x:v>
+        <x:v>45418.2458333333</x:v>
       </x:c>
       <x:c r="B185" s="0" t="s">
         <x:v>195</x:v>
@@ -4860,98 +4890,98 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D185" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E185" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F185" s="0" t="n">
-        <x:v>69377633</x:v>
+        <x:v>88866622</x:v>
       </x:c>
     </x:row>
     <x:row r="186" spans="1:14">
       <x:c r="A186" s="1">
-        <x:v>45418.2611111111</x:v>
+        <x:v>45418.2472222222</x:v>
       </x:c>
       <x:c r="B186" s="0" t="s">
         <x:v>196</x:v>
       </x:c>
       <x:c r="C186" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D186" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E186" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F186" s="0" t="n">
-        <x:v>34362899</x:v>
+        <x:v>46055816</x:v>
       </x:c>
     </x:row>
     <x:row r="187" spans="1:14">
       <x:c r="A187" s="1">
-        <x:v>45418.2625</x:v>
+        <x:v>45418.2493055556</x:v>
       </x:c>
       <x:c r="B187" s="0" t="s">
         <x:v>197</x:v>
       </x:c>
       <x:c r="C187" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D187" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E187" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F187" s="0" t="n">
-        <x:v>35527146</x:v>
+        <x:v>80522682</x:v>
       </x:c>
     </x:row>
     <x:row r="188" spans="1:14">
       <x:c r="A188" s="1">
-        <x:v>45418.2631944444</x:v>
+        <x:v>45418.2493055556</x:v>
       </x:c>
       <x:c r="B188" s="0" t="s">
         <x:v>198</x:v>
       </x:c>
       <x:c r="C188" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D188" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E188" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F188" s="0" t="n">
-        <x:v>59052559</x:v>
+        <x:v>41326641</x:v>
       </x:c>
     </x:row>
     <x:row r="189" spans="1:14">
       <x:c r="A189" s="1">
-        <x:v>45418.2652777778</x:v>
+        <x:v>45418.2506944444</x:v>
       </x:c>
       <x:c r="B189" s="0" t="s">
         <x:v>199</x:v>
       </x:c>
       <x:c r="C189" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D189" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E189" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F189" s="0" t="n">
-        <x:v>55610792</x:v>
+        <x:v>91493800</x:v>
       </x:c>
     </x:row>
     <x:row r="190" spans="1:14">
       <x:c r="A190" s="1">
-        <x:v>45418.2659722222</x:v>
+        <x:v>45418.2513888889</x:v>
       </x:c>
       <x:c r="B190" s="0" t="s">
         <x:v>200</x:v>
@@ -4966,32 +4996,32 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F190" s="0" t="n">
-        <x:v>76765480</x:v>
+        <x:v>88265359</x:v>
       </x:c>
     </x:row>
     <x:row r="191" spans="1:14">
       <x:c r="A191" s="1">
-        <x:v>45418.26875</x:v>
+        <x:v>45418.2527777778</x:v>
       </x:c>
       <x:c r="B191" s="0" t="s">
         <x:v>201</x:v>
       </x:c>
       <x:c r="C191" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D191" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E191" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F191" s="0" t="n">
-        <x:v>48664364</x:v>
+        <x:v>14116377</x:v>
       </x:c>
     </x:row>
     <x:row r="192" spans="1:14">
       <x:c r="A192" s="1">
-        <x:v>45418.2701388889</x:v>
+        <x:v>45418.2534722222</x:v>
       </x:c>
       <x:c r="B192" s="0" t="s">
         <x:v>202</x:v>
@@ -5000,24 +5030,24 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D192" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E192" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F192" s="0" t="n">
-        <x:v>76827061</x:v>
+        <x:v>61196937</x:v>
       </x:c>
     </x:row>
     <x:row r="193" spans="1:14">
       <x:c r="A193" s="1">
-        <x:v>45418.2729166667</x:v>
+        <x:v>45418.2555555556</x:v>
       </x:c>
       <x:c r="B193" s="0" t="s">
         <x:v>203</x:v>
       </x:c>
       <x:c r="C193" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D193" s="0" t="s">
         <x:v>8</x:v>
@@ -5026,12 +5056,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F193" s="0" t="n">
-        <x:v>99512062</x:v>
+        <x:v>81496798</x:v>
       </x:c>
     </x:row>
     <x:row r="194" spans="1:14">
       <x:c r="A194" s="1">
-        <x:v>45418.2743055556</x:v>
+        <x:v>45418.25625</x:v>
       </x:c>
       <x:c r="B194" s="0" t="s">
         <x:v>204</x:v>
@@ -5040,24 +5070,24 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D194" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E194" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F194" s="0" t="n">
-        <x:v>67462763</x:v>
+        <x:v>73634687</x:v>
       </x:c>
     </x:row>
     <x:row r="195" spans="1:14">
       <x:c r="A195" s="1">
-        <x:v>45418.2756944444</x:v>
+        <x:v>45418.2576388889</x:v>
       </x:c>
       <x:c r="B195" s="0" t="s">
         <x:v>205</x:v>
       </x:c>
       <x:c r="C195" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D195" s="0" t="s">
         <x:v>8</x:v>
@@ -5066,12 +5096,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F195" s="0" t="n">
-        <x:v>85992056</x:v>
+        <x:v>69377633</x:v>
       </x:c>
     </x:row>
     <x:row r="196" spans="1:14">
       <x:c r="A196" s="1">
-        <x:v>45418.2763888889</x:v>
+        <x:v>45418.2611111111</x:v>
       </x:c>
       <x:c r="B196" s="0" t="s">
         <x:v>206</x:v>
@@ -5080,18 +5110,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D196" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E196" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F196" s="0" t="n">
-        <x:v>36876610</x:v>
+        <x:v>34362899</x:v>
       </x:c>
     </x:row>
     <x:row r="197" spans="1:14">
       <x:c r="A197" s="1">
-        <x:v>45418.2777777778</x:v>
+        <x:v>45418.2625</x:v>
       </x:c>
       <x:c r="B197" s="0" t="s">
         <x:v>207</x:v>
@@ -5100,18 +5130,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D197" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E197" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F197" s="0" t="n">
-        <x:v>14237391</x:v>
+        <x:v>35527146</x:v>
       </x:c>
     </x:row>
     <x:row r="198" spans="1:14">
       <x:c r="A198" s="1">
-        <x:v>45418.2798611111</x:v>
+        <x:v>45418.2631944444</x:v>
       </x:c>
       <x:c r="B198" s="0" t="s">
         <x:v>208</x:v>
@@ -5120,98 +5150,98 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D198" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E198" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F198" s="0" t="n">
-        <x:v>42980468</x:v>
+        <x:v>59052559</x:v>
       </x:c>
     </x:row>
     <x:row r="199" spans="1:14">
       <x:c r="A199" s="1">
-        <x:v>45418.2805555556</x:v>
+        <x:v>45418.2652777778</x:v>
       </x:c>
       <x:c r="B199" s="0" t="s">
         <x:v>209</x:v>
       </x:c>
       <x:c r="C199" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D199" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E199" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F199" s="0" t="n">
-        <x:v>58462429</x:v>
+        <x:v>55610792</x:v>
       </x:c>
     </x:row>
     <x:row r="200" spans="1:14">
       <x:c r="A200" s="1">
-        <x:v>45418.2826388889</x:v>
+        <x:v>45418.2659722222</x:v>
       </x:c>
       <x:c r="B200" s="0" t="s">
         <x:v>210</x:v>
       </x:c>
       <x:c r="C200" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D200" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E200" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F200" s="0" t="n">
-        <x:v>40104132</x:v>
+        <x:v>76765480</x:v>
       </x:c>
     </x:row>
     <x:row r="201" spans="1:14">
       <x:c r="A201" s="1">
-        <x:v>45418.2861111111</x:v>
+        <x:v>45418.26875</x:v>
       </x:c>
       <x:c r="B201" s="0" t="s">
         <x:v>211</x:v>
       </x:c>
       <x:c r="C201" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D201" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E201" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F201" s="0" t="n">
-        <x:v>11430228</x:v>
+        <x:v>48664364</x:v>
       </x:c>
     </x:row>
     <x:row r="202" spans="1:14">
       <x:c r="A202" s="1">
-        <x:v>45418.2881944444</x:v>
+        <x:v>45418.2701388889</x:v>
       </x:c>
       <x:c r="B202" s="0" t="s">
         <x:v>212</x:v>
       </x:c>
       <x:c r="C202" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D202" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E202" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F202" s="0" t="n">
-        <x:v>59140876</x:v>
+        <x:v>76827061</x:v>
       </x:c>
     </x:row>
     <x:row r="203" spans="1:14">
       <x:c r="A203" s="1">
-        <x:v>45418.2916666667</x:v>
+        <x:v>45418.2729166667</x:v>
       </x:c>
       <x:c r="B203" s="0" t="s">
         <x:v>213</x:v>
@@ -5220,24 +5250,24 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D203" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E203" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F203" s="0" t="n">
-        <x:v>88018258</x:v>
+        <x:v>99512062</x:v>
       </x:c>
     </x:row>
     <x:row r="204" spans="1:14">
       <x:c r="A204" s="1">
-        <x:v>45418.2944444444</x:v>
+        <x:v>45418.2743055556</x:v>
       </x:c>
       <x:c r="B204" s="0" t="s">
         <x:v>214</x:v>
       </x:c>
       <x:c r="C204" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D204" s="0" t="s">
         <x:v>8</x:v>
@@ -5246,38 +5276,38 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F204" s="0" t="n">
-        <x:v>54103450</x:v>
+        <x:v>67462763</x:v>
       </x:c>
     </x:row>
     <x:row r="205" spans="1:14">
       <x:c r="A205" s="1">
-        <x:v>45418.2965277778</x:v>
+        <x:v>45418.2756944444</x:v>
       </x:c>
       <x:c r="B205" s="0" t="s">
         <x:v>215</x:v>
       </x:c>
       <x:c r="C205" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D205" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E205" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F205" s="0" t="n">
-        <x:v>35846970</x:v>
+        <x:v>85992056</x:v>
       </x:c>
     </x:row>
     <x:row r="206" spans="1:14">
       <x:c r="A206" s="1">
-        <x:v>45418.3</x:v>
+        <x:v>45418.2763888889</x:v>
       </x:c>
       <x:c r="B206" s="0" t="s">
         <x:v>216</x:v>
       </x:c>
       <x:c r="C206" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D206" s="0" t="s">
         <x:v>8</x:v>
@@ -5286,152 +5316,152 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F206" s="0" t="n">
-        <x:v>82165228</x:v>
+        <x:v>36876610</x:v>
       </x:c>
     </x:row>
     <x:row r="207" spans="1:14">
       <x:c r="A207" s="1">
-        <x:v>45418.3020833333</x:v>
+        <x:v>45418.2777777778</x:v>
       </x:c>
       <x:c r="B207" s="0" t="s">
         <x:v>217</x:v>
       </x:c>
       <x:c r="C207" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D207" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E207" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F207" s="0" t="n">
-        <x:v>95526033</x:v>
+        <x:v>14237391</x:v>
       </x:c>
     </x:row>
     <x:row r="208" spans="1:14">
       <x:c r="A208" s="1">
-        <x:v>45418.3041666667</x:v>
+        <x:v>45418.2798611111</x:v>
       </x:c>
       <x:c r="B208" s="0" t="s">
         <x:v>218</x:v>
       </x:c>
       <x:c r="C208" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D208" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E208" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F208" s="0" t="n">
-        <x:v>55398856</x:v>
+        <x:v>42980468</x:v>
       </x:c>
     </x:row>
     <x:row r="209" spans="1:14">
       <x:c r="A209" s="1">
-        <x:v>45418.3055555556</x:v>
+        <x:v>45418.2805555556</x:v>
       </x:c>
       <x:c r="B209" s="0" t="s">
         <x:v>219</x:v>
       </x:c>
       <x:c r="C209" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D209" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E209" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F209" s="0" t="n">
-        <x:v>51443919</x:v>
+        <x:v>58462429</x:v>
       </x:c>
     </x:row>
     <x:row r="210" spans="1:14">
       <x:c r="A210" s="1">
-        <x:v>45418.30625</x:v>
+        <x:v>45418.2826388889</x:v>
       </x:c>
       <x:c r="B210" s="0" t="s">
         <x:v>220</x:v>
       </x:c>
       <x:c r="C210" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D210" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E210" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F210" s="0" t="n">
-        <x:v>60791226</x:v>
+        <x:v>40104132</x:v>
       </x:c>
     </x:row>
     <x:row r="211" spans="1:14">
       <x:c r="A211" s="1">
-        <x:v>45418.3090277778</x:v>
+        <x:v>45418.2861111111</x:v>
       </x:c>
       <x:c r="B211" s="0" t="s">
         <x:v>221</x:v>
       </x:c>
       <x:c r="C211" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D211" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E211" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F211" s="0" t="n">
-        <x:v>98382096</x:v>
+        <x:v>11430228</x:v>
       </x:c>
     </x:row>
     <x:row r="212" spans="1:14">
       <x:c r="A212" s="1">
-        <x:v>45418.3118055556</x:v>
+        <x:v>45418.2881944444</x:v>
       </x:c>
       <x:c r="B212" s="0" t="s">
         <x:v>222</x:v>
       </x:c>
       <x:c r="C212" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D212" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E212" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F212" s="0" t="n">
-        <x:v>69130554</x:v>
+        <x:v>59140876</x:v>
       </x:c>
     </x:row>
     <x:row r="213" spans="1:14">
       <x:c r="A213" s="1">
-        <x:v>45418.3145833333</x:v>
+        <x:v>45418.2916666667</x:v>
       </x:c>
       <x:c r="B213" s="0" t="s">
         <x:v>223</x:v>
       </x:c>
       <x:c r="C213" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D213" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E213" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F213" s="0" t="n">
-        <x:v>87550105</x:v>
+        <x:v>88018258</x:v>
       </x:c>
     </x:row>
     <x:row r="214" spans="1:14">
       <x:c r="A214" s="1">
-        <x:v>45418.3152777778</x:v>
+        <x:v>45418.2944444444</x:v>
       </x:c>
       <x:c r="B214" s="0" t="s">
         <x:v>224</x:v>
@@ -5440,58 +5470,58 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D214" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E214" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F214" s="0" t="n">
-        <x:v>86717784</x:v>
+        <x:v>54103450</x:v>
       </x:c>
     </x:row>
     <x:row r="215" spans="1:14">
       <x:c r="A215" s="1">
-        <x:v>45418.3173611111</x:v>
+        <x:v>45418.2965277778</x:v>
       </x:c>
       <x:c r="B215" s="0" t="s">
         <x:v>225</x:v>
       </x:c>
       <x:c r="C215" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D215" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E215" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F215" s="0" t="n">
-        <x:v>96022898</x:v>
+        <x:v>35846970</x:v>
       </x:c>
     </x:row>
     <x:row r="216" spans="1:14">
       <x:c r="A216" s="1">
-        <x:v>45418.3208333333</x:v>
+        <x:v>45418.3</x:v>
       </x:c>
       <x:c r="B216" s="0" t="s">
         <x:v>226</x:v>
       </x:c>
       <x:c r="C216" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D216" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E216" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F216" s="0" t="n">
-        <x:v>18974938</x:v>
+        <x:v>82165228</x:v>
       </x:c>
     </x:row>
     <x:row r="217" spans="1:14">
       <x:c r="A217" s="1">
-        <x:v>45418.3208333333</x:v>
+        <x:v>45418.3020833333</x:v>
       </x:c>
       <x:c r="B217" s="0" t="s">
         <x:v>227</x:v>
@@ -5500,24 +5530,24 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D217" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E217" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F217" s="0" t="n">
-        <x:v>78906923</x:v>
+        <x:v>95526033</x:v>
       </x:c>
     </x:row>
     <x:row r="218" spans="1:14">
       <x:c r="A218" s="1">
-        <x:v>45418.3236111111</x:v>
+        <x:v>45418.3041666667</x:v>
       </x:c>
       <x:c r="B218" s="0" t="s">
         <x:v>228</x:v>
       </x:c>
       <x:c r="C218" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D218" s="0" t="s">
         <x:v>8</x:v>
@@ -5526,12 +5556,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F218" s="0" t="n">
-        <x:v>28748213</x:v>
+        <x:v>55398856</x:v>
       </x:c>
     </x:row>
     <x:row r="219" spans="1:14">
       <x:c r="A219" s="1">
-        <x:v>45418.3243055556</x:v>
+        <x:v>45418.3055555556</x:v>
       </x:c>
       <x:c r="B219" s="0" t="s">
         <x:v>229</x:v>
@@ -5540,18 +5570,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D219" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E219" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F219" s="0" t="n">
-        <x:v>98183367</x:v>
+        <x:v>51443919</x:v>
       </x:c>
     </x:row>
     <x:row r="220" spans="1:14">
       <x:c r="A220" s="1">
-        <x:v>45418.3256944444</x:v>
+        <x:v>45418.30625</x:v>
       </x:c>
       <x:c r="B220" s="0" t="s">
         <x:v>230</x:v>
@@ -5560,118 +5590,118 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D220" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E220" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F220" s="0" t="n">
-        <x:v>76265236</x:v>
+        <x:v>60791226</x:v>
       </x:c>
     </x:row>
     <x:row r="221" spans="1:14">
       <x:c r="A221" s="1">
-        <x:v>45418.3291666667</x:v>
+        <x:v>45418.3090277778</x:v>
       </x:c>
       <x:c r="B221" s="0" t="s">
         <x:v>231</x:v>
       </x:c>
       <x:c r="C221" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D221" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E221" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F221" s="0" t="n">
-        <x:v>26250892</x:v>
+        <x:v>98382096</x:v>
       </x:c>
     </x:row>
     <x:row r="222" spans="1:14">
       <x:c r="A222" s="1">
-        <x:v>45418.3298611111</x:v>
+        <x:v>45418.3118055556</x:v>
       </x:c>
       <x:c r="B222" s="0" t="s">
         <x:v>232</x:v>
       </x:c>
       <x:c r="C222" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D222" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E222" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F222" s="0" t="n">
-        <x:v>74984015</x:v>
+        <x:v>69130554</x:v>
       </x:c>
     </x:row>
     <x:row r="223" spans="1:14">
       <x:c r="A223" s="1">
-        <x:v>45418.3326388889</x:v>
+        <x:v>45418.3145833333</x:v>
       </x:c>
       <x:c r="B223" s="0" t="s">
         <x:v>233</x:v>
       </x:c>
       <x:c r="C223" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D223" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E223" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F223" s="0" t="n">
-        <x:v>76975211</x:v>
+        <x:v>87550105</x:v>
       </x:c>
     </x:row>
     <x:row r="224" spans="1:14">
       <x:c r="A224" s="1">
-        <x:v>45418.3340277778</x:v>
+        <x:v>45418.3152777778</x:v>
       </x:c>
       <x:c r="B224" s="0" t="s">
         <x:v>234</x:v>
       </x:c>
       <x:c r="C224" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D224" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E224" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F224" s="0" t="n">
-        <x:v>64621408</x:v>
+        <x:v>86717784</x:v>
       </x:c>
     </x:row>
     <x:row r="225" spans="1:14">
       <x:c r="A225" s="1">
-        <x:v>45418.3347222222</x:v>
+        <x:v>45418.3173611111</x:v>
       </x:c>
       <x:c r="B225" s="0" t="s">
         <x:v>235</x:v>
       </x:c>
       <x:c r="C225" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D225" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E225" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F225" s="0" t="n">
-        <x:v>92592247</x:v>
+        <x:v>96022898</x:v>
       </x:c>
     </x:row>
     <x:row r="226" spans="1:14">
       <x:c r="A226" s="1">
-        <x:v>45418.3361111111</x:v>
+        <x:v>45418.3208333333</x:v>
       </x:c>
       <x:c r="B226" s="0" t="s">
         <x:v>236</x:v>
@@ -5680,38 +5710,38 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D226" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E226" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F226" s="0" t="n">
-        <x:v>50327738</x:v>
+        <x:v>18974938</x:v>
       </x:c>
     </x:row>
     <x:row r="227" spans="1:14">
       <x:c r="A227" s="1">
-        <x:v>45418.3375</x:v>
+        <x:v>45418.3208333333</x:v>
       </x:c>
       <x:c r="B227" s="0" t="s">
         <x:v>237</x:v>
       </x:c>
       <x:c r="C227" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D227" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E227" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F227" s="0" t="n">
-        <x:v>64120818</x:v>
+        <x:v>78906923</x:v>
       </x:c>
     </x:row>
     <x:row r="228" spans="1:14">
       <x:c r="A228" s="1">
-        <x:v>45418.3409722222</x:v>
+        <x:v>45418.3236111111</x:v>
       </x:c>
       <x:c r="B228" s="0" t="s">
         <x:v>238</x:v>
@@ -5720,224 +5750,224 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D228" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E228" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F228" s="0" t="n">
-        <x:v>60072046</x:v>
+        <x:v>28748213</x:v>
       </x:c>
     </x:row>
     <x:row r="229" spans="1:14">
       <x:c r="A229" s="1">
-        <x:v>45418.3423611111</x:v>
+        <x:v>45418.3243055556</x:v>
       </x:c>
       <x:c r="B229" s="0" t="s">
         <x:v>239</x:v>
       </x:c>
       <x:c r="C229" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D229" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E229" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F229" s="0" t="n">
-        <x:v>37644531</x:v>
+        <x:v>98183367</x:v>
       </x:c>
     </x:row>
     <x:row r="230" spans="1:14">
       <x:c r="A230" s="1">
-        <x:v>45418.3451388889</x:v>
+        <x:v>45418.3256944444</x:v>
       </x:c>
       <x:c r="B230" s="0" t="s">
         <x:v>240</x:v>
       </x:c>
       <x:c r="C230" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D230" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E230" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F230" s="0" t="n">
-        <x:v>44336410</x:v>
+        <x:v>76265236</x:v>
       </x:c>
     </x:row>
     <x:row r="231" spans="1:14">
       <x:c r="A231" s="1">
-        <x:v>45418.3472222222</x:v>
+        <x:v>45418.3291666667</x:v>
       </x:c>
       <x:c r="B231" s="0" t="s">
         <x:v>241</x:v>
       </x:c>
       <x:c r="C231" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D231" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E231" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F231" s="0" t="n">
-        <x:v>44953650</x:v>
+        <x:v>26250892</x:v>
       </x:c>
     </x:row>
     <x:row r="232" spans="1:14">
       <x:c r="A232" s="1">
-        <x:v>45418.3486111111</x:v>
+        <x:v>45418.3298611111</x:v>
       </x:c>
       <x:c r="B232" s="0" t="s">
         <x:v>242</x:v>
       </x:c>
       <x:c r="C232" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D232" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E232" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F232" s="0" t="n">
-        <x:v>46988533</x:v>
+        <x:v>74984015</x:v>
       </x:c>
     </x:row>
     <x:row r="233" spans="1:14">
       <x:c r="A233" s="1">
-        <x:v>45418.3520833333</x:v>
+        <x:v>45418.3326388889</x:v>
       </x:c>
       <x:c r="B233" s="0" t="s">
         <x:v>243</x:v>
       </x:c>
       <x:c r="C233" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D233" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E233" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F233" s="0" t="n">
-        <x:v>95154048</x:v>
+        <x:v>76975211</x:v>
       </x:c>
     </x:row>
     <x:row r="234" spans="1:14">
       <x:c r="A234" s="1">
-        <x:v>45418.3541666667</x:v>
+        <x:v>45418.3340277778</x:v>
       </x:c>
       <x:c r="B234" s="0" t="s">
         <x:v>244</x:v>
       </x:c>
       <x:c r="C234" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D234" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E234" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F234" s="0" t="n">
-        <x:v>22642147</x:v>
+        <x:v>64621408</x:v>
       </x:c>
     </x:row>
     <x:row r="235" spans="1:14">
       <x:c r="A235" s="1">
-        <x:v>45418.3569444444</x:v>
+        <x:v>45418.3347222222</x:v>
       </x:c>
       <x:c r="B235" s="0" t="s">
         <x:v>245</x:v>
       </x:c>
       <x:c r="C235" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D235" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E235" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F235" s="0" t="n">
-        <x:v>11051756</x:v>
+        <x:v>92592247</x:v>
       </x:c>
     </x:row>
     <x:row r="236" spans="1:14">
       <x:c r="A236" s="1">
-        <x:v>45418.3583333333</x:v>
+        <x:v>45418.3361111111</x:v>
       </x:c>
       <x:c r="B236" s="0" t="s">
         <x:v>246</x:v>
       </x:c>
       <x:c r="C236" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D236" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E236" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F236" s="0" t="n">
-        <x:v>60269654</x:v>
+        <x:v>50327738</x:v>
       </x:c>
     </x:row>
     <x:row r="237" spans="1:14">
       <x:c r="A237" s="1">
-        <x:v>45418.3597222222</x:v>
+        <x:v>45418.3375</x:v>
       </x:c>
       <x:c r="B237" s="0" t="s">
         <x:v>247</x:v>
       </x:c>
       <x:c r="C237" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D237" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E237" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F237" s="0" t="n">
-        <x:v>51403242</x:v>
+        <x:v>64120818</x:v>
       </x:c>
     </x:row>
     <x:row r="238" spans="1:14">
       <x:c r="A238" s="1">
-        <x:v>45418.3611111111</x:v>
+        <x:v>45418.3409722222</x:v>
       </x:c>
       <x:c r="B238" s="0" t="s">
         <x:v>248</x:v>
       </x:c>
       <x:c r="C238" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D238" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E238" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F238" s="0" t="n">
-        <x:v>23554685</x:v>
+        <x:v>60072046</x:v>
       </x:c>
     </x:row>
     <x:row r="239" spans="1:14">
       <x:c r="A239" s="1">
-        <x:v>45418.3625</x:v>
+        <x:v>45418.3423611111</x:v>
       </x:c>
       <x:c r="B239" s="0" t="s">
         <x:v>249</x:v>
       </x:c>
       <x:c r="C239" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D239" s="0" t="s">
         <x:v>8</x:v>
@@ -5946,12 +5976,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F239" s="0" t="n">
-        <x:v>24863987</x:v>
+        <x:v>37644531</x:v>
       </x:c>
     </x:row>
     <x:row r="240" spans="1:14">
       <x:c r="A240" s="1">
-        <x:v>45418.3638888889</x:v>
+        <x:v>45418.3451388889</x:v>
       </x:c>
       <x:c r="B240" s="0" t="s">
         <x:v>250</x:v>
@@ -5960,98 +5990,98 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D240" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E240" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F240" s="0" t="n">
-        <x:v>98063611</x:v>
+        <x:v>44336410</x:v>
       </x:c>
     </x:row>
     <x:row r="241" spans="1:14">
       <x:c r="A241" s="1">
-        <x:v>45418.3666666667</x:v>
+        <x:v>45418.3472222222</x:v>
       </x:c>
       <x:c r="B241" s="0" t="s">
         <x:v>251</x:v>
       </x:c>
       <x:c r="C241" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D241" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E241" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F241" s="0" t="n">
-        <x:v>52037889</x:v>
+        <x:v>44953650</x:v>
       </x:c>
     </x:row>
     <x:row r="242" spans="1:14">
       <x:c r="A242" s="1">
-        <x:v>45418.3680555556</x:v>
+        <x:v>45418.3486111111</x:v>
       </x:c>
       <x:c r="B242" s="0" t="s">
         <x:v>252</x:v>
       </x:c>
       <x:c r="C242" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D242" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E242" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F242" s="0" t="n">
-        <x:v>58568313</x:v>
+        <x:v>46988533</x:v>
       </x:c>
     </x:row>
     <x:row r="243" spans="1:14">
       <x:c r="A243" s="1">
-        <x:v>45418.3708333333</x:v>
+        <x:v>45418.3520833333</x:v>
       </x:c>
       <x:c r="B243" s="0" t="s">
         <x:v>253</x:v>
       </x:c>
       <x:c r="C243" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D243" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E243" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F243" s="0" t="n">
-        <x:v>41802058</x:v>
+        <x:v>95154048</x:v>
       </x:c>
     </x:row>
     <x:row r="244" spans="1:14">
       <x:c r="A244" s="1">
-        <x:v>45418.3715277778</x:v>
+        <x:v>45418.3541666667</x:v>
       </x:c>
       <x:c r="B244" s="0" t="s">
         <x:v>254</x:v>
       </x:c>
       <x:c r="C244" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D244" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E244" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F244" s="0" t="n">
-        <x:v>41189497</x:v>
+        <x:v>22642147</x:v>
       </x:c>
     </x:row>
     <x:row r="245" spans="1:14">
       <x:c r="A245" s="1">
-        <x:v>45418.3743055556</x:v>
+        <x:v>45418.3569444444</x:v>
       </x:c>
       <x:c r="B245" s="0" t="s">
         <x:v>255</x:v>
@@ -6060,18 +6090,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D245" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E245" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F245" s="0" t="n">
-        <x:v>25723020</x:v>
+        <x:v>11051756</x:v>
       </x:c>
     </x:row>
     <x:row r="246" spans="1:14">
       <x:c r="A246" s="1">
-        <x:v>45418.3763888889</x:v>
+        <x:v>45418.3583333333</x:v>
       </x:c>
       <x:c r="B246" s="0" t="s">
         <x:v>256</x:v>
@@ -6080,18 +6110,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D246" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E246" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F246" s="0" t="n">
-        <x:v>83739665</x:v>
+        <x:v>60269654</x:v>
       </x:c>
     </x:row>
     <x:row r="247" spans="1:14">
       <x:c r="A247" s="1">
-        <x:v>45418.3784722222</x:v>
+        <x:v>45418.3597222222</x:v>
       </x:c>
       <x:c r="B247" s="0" t="s">
         <x:v>257</x:v>
@@ -6100,78 +6130,78 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D247" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E247" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F247" s="0" t="n">
-        <x:v>94440068</x:v>
+        <x:v>51403242</x:v>
       </x:c>
     </x:row>
     <x:row r="248" spans="1:14">
       <x:c r="A248" s="1">
-        <x:v>45418.3805555556</x:v>
+        <x:v>45418.3611111111</x:v>
       </x:c>
       <x:c r="B248" s="0" t="s">
         <x:v>258</x:v>
       </x:c>
       <x:c r="C248" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D248" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E248" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F248" s="0" t="n">
-        <x:v>79673521</x:v>
+        <x:v>23554685</x:v>
       </x:c>
     </x:row>
     <x:row r="249" spans="1:14">
       <x:c r="A249" s="1">
-        <x:v>45418.3833333333</x:v>
+        <x:v>45418.3625</x:v>
       </x:c>
       <x:c r="B249" s="0" t="s">
         <x:v>259</x:v>
       </x:c>
       <x:c r="C249" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D249" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E249" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F249" s="0" t="n">
-        <x:v>69694990</x:v>
+        <x:v>24863987</x:v>
       </x:c>
     </x:row>
     <x:row r="250" spans="1:14">
       <x:c r="A250" s="1">
-        <x:v>45418.3847222222</x:v>
+        <x:v>45418.3638888889</x:v>
       </x:c>
       <x:c r="B250" s="0" t="s">
         <x:v>260</x:v>
       </x:c>
       <x:c r="C250" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D250" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E250" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F250" s="0" t="n">
-        <x:v>46094520</x:v>
+        <x:v>98063611</x:v>
       </x:c>
     </x:row>
     <x:row r="251" spans="1:14">
       <x:c r="A251" s="1">
-        <x:v>45418.3875</x:v>
+        <x:v>45418.3666666667</x:v>
       </x:c>
       <x:c r="B251" s="0" t="s">
         <x:v>261</x:v>
@@ -6180,12 +6210,212 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D251" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E251" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F251" s="0" t="n">
+        <x:v>52037889</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="252" spans="1:14">
+      <x:c r="A252" s="1">
+        <x:v>45418.3680555556</x:v>
+      </x:c>
+      <x:c r="B252" s="0" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="C252" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D252" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E252" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F252" s="0" t="n">
+        <x:v>58568313</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="253" spans="1:14">
+      <x:c r="A253" s="1">
+        <x:v>45418.3708333333</x:v>
+      </x:c>
+      <x:c r="B253" s="0" t="s">
+        <x:v>263</x:v>
+      </x:c>
+      <x:c r="C253" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D253" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E253" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F253" s="0" t="n">
+        <x:v>41802058</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="254" spans="1:14">
+      <x:c r="A254" s="1">
+        <x:v>45418.3715277778</x:v>
+      </x:c>
+      <x:c r="B254" s="0" t="s">
+        <x:v>264</x:v>
+      </x:c>
+      <x:c r="C254" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D254" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E254" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F254" s="0" t="n">
+        <x:v>41189497</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="255" spans="1:14">
+      <x:c r="A255" s="1">
+        <x:v>45418.3743055556</x:v>
+      </x:c>
+      <x:c r="B255" s="0" t="s">
+        <x:v>265</x:v>
+      </x:c>
+      <x:c r="C255" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D255" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E255" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F255" s="0" t="n">
+        <x:v>25723020</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="256" spans="1:14">
+      <x:c r="A256" s="1">
+        <x:v>45418.3763888889</x:v>
+      </x:c>
+      <x:c r="B256" s="0" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="C256" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D256" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E256" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F256" s="0" t="n">
+        <x:v>83739665</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="257" spans="1:14">
+      <x:c r="A257" s="1">
+        <x:v>45418.3784722222</x:v>
+      </x:c>
+      <x:c r="B257" s="0" t="s">
+        <x:v>267</x:v>
+      </x:c>
+      <x:c r="C257" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D257" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E257" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F257" s="0" t="n">
+        <x:v>94440068</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="258" spans="1:14">
+      <x:c r="A258" s="1">
+        <x:v>45418.3805555556</x:v>
+      </x:c>
+      <x:c r="B258" s="0" t="s">
+        <x:v>268</x:v>
+      </x:c>
+      <x:c r="C258" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D258" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E258" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F258" s="0" t="n">
+        <x:v>79673521</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="259" spans="1:14">
+      <x:c r="A259" s="1">
+        <x:v>45418.3833333333</x:v>
+      </x:c>
+      <x:c r="B259" s="0" t="s">
+        <x:v>269</x:v>
+      </x:c>
+      <x:c r="C259" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D259" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E259" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F259" s="0" t="n">
+        <x:v>69694990</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="260" spans="1:14">
+      <x:c r="A260" s="1">
+        <x:v>45418.3847222222</x:v>
+      </x:c>
+      <x:c r="B260" s="0" t="s">
+        <x:v>270</x:v>
+      </x:c>
+      <x:c r="C260" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D260" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E260" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F260" s="0" t="n">
+        <x:v>46094520</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="261" spans="1:14">
+      <x:c r="A261" s="1">
+        <x:v>45418.3875</x:v>
+      </x:c>
+      <x:c r="B261" s="0" t="s">
+        <x:v>271</x:v>
+      </x:c>
+      <x:c r="C261" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D261" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E261" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F261" s="0" t="n">
         <x:v>15170018</x:v>
       </x:c>
     </x:row>

--- a/NotSelectedParticipants.xlsx
+++ b/NotSelectedParticipants.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="262">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="292">
   <x:si>
     <x:t>Timestamp</x:t>
   </x:si>
@@ -41,48 +41,135 @@
     <x:t>Contact Number</x:t>
   </x:si>
   <x:si>
+    <x:t>James Wood</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Male</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test@abc.com.sg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Morgan Sellers</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Joyce Harris</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31-40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Austin Daniel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Patricia May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mark Brown</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bryce Coleman</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lance Cooley</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Female</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41-50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sara Sanders</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sydney Hendricks</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Christina Erickson</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Michele Mccall</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Guy Mills</x:t>
+  </x:si>
+  <x:si>
+    <x:t>David Preston</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mary Parker</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brittany Perkins</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Suzanne Price</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Amanda Miller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Austin Harrell</x:t>
+  </x:si>
+  <x:si>
     <x:t>Michelle Kelly</x:t>
   </x:si>
   <x:si>
-    <x:t>Female</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41-50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>test@abc.com.sg</x:t>
+    <x:t>Gary Butler</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tyler Green</x:t>
   </x:si>
   <x:si>
     <x:t>Christopher Chavez</x:t>
   </x:si>
   <x:si>
-    <x:t>Male</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31-40</x:t>
+    <x:t>Jeffery Barker</x:t>
   </x:si>
   <x:si>
     <x:t>Jon Wood</x:t>
   </x:si>
   <x:si>
-    <x:t>21-30</x:t>
-  </x:si>
-  <x:si>
     <x:t>Briana Griffin</x:t>
   </x:si>
   <x:si>
     <x:t>Brittany Baker</x:t>
   </x:si>
   <x:si>
+    <x:t>Charles Chapman</x:t>
+  </x:si>
+  <x:si>
     <x:t>Amber Lucas</x:t>
   </x:si>
   <x:si>
+    <x:t>Mr. Michael Bailey III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Heidi Mosley</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Eduardo Smith</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rachel Anderson</x:t>
+  </x:si>
+  <x:si>
     <x:t>Robert Lutz</x:t>
   </x:si>
   <x:si>
     <x:t>Julie Woods</x:t>
   </x:si>
   <x:si>
+    <x:t>Candice Decker PhD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Erik Oconnor</x:t>
+  </x:si>
+  <x:si>
     <x:t>Hunter Estes</x:t>
   </x:si>
   <x:si>
@@ -102,6 +189,9 @@
   </x:si>
   <x:si>
     <x:t>Joshua Cannon</x:t>
+  </x:si>
+  <x:si>
+    <x:t>George Hill</x:t>
   </x:si>
   <x:si>
     <x:t>Anna Carrillo</x:t>
@@ -1191,7 +1281,7 @@
     </x:row>
     <x:row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A2" s="1">
-        <x:v>45417.9076388889</x:v>
+        <x:v>45417.85625</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
         <x:v>6</x:v>
@@ -1206,118 +1296,118 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>29597549</x:v>
+        <x:v>49884959</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A3" s="1">
-        <x:v>45417.9145833333</x:v>
+        <x:v>45417.8576388889</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>95350918</x:v>
+        <x:v>21565376</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A4" s="1">
-        <x:v>45417.9194444444</x:v>
+        <x:v>45417.8673611111</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
-        <x:v>83650172</x:v>
+        <x:v>76273159</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A5" s="1">
-        <x:v>45417.9229166667</x:v>
+        <x:v>45417.8729166667</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
-        <x:v>41823611</x:v>
+        <x:v>82943130</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A6" s="1">
-        <x:v>45417.9256944444</x:v>
+        <x:v>45417.8736111111</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
-        <x:v>10389353</x:v>
+        <x:v>73430518</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A7" s="1">
-        <x:v>45417.9284722222</x:v>
+        <x:v>45417.8770833333</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>80276072</x:v>
+        <x:v>67853509</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A8" s="1">
-        <x:v>45417.9361111111</x:v>
+        <x:v>45417.8770833333</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
         <x:v>12</x:v>
@@ -1326,38 +1416,38 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
-        <x:v>95828882</x:v>
+        <x:v>41599890</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A9" s="1">
-        <x:v>45417.9375</x:v>
+        <x:v>45417.8805555556</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="C9" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
       <x:c r="E9" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
-        <x:v>95466287</x:v>
+        <x:v>17283267</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A10" s="1">
-        <x:v>45417.9430555556</x:v>
+        <x:v>45417.8819444444</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
         <x:v>12</x:v>
@@ -1366,92 +1456,92 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
-        <x:v>75899760</x:v>
+        <x:v>95775763</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A11" s="1">
-        <x:v>45417.9451388889</x:v>
+        <x:v>45417.8847222222</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F11" s="0" t="n">
-        <x:v>64714222</x:v>
+        <x:v>22872164</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A12" s="1">
-        <x:v>45417.9479166667</x:v>
+        <x:v>45417.8861111111</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
-        <x:v>79920980</x:v>
+        <x:v>18674699</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A13" s="1">
-        <x:v>45417.9486111111</x:v>
+        <x:v>45417.8909722222</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F13" s="0" t="n">
-        <x:v>20272573</x:v>
+        <x:v>23057655</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A14" s="1">
-        <x:v>45417.9520833333</x:v>
+        <x:v>45417.8930555556</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
-        <x:v>51235820</x:v>
+        <x:v>71364235</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A15" s="1">
-        <x:v>45417.9534722222</x:v>
+        <x:v>45417.8951388889</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
         <x:v>25</x:v>
@@ -1460,44 +1550,44 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>76810268</x:v>
+        <x:v>96221071</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A16" s="1">
-        <x:v>45417.9555555556</x:v>
+        <x:v>45417.8958333333</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>43869042</x:v>
+        <x:v>22486634</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A17" s="1">
-        <x:v>45417.9597222222</x:v>
+        <x:v>45417.9006944444</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
         <x:v>12</x:v>
@@ -1506,118 +1596,118 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>18996598</x:v>
+        <x:v>51214237</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A18" s="1">
-        <x:v>45417.9618055556</x:v>
+        <x:v>45417.9020833333</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>73261856</x:v>
+        <x:v>31162803</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A19" s="1">
-        <x:v>45417.9638888889</x:v>
+        <x:v>45417.9034722222</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E19" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
-        <x:v>51685815</x:v>
+        <x:v>91437948</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A20" s="1">
-        <x:v>45417.9652777778</x:v>
+        <x:v>45417.90625</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F20" s="0" t="n">
-        <x:v>42016440</x:v>
+        <x:v>90886403</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A21" s="1">
-        <x:v>45417.9659722222</x:v>
+        <x:v>45417.9076388889</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E21" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F21" s="0" t="n">
-        <x:v>49147219</x:v>
+        <x:v>29597549</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A22" s="1">
-        <x:v>45417.9680555556</x:v>
+        <x:v>45417.9104166667</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E22" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F22" s="0" t="n">
-        <x:v>47518687</x:v>
+        <x:v>22193463</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:14">
       <x:c r="A23" s="1">
-        <x:v>45417.9680555556</x:v>
+        <x:v>45417.9138888889</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
         <x:v>12</x:v>
@@ -1626,72 +1716,72 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F23" s="0" t="n">
-        <x:v>94511350</x:v>
+        <x:v>78752400</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:14">
       <x:c r="A24" s="1">
-        <x:v>45417.96875</x:v>
+        <x:v>45417.9145833333</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E24" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F24" s="0" t="n">
-        <x:v>37130984</x:v>
+        <x:v>95350918</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:14">
       <x:c r="A25" s="1">
-        <x:v>45417.9708333333</x:v>
+        <x:v>45417.9180555556</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E25" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F25" s="0" t="n">
-        <x:v>35497334</x:v>
+        <x:v>58555238</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:14">
       <x:c r="A26" s="1">
-        <x:v>45417.9722222222</x:v>
+        <x:v>45417.9194444444</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E26" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
-        <x:v>43668577</x:v>
+        <x:v>83650172</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:14">
       <x:c r="A27" s="1">
-        <x:v>45417.9729166667</x:v>
+        <x:v>45417.9229166667</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
         <x:v>37</x:v>
@@ -1700,44 +1790,44 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E27" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
-        <x:v>31337203</x:v>
+        <x:v>41823611</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:14">
       <x:c r="A28" s="1">
-        <x:v>45417.9743055556</x:v>
+        <x:v>45417.9256944444</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
         <x:v>38</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E28" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F28" s="0" t="n">
-        <x:v>23172841</x:v>
+        <x:v>10389353</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:14">
       <x:c r="A29" s="1">
-        <x:v>45417.9770833333</x:v>
+        <x:v>45417.9270833333</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
         <x:v>12</x:v>
@@ -1746,112 +1836,112 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F29" s="0" t="n">
-        <x:v>77020975</x:v>
+        <x:v>63113515</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:14">
       <x:c r="A30" s="1">
-        <x:v>45417.9791666667</x:v>
+        <x:v>45417.9284722222</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E30" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F30" s="0" t="n">
-        <x:v>58493323</x:v>
+        <x:v>80276072</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:14">
       <x:c r="A31" s="1">
-        <x:v>45417.98125</x:v>
+        <x:v>45417.9298611111</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D31" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E31" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F31" s="0" t="n">
-        <x:v>10734113</x:v>
+        <x:v>86138263</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:14">
       <x:c r="A32" s="1">
-        <x:v>45417.9826388889</x:v>
+        <x:v>45417.9319444444</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>42</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E32" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F32" s="0" t="n">
-        <x:v>30890990</x:v>
+        <x:v>68716753</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:14">
       <x:c r="A33" s="1">
-        <x:v>45417.9847222222</x:v>
+        <x:v>45417.9340277778</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>43</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D33" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E33" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
-        <x:v>72415145</x:v>
+        <x:v>19978185</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:14">
       <x:c r="A34" s="1">
-        <x:v>45417.9854166667</x:v>
+        <x:v>45417.9347222222</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>44</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D34" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E34" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F34" s="0" t="n">
-        <x:v>70622792</x:v>
+        <x:v>15764979</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:14">
       <x:c r="A35" s="1">
-        <x:v>45417.9861111111</x:v>
+        <x:v>45417.9361111111</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>45</x:v>
@@ -1860,38 +1950,38 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D35" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E35" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F35" s="0" t="n">
-        <x:v>92386611</x:v>
+        <x:v>95828882</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:14">
       <x:c r="A36" s="1">
-        <x:v>45417.9881944444</x:v>
+        <x:v>45417.9375</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D36" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E36" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
-        <x:v>47936639</x:v>
+        <x:v>95466287</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:14">
       <x:c r="A37" s="1">
-        <x:v>45417.9895833333</x:v>
+        <x:v>45417.9381944444</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>47</x:v>
@@ -1900,24 +1990,24 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D37" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E37" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
-        <x:v>87130517</x:v>
+        <x:v>18200415</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:14">
       <x:c r="A38" s="1">
-        <x:v>45417.9923611111</x:v>
+        <x:v>45417.9395833333</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>48</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D38" s="0" t="s">
         <x:v>8</x:v>
@@ -1926,18 +2016,18 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
-        <x:v>21268147</x:v>
+        <x:v>58719994</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:14">
       <x:c r="A39" s="1">
-        <x:v>45417.99375</x:v>
+        <x:v>45417.9430555556</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D39" s="0" t="s">
         <x:v>12</x:v>
@@ -1946,72 +2036,72 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F39" s="0" t="n">
-        <x:v>99479268</x:v>
+        <x:v>75899760</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:14">
       <x:c r="A40" s="1">
-        <x:v>45417.9958333333</x:v>
+        <x:v>45417.9451388889</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>50</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D40" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E40" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F40" s="0" t="n">
-        <x:v>84465016</x:v>
+        <x:v>64714222</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:14">
       <x:c r="A41" s="1">
-        <x:v>45417.9979166667</x:v>
+        <x:v>45417.9479166667</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>51</x:v>
       </x:c>
       <x:c r="C41" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D41" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E41" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
-        <x:v>25276200</x:v>
+        <x:v>79920980</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:14">
       <x:c r="A42" s="2">
-        <x:v>45418</x:v>
+        <x:v>45417.9486111111</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>52</x:v>
       </x:c>
       <x:c r="C42" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D42" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E42" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F42" s="0" t="n">
-        <x:v>55144869</x:v>
+        <x:v>20272573</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:14">
       <x:c r="A43" s="1">
-        <x:v>45418.0006944444</x:v>
+        <x:v>45417.9520833333</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>53</x:v>
@@ -2020,38 +2110,38 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D43" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E43" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F43" s="0" t="n">
-        <x:v>10990288</x:v>
+        <x:v>51235820</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:14">
       <x:c r="A44" s="1">
-        <x:v>45418.0041666667</x:v>
+        <x:v>45417.9534722222</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>54</x:v>
       </x:c>
       <x:c r="C44" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D44" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E44" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F44" s="0" t="n">
-        <x:v>62780801</x:v>
+        <x:v>76810268</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:14">
       <x:c r="A45" s="1">
-        <x:v>45418.0055555556</x:v>
+        <x:v>45417.9555555556</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>55</x:v>
@@ -2060,38 +2150,38 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D45" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E45" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F45" s="0" t="n">
-        <x:v>70340243</x:v>
+        <x:v>43869042</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:14">
       <x:c r="A46" s="1">
-        <x:v>45418.0069444444</x:v>
+        <x:v>45417.9576388889</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>56</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D46" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E46" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F46" s="0" t="n">
-        <x:v>50657040</x:v>
+        <x:v>74640463</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:14">
       <x:c r="A47" s="1">
-        <x:v>45418.0097222222</x:v>
+        <x:v>45417.9597222222</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
         <x:v>57</x:v>
@@ -2106,32 +2196,32 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
-        <x:v>15461399</x:v>
+        <x:v>18996598</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:14">
       <x:c r="A48" s="1">
-        <x:v>45418.0118055556</x:v>
+        <x:v>45417.9618055556</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
         <x:v>58</x:v>
       </x:c>
       <x:c r="C48" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D48" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E48" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F48" s="0" t="n">
-        <x:v>97545204</x:v>
+        <x:v>73261856</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:14">
       <x:c r="A49" s="1">
-        <x:v>45418.0145833333</x:v>
+        <x:v>45417.9638888889</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
         <x:v>59</x:v>
@@ -2140,38 +2230,38 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D49" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E49" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
-        <x:v>45349550</x:v>
+        <x:v>51685815</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:14">
       <x:c r="A50" s="1">
-        <x:v>45418.0173611111</x:v>
+        <x:v>45417.9652777778</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
         <x:v>60</x:v>
       </x:c>
       <x:c r="C50" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D50" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E50" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F50" s="0" t="n">
-        <x:v>34076498</x:v>
+        <x:v>42016440</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:14">
       <x:c r="A51" s="1">
-        <x:v>45418.0201388889</x:v>
+        <x:v>45417.9659722222</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
         <x:v>61</x:v>
@@ -2186,12 +2276,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F51" s="0" t="n">
-        <x:v>92040698</x:v>
+        <x:v>49147219</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:14">
       <x:c r="A52" s="1">
-        <x:v>45418.0229166667</x:v>
+        <x:v>45417.9680555556</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
         <x:v>62</x:v>
@@ -2200,44 +2290,44 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D52" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E52" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F52" s="0" t="n">
-        <x:v>52744048</x:v>
+        <x:v>47518687</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:14">
       <x:c r="A53" s="1">
-        <x:v>45418.0236111111</x:v>
+        <x:v>45417.9680555556</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
         <x:v>63</x:v>
       </x:c>
       <x:c r="C53" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D53" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E53" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F53" s="0" t="n">
-        <x:v>89653477</x:v>
+        <x:v>94511350</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:14">
       <x:c r="A54" s="1">
-        <x:v>45418.0243055556</x:v>
+        <x:v>45417.96875</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
         <x:v>64</x:v>
       </x:c>
       <x:c r="C54" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D54" s="0" t="s">
         <x:v>8</x:v>
@@ -2246,32 +2336,32 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F54" s="0" t="n">
-        <x:v>80629070</x:v>
+        <x:v>37130984</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:14">
       <x:c r="A55" s="1">
-        <x:v>45418.025</x:v>
+        <x:v>45417.9708333333</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
         <x:v>65</x:v>
       </x:c>
       <x:c r="C55" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D55" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E55" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F55" s="0" t="n">
-        <x:v>94465009</x:v>
+        <x:v>35497334</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:14">
       <x:c r="A56" s="1">
-        <x:v>45418.0263888889</x:v>
+        <x:v>45417.9722222222</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
         <x:v>66</x:v>
@@ -2280,44 +2370,44 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D56" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E56" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F56" s="0" t="n">
-        <x:v>37502353</x:v>
+        <x:v>43668577</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:14">
       <x:c r="A57" s="1">
-        <x:v>45418.0284722222</x:v>
+        <x:v>45417.9729166667</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
         <x:v>67</x:v>
       </x:c>
       <x:c r="C57" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D57" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E57" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F57" s="0" t="n">
-        <x:v>67626671</x:v>
+        <x:v>31337203</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:14">
       <x:c r="A58" s="1">
-        <x:v>45418.0298611111</x:v>
+        <x:v>45417.9743055556</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
         <x:v>68</x:v>
       </x:c>
       <x:c r="C58" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D58" s="0" t="s">
         <x:v>12</x:v>
@@ -2326,12 +2416,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F58" s="0" t="n">
-        <x:v>25175278</x:v>
+        <x:v>23172841</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:14">
       <x:c r="A59" s="1">
-        <x:v>45418.0319444444</x:v>
+        <x:v>45417.9770833333</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
         <x:v>69</x:v>
@@ -2346,32 +2436,32 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F59" s="0" t="n">
-        <x:v>54919380</x:v>
+        <x:v>77020975</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:14">
       <x:c r="A60" s="1">
-        <x:v>45418.0333333333</x:v>
+        <x:v>45417.9791666667</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
         <x:v>70</x:v>
       </x:c>
       <x:c r="C60" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D60" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E60" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F60" s="0" t="n">
-        <x:v>48801212</x:v>
+        <x:v>58493323</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:14">
       <x:c r="A61" s="1">
-        <x:v>45418.0347222222</x:v>
+        <x:v>45417.98125</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
         <x:v>71</x:v>
@@ -2380,18 +2470,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D61" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E61" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F61" s="0" t="n">
-        <x:v>42251006</x:v>
+        <x:v>10734113</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:14">
       <x:c r="A62" s="1">
-        <x:v>45418.0347222222</x:v>
+        <x:v>45417.9826388889</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>72</x:v>
@@ -2400,18 +2490,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D62" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E62" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F62" s="0" t="n">
-        <x:v>46841664</x:v>
+        <x:v>30890990</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:14">
       <x:c r="A63" s="1">
-        <x:v>45418.0368055556</x:v>
+        <x:v>45417.9847222222</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
         <x:v>73</x:v>
@@ -2420,58 +2510,58 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D63" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E63" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F63" s="0" t="n">
-        <x:v>49346569</x:v>
+        <x:v>72415145</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:14">
       <x:c r="A64" s="1">
-        <x:v>45418.0388888889</x:v>
+        <x:v>45417.9854166667</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
         <x:v>74</x:v>
       </x:c>
       <x:c r="C64" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D64" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E64" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F64" s="0" t="n">
-        <x:v>74000167</x:v>
+        <x:v>70622792</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:14">
       <x:c r="A65" s="1">
-        <x:v>45418.0416666667</x:v>
+        <x:v>45417.9861111111</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>75</x:v>
       </x:c>
       <x:c r="C65" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D65" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E65" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F65" s="0" t="n">
-        <x:v>39297038</x:v>
+        <x:v>92386611</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:14">
       <x:c r="A66" s="1">
-        <x:v>45418.0444444444</x:v>
+        <x:v>45417.9881944444</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
         <x:v>76</x:v>
@@ -2480,78 +2570,78 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D66" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E66" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F66" s="0" t="n">
-        <x:v>90250492</x:v>
+        <x:v>47936639</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:14">
       <x:c r="A67" s="1">
-        <x:v>45418.0465277778</x:v>
+        <x:v>45417.9895833333</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
         <x:v>77</x:v>
       </x:c>
       <x:c r="C67" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D67" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E67" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F67" s="0" t="n">
-        <x:v>45436512</x:v>
+        <x:v>87130517</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:14">
       <x:c r="A68" s="1">
-        <x:v>45418.0472222222</x:v>
+        <x:v>45417.9923611111</x:v>
       </x:c>
       <x:c r="B68" s="0" t="s">
         <x:v>78</x:v>
       </x:c>
       <x:c r="C68" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D68" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E68" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F68" s="0" t="n">
-        <x:v>91746455</x:v>
+        <x:v>21268147</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:14">
       <x:c r="A69" s="1">
-        <x:v>45418.0506944444</x:v>
+        <x:v>45417.99375</x:v>
       </x:c>
       <x:c r="B69" s="0" t="s">
         <x:v>79</x:v>
       </x:c>
       <x:c r="C69" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D69" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E69" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F69" s="0" t="n">
-        <x:v>90086945</x:v>
+        <x:v>99479268</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:14">
       <x:c r="A70" s="1">
-        <x:v>45418.0527777778</x:v>
+        <x:v>45417.9958333333</x:v>
       </x:c>
       <x:c r="B70" s="0" t="s">
         <x:v>80</x:v>
@@ -2560,18 +2650,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D70" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E70" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F70" s="0" t="n">
-        <x:v>31168820</x:v>
+        <x:v>84465016</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:14">
       <x:c r="A71" s="1">
-        <x:v>45418.0534722222</x:v>
+        <x:v>45417.9979166667</x:v>
       </x:c>
       <x:c r="B71" s="0" t="s">
         <x:v>81</x:v>
@@ -2580,98 +2670,98 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D71" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E71" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F71" s="0" t="n">
-        <x:v>23420293</x:v>
+        <x:v>25276200</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:14">
       <x:c r="A72" s="1">
-        <x:v>45418.05625</x:v>
+        <x:v>45418</x:v>
       </x:c>
       <x:c r="B72" s="0" t="s">
         <x:v>82</x:v>
       </x:c>
       <x:c r="C72" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D72" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E72" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F72" s="0" t="n">
-        <x:v>28345932</x:v>
+        <x:v>55144869</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:14">
       <x:c r="A73" s="1">
-        <x:v>45418.0583333333</x:v>
+        <x:v>45418.0006944444</x:v>
       </x:c>
       <x:c r="B73" s="0" t="s">
         <x:v>83</x:v>
       </x:c>
       <x:c r="C73" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D73" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E73" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F73" s="0" t="n">
-        <x:v>59338978</x:v>
+        <x:v>10990288</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:14">
       <x:c r="A74" s="1">
-        <x:v>45418.0604166667</x:v>
+        <x:v>45418.0041666667</x:v>
       </x:c>
       <x:c r="B74" s="0" t="s">
         <x:v>84</x:v>
       </x:c>
       <x:c r="C74" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D74" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E74" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F74" s="0" t="n">
-        <x:v>43006939</x:v>
+        <x:v>62780801</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:14">
       <x:c r="A75" s="1">
-        <x:v>45418.0618055556</x:v>
+        <x:v>45418.0055555556</x:v>
       </x:c>
       <x:c r="B75" s="0" t="s">
         <x:v>85</x:v>
       </x:c>
       <x:c r="C75" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D75" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E75" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F75" s="0" t="n">
-        <x:v>16253635</x:v>
+        <x:v>70340243</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:14">
       <x:c r="A76" s="1">
-        <x:v>45418.0638888889</x:v>
+        <x:v>45418.0069444444</x:v>
       </x:c>
       <x:c r="B76" s="0" t="s">
         <x:v>86</x:v>
@@ -2680,24 +2770,24 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D76" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E76" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F76" s="0" t="n">
-        <x:v>57173971</x:v>
+        <x:v>50657040</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:14">
       <x:c r="A77" s="1">
-        <x:v>45418.0645833333</x:v>
+        <x:v>45418.0097222222</x:v>
       </x:c>
       <x:c r="B77" s="0" t="s">
         <x:v>87</x:v>
       </x:c>
       <x:c r="C77" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D77" s="0" t="s">
         <x:v>12</x:v>
@@ -2706,52 +2796,52 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F77" s="0" t="n">
-        <x:v>93036177</x:v>
+        <x:v>15461399</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:14">
       <x:c r="A78" s="1">
-        <x:v>45418.0666666667</x:v>
+        <x:v>45418.0118055556</x:v>
       </x:c>
       <x:c r="B78" s="0" t="s">
         <x:v>88</x:v>
       </x:c>
       <x:c r="C78" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D78" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E78" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F78" s="0" t="n">
-        <x:v>50885281</x:v>
+        <x:v>97545204</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:14">
       <x:c r="A79" s="1">
-        <x:v>45418.0673611111</x:v>
+        <x:v>45418.0145833333</x:v>
       </x:c>
       <x:c r="B79" s="0" t="s">
         <x:v>89</x:v>
       </x:c>
       <x:c r="C79" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D79" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E79" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F79" s="0" t="n">
-        <x:v>61710343</x:v>
+        <x:v>45349550</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:14">
       <x:c r="A80" s="1">
-        <x:v>45418.06875</x:v>
+        <x:v>45418.0173611111</x:v>
       </x:c>
       <x:c r="B80" s="0" t="s">
         <x:v>90</x:v>
@@ -2760,58 +2850,58 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D80" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E80" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F80" s="0" t="n">
-        <x:v>61400524</x:v>
+        <x:v>34076498</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:14">
       <x:c r="A81" s="1">
-        <x:v>45418.0715277778</x:v>
+        <x:v>45418.0201388889</x:v>
       </x:c>
       <x:c r="B81" s="0" t="s">
         <x:v>91</x:v>
       </x:c>
       <x:c r="C81" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D81" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E81" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F81" s="0" t="n">
-        <x:v>39175690</x:v>
+        <x:v>92040698</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:14">
       <x:c r="A82" s="1">
-        <x:v>45418.0736111111</x:v>
+        <x:v>45418.0229166667</x:v>
       </x:c>
       <x:c r="B82" s="0" t="s">
         <x:v>92</x:v>
       </x:c>
       <x:c r="C82" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D82" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E82" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F82" s="0" t="n">
-        <x:v>46685084</x:v>
+        <x:v>52744048</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:14">
       <x:c r="A83" s="1">
-        <x:v>45418.0763888889</x:v>
+        <x:v>45418.0236111111</x:v>
       </x:c>
       <x:c r="B83" s="0" t="s">
         <x:v>93</x:v>
@@ -2820,18 +2910,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D83" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E83" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F83" s="0" t="n">
-        <x:v>95957014</x:v>
+        <x:v>89653477</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:14">
       <x:c r="A84" s="1">
-        <x:v>45418.0763888889</x:v>
+        <x:v>45418.0243055556</x:v>
       </x:c>
       <x:c r="B84" s="0" t="s">
         <x:v>94</x:v>
@@ -2840,18 +2930,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D84" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E84" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F84" s="0" t="n">
-        <x:v>76837030</x:v>
+        <x:v>80629070</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:14">
       <x:c r="A85" s="1">
-        <x:v>45418.0777777778</x:v>
+        <x:v>45418.025</x:v>
       </x:c>
       <x:c r="B85" s="0" t="s">
         <x:v>95</x:v>
@@ -2860,58 +2950,58 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D85" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E85" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F85" s="0" t="n">
-        <x:v>46832417</x:v>
+        <x:v>94465009</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:14">
       <x:c r="A86" s="1">
-        <x:v>45418.0805555556</x:v>
+        <x:v>45418.0263888889</x:v>
       </x:c>
       <x:c r="B86" s="0" t="s">
         <x:v>96</x:v>
       </x:c>
       <x:c r="C86" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D86" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E86" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F86" s="0" t="n">
-        <x:v>77130877</x:v>
+        <x:v>37502353</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:14">
       <x:c r="A87" s="1">
-        <x:v>45418.08125</x:v>
+        <x:v>45418.0284722222</x:v>
       </x:c>
       <x:c r="B87" s="0" t="s">
         <x:v>97</x:v>
       </x:c>
       <x:c r="C87" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D87" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E87" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F87" s="0" t="n">
-        <x:v>70581907</x:v>
+        <x:v>67626671</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:14">
       <x:c r="A88" s="1">
-        <x:v>45418.0840277778</x:v>
+        <x:v>45418.0298611111</x:v>
       </x:c>
       <x:c r="B88" s="0" t="s">
         <x:v>98</x:v>
@@ -2920,38 +3010,38 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D88" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E88" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F88" s="0" t="n">
-        <x:v>12717983</x:v>
+        <x:v>25175278</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:14">
       <x:c r="A89" s="1">
-        <x:v>45418.0847222222</x:v>
+        <x:v>45418.0319444444</x:v>
       </x:c>
       <x:c r="B89" s="0" t="s">
         <x:v>99</x:v>
       </x:c>
       <x:c r="C89" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D89" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E89" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F89" s="0" t="n">
-        <x:v>70569694</x:v>
+        <x:v>54919380</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:14">
       <x:c r="A90" s="1">
-        <x:v>45418.0875</x:v>
+        <x:v>45418.0333333333</x:v>
       </x:c>
       <x:c r="B90" s="0" t="s">
         <x:v>100</x:v>
@@ -2960,104 +3050,104 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D90" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E90" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F90" s="0" t="n">
-        <x:v>84782703</x:v>
+        <x:v>48801212</x:v>
       </x:c>
     </x:row>
     <x:row r="91" spans="1:14">
       <x:c r="A91" s="1">
-        <x:v>45418.0895833333</x:v>
+        <x:v>45418.0347222222</x:v>
       </x:c>
       <x:c r="B91" s="0" t="s">
         <x:v>101</x:v>
       </x:c>
       <x:c r="C91" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D91" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E91" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F91" s="0" t="n">
-        <x:v>33138593</x:v>
+        <x:v>42251006</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:14">
       <x:c r="A92" s="1">
-        <x:v>45418.0923611111</x:v>
+        <x:v>45418.0347222222</x:v>
       </x:c>
       <x:c r="B92" s="0" t="s">
         <x:v>102</x:v>
       </x:c>
       <x:c r="C92" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D92" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E92" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F92" s="0" t="n">
-        <x:v>67772525</x:v>
+        <x:v>46841664</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:14">
       <x:c r="A93" s="1">
-        <x:v>45418.0930555556</x:v>
+        <x:v>45418.0368055556</x:v>
       </x:c>
       <x:c r="B93" s="0" t="s">
         <x:v>103</x:v>
       </x:c>
       <x:c r="C93" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D93" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E93" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F93" s="0" t="n">
-        <x:v>94344798</x:v>
+        <x:v>49346569</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:14">
       <x:c r="A94" s="1">
-        <x:v>45418.0930555556</x:v>
+        <x:v>45418.0388888889</x:v>
       </x:c>
       <x:c r="B94" s="0" t="s">
         <x:v>104</x:v>
       </x:c>
       <x:c r="C94" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D94" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E94" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F94" s="0" t="n">
-        <x:v>77436532</x:v>
+        <x:v>74000167</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="1:14">
       <x:c r="A95" s="1">
-        <x:v>45418.0965277778</x:v>
+        <x:v>45418.0416666667</x:v>
       </x:c>
       <x:c r="B95" s="0" t="s">
         <x:v>105</x:v>
       </x:c>
       <x:c r="C95" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D95" s="0" t="s">
         <x:v>8</x:v>
@@ -3066,158 +3156,158 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F95" s="0" t="n">
-        <x:v>85537968</x:v>
+        <x:v>39297038</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:14">
       <x:c r="A96" s="1">
-        <x:v>45418.0993055556</x:v>
+        <x:v>45418.0444444444</x:v>
       </x:c>
       <x:c r="B96" s="0" t="s">
         <x:v>106</x:v>
       </x:c>
       <x:c r="C96" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D96" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E96" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F96" s="0" t="n">
-        <x:v>67432010</x:v>
+        <x:v>90250492</x:v>
       </x:c>
     </x:row>
     <x:row r="97" spans="1:14">
       <x:c r="A97" s="1">
-        <x:v>45418.1006944444</x:v>
+        <x:v>45418.0465277778</x:v>
       </x:c>
       <x:c r="B97" s="0" t="s">
         <x:v>107</x:v>
       </x:c>
       <x:c r="C97" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D97" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E97" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F97" s="0" t="n">
-        <x:v>66099165</x:v>
+        <x:v>45436512</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:14">
       <x:c r="A98" s="1">
-        <x:v>45418.1020833333</x:v>
+        <x:v>45418.0472222222</x:v>
       </x:c>
       <x:c r="B98" s="0" t="s">
         <x:v>108</x:v>
       </x:c>
       <x:c r="C98" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D98" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E98" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F98" s="0" t="n">
-        <x:v>66053161</x:v>
+        <x:v>91746455</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="1:14">
       <x:c r="A99" s="1">
-        <x:v>45418.1055555556</x:v>
+        <x:v>45418.0506944444</x:v>
       </x:c>
       <x:c r="B99" s="0" t="s">
         <x:v>109</x:v>
       </x:c>
       <x:c r="C99" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D99" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E99" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F99" s="0" t="n">
-        <x:v>26731814</x:v>
+        <x:v>90086945</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="1:14">
       <x:c r="A100" s="1">
-        <x:v>45418.1083333333</x:v>
+        <x:v>45418.0527777778</x:v>
       </x:c>
       <x:c r="B100" s="0" t="s">
         <x:v>110</x:v>
       </x:c>
       <x:c r="C100" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D100" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E100" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F100" s="0" t="n">
-        <x:v>51554360</x:v>
+        <x:v>31168820</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:14">
       <x:c r="A101" s="1">
-        <x:v>45418.1111111111</x:v>
+        <x:v>45418.0534722222</x:v>
       </x:c>
       <x:c r="B101" s="0" t="s">
         <x:v>111</x:v>
       </x:c>
       <x:c r="C101" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D101" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E101" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F101" s="0" t="n">
-        <x:v>34364597</x:v>
+        <x:v>23420293</x:v>
       </x:c>
     </x:row>
     <x:row r="102" spans="1:14">
       <x:c r="A102" s="1">
-        <x:v>45418.1145833333</x:v>
+        <x:v>45418.05625</x:v>
       </x:c>
       <x:c r="B102" s="0" t="s">
         <x:v>112</x:v>
       </x:c>
       <x:c r="C102" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D102" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E102" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F102" s="0" t="n">
-        <x:v>21930895</x:v>
+        <x:v>28345932</x:v>
       </x:c>
     </x:row>
     <x:row r="103" spans="1:14">
       <x:c r="A103" s="1">
-        <x:v>45418.1180555556</x:v>
+        <x:v>45418.0583333333</x:v>
       </x:c>
       <x:c r="B103" s="0" t="s">
         <x:v>113</x:v>
       </x:c>
       <x:c r="C103" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D103" s="0" t="s">
         <x:v>12</x:v>
@@ -3226,32 +3316,32 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F103" s="0" t="n">
-        <x:v>33905104</x:v>
+        <x:v>59338978</x:v>
       </x:c>
     </x:row>
     <x:row r="104" spans="1:14">
       <x:c r="A104" s="1">
-        <x:v>45418.1194444444</x:v>
+        <x:v>45418.0604166667</x:v>
       </x:c>
       <x:c r="B104" s="0" t="s">
         <x:v>114</x:v>
       </x:c>
       <x:c r="C104" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D104" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E104" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F104" s="0" t="n">
-        <x:v>70030295</x:v>
+        <x:v>43006939</x:v>
       </x:c>
     </x:row>
     <x:row r="105" spans="1:14">
       <x:c r="A105" s="1">
-        <x:v>45418.1215277778</x:v>
+        <x:v>45418.0618055556</x:v>
       </x:c>
       <x:c r="B105" s="0" t="s">
         <x:v>115</x:v>
@@ -3260,24 +3350,24 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D105" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E105" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F105" s="0" t="n">
-        <x:v>96291852</x:v>
+        <x:v>16253635</x:v>
       </x:c>
     </x:row>
     <x:row r="106" spans="1:14">
       <x:c r="A106" s="1">
-        <x:v>45418.1243055556</x:v>
+        <x:v>45418.0638888889</x:v>
       </x:c>
       <x:c r="B106" s="0" t="s">
         <x:v>116</x:v>
       </x:c>
       <x:c r="C106" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D106" s="0" t="s">
         <x:v>12</x:v>
@@ -3286,32 +3376,32 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F106" s="0" t="n">
-        <x:v>14326480</x:v>
+        <x:v>57173971</x:v>
       </x:c>
     </x:row>
     <x:row r="107" spans="1:14">
       <x:c r="A107" s="1">
-        <x:v>45418.1263888889</x:v>
+        <x:v>45418.0645833333</x:v>
       </x:c>
       <x:c r="B107" s="0" t="s">
         <x:v>117</x:v>
       </x:c>
       <x:c r="C107" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D107" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E107" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F107" s="0" t="n">
-        <x:v>58010259</x:v>
+        <x:v>93036177</x:v>
       </x:c>
     </x:row>
     <x:row r="108" spans="1:14">
       <x:c r="A108" s="1">
-        <x:v>45418.1284722222</x:v>
+        <x:v>45418.0666666667</x:v>
       </x:c>
       <x:c r="B108" s="0" t="s">
         <x:v>118</x:v>
@@ -3320,58 +3410,58 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D108" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E108" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F108" s="0" t="n">
-        <x:v>88958354</x:v>
+        <x:v>50885281</x:v>
       </x:c>
     </x:row>
     <x:row r="109" spans="1:14">
       <x:c r="A109" s="1">
-        <x:v>45418.1305555556</x:v>
+        <x:v>45418.0673611111</x:v>
       </x:c>
       <x:c r="B109" s="0" t="s">
         <x:v>119</x:v>
       </x:c>
       <x:c r="C109" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D109" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E109" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F109" s="0" t="n">
-        <x:v>70288477</x:v>
+        <x:v>61710343</x:v>
       </x:c>
     </x:row>
     <x:row r="110" spans="1:14">
       <x:c r="A110" s="1">
-        <x:v>45418.1333333333</x:v>
+        <x:v>45418.06875</x:v>
       </x:c>
       <x:c r="B110" s="0" t="s">
         <x:v>120</x:v>
       </x:c>
       <x:c r="C110" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D110" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E110" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F110" s="0" t="n">
-        <x:v>24330105</x:v>
+        <x:v>61400524</x:v>
       </x:c>
     </x:row>
     <x:row r="111" spans="1:14">
       <x:c r="A111" s="1">
-        <x:v>45418.1333333333</x:v>
+        <x:v>45418.0715277778</x:v>
       </x:c>
       <x:c r="B111" s="0" t="s">
         <x:v>121</x:v>
@@ -3380,44 +3470,44 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D111" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E111" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F111" s="0" t="n">
-        <x:v>56566845</x:v>
+        <x:v>39175690</x:v>
       </x:c>
     </x:row>
     <x:row r="112" spans="1:14">
       <x:c r="A112" s="1">
-        <x:v>45418.1368055556</x:v>
+        <x:v>45418.0736111111</x:v>
       </x:c>
       <x:c r="B112" s="0" t="s">
         <x:v>122</x:v>
       </x:c>
       <x:c r="C112" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D112" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E112" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F112" s="0" t="n">
-        <x:v>95951957</x:v>
+        <x:v>46685084</x:v>
       </x:c>
     </x:row>
     <x:row r="113" spans="1:14">
       <x:c r="A113" s="1">
-        <x:v>45418.1381944444</x:v>
+        <x:v>45418.0763888889</x:v>
       </x:c>
       <x:c r="B113" s="0" t="s">
         <x:v>123</x:v>
       </x:c>
       <x:c r="C113" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D113" s="0" t="s">
         <x:v>12</x:v>
@@ -3426,78 +3516,78 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F113" s="0" t="n">
-        <x:v>10428667</x:v>
+        <x:v>95957014</x:v>
       </x:c>
     </x:row>
     <x:row r="114" spans="1:14">
       <x:c r="A114" s="1">
-        <x:v>45418.1409722222</x:v>
+        <x:v>45418.0763888889</x:v>
       </x:c>
       <x:c r="B114" s="0" t="s">
         <x:v>124</x:v>
       </x:c>
       <x:c r="C114" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D114" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E114" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F114" s="0" t="n">
-        <x:v>98819760</x:v>
+        <x:v>76837030</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:14">
       <x:c r="A115" s="1">
-        <x:v>45418.1416666667</x:v>
+        <x:v>45418.0777777778</x:v>
       </x:c>
       <x:c r="B115" s="0" t="s">
         <x:v>125</x:v>
       </x:c>
       <x:c r="C115" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D115" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E115" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F115" s="0" t="n">
-        <x:v>91816476</x:v>
+        <x:v>46832417</x:v>
       </x:c>
     </x:row>
     <x:row r="116" spans="1:14">
       <x:c r="A116" s="1">
-        <x:v>45418.1423611111</x:v>
+        <x:v>45418.0805555556</x:v>
       </x:c>
       <x:c r="B116" s="0" t="s">
         <x:v>126</x:v>
       </x:c>
       <x:c r="C116" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D116" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E116" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F116" s="0" t="n">
-        <x:v>45994672</x:v>
+        <x:v>77130877</x:v>
       </x:c>
     </x:row>
     <x:row r="117" spans="1:14">
       <x:c r="A117" s="1">
-        <x:v>45418.1444444444</x:v>
+        <x:v>45418.08125</x:v>
       </x:c>
       <x:c r="B117" s="0" t="s">
         <x:v>127</x:v>
       </x:c>
       <x:c r="C117" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D117" s="0" t="s">
         <x:v>12</x:v>
@@ -3506,32 +3596,32 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F117" s="0" t="n">
-        <x:v>78104274</x:v>
+        <x:v>70581907</x:v>
       </x:c>
     </x:row>
     <x:row r="118" spans="1:14">
       <x:c r="A118" s="1">
-        <x:v>45418.1465277778</x:v>
+        <x:v>45418.0840277778</x:v>
       </x:c>
       <x:c r="B118" s="0" t="s">
         <x:v>128</x:v>
       </x:c>
       <x:c r="C118" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D118" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E118" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F118" s="0" t="n">
-        <x:v>38407318</x:v>
+        <x:v>12717983</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:14">
       <x:c r="A119" s="1">
-        <x:v>45418.1493055556</x:v>
+        <x:v>45418.0847222222</x:v>
       </x:c>
       <x:c r="B119" s="0" t="s">
         <x:v>129</x:v>
@@ -3540,24 +3630,24 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D119" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E119" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F119" s="0" t="n">
-        <x:v>48566742</x:v>
+        <x:v>70569694</x:v>
       </x:c>
     </x:row>
     <x:row r="120" spans="1:14">
       <x:c r="A120" s="1">
-        <x:v>45418.1506944444</x:v>
+        <x:v>45418.0875</x:v>
       </x:c>
       <x:c r="B120" s="0" t="s">
         <x:v>130</x:v>
       </x:c>
       <x:c r="C120" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D120" s="0" t="s">
         <x:v>12</x:v>
@@ -3566,12 +3656,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F120" s="0" t="n">
-        <x:v>30832031</x:v>
+        <x:v>84782703</x:v>
       </x:c>
     </x:row>
     <x:row r="121" spans="1:14">
       <x:c r="A121" s="1">
-        <x:v>45418.1541666667</x:v>
+        <x:v>45418.0895833333</x:v>
       </x:c>
       <x:c r="B121" s="0" t="s">
         <x:v>131</x:v>
@@ -3580,44 +3670,44 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D121" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E121" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F121" s="0" t="n">
-        <x:v>52814396</x:v>
+        <x:v>33138593</x:v>
       </x:c>
     </x:row>
     <x:row r="122" spans="1:14">
       <x:c r="A122" s="1">
-        <x:v>45418.15625</x:v>
+        <x:v>45418.0923611111</x:v>
       </x:c>
       <x:c r="B122" s="0" t="s">
         <x:v>132</x:v>
       </x:c>
       <x:c r="C122" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D122" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E122" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F122" s="0" t="n">
-        <x:v>59642140</x:v>
+        <x:v>67772525</x:v>
       </x:c>
     </x:row>
     <x:row r="123" spans="1:14">
       <x:c r="A123" s="1">
-        <x:v>45418.1590277778</x:v>
+        <x:v>45418.0930555556</x:v>
       </x:c>
       <x:c r="B123" s="0" t="s">
         <x:v>133</x:v>
       </x:c>
       <x:c r="C123" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D123" s="0" t="s">
         <x:v>8</x:v>
@@ -3626,52 +3716,52 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F123" s="0" t="n">
-        <x:v>58733626</x:v>
+        <x:v>94344798</x:v>
       </x:c>
     </x:row>
     <x:row r="124" spans="1:14">
       <x:c r="A124" s="1">
-        <x:v>45418.1618055556</x:v>
+        <x:v>45418.0930555556</x:v>
       </x:c>
       <x:c r="B124" s="0" t="s">
         <x:v>134</x:v>
       </x:c>
       <x:c r="C124" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D124" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E124" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F124" s="0" t="n">
-        <x:v>84835830</x:v>
+        <x:v>77436532</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:14">
       <x:c r="A125" s="1">
-        <x:v>45418.1638888889</x:v>
+        <x:v>45418.0965277778</x:v>
       </x:c>
       <x:c r="B125" s="0" t="s">
         <x:v>135</x:v>
       </x:c>
       <x:c r="C125" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D125" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E125" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F125" s="0" t="n">
-        <x:v>82127022</x:v>
+        <x:v>85537968</x:v>
       </x:c>
     </x:row>
     <x:row r="126" spans="1:14">
       <x:c r="A126" s="1">
-        <x:v>45418.1645833333</x:v>
+        <x:v>45418.0993055556</x:v>
       </x:c>
       <x:c r="B126" s="0" t="s">
         <x:v>136</x:v>
@@ -3680,18 +3770,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D126" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E126" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F126" s="0" t="n">
-        <x:v>10048868</x:v>
+        <x:v>67432010</x:v>
       </x:c>
     </x:row>
     <x:row r="127" spans="1:14">
       <x:c r="A127" s="1">
-        <x:v>45418.1666666667</x:v>
+        <x:v>45418.1006944444</x:v>
       </x:c>
       <x:c r="B127" s="0" t="s">
         <x:v>137</x:v>
@@ -3700,38 +3790,38 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D127" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E127" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F127" s="0" t="n">
-        <x:v>47740838</x:v>
+        <x:v>66099165</x:v>
       </x:c>
     </x:row>
     <x:row r="128" spans="1:14">
       <x:c r="A128" s="1">
-        <x:v>45418.1694444444</x:v>
+        <x:v>45418.1020833333</x:v>
       </x:c>
       <x:c r="B128" s="0" t="s">
         <x:v>138</x:v>
       </x:c>
       <x:c r="C128" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D128" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E128" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F128" s="0" t="n">
-        <x:v>16509642</x:v>
+        <x:v>66053161</x:v>
       </x:c>
     </x:row>
     <x:row r="129" spans="1:14">
       <x:c r="A129" s="1">
-        <x:v>45418.1708333333</x:v>
+        <x:v>45418.1055555556</x:v>
       </x:c>
       <x:c r="B129" s="0" t="s">
         <x:v>139</x:v>
@@ -3746,52 +3836,52 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F129" s="0" t="n">
-        <x:v>83459193</x:v>
+        <x:v>26731814</x:v>
       </x:c>
     </x:row>
     <x:row r="130" spans="1:14">
       <x:c r="A130" s="1">
-        <x:v>45418.1722222222</x:v>
+        <x:v>45418.1083333333</x:v>
       </x:c>
       <x:c r="B130" s="0" t="s">
         <x:v>140</x:v>
       </x:c>
       <x:c r="C130" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D130" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E130" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F130" s="0" t="n">
-        <x:v>81577080</x:v>
+        <x:v>51554360</x:v>
       </x:c>
     </x:row>
     <x:row r="131" spans="1:14">
       <x:c r="A131" s="1">
-        <x:v>45418.1736111111</x:v>
+        <x:v>45418.1111111111</x:v>
       </x:c>
       <x:c r="B131" s="0" t="s">
         <x:v>141</x:v>
       </x:c>
       <x:c r="C131" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D131" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E131" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F131" s="0" t="n">
-        <x:v>45703844</x:v>
+        <x:v>34364597</x:v>
       </x:c>
     </x:row>
     <x:row r="132" spans="1:14">
       <x:c r="A132" s="1">
-        <x:v>45418.175</x:v>
+        <x:v>45418.1145833333</x:v>
       </x:c>
       <x:c r="B132" s="0" t="s">
         <x:v>142</x:v>
@@ -3800,18 +3890,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D132" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E132" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F132" s="0" t="n">
-        <x:v>11713264</x:v>
+        <x:v>21930895</x:v>
       </x:c>
     </x:row>
     <x:row r="133" spans="1:14">
       <x:c r="A133" s="1">
-        <x:v>45418.1756944444</x:v>
+        <x:v>45418.1180555556</x:v>
       </x:c>
       <x:c r="B133" s="0" t="s">
         <x:v>143</x:v>
@@ -3826,12 +3916,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F133" s="0" t="n">
-        <x:v>69587729</x:v>
+        <x:v>33905104</x:v>
       </x:c>
     </x:row>
     <x:row r="134" spans="1:14">
       <x:c r="A134" s="1">
-        <x:v>45418.1763888889</x:v>
+        <x:v>45418.1194444444</x:v>
       </x:c>
       <x:c r="B134" s="0" t="s">
         <x:v>144</x:v>
@@ -3840,44 +3930,44 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D134" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E134" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F134" s="0" t="n">
-        <x:v>67430415</x:v>
+        <x:v>70030295</x:v>
       </x:c>
     </x:row>
     <x:row r="135" spans="1:14">
       <x:c r="A135" s="1">
-        <x:v>45418.1791666667</x:v>
+        <x:v>45418.1215277778</x:v>
       </x:c>
       <x:c r="B135" s="0" t="s">
         <x:v>145</x:v>
       </x:c>
       <x:c r="C135" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D135" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E135" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F135" s="0" t="n">
-        <x:v>10637388</x:v>
+        <x:v>96291852</x:v>
       </x:c>
     </x:row>
     <x:row r="136" spans="1:14">
       <x:c r="A136" s="1">
-        <x:v>45418.1798611111</x:v>
+        <x:v>45418.1243055556</x:v>
       </x:c>
       <x:c r="B136" s="0" t="s">
         <x:v>146</x:v>
       </x:c>
       <x:c r="C136" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D136" s="0" t="s">
         <x:v>12</x:v>
@@ -3886,12 +3976,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F136" s="0" t="n">
-        <x:v>54315890</x:v>
+        <x:v>14326480</x:v>
       </x:c>
     </x:row>
     <x:row r="137" spans="1:14">
       <x:c r="A137" s="1">
-        <x:v>45418.1826388889</x:v>
+        <x:v>45418.1263888889</x:v>
       </x:c>
       <x:c r="B137" s="0" t="s">
         <x:v>147</x:v>
@@ -3900,58 +3990,58 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D137" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E137" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F137" s="0" t="n">
-        <x:v>56749466</x:v>
+        <x:v>58010259</x:v>
       </x:c>
     </x:row>
     <x:row r="138" spans="1:14">
       <x:c r="A138" s="1">
-        <x:v>45418.1847222222</x:v>
+        <x:v>45418.1284722222</x:v>
       </x:c>
       <x:c r="B138" s="0" t="s">
         <x:v>148</x:v>
       </x:c>
       <x:c r="C138" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D138" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E138" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F138" s="0" t="n">
-        <x:v>64522412</x:v>
+        <x:v>88958354</x:v>
       </x:c>
     </x:row>
     <x:row r="139" spans="1:14">
       <x:c r="A139" s="1">
-        <x:v>45418.1861111111</x:v>
+        <x:v>45418.1305555556</x:v>
       </x:c>
       <x:c r="B139" s="0" t="s">
         <x:v>149</x:v>
       </x:c>
       <x:c r="C139" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D139" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E139" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F139" s="0" t="n">
-        <x:v>15220599</x:v>
+        <x:v>70288477</x:v>
       </x:c>
     </x:row>
     <x:row r="140" spans="1:14">
       <x:c r="A140" s="1">
-        <x:v>45418.1881944444</x:v>
+        <x:v>45418.1333333333</x:v>
       </x:c>
       <x:c r="B140" s="0" t="s">
         <x:v>150</x:v>
@@ -3960,78 +4050,78 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D140" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E140" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F140" s="0" t="n">
-        <x:v>74865690</x:v>
+        <x:v>24330105</x:v>
       </x:c>
     </x:row>
     <x:row r="141" spans="1:14">
       <x:c r="A141" s="1">
-        <x:v>45418.1895833333</x:v>
+        <x:v>45418.1333333333</x:v>
       </x:c>
       <x:c r="B141" s="0" t="s">
         <x:v>151</x:v>
       </x:c>
       <x:c r="C141" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D141" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E141" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F141" s="0" t="n">
-        <x:v>72860080</x:v>
+        <x:v>56566845</x:v>
       </x:c>
     </x:row>
     <x:row r="142" spans="1:14">
       <x:c r="A142" s="1">
-        <x:v>45418.1916666667</x:v>
+        <x:v>45418.1368055556</x:v>
       </x:c>
       <x:c r="B142" s="0" t="s">
         <x:v>152</x:v>
       </x:c>
       <x:c r="C142" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D142" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E142" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F142" s="0" t="n">
-        <x:v>29167681</x:v>
+        <x:v>95951957</x:v>
       </x:c>
     </x:row>
     <x:row r="143" spans="1:14">
       <x:c r="A143" s="1">
-        <x:v>45418.1930555556</x:v>
+        <x:v>45418.1381944444</x:v>
       </x:c>
       <x:c r="B143" s="0" t="s">
         <x:v>153</x:v>
       </x:c>
       <x:c r="C143" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D143" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E143" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F143" s="0" t="n">
-        <x:v>87008694</x:v>
+        <x:v>10428667</x:v>
       </x:c>
     </x:row>
     <x:row r="144" spans="1:14">
       <x:c r="A144" s="1">
-        <x:v>45418.1944444444</x:v>
+        <x:v>45418.1409722222</x:v>
       </x:c>
       <x:c r="B144" s="0" t="s">
         <x:v>154</x:v>
@@ -4040,144 +4130,144 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D144" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E144" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F144" s="0" t="n">
-        <x:v>34166513</x:v>
+        <x:v>98819760</x:v>
       </x:c>
     </x:row>
     <x:row r="145" spans="1:14">
       <x:c r="A145" s="1">
-        <x:v>45418.1979166667</x:v>
+        <x:v>45418.1416666667</x:v>
       </x:c>
       <x:c r="B145" s="0" t="s">
         <x:v>155</x:v>
       </x:c>
       <x:c r="C145" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D145" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E145" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F145" s="0" t="n">
-        <x:v>97220671</x:v>
+        <x:v>91816476</x:v>
       </x:c>
     </x:row>
     <x:row r="146" spans="1:14">
       <x:c r="A146" s="1">
-        <x:v>45418.2006944444</x:v>
+        <x:v>45418.1423611111</x:v>
       </x:c>
       <x:c r="B146" s="0" t="s">
         <x:v>156</x:v>
       </x:c>
       <x:c r="C146" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D146" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E146" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F146" s="0" t="n">
-        <x:v>92169949</x:v>
+        <x:v>45994672</x:v>
       </x:c>
     </x:row>
     <x:row r="147" spans="1:14">
       <x:c r="A147" s="1">
-        <x:v>45418.2020833333</x:v>
+        <x:v>45418.1444444444</x:v>
       </x:c>
       <x:c r="B147" s="0" t="s">
         <x:v>157</x:v>
       </x:c>
       <x:c r="C147" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D147" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E147" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F147" s="0" t="n">
-        <x:v>89791560</x:v>
+        <x:v>78104274</x:v>
       </x:c>
     </x:row>
     <x:row r="148" spans="1:14">
       <x:c r="A148" s="1">
-        <x:v>45418.2027777778</x:v>
+        <x:v>45418.1465277778</x:v>
       </x:c>
       <x:c r="B148" s="0" t="s">
         <x:v>158</x:v>
       </x:c>
       <x:c r="C148" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D148" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E148" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F148" s="0" t="n">
-        <x:v>37363478</x:v>
+        <x:v>38407318</x:v>
       </x:c>
     </x:row>
     <x:row r="149" spans="1:14">
       <x:c r="A149" s="1">
-        <x:v>45418.2048611111</x:v>
+        <x:v>45418.1493055556</x:v>
       </x:c>
       <x:c r="B149" s="0" t="s">
         <x:v>159</x:v>
       </x:c>
       <x:c r="C149" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D149" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E149" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F149" s="0" t="n">
-        <x:v>57112826</x:v>
+        <x:v>48566742</x:v>
       </x:c>
     </x:row>
     <x:row r="150" spans="1:14">
       <x:c r="A150" s="1">
-        <x:v>45418.2069444444</x:v>
+        <x:v>45418.1506944444</x:v>
       </x:c>
       <x:c r="B150" s="0" t="s">
         <x:v>160</x:v>
       </x:c>
       <x:c r="C150" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D150" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E150" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F150" s="0" t="n">
-        <x:v>51435636</x:v>
+        <x:v>30832031</x:v>
       </x:c>
     </x:row>
     <x:row r="151" spans="1:14">
       <x:c r="A151" s="1">
-        <x:v>45418.2104166667</x:v>
+        <x:v>45418.1541666667</x:v>
       </x:c>
       <x:c r="B151" s="0" t="s">
         <x:v>161</x:v>
       </x:c>
       <x:c r="C151" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D151" s="0" t="s">
         <x:v>12</x:v>
@@ -4186,78 +4276,78 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F151" s="0" t="n">
-        <x:v>80018979</x:v>
+        <x:v>52814396</x:v>
       </x:c>
     </x:row>
     <x:row r="152" spans="1:14">
       <x:c r="A152" s="1">
-        <x:v>45418.2125</x:v>
+        <x:v>45418.15625</x:v>
       </x:c>
       <x:c r="B152" s="0" t="s">
         <x:v>162</x:v>
       </x:c>
       <x:c r="C152" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D152" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E152" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F152" s="0" t="n">
-        <x:v>90469641</x:v>
+        <x:v>59642140</x:v>
       </x:c>
     </x:row>
     <x:row r="153" spans="1:14">
       <x:c r="A153" s="1">
-        <x:v>45418.2131944444</x:v>
+        <x:v>45418.1590277778</x:v>
       </x:c>
       <x:c r="B153" s="0" t="s">
         <x:v>163</x:v>
       </x:c>
       <x:c r="C153" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D153" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E153" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F153" s="0" t="n">
-        <x:v>28351360</x:v>
+        <x:v>58733626</x:v>
       </x:c>
     </x:row>
     <x:row r="154" spans="1:14">
       <x:c r="A154" s="1">
-        <x:v>45418.2152777778</x:v>
+        <x:v>45418.1618055556</x:v>
       </x:c>
       <x:c r="B154" s="0" t="s">
         <x:v>164</x:v>
       </x:c>
       <x:c r="C154" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D154" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E154" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F154" s="0" t="n">
-        <x:v>13523149</x:v>
+        <x:v>84835830</x:v>
       </x:c>
     </x:row>
     <x:row r="155" spans="1:14">
       <x:c r="A155" s="1">
-        <x:v>45418.2173611111</x:v>
+        <x:v>45418.1638888889</x:v>
       </x:c>
       <x:c r="B155" s="0" t="s">
         <x:v>165</x:v>
       </x:c>
       <x:c r="C155" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D155" s="0" t="s">
         <x:v>8</x:v>
@@ -4266,18 +4356,18 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F155" s="0" t="n">
-        <x:v>11614637</x:v>
+        <x:v>82127022</x:v>
       </x:c>
     </x:row>
     <x:row r="156" spans="1:14">
       <x:c r="A156" s="1">
-        <x:v>45418.2180555556</x:v>
+        <x:v>45418.1645833333</x:v>
       </x:c>
       <x:c r="B156" s="0" t="s">
         <x:v>166</x:v>
       </x:c>
       <x:c r="C156" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D156" s="0" t="s">
         <x:v>12</x:v>
@@ -4286,18 +4376,18 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F156" s="0" t="n">
-        <x:v>76468184</x:v>
+        <x:v>10048868</x:v>
       </x:c>
     </x:row>
     <x:row r="157" spans="1:14">
       <x:c r="A157" s="1">
-        <x:v>45418.2194444444</x:v>
+        <x:v>45418.1666666667</x:v>
       </x:c>
       <x:c r="B157" s="0" t="s">
         <x:v>167</x:v>
       </x:c>
       <x:c r="C157" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D157" s="0" t="s">
         <x:v>8</x:v>
@@ -4306,52 +4396,52 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F157" s="0" t="n">
-        <x:v>81297455</x:v>
+        <x:v>47740838</x:v>
       </x:c>
     </x:row>
     <x:row r="158" spans="1:14">
       <x:c r="A158" s="1">
-        <x:v>45418.2222222222</x:v>
+        <x:v>45418.1694444444</x:v>
       </x:c>
       <x:c r="B158" s="0" t="s">
         <x:v>168</x:v>
       </x:c>
       <x:c r="C158" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D158" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E158" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F158" s="0" t="n">
-        <x:v>10067834</x:v>
+        <x:v>16509642</x:v>
       </x:c>
     </x:row>
     <x:row r="159" spans="1:14">
       <x:c r="A159" s="1">
-        <x:v>45418.2243055556</x:v>
+        <x:v>45418.1708333333</x:v>
       </x:c>
       <x:c r="B159" s="0" t="s">
         <x:v>169</x:v>
       </x:c>
       <x:c r="C159" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D159" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E159" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F159" s="0" t="n">
-        <x:v>93286797</x:v>
+        <x:v>83459193</x:v>
       </x:c>
     </x:row>
     <x:row r="160" spans="1:14">
       <x:c r="A160" s="1">
-        <x:v>45418.225</x:v>
+        <x:v>45418.1722222222</x:v>
       </x:c>
       <x:c r="B160" s="0" t="s">
         <x:v>170</x:v>
@@ -4360,44 +4450,44 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D160" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E160" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F160" s="0" t="n">
-        <x:v>63934467</x:v>
+        <x:v>81577080</x:v>
       </x:c>
     </x:row>
     <x:row r="161" spans="1:14">
       <x:c r="A161" s="1">
-        <x:v>45418.2263888889</x:v>
+        <x:v>45418.1736111111</x:v>
       </x:c>
       <x:c r="B161" s="0" t="s">
         <x:v>171</x:v>
       </x:c>
       <x:c r="C161" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D161" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E161" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F161" s="0" t="n">
-        <x:v>45724011</x:v>
+        <x:v>45703844</x:v>
       </x:c>
     </x:row>
     <x:row r="162" spans="1:14">
       <x:c r="A162" s="1">
-        <x:v>45418.2270833333</x:v>
+        <x:v>45418.175</x:v>
       </x:c>
       <x:c r="B162" s="0" t="s">
         <x:v>172</x:v>
       </x:c>
       <x:c r="C162" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D162" s="0" t="s">
         <x:v>12</x:v>
@@ -4406,38 +4496,38 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F162" s="0" t="n">
-        <x:v>23953863</x:v>
+        <x:v>11713264</x:v>
       </x:c>
     </x:row>
     <x:row r="163" spans="1:14">
       <x:c r="A163" s="1">
-        <x:v>45418.2270833333</x:v>
+        <x:v>45418.1756944444</x:v>
       </x:c>
       <x:c r="B163" s="0" t="s">
         <x:v>173</x:v>
       </x:c>
       <x:c r="C163" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D163" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E163" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F163" s="0" t="n">
-        <x:v>78782052</x:v>
+        <x:v>69587729</x:v>
       </x:c>
     </x:row>
     <x:row r="164" spans="1:14">
       <x:c r="A164" s="1">
-        <x:v>45418.2284722222</x:v>
+        <x:v>45418.1763888889</x:v>
       </x:c>
       <x:c r="B164" s="0" t="s">
         <x:v>174</x:v>
       </x:c>
       <x:c r="C164" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D164" s="0" t="s">
         <x:v>12</x:v>
@@ -4446,38 +4536,38 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F164" s="0" t="n">
-        <x:v>28827175</x:v>
+        <x:v>67430415</x:v>
       </x:c>
     </x:row>
     <x:row r="165" spans="1:14">
       <x:c r="A165" s="1">
-        <x:v>45418.23125</x:v>
+        <x:v>45418.1791666667</x:v>
       </x:c>
       <x:c r="B165" s="0" t="s">
         <x:v>175</x:v>
       </x:c>
       <x:c r="C165" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D165" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E165" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F165" s="0" t="n">
-        <x:v>52186430</x:v>
+        <x:v>10637388</x:v>
       </x:c>
     </x:row>
     <x:row r="166" spans="1:14">
       <x:c r="A166" s="1">
-        <x:v>45418.2333333333</x:v>
+        <x:v>45418.1798611111</x:v>
       </x:c>
       <x:c r="B166" s="0" t="s">
         <x:v>176</x:v>
       </x:c>
       <x:c r="C166" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D166" s="0" t="s">
         <x:v>12</x:v>
@@ -4486,52 +4576,52 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F166" s="0" t="n">
-        <x:v>82878653</x:v>
+        <x:v>54315890</x:v>
       </x:c>
     </x:row>
     <x:row r="167" spans="1:14">
       <x:c r="A167" s="1">
-        <x:v>45418.2340277778</x:v>
+        <x:v>45418.1826388889</x:v>
       </x:c>
       <x:c r="B167" s="0" t="s">
         <x:v>177</x:v>
       </x:c>
       <x:c r="C167" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D167" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E167" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F167" s="0" t="n">
-        <x:v>67616121</x:v>
+        <x:v>56749466</x:v>
       </x:c>
     </x:row>
     <x:row r="168" spans="1:14">
       <x:c r="A168" s="1">
-        <x:v>45418.2354166667</x:v>
+        <x:v>45418.1847222222</x:v>
       </x:c>
       <x:c r="B168" s="0" t="s">
         <x:v>178</x:v>
       </x:c>
       <x:c r="C168" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D168" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E168" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F168" s="0" t="n">
-        <x:v>98448265</x:v>
+        <x:v>64522412</x:v>
       </x:c>
     </x:row>
     <x:row r="169" spans="1:14">
       <x:c r="A169" s="1">
-        <x:v>45418.2381944444</x:v>
+        <x:v>45418.1861111111</x:v>
       </x:c>
       <x:c r="B169" s="0" t="s">
         <x:v>179</x:v>
@@ -4540,44 +4630,44 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D169" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E169" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F169" s="0" t="n">
-        <x:v>92430107</x:v>
+        <x:v>15220599</x:v>
       </x:c>
     </x:row>
     <x:row r="170" spans="1:14">
       <x:c r="A170" s="1">
-        <x:v>45418.2395833333</x:v>
+        <x:v>45418.1881944444</x:v>
       </x:c>
       <x:c r="B170" s="0" t="s">
         <x:v>180</x:v>
       </x:c>
       <x:c r="C170" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D170" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E170" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F170" s="0" t="n">
-        <x:v>64604465</x:v>
+        <x:v>74865690</x:v>
       </x:c>
     </x:row>
     <x:row r="171" spans="1:14">
       <x:c r="A171" s="1">
-        <x:v>45418.2402777778</x:v>
+        <x:v>45418.1895833333</x:v>
       </x:c>
       <x:c r="B171" s="0" t="s">
         <x:v>181</x:v>
       </x:c>
       <x:c r="C171" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D171" s="0" t="s">
         <x:v>12</x:v>
@@ -4586,38 +4676,38 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F171" s="0" t="n">
-        <x:v>84974385</x:v>
+        <x:v>72860080</x:v>
       </x:c>
     </x:row>
     <x:row r="172" spans="1:14">
       <x:c r="A172" s="1">
-        <x:v>45418.2402777778</x:v>
+        <x:v>45418.1916666667</x:v>
       </x:c>
       <x:c r="B172" s="0" t="s">
         <x:v>182</x:v>
       </x:c>
       <x:c r="C172" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D172" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E172" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F172" s="0" t="n">
-        <x:v>73222964</x:v>
+        <x:v>29167681</x:v>
       </x:c>
     </x:row>
     <x:row r="173" spans="1:14">
       <x:c r="A173" s="1">
-        <x:v>45418.2409722222</x:v>
+        <x:v>45418.1930555556</x:v>
       </x:c>
       <x:c r="B173" s="0" t="s">
         <x:v>183</x:v>
       </x:c>
       <x:c r="C173" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D173" s="0" t="s">
         <x:v>8</x:v>
@@ -4626,18 +4716,18 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F173" s="0" t="n">
-        <x:v>35417724</x:v>
+        <x:v>87008694</x:v>
       </x:c>
     </x:row>
     <x:row r="174" spans="1:14">
       <x:c r="A174" s="1">
-        <x:v>45418.2444444444</x:v>
+        <x:v>45418.1944444444</x:v>
       </x:c>
       <x:c r="B174" s="0" t="s">
         <x:v>184</x:v>
       </x:c>
       <x:c r="C174" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D174" s="0" t="s">
         <x:v>12</x:v>
@@ -4646,32 +4736,32 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F174" s="0" t="n">
-        <x:v>47898636</x:v>
+        <x:v>34166513</x:v>
       </x:c>
     </x:row>
     <x:row r="175" spans="1:14">
       <x:c r="A175" s="1">
-        <x:v>45418.2458333333</x:v>
+        <x:v>45418.1979166667</x:v>
       </x:c>
       <x:c r="B175" s="0" t="s">
         <x:v>185</x:v>
       </x:c>
       <x:c r="C175" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D175" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E175" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F175" s="0" t="n">
-        <x:v>88866622</x:v>
+        <x:v>97220671</x:v>
       </x:c>
     </x:row>
     <x:row r="176" spans="1:14">
       <x:c r="A176" s="1">
-        <x:v>45418.2472222222</x:v>
+        <x:v>45418.2006944444</x:v>
       </x:c>
       <x:c r="B176" s="0" t="s">
         <x:v>186</x:v>
@@ -4680,144 +4770,144 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D176" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E176" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F176" s="0" t="n">
-        <x:v>46055816</x:v>
+        <x:v>92169949</x:v>
       </x:c>
     </x:row>
     <x:row r="177" spans="1:14">
       <x:c r="A177" s="1">
-        <x:v>45418.2493055556</x:v>
+        <x:v>45418.2020833333</x:v>
       </x:c>
       <x:c r="B177" s="0" t="s">
         <x:v>187</x:v>
       </x:c>
       <x:c r="C177" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D177" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E177" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F177" s="0" t="n">
-        <x:v>80522682</x:v>
+        <x:v>89791560</x:v>
       </x:c>
     </x:row>
     <x:row r="178" spans="1:14">
       <x:c r="A178" s="1">
-        <x:v>45418.2493055556</x:v>
+        <x:v>45418.2027777778</x:v>
       </x:c>
       <x:c r="B178" s="0" t="s">
         <x:v>188</x:v>
       </x:c>
       <x:c r="C178" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D178" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E178" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F178" s="0" t="n">
-        <x:v>41326641</x:v>
+        <x:v>37363478</x:v>
       </x:c>
     </x:row>
     <x:row r="179" spans="1:14">
       <x:c r="A179" s="1">
-        <x:v>45418.2506944444</x:v>
+        <x:v>45418.2048611111</x:v>
       </x:c>
       <x:c r="B179" s="0" t="s">
         <x:v>189</x:v>
       </x:c>
       <x:c r="C179" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D179" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E179" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F179" s="0" t="n">
-        <x:v>91493800</x:v>
+        <x:v>57112826</x:v>
       </x:c>
     </x:row>
     <x:row r="180" spans="1:14">
       <x:c r="A180" s="1">
-        <x:v>45418.2513888889</x:v>
+        <x:v>45418.2069444444</x:v>
       </x:c>
       <x:c r="B180" s="0" t="s">
         <x:v>190</x:v>
       </x:c>
       <x:c r="C180" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D180" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E180" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F180" s="0" t="n">
-        <x:v>88265359</x:v>
+        <x:v>51435636</x:v>
       </x:c>
     </x:row>
     <x:row r="181" spans="1:14">
       <x:c r="A181" s="1">
-        <x:v>45418.2527777778</x:v>
+        <x:v>45418.2104166667</x:v>
       </x:c>
       <x:c r="B181" s="0" t="s">
         <x:v>191</x:v>
       </x:c>
       <x:c r="C181" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D181" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E181" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F181" s="0" t="n">
-        <x:v>14116377</x:v>
+        <x:v>80018979</x:v>
       </x:c>
     </x:row>
     <x:row r="182" spans="1:14">
       <x:c r="A182" s="1">
-        <x:v>45418.2534722222</x:v>
+        <x:v>45418.2125</x:v>
       </x:c>
       <x:c r="B182" s="0" t="s">
         <x:v>192</x:v>
       </x:c>
       <x:c r="C182" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D182" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E182" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F182" s="0" t="n">
-        <x:v>61196937</x:v>
+        <x:v>90469641</x:v>
       </x:c>
     </x:row>
     <x:row r="183" spans="1:14">
       <x:c r="A183" s="1">
-        <x:v>45418.2555555556</x:v>
+        <x:v>45418.2131944444</x:v>
       </x:c>
       <x:c r="B183" s="0" t="s">
         <x:v>193</x:v>
       </x:c>
       <x:c r="C183" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D183" s="0" t="s">
         <x:v>12</x:v>
@@ -4826,32 +4916,32 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F183" s="0" t="n">
-        <x:v>81496798</x:v>
+        <x:v>28351360</x:v>
       </x:c>
     </x:row>
     <x:row r="184" spans="1:14">
       <x:c r="A184" s="1">
-        <x:v>45418.25625</x:v>
+        <x:v>45418.2152777778</x:v>
       </x:c>
       <x:c r="B184" s="0" t="s">
         <x:v>194</x:v>
       </x:c>
       <x:c r="C184" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D184" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E184" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F184" s="0" t="n">
-        <x:v>73634687</x:v>
+        <x:v>13523149</x:v>
       </x:c>
     </x:row>
     <x:row r="185" spans="1:14">
       <x:c r="A185" s="1">
-        <x:v>45418.2576388889</x:v>
+        <x:v>45418.2173611111</x:v>
       </x:c>
       <x:c r="B185" s="0" t="s">
         <x:v>195</x:v>
@@ -4860,138 +4950,138 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D185" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E185" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F185" s="0" t="n">
-        <x:v>69377633</x:v>
+        <x:v>11614637</x:v>
       </x:c>
     </x:row>
     <x:row r="186" spans="1:14">
       <x:c r="A186" s="1">
-        <x:v>45418.2611111111</x:v>
+        <x:v>45418.2180555556</x:v>
       </x:c>
       <x:c r="B186" s="0" t="s">
         <x:v>196</x:v>
       </x:c>
       <x:c r="C186" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D186" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E186" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F186" s="0" t="n">
-        <x:v>34362899</x:v>
+        <x:v>76468184</x:v>
       </x:c>
     </x:row>
     <x:row r="187" spans="1:14">
       <x:c r="A187" s="1">
-        <x:v>45418.2625</x:v>
+        <x:v>45418.2194444444</x:v>
       </x:c>
       <x:c r="B187" s="0" t="s">
         <x:v>197</x:v>
       </x:c>
       <x:c r="C187" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D187" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E187" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F187" s="0" t="n">
-        <x:v>35527146</x:v>
+        <x:v>81297455</x:v>
       </x:c>
     </x:row>
     <x:row r="188" spans="1:14">
       <x:c r="A188" s="1">
-        <x:v>45418.2631944444</x:v>
+        <x:v>45418.2222222222</x:v>
       </x:c>
       <x:c r="B188" s="0" t="s">
         <x:v>198</x:v>
       </x:c>
       <x:c r="C188" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D188" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E188" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F188" s="0" t="n">
-        <x:v>59052559</x:v>
+        <x:v>10067834</x:v>
       </x:c>
     </x:row>
     <x:row r="189" spans="1:14">
       <x:c r="A189" s="1">
-        <x:v>45418.2652777778</x:v>
+        <x:v>45418.2243055556</x:v>
       </x:c>
       <x:c r="B189" s="0" t="s">
         <x:v>199</x:v>
       </x:c>
       <x:c r="C189" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D189" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E189" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F189" s="0" t="n">
-        <x:v>55610792</x:v>
+        <x:v>93286797</x:v>
       </x:c>
     </x:row>
     <x:row r="190" spans="1:14">
       <x:c r="A190" s="1">
-        <x:v>45418.2659722222</x:v>
+        <x:v>45418.225</x:v>
       </x:c>
       <x:c r="B190" s="0" t="s">
         <x:v>200</x:v>
       </x:c>
       <x:c r="C190" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D190" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E190" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F190" s="0" t="n">
-        <x:v>76765480</x:v>
+        <x:v>63934467</x:v>
       </x:c>
     </x:row>
     <x:row r="191" spans="1:14">
       <x:c r="A191" s="1">
-        <x:v>45418.26875</x:v>
+        <x:v>45418.2263888889</x:v>
       </x:c>
       <x:c r="B191" s="0" t="s">
         <x:v>201</x:v>
       </x:c>
       <x:c r="C191" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D191" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E191" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F191" s="0" t="n">
-        <x:v>48664364</x:v>
+        <x:v>45724011</x:v>
       </x:c>
     </x:row>
     <x:row r="192" spans="1:14">
       <x:c r="A192" s="1">
-        <x:v>45418.2701388889</x:v>
+        <x:v>45418.2270833333</x:v>
       </x:c>
       <x:c r="B192" s="0" t="s">
         <x:v>202</x:v>
@@ -5000,24 +5090,24 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D192" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E192" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F192" s="0" t="n">
-        <x:v>76827061</x:v>
+        <x:v>23953863</x:v>
       </x:c>
     </x:row>
     <x:row r="193" spans="1:14">
       <x:c r="A193" s="1">
-        <x:v>45418.2729166667</x:v>
+        <x:v>45418.2270833333</x:v>
       </x:c>
       <x:c r="B193" s="0" t="s">
         <x:v>203</x:v>
       </x:c>
       <x:c r="C193" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D193" s="0" t="s">
         <x:v>8</x:v>
@@ -5026,18 +5116,18 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F193" s="0" t="n">
-        <x:v>99512062</x:v>
+        <x:v>78782052</x:v>
       </x:c>
     </x:row>
     <x:row r="194" spans="1:14">
       <x:c r="A194" s="1">
-        <x:v>45418.2743055556</x:v>
+        <x:v>45418.2284722222</x:v>
       </x:c>
       <x:c r="B194" s="0" t="s">
         <x:v>204</x:v>
       </x:c>
       <x:c r="C194" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D194" s="0" t="s">
         <x:v>12</x:v>
@@ -5046,32 +5136,32 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F194" s="0" t="n">
-        <x:v>67462763</x:v>
+        <x:v>28827175</x:v>
       </x:c>
     </x:row>
     <x:row r="195" spans="1:14">
       <x:c r="A195" s="1">
-        <x:v>45418.2756944444</x:v>
+        <x:v>45418.23125</x:v>
       </x:c>
       <x:c r="B195" s="0" t="s">
         <x:v>205</x:v>
       </x:c>
       <x:c r="C195" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D195" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E195" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F195" s="0" t="n">
-        <x:v>85992056</x:v>
+        <x:v>52186430</x:v>
       </x:c>
     </x:row>
     <x:row r="196" spans="1:14">
       <x:c r="A196" s="1">
-        <x:v>45418.2763888889</x:v>
+        <x:v>45418.2333333333</x:v>
       </x:c>
       <x:c r="B196" s="0" t="s">
         <x:v>206</x:v>
@@ -5086,12 +5176,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F196" s="0" t="n">
-        <x:v>36876610</x:v>
+        <x:v>82878653</x:v>
       </x:c>
     </x:row>
     <x:row r="197" spans="1:14">
       <x:c r="A197" s="1">
-        <x:v>45418.2777777778</x:v>
+        <x:v>45418.2340277778</x:v>
       </x:c>
       <x:c r="B197" s="0" t="s">
         <x:v>207</x:v>
@@ -5100,18 +5190,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D197" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E197" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F197" s="0" t="n">
-        <x:v>14237391</x:v>
+        <x:v>67616121</x:v>
       </x:c>
     </x:row>
     <x:row r="198" spans="1:14">
       <x:c r="A198" s="1">
-        <x:v>45418.2798611111</x:v>
+        <x:v>45418.2354166667</x:v>
       </x:c>
       <x:c r="B198" s="0" t="s">
         <x:v>208</x:v>
@@ -5120,38 +5210,38 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D198" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E198" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F198" s="0" t="n">
-        <x:v>42980468</x:v>
+        <x:v>98448265</x:v>
       </x:c>
     </x:row>
     <x:row r="199" spans="1:14">
       <x:c r="A199" s="1">
-        <x:v>45418.2805555556</x:v>
+        <x:v>45418.2381944444</x:v>
       </x:c>
       <x:c r="B199" s="0" t="s">
         <x:v>209</x:v>
       </x:c>
       <x:c r="C199" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D199" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E199" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F199" s="0" t="n">
-        <x:v>58462429</x:v>
+        <x:v>92430107</x:v>
       </x:c>
     </x:row>
     <x:row r="200" spans="1:14">
       <x:c r="A200" s="1">
-        <x:v>45418.2826388889</x:v>
+        <x:v>45418.2395833333</x:v>
       </x:c>
       <x:c r="B200" s="0" t="s">
         <x:v>210</x:v>
@@ -5160,44 +5250,44 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D200" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E200" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F200" s="0" t="n">
-        <x:v>40104132</x:v>
+        <x:v>64604465</x:v>
       </x:c>
     </x:row>
     <x:row r="201" spans="1:14">
       <x:c r="A201" s="1">
-        <x:v>45418.2861111111</x:v>
+        <x:v>45418.2402777778</x:v>
       </x:c>
       <x:c r="B201" s="0" t="s">
         <x:v>211</x:v>
       </x:c>
       <x:c r="C201" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D201" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E201" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F201" s="0" t="n">
-        <x:v>11430228</x:v>
+        <x:v>84974385</x:v>
       </x:c>
     </x:row>
     <x:row r="202" spans="1:14">
       <x:c r="A202" s="1">
-        <x:v>45418.2881944444</x:v>
+        <x:v>45418.2402777778</x:v>
       </x:c>
       <x:c r="B202" s="0" t="s">
         <x:v>212</x:v>
       </x:c>
       <x:c r="C202" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D202" s="0" t="s">
         <x:v>8</x:v>
@@ -5206,12 +5296,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F202" s="0" t="n">
-        <x:v>59140876</x:v>
+        <x:v>73222964</x:v>
       </x:c>
     </x:row>
     <x:row r="203" spans="1:14">
       <x:c r="A203" s="1">
-        <x:v>45418.2916666667</x:v>
+        <x:v>45418.2409722222</x:v>
       </x:c>
       <x:c r="B203" s="0" t="s">
         <x:v>213</x:v>
@@ -5220,64 +5310,64 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D203" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E203" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F203" s="0" t="n">
-        <x:v>88018258</x:v>
+        <x:v>35417724</x:v>
       </x:c>
     </x:row>
     <x:row r="204" spans="1:14">
       <x:c r="A204" s="1">
-        <x:v>45418.2944444444</x:v>
+        <x:v>45418.2444444444</x:v>
       </x:c>
       <x:c r="B204" s="0" t="s">
         <x:v>214</x:v>
       </x:c>
       <x:c r="C204" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D204" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E204" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F204" s="0" t="n">
-        <x:v>54103450</x:v>
+        <x:v>47898636</x:v>
       </x:c>
     </x:row>
     <x:row r="205" spans="1:14">
       <x:c r="A205" s="1">
-        <x:v>45418.2965277778</x:v>
+        <x:v>45418.2458333333</x:v>
       </x:c>
       <x:c r="B205" s="0" t="s">
         <x:v>215</x:v>
       </x:c>
       <x:c r="C205" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D205" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E205" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F205" s="0" t="n">
-        <x:v>35846970</x:v>
+        <x:v>88866622</x:v>
       </x:c>
     </x:row>
     <x:row r="206" spans="1:14">
       <x:c r="A206" s="1">
-        <x:v>45418.3</x:v>
+        <x:v>45418.2472222222</x:v>
       </x:c>
       <x:c r="B206" s="0" t="s">
         <x:v>216</x:v>
       </x:c>
       <x:c r="C206" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D206" s="0" t="s">
         <x:v>8</x:v>
@@ -5286,38 +5376,38 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F206" s="0" t="n">
-        <x:v>82165228</x:v>
+        <x:v>46055816</x:v>
       </x:c>
     </x:row>
     <x:row r="207" spans="1:14">
       <x:c r="A207" s="1">
-        <x:v>45418.3020833333</x:v>
+        <x:v>45418.2493055556</x:v>
       </x:c>
       <x:c r="B207" s="0" t="s">
         <x:v>217</x:v>
       </x:c>
       <x:c r="C207" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D207" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E207" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F207" s="0" t="n">
-        <x:v>95526033</x:v>
+        <x:v>80522682</x:v>
       </x:c>
     </x:row>
     <x:row r="208" spans="1:14">
       <x:c r="A208" s="1">
-        <x:v>45418.3041666667</x:v>
+        <x:v>45418.2493055556</x:v>
       </x:c>
       <x:c r="B208" s="0" t="s">
         <x:v>218</x:v>
       </x:c>
       <x:c r="C208" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D208" s="0" t="s">
         <x:v>12</x:v>
@@ -5326,58 +5416,58 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F208" s="0" t="n">
-        <x:v>55398856</x:v>
+        <x:v>41326641</x:v>
       </x:c>
     </x:row>
     <x:row r="209" spans="1:14">
       <x:c r="A209" s="1">
-        <x:v>45418.3055555556</x:v>
+        <x:v>45418.2506944444</x:v>
       </x:c>
       <x:c r="B209" s="0" t="s">
         <x:v>219</x:v>
       </x:c>
       <x:c r="C209" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D209" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E209" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F209" s="0" t="n">
-        <x:v>51443919</x:v>
+        <x:v>91493800</x:v>
       </x:c>
     </x:row>
     <x:row r="210" spans="1:14">
       <x:c r="A210" s="1">
-        <x:v>45418.30625</x:v>
+        <x:v>45418.2513888889</x:v>
       </x:c>
       <x:c r="B210" s="0" t="s">
         <x:v>220</x:v>
       </x:c>
       <x:c r="C210" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D210" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E210" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F210" s="0" t="n">
-        <x:v>60791226</x:v>
+        <x:v>88265359</x:v>
       </x:c>
     </x:row>
     <x:row r="211" spans="1:14">
       <x:c r="A211" s="1">
-        <x:v>45418.3090277778</x:v>
+        <x:v>45418.2527777778</x:v>
       </x:c>
       <x:c r="B211" s="0" t="s">
         <x:v>221</x:v>
       </x:c>
       <x:c r="C211" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D211" s="0" t="s">
         <x:v>8</x:v>
@@ -5386,52 +5476,52 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F211" s="0" t="n">
-        <x:v>98382096</x:v>
+        <x:v>14116377</x:v>
       </x:c>
     </x:row>
     <x:row r="212" spans="1:14">
       <x:c r="A212" s="1">
-        <x:v>45418.3118055556</x:v>
+        <x:v>45418.2534722222</x:v>
       </x:c>
       <x:c r="B212" s="0" t="s">
         <x:v>222</x:v>
       </x:c>
       <x:c r="C212" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D212" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E212" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F212" s="0" t="n">
-        <x:v>69130554</x:v>
+        <x:v>61196937</x:v>
       </x:c>
     </x:row>
     <x:row r="213" spans="1:14">
       <x:c r="A213" s="1">
-        <x:v>45418.3145833333</x:v>
+        <x:v>45418.2555555556</x:v>
       </x:c>
       <x:c r="B213" s="0" t="s">
         <x:v>223</x:v>
       </x:c>
       <x:c r="C213" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D213" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E213" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F213" s="0" t="n">
-        <x:v>87550105</x:v>
+        <x:v>81496798</x:v>
       </x:c>
     </x:row>
     <x:row r="214" spans="1:14">
       <x:c r="A214" s="1">
-        <x:v>45418.3152777778</x:v>
+        <x:v>45418.25625</x:v>
       </x:c>
       <x:c r="B214" s="0" t="s">
         <x:v>224</x:v>
@@ -5440,24 +5530,24 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D214" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E214" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F214" s="0" t="n">
-        <x:v>86717784</x:v>
+        <x:v>73634687</x:v>
       </x:c>
     </x:row>
     <x:row r="215" spans="1:14">
       <x:c r="A215" s="1">
-        <x:v>45418.3173611111</x:v>
+        <x:v>45418.2576388889</x:v>
       </x:c>
       <x:c r="B215" s="0" t="s">
         <x:v>225</x:v>
       </x:c>
       <x:c r="C215" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D215" s="0" t="s">
         <x:v>12</x:v>
@@ -5466,32 +5556,32 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F215" s="0" t="n">
-        <x:v>96022898</x:v>
+        <x:v>69377633</x:v>
       </x:c>
     </x:row>
     <x:row r="216" spans="1:14">
       <x:c r="A216" s="1">
-        <x:v>45418.3208333333</x:v>
+        <x:v>45418.2611111111</x:v>
       </x:c>
       <x:c r="B216" s="0" t="s">
         <x:v>226</x:v>
       </x:c>
       <x:c r="C216" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D216" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E216" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F216" s="0" t="n">
-        <x:v>18974938</x:v>
+        <x:v>34362899</x:v>
       </x:c>
     </x:row>
     <x:row r="217" spans="1:14">
       <x:c r="A217" s="1">
-        <x:v>45418.3208333333</x:v>
+        <x:v>45418.2625</x:v>
       </x:c>
       <x:c r="B217" s="0" t="s">
         <x:v>227</x:v>
@@ -5500,24 +5590,24 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D217" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E217" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F217" s="0" t="n">
-        <x:v>78906923</x:v>
+        <x:v>35527146</x:v>
       </x:c>
     </x:row>
     <x:row r="218" spans="1:14">
       <x:c r="A218" s="1">
-        <x:v>45418.3236111111</x:v>
+        <x:v>45418.2631944444</x:v>
       </x:c>
       <x:c r="B218" s="0" t="s">
         <x:v>228</x:v>
       </x:c>
       <x:c r="C218" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D218" s="0" t="s">
         <x:v>8</x:v>
@@ -5526,12 +5616,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F218" s="0" t="n">
-        <x:v>28748213</x:v>
+        <x:v>59052559</x:v>
       </x:c>
     </x:row>
     <x:row r="219" spans="1:14">
       <x:c r="A219" s="1">
-        <x:v>45418.3243055556</x:v>
+        <x:v>45418.2652777778</x:v>
       </x:c>
       <x:c r="B219" s="0" t="s">
         <x:v>229</x:v>
@@ -5540,144 +5630,144 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D219" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E219" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F219" s="0" t="n">
-        <x:v>98183367</x:v>
+        <x:v>55610792</x:v>
       </x:c>
     </x:row>
     <x:row r="220" spans="1:14">
       <x:c r="A220" s="1">
-        <x:v>45418.3256944444</x:v>
+        <x:v>45418.2659722222</x:v>
       </x:c>
       <x:c r="B220" s="0" t="s">
         <x:v>230</x:v>
       </x:c>
       <x:c r="C220" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D220" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E220" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F220" s="0" t="n">
-        <x:v>76265236</x:v>
+        <x:v>76765480</x:v>
       </x:c>
     </x:row>
     <x:row r="221" spans="1:14">
       <x:c r="A221" s="1">
-        <x:v>45418.3291666667</x:v>
+        <x:v>45418.26875</x:v>
       </x:c>
       <x:c r="B221" s="0" t="s">
         <x:v>231</x:v>
       </x:c>
       <x:c r="C221" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D221" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E221" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F221" s="0" t="n">
-        <x:v>26250892</x:v>
+        <x:v>48664364</x:v>
       </x:c>
     </x:row>
     <x:row r="222" spans="1:14">
       <x:c r="A222" s="1">
-        <x:v>45418.3298611111</x:v>
+        <x:v>45418.2701388889</x:v>
       </x:c>
       <x:c r="B222" s="0" t="s">
         <x:v>232</x:v>
       </x:c>
       <x:c r="C222" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D222" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E222" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F222" s="0" t="n">
-        <x:v>74984015</x:v>
+        <x:v>76827061</x:v>
       </x:c>
     </x:row>
     <x:row r="223" spans="1:14">
       <x:c r="A223" s="1">
-        <x:v>45418.3326388889</x:v>
+        <x:v>45418.2729166667</x:v>
       </x:c>
       <x:c r="B223" s="0" t="s">
         <x:v>233</x:v>
       </x:c>
       <x:c r="C223" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D223" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E223" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F223" s="0" t="n">
-        <x:v>76975211</x:v>
+        <x:v>99512062</x:v>
       </x:c>
     </x:row>
     <x:row r="224" spans="1:14">
       <x:c r="A224" s="1">
-        <x:v>45418.3340277778</x:v>
+        <x:v>45418.2743055556</x:v>
       </x:c>
       <x:c r="B224" s="0" t="s">
         <x:v>234</x:v>
       </x:c>
       <x:c r="C224" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D224" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E224" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F224" s="0" t="n">
-        <x:v>64621408</x:v>
+        <x:v>67462763</x:v>
       </x:c>
     </x:row>
     <x:row r="225" spans="1:14">
       <x:c r="A225" s="1">
-        <x:v>45418.3347222222</x:v>
+        <x:v>45418.2756944444</x:v>
       </x:c>
       <x:c r="B225" s="0" t="s">
         <x:v>235</x:v>
       </x:c>
       <x:c r="C225" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D225" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E225" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F225" s="0" t="n">
-        <x:v>92592247</x:v>
+        <x:v>85992056</x:v>
       </x:c>
     </x:row>
     <x:row r="226" spans="1:14">
       <x:c r="A226" s="1">
-        <x:v>45418.3361111111</x:v>
+        <x:v>45418.2763888889</x:v>
       </x:c>
       <x:c r="B226" s="0" t="s">
         <x:v>236</x:v>
       </x:c>
       <x:c r="C226" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D226" s="0" t="s">
         <x:v>12</x:v>
@@ -5686,52 +5776,52 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F226" s="0" t="n">
-        <x:v>50327738</x:v>
+        <x:v>36876610</x:v>
       </x:c>
     </x:row>
     <x:row r="227" spans="1:14">
       <x:c r="A227" s="1">
-        <x:v>45418.3375</x:v>
+        <x:v>45418.2777777778</x:v>
       </x:c>
       <x:c r="B227" s="0" t="s">
         <x:v>237</x:v>
       </x:c>
       <x:c r="C227" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D227" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E227" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F227" s="0" t="n">
-        <x:v>64120818</x:v>
+        <x:v>14237391</x:v>
       </x:c>
     </x:row>
     <x:row r="228" spans="1:14">
       <x:c r="A228" s="1">
-        <x:v>45418.3409722222</x:v>
+        <x:v>45418.2798611111</x:v>
       </x:c>
       <x:c r="B228" s="0" t="s">
         <x:v>238</x:v>
       </x:c>
       <x:c r="C228" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D228" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E228" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F228" s="0" t="n">
-        <x:v>60072046</x:v>
+        <x:v>42980468</x:v>
       </x:c>
     </x:row>
     <x:row r="229" spans="1:14">
       <x:c r="A229" s="1">
-        <x:v>45418.3423611111</x:v>
+        <x:v>45418.2805555556</x:v>
       </x:c>
       <x:c r="B229" s="0" t="s">
         <x:v>239</x:v>
@@ -5746,92 +5836,92 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F229" s="0" t="n">
-        <x:v>37644531</x:v>
+        <x:v>58462429</x:v>
       </x:c>
     </x:row>
     <x:row r="230" spans="1:14">
       <x:c r="A230" s="1">
-        <x:v>45418.3451388889</x:v>
+        <x:v>45418.2826388889</x:v>
       </x:c>
       <x:c r="B230" s="0" t="s">
         <x:v>240</x:v>
       </x:c>
       <x:c r="C230" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D230" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E230" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F230" s="0" t="n">
-        <x:v>44336410</x:v>
+        <x:v>40104132</x:v>
       </x:c>
     </x:row>
     <x:row r="231" spans="1:14">
       <x:c r="A231" s="1">
-        <x:v>45418.3472222222</x:v>
+        <x:v>45418.2861111111</x:v>
       </x:c>
       <x:c r="B231" s="0" t="s">
         <x:v>241</x:v>
       </x:c>
       <x:c r="C231" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D231" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E231" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F231" s="0" t="n">
-        <x:v>44953650</x:v>
+        <x:v>11430228</x:v>
       </x:c>
     </x:row>
     <x:row r="232" spans="1:14">
       <x:c r="A232" s="1">
-        <x:v>45418.3486111111</x:v>
+        <x:v>45418.2881944444</x:v>
       </x:c>
       <x:c r="B232" s="0" t="s">
         <x:v>242</x:v>
       </x:c>
       <x:c r="C232" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D232" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E232" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F232" s="0" t="n">
-        <x:v>46988533</x:v>
+        <x:v>59140876</x:v>
       </x:c>
     </x:row>
     <x:row r="233" spans="1:14">
       <x:c r="A233" s="1">
-        <x:v>45418.3520833333</x:v>
+        <x:v>45418.2916666667</x:v>
       </x:c>
       <x:c r="B233" s="0" t="s">
         <x:v>243</x:v>
       </x:c>
       <x:c r="C233" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D233" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E233" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F233" s="0" t="n">
-        <x:v>95154048</x:v>
+        <x:v>88018258</x:v>
       </x:c>
     </x:row>
     <x:row r="234" spans="1:14">
       <x:c r="A234" s="1">
-        <x:v>45418.3541666667</x:v>
+        <x:v>45418.2944444444</x:v>
       </x:c>
       <x:c r="B234" s="0" t="s">
         <x:v>244</x:v>
@@ -5840,78 +5930,78 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D234" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E234" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F234" s="0" t="n">
-        <x:v>22642147</x:v>
+        <x:v>54103450</x:v>
       </x:c>
     </x:row>
     <x:row r="235" spans="1:14">
       <x:c r="A235" s="1">
-        <x:v>45418.3569444444</x:v>
+        <x:v>45418.2965277778</x:v>
       </x:c>
       <x:c r="B235" s="0" t="s">
         <x:v>245</x:v>
       </x:c>
       <x:c r="C235" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D235" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E235" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F235" s="0" t="n">
-        <x:v>11051756</x:v>
+        <x:v>35846970</x:v>
       </x:c>
     </x:row>
     <x:row r="236" spans="1:14">
       <x:c r="A236" s="1">
-        <x:v>45418.3583333333</x:v>
+        <x:v>45418.3</x:v>
       </x:c>
       <x:c r="B236" s="0" t="s">
         <x:v>246</x:v>
       </x:c>
       <x:c r="C236" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D236" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E236" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F236" s="0" t="n">
-        <x:v>60269654</x:v>
+        <x:v>82165228</x:v>
       </x:c>
     </x:row>
     <x:row r="237" spans="1:14">
       <x:c r="A237" s="1">
-        <x:v>45418.3597222222</x:v>
+        <x:v>45418.3020833333</x:v>
       </x:c>
       <x:c r="B237" s="0" t="s">
         <x:v>247</x:v>
       </x:c>
       <x:c r="C237" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D237" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E237" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F237" s="0" t="n">
-        <x:v>51403242</x:v>
+        <x:v>95526033</x:v>
       </x:c>
     </x:row>
     <x:row r="238" spans="1:14">
       <x:c r="A238" s="1">
-        <x:v>45418.3611111111</x:v>
+        <x:v>45418.3041666667</x:v>
       </x:c>
       <x:c r="B238" s="0" t="s">
         <x:v>248</x:v>
@@ -5920,18 +6010,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D238" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E238" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F238" s="0" t="n">
-        <x:v>23554685</x:v>
+        <x:v>55398856</x:v>
       </x:c>
     </x:row>
     <x:row r="239" spans="1:14">
       <x:c r="A239" s="1">
-        <x:v>45418.3625</x:v>
+        <x:v>45418.3055555556</x:v>
       </x:c>
       <x:c r="B239" s="0" t="s">
         <x:v>249</x:v>
@@ -5946,12 +6036,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F239" s="0" t="n">
-        <x:v>24863987</x:v>
+        <x:v>51443919</x:v>
       </x:c>
     </x:row>
     <x:row r="240" spans="1:14">
       <x:c r="A240" s="1">
-        <x:v>45418.3638888889</x:v>
+        <x:v>45418.30625</x:v>
       </x:c>
       <x:c r="B240" s="0" t="s">
         <x:v>250</x:v>
@@ -5960,98 +6050,98 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D240" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E240" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F240" s="0" t="n">
-        <x:v>98063611</x:v>
+        <x:v>60791226</x:v>
       </x:c>
     </x:row>
     <x:row r="241" spans="1:14">
       <x:c r="A241" s="1">
-        <x:v>45418.3666666667</x:v>
+        <x:v>45418.3090277778</x:v>
       </x:c>
       <x:c r="B241" s="0" t="s">
         <x:v>251</x:v>
       </x:c>
       <x:c r="C241" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D241" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E241" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F241" s="0" t="n">
-        <x:v>52037889</x:v>
+        <x:v>98382096</x:v>
       </x:c>
     </x:row>
     <x:row r="242" spans="1:14">
       <x:c r="A242" s="1">
-        <x:v>45418.3680555556</x:v>
+        <x:v>45418.3118055556</x:v>
       </x:c>
       <x:c r="B242" s="0" t="s">
         <x:v>252</x:v>
       </x:c>
       <x:c r="C242" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D242" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E242" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F242" s="0" t="n">
-        <x:v>58568313</x:v>
+        <x:v>69130554</x:v>
       </x:c>
     </x:row>
     <x:row r="243" spans="1:14">
       <x:c r="A243" s="1">
-        <x:v>45418.3708333333</x:v>
+        <x:v>45418.3145833333</x:v>
       </x:c>
       <x:c r="B243" s="0" t="s">
         <x:v>253</x:v>
       </x:c>
       <x:c r="C243" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D243" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E243" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F243" s="0" t="n">
-        <x:v>41802058</x:v>
+        <x:v>87550105</x:v>
       </x:c>
     </x:row>
     <x:row r="244" spans="1:14">
       <x:c r="A244" s="1">
-        <x:v>45418.3715277778</x:v>
+        <x:v>45418.3152777778</x:v>
       </x:c>
       <x:c r="B244" s="0" t="s">
         <x:v>254</x:v>
       </x:c>
       <x:c r="C244" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D244" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E244" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F244" s="0" t="n">
-        <x:v>41189497</x:v>
+        <x:v>86717784</x:v>
       </x:c>
     </x:row>
     <x:row r="245" spans="1:14">
       <x:c r="A245" s="1">
-        <x:v>45418.3743055556</x:v>
+        <x:v>45418.3173611111</x:v>
       </x:c>
       <x:c r="B245" s="0" t="s">
         <x:v>255</x:v>
@@ -6066,12 +6156,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F245" s="0" t="n">
-        <x:v>25723020</x:v>
+        <x:v>96022898</x:v>
       </x:c>
     </x:row>
     <x:row r="246" spans="1:14">
       <x:c r="A246" s="1">
-        <x:v>45418.3763888889</x:v>
+        <x:v>45418.3208333333</x:v>
       </x:c>
       <x:c r="B246" s="0" t="s">
         <x:v>256</x:v>
@@ -6080,24 +6170,24 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D246" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E246" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F246" s="0" t="n">
-        <x:v>83739665</x:v>
+        <x:v>18974938</x:v>
       </x:c>
     </x:row>
     <x:row r="247" spans="1:14">
       <x:c r="A247" s="1">
-        <x:v>45418.3784722222</x:v>
+        <x:v>45418.3208333333</x:v>
       </x:c>
       <x:c r="B247" s="0" t="s">
         <x:v>257</x:v>
       </x:c>
       <x:c r="C247" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D247" s="0" t="s">
         <x:v>8</x:v>
@@ -6106,12 +6196,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F247" s="0" t="n">
-        <x:v>94440068</x:v>
+        <x:v>78906923</x:v>
       </x:c>
     </x:row>
     <x:row r="248" spans="1:14">
       <x:c r="A248" s="1">
-        <x:v>45418.3805555556</x:v>
+        <x:v>45418.3236111111</x:v>
       </x:c>
       <x:c r="B248" s="0" t="s">
         <x:v>258</x:v>
@@ -6120,58 +6210,58 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D248" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E248" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F248" s="0" t="n">
-        <x:v>79673521</x:v>
+        <x:v>28748213</x:v>
       </x:c>
     </x:row>
     <x:row r="249" spans="1:14">
       <x:c r="A249" s="1">
-        <x:v>45418.3833333333</x:v>
+        <x:v>45418.3243055556</x:v>
       </x:c>
       <x:c r="B249" s="0" t="s">
         <x:v>259</x:v>
       </x:c>
       <x:c r="C249" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D249" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E249" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F249" s="0" t="n">
-        <x:v>69694990</x:v>
+        <x:v>98183367</x:v>
       </x:c>
     </x:row>
     <x:row r="250" spans="1:14">
       <x:c r="A250" s="1">
-        <x:v>45418.3847222222</x:v>
+        <x:v>45418.3256944444</x:v>
       </x:c>
       <x:c r="B250" s="0" t="s">
         <x:v>260</x:v>
       </x:c>
       <x:c r="C250" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D250" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E250" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F250" s="0" t="n">
-        <x:v>46094520</x:v>
+        <x:v>76265236</x:v>
       </x:c>
     </x:row>
     <x:row r="251" spans="1:14">
       <x:c r="A251" s="1">
-        <x:v>45418.3875</x:v>
+        <x:v>45418.3291666667</x:v>
       </x:c>
       <x:c r="B251" s="0" t="s">
         <x:v>261</x:v>
@@ -6180,12 +6270,612 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D251" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E251" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F251" s="0" t="n">
+        <x:v>26250892</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="252" spans="1:14">
+      <x:c r="A252" s="1">
+        <x:v>45418.3298611111</x:v>
+      </x:c>
+      <x:c r="B252" s="0" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="C252" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D252" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E252" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F252" s="0" t="n">
+        <x:v>74984015</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="253" spans="1:14">
+      <x:c r="A253" s="1">
+        <x:v>45418.3326388889</x:v>
+      </x:c>
+      <x:c r="B253" s="0" t="s">
+        <x:v>263</x:v>
+      </x:c>
+      <x:c r="C253" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D253" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E253" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F253" s="0" t="n">
+        <x:v>76975211</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="254" spans="1:14">
+      <x:c r="A254" s="1">
+        <x:v>45418.3340277778</x:v>
+      </x:c>
+      <x:c r="B254" s="0" t="s">
+        <x:v>264</x:v>
+      </x:c>
+      <x:c r="C254" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D254" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E254" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F254" s="0" t="n">
+        <x:v>64621408</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="255" spans="1:14">
+      <x:c r="A255" s="1">
+        <x:v>45418.3347222222</x:v>
+      </x:c>
+      <x:c r="B255" s="0" t="s">
+        <x:v>265</x:v>
+      </x:c>
+      <x:c r="C255" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D255" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E255" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F255" s="0" t="n">
+        <x:v>92592247</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="256" spans="1:14">
+      <x:c r="A256" s="1">
+        <x:v>45418.3361111111</x:v>
+      </x:c>
+      <x:c r="B256" s="0" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="C256" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D256" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E256" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F256" s="0" t="n">
+        <x:v>50327738</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="257" spans="1:14">
+      <x:c r="A257" s="1">
+        <x:v>45418.3375</x:v>
+      </x:c>
+      <x:c r="B257" s="0" t="s">
+        <x:v>267</x:v>
+      </x:c>
+      <x:c r="C257" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D257" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E257" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F257" s="0" t="n">
+        <x:v>64120818</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="258" spans="1:14">
+      <x:c r="A258" s="1">
+        <x:v>45418.3409722222</x:v>
+      </x:c>
+      <x:c r="B258" s="0" t="s">
+        <x:v>268</x:v>
+      </x:c>
+      <x:c r="C258" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D258" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E258" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F258" s="0" t="n">
+        <x:v>60072046</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="259" spans="1:14">
+      <x:c r="A259" s="1">
+        <x:v>45418.3423611111</x:v>
+      </x:c>
+      <x:c r="B259" s="0" t="s">
+        <x:v>269</x:v>
+      </x:c>
+      <x:c r="C259" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D259" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E259" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F259" s="0" t="n">
+        <x:v>37644531</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="260" spans="1:14">
+      <x:c r="A260" s="1">
+        <x:v>45418.3451388889</x:v>
+      </x:c>
+      <x:c r="B260" s="0" t="s">
+        <x:v>270</x:v>
+      </x:c>
+      <x:c r="C260" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D260" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E260" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F260" s="0" t="n">
+        <x:v>44336410</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="261" spans="1:14">
+      <x:c r="A261" s="1">
+        <x:v>45418.3472222222</x:v>
+      </x:c>
+      <x:c r="B261" s="0" t="s">
+        <x:v>271</x:v>
+      </x:c>
+      <x:c r="C261" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D261" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E261" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F261" s="0" t="n">
+        <x:v>44953650</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="262" spans="1:14">
+      <x:c r="A262" s="1">
+        <x:v>45418.3486111111</x:v>
+      </x:c>
+      <x:c r="B262" s="0" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="C262" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D262" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E262" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F262" s="0" t="n">
+        <x:v>46988533</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="263" spans="1:14">
+      <x:c r="A263" s="1">
+        <x:v>45418.3520833333</x:v>
+      </x:c>
+      <x:c r="B263" s="0" t="s">
+        <x:v>273</x:v>
+      </x:c>
+      <x:c r="C263" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D263" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E263" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F263" s="0" t="n">
+        <x:v>95154048</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="264" spans="1:14">
+      <x:c r="A264" s="1">
+        <x:v>45418.3541666667</x:v>
+      </x:c>
+      <x:c r="B264" s="0" t="s">
+        <x:v>274</x:v>
+      </x:c>
+      <x:c r="C264" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D264" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E264" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F264" s="0" t="n">
+        <x:v>22642147</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="265" spans="1:14">
+      <x:c r="A265" s="1">
+        <x:v>45418.3569444444</x:v>
+      </x:c>
+      <x:c r="B265" s="0" t="s">
+        <x:v>275</x:v>
+      </x:c>
+      <x:c r="C265" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D265" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E265" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F265" s="0" t="n">
+        <x:v>11051756</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="266" spans="1:14">
+      <x:c r="A266" s="1">
+        <x:v>45418.3583333333</x:v>
+      </x:c>
+      <x:c r="B266" s="0" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="C266" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D266" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E266" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F266" s="0" t="n">
+        <x:v>60269654</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="267" spans="1:14">
+      <x:c r="A267" s="1">
+        <x:v>45418.3597222222</x:v>
+      </x:c>
+      <x:c r="B267" s="0" t="s">
+        <x:v>277</x:v>
+      </x:c>
+      <x:c r="C267" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D267" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E267" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F267" s="0" t="n">
+        <x:v>51403242</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="268" spans="1:14">
+      <x:c r="A268" s="1">
+        <x:v>45418.3611111111</x:v>
+      </x:c>
+      <x:c r="B268" s="0" t="s">
+        <x:v>278</x:v>
+      </x:c>
+      <x:c r="C268" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D268" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E268" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F268" s="0" t="n">
+        <x:v>23554685</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="269" spans="1:14">
+      <x:c r="A269" s="1">
+        <x:v>45418.3625</x:v>
+      </x:c>
+      <x:c r="B269" s="0" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="C269" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D269" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E269" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F269" s="0" t="n">
+        <x:v>24863987</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="270" spans="1:14">
+      <x:c r="A270" s="1">
+        <x:v>45418.3638888889</x:v>
+      </x:c>
+      <x:c r="B270" s="0" t="s">
+        <x:v>280</x:v>
+      </x:c>
+      <x:c r="C270" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D270" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E270" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F270" s="0" t="n">
+        <x:v>98063611</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="271" spans="1:14">
+      <x:c r="A271" s="1">
+        <x:v>45418.3666666667</x:v>
+      </x:c>
+      <x:c r="B271" s="0" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="C271" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D271" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E271" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F271" s="0" t="n">
+        <x:v>52037889</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="272" spans="1:14">
+      <x:c r="A272" s="1">
+        <x:v>45418.3680555556</x:v>
+      </x:c>
+      <x:c r="B272" s="0" t="s">
+        <x:v>282</x:v>
+      </x:c>
+      <x:c r="C272" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D272" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E272" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F272" s="0" t="n">
+        <x:v>58568313</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="273" spans="1:14">
+      <x:c r="A273" s="1">
+        <x:v>45418.3708333333</x:v>
+      </x:c>
+      <x:c r="B273" s="0" t="s">
+        <x:v>283</x:v>
+      </x:c>
+      <x:c r="C273" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D273" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E273" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F273" s="0" t="n">
+        <x:v>41802058</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="274" spans="1:14">
+      <x:c r="A274" s="1">
+        <x:v>45418.3715277778</x:v>
+      </x:c>
+      <x:c r="B274" s="0" t="s">
+        <x:v>284</x:v>
+      </x:c>
+      <x:c r="C274" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D274" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E274" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F274" s="0" t="n">
+        <x:v>41189497</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="275" spans="1:14">
+      <x:c r="A275" s="1">
+        <x:v>45418.3743055556</x:v>
+      </x:c>
+      <x:c r="B275" s="0" t="s">
+        <x:v>285</x:v>
+      </x:c>
+      <x:c r="C275" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D275" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E275" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F275" s="0" t="n">
+        <x:v>25723020</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="276" spans="1:14">
+      <x:c r="A276" s="1">
+        <x:v>45418.3763888889</x:v>
+      </x:c>
+      <x:c r="B276" s="0" t="s">
+        <x:v>286</x:v>
+      </x:c>
+      <x:c r="C276" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D276" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E276" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F276" s="0" t="n">
+        <x:v>83739665</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="277" spans="1:14">
+      <x:c r="A277" s="1">
+        <x:v>45418.3784722222</x:v>
+      </x:c>
+      <x:c r="B277" s="0" t="s">
+        <x:v>287</x:v>
+      </x:c>
+      <x:c r="C277" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D277" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E277" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F277" s="0" t="n">
+        <x:v>94440068</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="278" spans="1:14">
+      <x:c r="A278" s="1">
+        <x:v>45418.3805555556</x:v>
+      </x:c>
+      <x:c r="B278" s="0" t="s">
+        <x:v>288</x:v>
+      </x:c>
+      <x:c r="C278" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D278" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E278" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F278" s="0" t="n">
+        <x:v>79673521</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="279" spans="1:14">
+      <x:c r="A279" s="1">
+        <x:v>45418.3833333333</x:v>
+      </x:c>
+      <x:c r="B279" s="0" t="s">
+        <x:v>289</x:v>
+      </x:c>
+      <x:c r="C279" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D279" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E279" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F279" s="0" t="n">
+        <x:v>69694990</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="280" spans="1:14">
+      <x:c r="A280" s="1">
+        <x:v>45418.3847222222</x:v>
+      </x:c>
+      <x:c r="B280" s="0" t="s">
+        <x:v>290</x:v>
+      </x:c>
+      <x:c r="C280" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D280" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E280" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F280" s="0" t="n">
+        <x:v>46094520</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="281" spans="1:14">
+      <x:c r="A281" s="1">
+        <x:v>45418.3875</x:v>
+      </x:c>
+      <x:c r="B281" s="0" t="s">
+        <x:v>291</x:v>
+      </x:c>
+      <x:c r="C281" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D281" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E281" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F281" s="0" t="n">
         <x:v>15170018</x:v>
       </x:c>
     </x:row>

--- a/NotSelectedParticipants.xlsx
+++ b/NotSelectedParticipants.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="272">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="262">
   <x:si>
     <x:t>Timestamp</x:t>
   </x:si>
@@ -41,7 +41,19 @@
     <x:t>Contact Number</x:t>
   </x:si>
   <x:si>
-    <x:t>Sara Sanders</x:t>
+    <x:t>Michelle Kelly</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Female</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41-50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test@abc.com.sg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Christopher Chavez</x:t>
   </x:si>
   <x:si>
     <x:t>Male</x:t>
@@ -50,39 +62,12 @@
     <x:t>31-40</x:t>
   </x:si>
   <x:si>
-    <x:t>test@abc.com.sg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Guy Mills</x:t>
+    <x:t>Jon Wood</x:t>
   </x:si>
   <x:si>
     <x:t>21-30</x:t>
   </x:si>
   <x:si>
-    <x:t>David Preston</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Suzanne Price</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Female</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41-50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Michelle Kelly</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Christopher Chavez</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jeffery Barker</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jon Wood</x:t>
-  </x:si>
-  <x:si>
     <x:t>Briana Griffin</x:t>
   </x:si>
   <x:si>
@@ -92,24 +77,12 @@
     <x:t>Amber Lucas</x:t>
   </x:si>
   <x:si>
-    <x:t>Eduardo Smith</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rachel Anderson</x:t>
-  </x:si>
-  <x:si>
     <x:t>Robert Lutz</x:t>
   </x:si>
   <x:si>
     <x:t>Julie Woods</x:t>
   </x:si>
   <x:si>
-    <x:t>Candice Decker PhD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Erik Oconnor</x:t>
-  </x:si>
-  <x:si>
     <x:t>Hunter Estes</x:t>
   </x:si>
   <x:si>
@@ -129,9 +102,6 @@
   </x:si>
   <x:si>
     <x:t>Joshua Cannon</x:t>
-  </x:si>
-  <x:si>
-    <x:t>George Hill</x:t>
   </x:si>
   <x:si>
     <x:t>Anna Carrillo</x:t>
@@ -1221,7 +1191,7 @@
     </x:row>
     <x:row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A2" s="1">
-        <x:v>45417.8819444444</x:v>
+        <x:v>45417.9076388889</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
         <x:v>6</x:v>
@@ -1236,252 +1206,252 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>95775763</x:v>
+        <x:v>29597549</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A3" s="1">
-        <x:v>45417.8930555556</x:v>
+        <x:v>45417.9145833333</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>71364235</x:v>
+        <x:v>95350918</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A4" s="1">
-        <x:v>45417.8951388889</x:v>
+        <x:v>45417.9194444444</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
-        <x:v>96221071</x:v>
+        <x:v>83650172</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A5" s="1">
-        <x:v>45417.9020833333</x:v>
+        <x:v>45417.9229166667</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
-        <x:v>31162803</x:v>
+        <x:v>41823611</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A6" s="1">
-        <x:v>45417.9076388889</x:v>
+        <x:v>45417.9256944444</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
-        <x:v>29597549</x:v>
+        <x:v>10389353</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A7" s="1">
-        <x:v>45417.9145833333</x:v>
+        <x:v>45417.9284722222</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>95350918</x:v>
+        <x:v>80276072</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A8" s="1">
-        <x:v>45417.9180555556</x:v>
+        <x:v>45417.9361111111</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
-        <x:v>58555238</x:v>
+        <x:v>95828882</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A9" s="1">
-        <x:v>45417.9194444444</x:v>
+        <x:v>45417.9375</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
-        <x:v>83650172</x:v>
+        <x:v>95466287</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A10" s="1">
-        <x:v>45417.9229166667</x:v>
+        <x:v>45417.9430555556</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
-        <x:v>41823611</x:v>
+        <x:v>75899760</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A11" s="1">
-        <x:v>45417.9256944444</x:v>
+        <x:v>45417.9451388889</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F11" s="0" t="n">
-        <x:v>10389353</x:v>
+        <x:v>64714222</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A12" s="1">
-        <x:v>45417.9284722222</x:v>
+        <x:v>45417.9479166667</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
-        <x:v>80276072</x:v>
+        <x:v>79920980</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A13" s="1">
-        <x:v>45417.9340277778</x:v>
+        <x:v>45417.9486111111</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F13" s="0" t="n">
-        <x:v>19978185</x:v>
+        <x:v>20272573</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A14" s="1">
-        <x:v>45417.9347222222</x:v>
+        <x:v>45417.9520833333</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
-        <x:v>15764979</x:v>
+        <x:v>51235820</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A15" s="1">
-        <x:v>45417.9361111111</x:v>
+        <x:v>45417.9534722222</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
         <x:v>25</x:v>
@@ -1490,158 +1460,158 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>95828882</x:v>
+        <x:v>76810268</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A16" s="1">
-        <x:v>45417.9375</x:v>
+        <x:v>45417.9555555556</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>95466287</x:v>
+        <x:v>43869042</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A17" s="1">
-        <x:v>45417.9381944444</x:v>
+        <x:v>45417.9597222222</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E17" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>18200415</x:v>
+        <x:v>18996598</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A18" s="1">
-        <x:v>45417.9395833333</x:v>
+        <x:v>45417.9618055556</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>58719994</x:v>
+        <x:v>73261856</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A19" s="1">
-        <x:v>45417.9430555556</x:v>
+        <x:v>45417.9638888889</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E19" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
-        <x:v>75899760</x:v>
+        <x:v>51685815</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A20" s="1">
-        <x:v>45417.9451388889</x:v>
+        <x:v>45417.9652777778</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F20" s="0" t="n">
-        <x:v>64714222</x:v>
+        <x:v>42016440</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A21" s="1">
-        <x:v>45417.9479166667</x:v>
+        <x:v>45417.9659722222</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E21" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F21" s="0" t="n">
-        <x:v>79920980</x:v>
+        <x:v>49147219</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A22" s="1">
-        <x:v>45417.9486111111</x:v>
+        <x:v>45417.9680555556</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E22" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F22" s="0" t="n">
-        <x:v>20272573</x:v>
+        <x:v>47518687</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:14">
       <x:c r="A23" s="1">
-        <x:v>45417.9520833333</x:v>
+        <x:v>45417.9680555556</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
         <x:v>33</x:v>
@@ -1650,78 +1620,78 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E23" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F23" s="0" t="n">
-        <x:v>51235820</x:v>
+        <x:v>94511350</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:14">
       <x:c r="A24" s="1">
-        <x:v>45417.9534722222</x:v>
+        <x:v>45417.96875</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E24" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F24" s="0" t="n">
-        <x:v>76810268</x:v>
+        <x:v>37130984</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:14">
       <x:c r="A25" s="1">
-        <x:v>45417.9555555556</x:v>
+        <x:v>45417.9708333333</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E25" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F25" s="0" t="n">
-        <x:v>43869042</x:v>
+        <x:v>35497334</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:14">
       <x:c r="A26" s="1">
-        <x:v>45417.9576388889</x:v>
+        <x:v>45417.9722222222</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E26" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
-        <x:v>74640463</x:v>
+        <x:v>43668577</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:14">
       <x:c r="A27" s="1">
-        <x:v>45417.9597222222</x:v>
+        <x:v>45417.9729166667</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
         <x:v>37</x:v>
@@ -1730,124 +1700,124 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E27" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
-        <x:v>18996598</x:v>
+        <x:v>31337203</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:14">
       <x:c r="A28" s="1">
-        <x:v>45417.9618055556</x:v>
+        <x:v>45417.9743055556</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
         <x:v>38</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E28" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F28" s="0" t="n">
-        <x:v>73261856</x:v>
+        <x:v>23172841</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:14">
       <x:c r="A29" s="1">
-        <x:v>45417.9638888889</x:v>
+        <x:v>45417.9770833333</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E29" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F29" s="0" t="n">
-        <x:v>51685815</x:v>
+        <x:v>77020975</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:14">
       <x:c r="A30" s="1">
-        <x:v>45417.9652777778</x:v>
+        <x:v>45417.9791666667</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E30" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F30" s="0" t="n">
-        <x:v>42016440</x:v>
+        <x:v>58493323</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:14">
       <x:c r="A31" s="1">
-        <x:v>45417.9659722222</x:v>
+        <x:v>45417.98125</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D31" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E31" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F31" s="0" t="n">
-        <x:v>49147219</x:v>
+        <x:v>10734113</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:14">
       <x:c r="A32" s="1">
-        <x:v>45417.9680555556</x:v>
+        <x:v>45417.9826388889</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>42</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E32" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F32" s="0" t="n">
-        <x:v>47518687</x:v>
+        <x:v>30890990</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:14">
       <x:c r="A33" s="1">
-        <x:v>45417.9680555556</x:v>
+        <x:v>45417.9847222222</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>43</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D33" s="0" t="s">
         <x:v>8</x:v>
@@ -1856,12 +1826,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
-        <x:v>94511350</x:v>
+        <x:v>72415145</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:14">
       <x:c r="A34" s="1">
-        <x:v>45417.96875</x:v>
+        <x:v>45417.9854166667</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>44</x:v>
@@ -1870,18 +1840,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D34" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E34" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F34" s="0" t="n">
-        <x:v>37130984</x:v>
+        <x:v>70622792</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:14">
       <x:c r="A35" s="1">
-        <x:v>45417.9708333333</x:v>
+        <x:v>45417.9861111111</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>45</x:v>
@@ -1890,64 +1860,64 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D35" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E35" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F35" s="0" t="n">
-        <x:v>35497334</x:v>
+        <x:v>92386611</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:14">
       <x:c r="A36" s="1">
-        <x:v>45417.9722222222</x:v>
+        <x:v>45417.9881944444</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D36" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E36" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
-        <x:v>43668577</x:v>
+        <x:v>47936639</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:14">
       <x:c r="A37" s="1">
-        <x:v>45417.9729166667</x:v>
+        <x:v>45417.9895833333</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>47</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D37" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E37" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
-        <x:v>31337203</x:v>
+        <x:v>87130517</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:14">
       <x:c r="A38" s="1">
-        <x:v>45417.9743055556</x:v>
+        <x:v>45417.9923611111</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>48</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D38" s="0" t="s">
         <x:v>8</x:v>
@@ -1956,38 +1926,38 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
-        <x:v>23172841</x:v>
+        <x:v>21268147</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:14">
       <x:c r="A39" s="1">
-        <x:v>45417.9770833333</x:v>
+        <x:v>45417.99375</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D39" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E39" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F39" s="0" t="n">
-        <x:v>77020975</x:v>
+        <x:v>99479268</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:14">
       <x:c r="A40" s="1">
-        <x:v>45417.9791666667</x:v>
+        <x:v>45417.9958333333</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>50</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D40" s="0" t="s">
         <x:v>8</x:v>
@@ -1996,52 +1966,52 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F40" s="0" t="n">
-        <x:v>58493323</x:v>
+        <x:v>84465016</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:14">
       <x:c r="A41" s="1">
-        <x:v>45417.98125</x:v>
+        <x:v>45417.9979166667</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>51</x:v>
       </x:c>
       <x:c r="C41" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D41" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E41" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
-        <x:v>10734113</x:v>
+        <x:v>25276200</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:14">
       <x:c r="A42" s="2">
-        <x:v>45417.9826388889</x:v>
+        <x:v>45418</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>52</x:v>
       </x:c>
       <x:c r="C42" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D42" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E42" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F42" s="0" t="n">
-        <x:v>30890990</x:v>
+        <x:v>55144869</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:14">
       <x:c r="A43" s="1">
-        <x:v>45417.9847222222</x:v>
+        <x:v>45418.0006944444</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>53</x:v>
@@ -2050,98 +2020,98 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D43" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E43" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F43" s="0" t="n">
-        <x:v>72415145</x:v>
+        <x:v>10990288</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:14">
       <x:c r="A44" s="1">
-        <x:v>45417.9854166667</x:v>
+        <x:v>45418.0041666667</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>54</x:v>
       </x:c>
       <x:c r="C44" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D44" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E44" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F44" s="0" t="n">
-        <x:v>70622792</x:v>
+        <x:v>62780801</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:14">
       <x:c r="A45" s="1">
-        <x:v>45417.9861111111</x:v>
+        <x:v>45418.0055555556</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>55</x:v>
       </x:c>
       <x:c r="C45" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D45" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E45" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F45" s="0" t="n">
-        <x:v>92386611</x:v>
+        <x:v>70340243</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:14">
       <x:c r="A46" s="1">
-        <x:v>45417.9881944444</x:v>
+        <x:v>45418.0069444444</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>56</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D46" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E46" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F46" s="0" t="n">
-        <x:v>47936639</x:v>
+        <x:v>50657040</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:14">
       <x:c r="A47" s="1">
-        <x:v>45417.9895833333</x:v>
+        <x:v>45418.0097222222</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
         <x:v>57</x:v>
       </x:c>
       <x:c r="C47" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D47" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E47" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
-        <x:v>87130517</x:v>
+        <x:v>15461399</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:14">
       <x:c r="A48" s="1">
-        <x:v>45417.9923611111</x:v>
+        <x:v>45418.0118055556</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
         <x:v>58</x:v>
@@ -2150,18 +2120,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D48" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E48" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F48" s="0" t="n">
-        <x:v>21268147</x:v>
+        <x:v>97545204</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:14">
       <x:c r="A49" s="1">
-        <x:v>45417.99375</x:v>
+        <x:v>45418.0145833333</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
         <x:v>59</x:v>
@@ -2170,38 +2140,38 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D49" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E49" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
-        <x:v>99479268</x:v>
+        <x:v>45349550</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:14">
       <x:c r="A50" s="1">
-        <x:v>45417.9958333333</x:v>
+        <x:v>45418.0173611111</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
         <x:v>60</x:v>
       </x:c>
       <x:c r="C50" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D50" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E50" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F50" s="0" t="n">
-        <x:v>84465016</x:v>
+        <x:v>34076498</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:14">
       <x:c r="A51" s="1">
-        <x:v>45417.9979166667</x:v>
+        <x:v>45418.0201388889</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
         <x:v>61</x:v>
@@ -2216,12 +2186,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F51" s="0" t="n">
-        <x:v>25276200</x:v>
+        <x:v>92040698</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:14">
       <x:c r="A52" s="1">
-        <x:v>45418</x:v>
+        <x:v>45418.0229166667</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
         <x:v>62</x:v>
@@ -2230,78 +2200,78 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D52" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E52" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F52" s="0" t="n">
-        <x:v>55144869</x:v>
+        <x:v>52744048</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:14">
       <x:c r="A53" s="1">
-        <x:v>45418.0006944444</x:v>
+        <x:v>45418.0236111111</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
         <x:v>63</x:v>
       </x:c>
       <x:c r="C53" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D53" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E53" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F53" s="0" t="n">
-        <x:v>10990288</x:v>
+        <x:v>89653477</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:14">
       <x:c r="A54" s="1">
-        <x:v>45418.0041666667</x:v>
+        <x:v>45418.0243055556</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
         <x:v>64</x:v>
       </x:c>
       <x:c r="C54" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D54" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E54" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F54" s="0" t="n">
-        <x:v>62780801</x:v>
+        <x:v>80629070</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:14">
       <x:c r="A55" s="1">
-        <x:v>45418.0055555556</x:v>
+        <x:v>45418.025</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
         <x:v>65</x:v>
       </x:c>
       <x:c r="C55" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D55" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E55" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F55" s="0" t="n">
-        <x:v>70340243</x:v>
+        <x:v>94465009</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:14">
       <x:c r="A56" s="1">
-        <x:v>45418.0069444444</x:v>
+        <x:v>45418.0263888889</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
         <x:v>66</x:v>
@@ -2310,138 +2280,138 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D56" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E56" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F56" s="0" t="n">
-        <x:v>50657040</x:v>
+        <x:v>37502353</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:14">
       <x:c r="A57" s="1">
-        <x:v>45418.0097222222</x:v>
+        <x:v>45418.0284722222</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
         <x:v>67</x:v>
       </x:c>
       <x:c r="C57" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D57" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E57" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F57" s="0" t="n">
-        <x:v>15461399</x:v>
+        <x:v>67626671</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:14">
       <x:c r="A58" s="1">
-        <x:v>45418.0118055556</x:v>
+        <x:v>45418.0298611111</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
         <x:v>68</x:v>
       </x:c>
       <x:c r="C58" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D58" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E58" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F58" s="0" t="n">
-        <x:v>97545204</x:v>
+        <x:v>25175278</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:14">
       <x:c r="A59" s="1">
-        <x:v>45418.0145833333</x:v>
+        <x:v>45418.0319444444</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
         <x:v>69</x:v>
       </x:c>
       <x:c r="C59" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D59" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E59" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F59" s="0" t="n">
-        <x:v>45349550</x:v>
+        <x:v>54919380</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:14">
       <x:c r="A60" s="1">
-        <x:v>45418.0173611111</x:v>
+        <x:v>45418.0333333333</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
         <x:v>70</x:v>
       </x:c>
       <x:c r="C60" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D60" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E60" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F60" s="0" t="n">
-        <x:v>34076498</x:v>
+        <x:v>48801212</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:14">
       <x:c r="A61" s="1">
-        <x:v>45418.0201388889</x:v>
+        <x:v>45418.0347222222</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
         <x:v>71</x:v>
       </x:c>
       <x:c r="C61" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D61" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E61" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F61" s="0" t="n">
-        <x:v>92040698</x:v>
+        <x:v>42251006</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:14">
       <x:c r="A62" s="1">
-        <x:v>45418.0229166667</x:v>
+        <x:v>45418.0347222222</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>72</x:v>
       </x:c>
       <x:c r="C62" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D62" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E62" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F62" s="0" t="n">
-        <x:v>52744048</x:v>
+        <x:v>46841664</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:14">
       <x:c r="A63" s="1">
-        <x:v>45418.0236111111</x:v>
+        <x:v>45418.0368055556</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
         <x:v>73</x:v>
@@ -2450,18 +2420,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D63" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E63" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F63" s="0" t="n">
-        <x:v>89653477</x:v>
+        <x:v>49346569</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:14">
       <x:c r="A64" s="1">
-        <x:v>45418.0243055556</x:v>
+        <x:v>45418.0388888889</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
         <x:v>74</x:v>
@@ -2470,18 +2440,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D64" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E64" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F64" s="0" t="n">
-        <x:v>80629070</x:v>
+        <x:v>74000167</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:14">
       <x:c r="A65" s="1">
-        <x:v>45418.025</x:v>
+        <x:v>45418.0416666667</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>75</x:v>
@@ -2490,84 +2460,84 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D65" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E65" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F65" s="0" t="n">
-        <x:v>94465009</x:v>
+        <x:v>39297038</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:14">
       <x:c r="A66" s="1">
-        <x:v>45418.0263888889</x:v>
+        <x:v>45418.0444444444</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
         <x:v>76</x:v>
       </x:c>
       <x:c r="C66" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D66" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E66" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F66" s="0" t="n">
-        <x:v>37502353</x:v>
+        <x:v>90250492</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:14">
       <x:c r="A67" s="1">
-        <x:v>45418.0284722222</x:v>
+        <x:v>45418.0465277778</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
         <x:v>77</x:v>
       </x:c>
       <x:c r="C67" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D67" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E67" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F67" s="0" t="n">
-        <x:v>67626671</x:v>
+        <x:v>45436512</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:14">
       <x:c r="A68" s="1">
-        <x:v>45418.0298611111</x:v>
+        <x:v>45418.0472222222</x:v>
       </x:c>
       <x:c r="B68" s="0" t="s">
         <x:v>78</x:v>
       </x:c>
       <x:c r="C68" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D68" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E68" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F68" s="0" t="n">
-        <x:v>25175278</x:v>
+        <x:v>91746455</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:14">
       <x:c r="A69" s="1">
-        <x:v>45418.0319444444</x:v>
+        <x:v>45418.0506944444</x:v>
       </x:c>
       <x:c r="B69" s="0" t="s">
         <x:v>79</x:v>
       </x:c>
       <x:c r="C69" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D69" s="0" t="s">
         <x:v>8</x:v>
@@ -2576,12 +2546,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F69" s="0" t="n">
-        <x:v>54919380</x:v>
+        <x:v>90086945</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:14">
       <x:c r="A70" s="1">
-        <x:v>45418.0333333333</x:v>
+        <x:v>45418.0527777778</x:v>
       </x:c>
       <x:c r="B70" s="0" t="s">
         <x:v>80</x:v>
@@ -2590,178 +2560,178 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D70" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E70" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F70" s="0" t="n">
-        <x:v>48801212</x:v>
+        <x:v>31168820</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:14">
       <x:c r="A71" s="1">
-        <x:v>45418.0347222222</x:v>
+        <x:v>45418.0534722222</x:v>
       </x:c>
       <x:c r="B71" s="0" t="s">
         <x:v>81</x:v>
       </x:c>
       <x:c r="C71" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D71" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E71" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F71" s="0" t="n">
-        <x:v>42251006</x:v>
+        <x:v>23420293</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:14">
       <x:c r="A72" s="1">
-        <x:v>45418.0347222222</x:v>
+        <x:v>45418.05625</x:v>
       </x:c>
       <x:c r="B72" s="0" t="s">
         <x:v>82</x:v>
       </x:c>
       <x:c r="C72" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D72" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E72" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F72" s="0" t="n">
-        <x:v>46841664</x:v>
+        <x:v>28345932</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:14">
       <x:c r="A73" s="1">
-        <x:v>45418.0368055556</x:v>
+        <x:v>45418.0583333333</x:v>
       </x:c>
       <x:c r="B73" s="0" t="s">
         <x:v>83</x:v>
       </x:c>
       <x:c r="C73" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D73" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E73" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F73" s="0" t="n">
-        <x:v>49346569</x:v>
+        <x:v>59338978</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:14">
       <x:c r="A74" s="1">
-        <x:v>45418.0388888889</x:v>
+        <x:v>45418.0604166667</x:v>
       </x:c>
       <x:c r="B74" s="0" t="s">
         <x:v>84</x:v>
       </x:c>
       <x:c r="C74" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D74" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E74" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F74" s="0" t="n">
-        <x:v>74000167</x:v>
+        <x:v>43006939</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:14">
       <x:c r="A75" s="1">
-        <x:v>45418.0416666667</x:v>
+        <x:v>45418.0618055556</x:v>
       </x:c>
       <x:c r="B75" s="0" t="s">
         <x:v>85</x:v>
       </x:c>
       <x:c r="C75" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D75" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E75" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F75" s="0" t="n">
-        <x:v>39297038</x:v>
+        <x:v>16253635</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:14">
       <x:c r="A76" s="1">
-        <x:v>45418.0444444444</x:v>
+        <x:v>45418.0638888889</x:v>
       </x:c>
       <x:c r="B76" s="0" t="s">
         <x:v>86</x:v>
       </x:c>
       <x:c r="C76" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D76" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E76" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F76" s="0" t="n">
-        <x:v>90250492</x:v>
+        <x:v>57173971</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:14">
       <x:c r="A77" s="1">
-        <x:v>45418.0465277778</x:v>
+        <x:v>45418.0645833333</x:v>
       </x:c>
       <x:c r="B77" s="0" t="s">
         <x:v>87</x:v>
       </x:c>
       <x:c r="C77" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D77" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E77" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F77" s="0" t="n">
-        <x:v>45436512</x:v>
+        <x:v>93036177</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:14">
       <x:c r="A78" s="1">
-        <x:v>45418.0472222222</x:v>
+        <x:v>45418.0666666667</x:v>
       </x:c>
       <x:c r="B78" s="0" t="s">
         <x:v>88</x:v>
       </x:c>
       <x:c r="C78" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D78" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E78" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F78" s="0" t="n">
-        <x:v>91746455</x:v>
+        <x:v>50885281</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:14">
       <x:c r="A79" s="1">
-        <x:v>45418.0506944444</x:v>
+        <x:v>45418.0673611111</x:v>
       </x:c>
       <x:c r="B79" s="0" t="s">
         <x:v>89</x:v>
@@ -2770,78 +2740,78 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D79" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E79" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F79" s="0" t="n">
-        <x:v>90086945</x:v>
+        <x:v>61710343</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:14">
       <x:c r="A80" s="1">
-        <x:v>45418.0527777778</x:v>
+        <x:v>45418.06875</x:v>
       </x:c>
       <x:c r="B80" s="0" t="s">
         <x:v>90</x:v>
       </x:c>
       <x:c r="C80" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D80" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E80" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F80" s="0" t="n">
-        <x:v>31168820</x:v>
+        <x:v>61400524</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:14">
       <x:c r="A81" s="1">
-        <x:v>45418.0534722222</x:v>
+        <x:v>45418.0715277778</x:v>
       </x:c>
       <x:c r="B81" s="0" t="s">
         <x:v>91</x:v>
       </x:c>
       <x:c r="C81" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D81" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E81" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F81" s="0" t="n">
-        <x:v>23420293</x:v>
+        <x:v>39175690</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:14">
       <x:c r="A82" s="1">
-        <x:v>45418.05625</x:v>
+        <x:v>45418.0736111111</x:v>
       </x:c>
       <x:c r="B82" s="0" t="s">
         <x:v>92</x:v>
       </x:c>
       <x:c r="C82" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D82" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E82" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F82" s="0" t="n">
-        <x:v>28345932</x:v>
+        <x:v>46685084</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:14">
       <x:c r="A83" s="1">
-        <x:v>45418.0583333333</x:v>
+        <x:v>45418.0763888889</x:v>
       </x:c>
       <x:c r="B83" s="0" t="s">
         <x:v>93</x:v>
@@ -2850,38 +2820,38 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D83" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E83" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F83" s="0" t="n">
-        <x:v>59338978</x:v>
+        <x:v>95957014</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:14">
       <x:c r="A84" s="1">
-        <x:v>45418.0604166667</x:v>
+        <x:v>45418.0763888889</x:v>
       </x:c>
       <x:c r="B84" s="0" t="s">
         <x:v>94</x:v>
       </x:c>
       <x:c r="C84" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D84" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E84" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F84" s="0" t="n">
-        <x:v>43006939</x:v>
+        <x:v>76837030</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:14">
       <x:c r="A85" s="1">
-        <x:v>45418.0618055556</x:v>
+        <x:v>45418.0777777778</x:v>
       </x:c>
       <x:c r="B85" s="0" t="s">
         <x:v>95</x:v>
@@ -2890,38 +2860,38 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D85" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E85" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F85" s="0" t="n">
-        <x:v>16253635</x:v>
+        <x:v>46832417</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:14">
       <x:c r="A86" s="1">
-        <x:v>45418.0638888889</x:v>
+        <x:v>45418.0805555556</x:v>
       </x:c>
       <x:c r="B86" s="0" t="s">
         <x:v>96</x:v>
       </x:c>
       <x:c r="C86" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D86" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E86" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F86" s="0" t="n">
-        <x:v>57173971</x:v>
+        <x:v>77130877</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:14">
       <x:c r="A87" s="1">
-        <x:v>45418.0645833333</x:v>
+        <x:v>45418.08125</x:v>
       </x:c>
       <x:c r="B87" s="0" t="s">
         <x:v>97</x:v>
@@ -2930,18 +2900,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D87" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E87" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F87" s="0" t="n">
-        <x:v>93036177</x:v>
+        <x:v>70581907</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:14">
       <x:c r="A88" s="1">
-        <x:v>45418.0666666667</x:v>
+        <x:v>45418.0840277778</x:v>
       </x:c>
       <x:c r="B88" s="0" t="s">
         <x:v>98</x:v>
@@ -2950,144 +2920,144 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D88" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E88" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F88" s="0" t="n">
-        <x:v>50885281</x:v>
+        <x:v>12717983</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:14">
       <x:c r="A89" s="1">
-        <x:v>45418.0673611111</x:v>
+        <x:v>45418.0847222222</x:v>
       </x:c>
       <x:c r="B89" s="0" t="s">
         <x:v>99</x:v>
       </x:c>
       <x:c r="C89" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D89" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E89" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F89" s="0" t="n">
-        <x:v>61710343</x:v>
+        <x:v>70569694</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:14">
       <x:c r="A90" s="1">
-        <x:v>45418.06875</x:v>
+        <x:v>45418.0875</x:v>
       </x:c>
       <x:c r="B90" s="0" t="s">
         <x:v>100</x:v>
       </x:c>
       <x:c r="C90" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D90" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E90" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F90" s="0" t="n">
-        <x:v>61400524</x:v>
+        <x:v>84782703</x:v>
       </x:c>
     </x:row>
     <x:row r="91" spans="1:14">
       <x:c r="A91" s="1">
-        <x:v>45418.0715277778</x:v>
+        <x:v>45418.0895833333</x:v>
       </x:c>
       <x:c r="B91" s="0" t="s">
         <x:v>101</x:v>
       </x:c>
       <x:c r="C91" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D91" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E91" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F91" s="0" t="n">
-        <x:v>39175690</x:v>
+        <x:v>33138593</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:14">
       <x:c r="A92" s="1">
-        <x:v>45418.0736111111</x:v>
+        <x:v>45418.0923611111</x:v>
       </x:c>
       <x:c r="B92" s="0" t="s">
         <x:v>102</x:v>
       </x:c>
       <x:c r="C92" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D92" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E92" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F92" s="0" t="n">
-        <x:v>46685084</x:v>
+        <x:v>67772525</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:14">
       <x:c r="A93" s="1">
-        <x:v>45418.0763888889</x:v>
+        <x:v>45418.0930555556</x:v>
       </x:c>
       <x:c r="B93" s="0" t="s">
         <x:v>103</x:v>
       </x:c>
       <x:c r="C93" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D93" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E93" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F93" s="0" t="n">
-        <x:v>95957014</x:v>
+        <x:v>94344798</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:14">
       <x:c r="A94" s="1">
-        <x:v>45418.0763888889</x:v>
+        <x:v>45418.0930555556</x:v>
       </x:c>
       <x:c r="B94" s="0" t="s">
         <x:v>104</x:v>
       </x:c>
       <x:c r="C94" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D94" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E94" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F94" s="0" t="n">
-        <x:v>76837030</x:v>
+        <x:v>77436532</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="1:14">
       <x:c r="A95" s="1">
-        <x:v>45418.0777777778</x:v>
+        <x:v>45418.0965277778</x:v>
       </x:c>
       <x:c r="B95" s="0" t="s">
         <x:v>105</x:v>
       </x:c>
       <x:c r="C95" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D95" s="0" t="s">
         <x:v>8</x:v>
@@ -3096,112 +3066,112 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F95" s="0" t="n">
-        <x:v>46832417</x:v>
+        <x:v>85537968</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:14">
       <x:c r="A96" s="1">
-        <x:v>45418.0805555556</x:v>
+        <x:v>45418.0993055556</x:v>
       </x:c>
       <x:c r="B96" s="0" t="s">
         <x:v>106</x:v>
       </x:c>
       <x:c r="C96" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D96" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E96" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F96" s="0" t="n">
-        <x:v>77130877</x:v>
+        <x:v>67432010</x:v>
       </x:c>
     </x:row>
     <x:row r="97" spans="1:14">
       <x:c r="A97" s="1">
-        <x:v>45418.08125</x:v>
+        <x:v>45418.1006944444</x:v>
       </x:c>
       <x:c r="B97" s="0" t="s">
         <x:v>107</x:v>
       </x:c>
       <x:c r="C97" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D97" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E97" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F97" s="0" t="n">
-        <x:v>70581907</x:v>
+        <x:v>66099165</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:14">
       <x:c r="A98" s="1">
-        <x:v>45418.0840277778</x:v>
+        <x:v>45418.1020833333</x:v>
       </x:c>
       <x:c r="B98" s="0" t="s">
         <x:v>108</x:v>
       </x:c>
       <x:c r="C98" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D98" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E98" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F98" s="0" t="n">
-        <x:v>12717983</x:v>
+        <x:v>66053161</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="1:14">
       <x:c r="A99" s="1">
-        <x:v>45418.0847222222</x:v>
+        <x:v>45418.1055555556</x:v>
       </x:c>
       <x:c r="B99" s="0" t="s">
         <x:v>109</x:v>
       </x:c>
       <x:c r="C99" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D99" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E99" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F99" s="0" t="n">
-        <x:v>70569694</x:v>
+        <x:v>26731814</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="1:14">
       <x:c r="A100" s="1">
-        <x:v>45418.0875</x:v>
+        <x:v>45418.1083333333</x:v>
       </x:c>
       <x:c r="B100" s="0" t="s">
         <x:v>110</x:v>
       </x:c>
       <x:c r="C100" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D100" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E100" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F100" s="0" t="n">
-        <x:v>84782703</x:v>
+        <x:v>51554360</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:14">
       <x:c r="A101" s="1">
-        <x:v>45418.0895833333</x:v>
+        <x:v>45418.1111111111</x:v>
       </x:c>
       <x:c r="B101" s="0" t="s">
         <x:v>111</x:v>
@@ -3210,78 +3180,78 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D101" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E101" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F101" s="0" t="n">
-        <x:v>33138593</x:v>
+        <x:v>34364597</x:v>
       </x:c>
     </x:row>
     <x:row r="102" spans="1:14">
       <x:c r="A102" s="1">
-        <x:v>45418.0923611111</x:v>
+        <x:v>45418.1145833333</x:v>
       </x:c>
       <x:c r="B102" s="0" t="s">
         <x:v>112</x:v>
       </x:c>
       <x:c r="C102" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D102" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E102" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F102" s="0" t="n">
-        <x:v>67772525</x:v>
+        <x:v>21930895</x:v>
       </x:c>
     </x:row>
     <x:row r="103" spans="1:14">
       <x:c r="A103" s="1">
-        <x:v>45418.0930555556</x:v>
+        <x:v>45418.1180555556</x:v>
       </x:c>
       <x:c r="B103" s="0" t="s">
         <x:v>113</x:v>
       </x:c>
       <x:c r="C103" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D103" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E103" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F103" s="0" t="n">
-        <x:v>94344798</x:v>
+        <x:v>33905104</x:v>
       </x:c>
     </x:row>
     <x:row r="104" spans="1:14">
       <x:c r="A104" s="1">
-        <x:v>45418.0930555556</x:v>
+        <x:v>45418.1194444444</x:v>
       </x:c>
       <x:c r="B104" s="0" t="s">
         <x:v>114</x:v>
       </x:c>
       <x:c r="C104" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D104" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E104" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F104" s="0" t="n">
-        <x:v>77436532</x:v>
+        <x:v>70030295</x:v>
       </x:c>
     </x:row>
     <x:row r="105" spans="1:14">
       <x:c r="A105" s="1">
-        <x:v>45418.0965277778</x:v>
+        <x:v>45418.1215277778</x:v>
       </x:c>
       <x:c r="B105" s="0" t="s">
         <x:v>115</x:v>
@@ -3290,18 +3260,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D105" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E105" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F105" s="0" t="n">
-        <x:v>85537968</x:v>
+        <x:v>96291852</x:v>
       </x:c>
     </x:row>
     <x:row r="106" spans="1:14">
       <x:c r="A106" s="1">
-        <x:v>45418.0993055556</x:v>
+        <x:v>45418.1243055556</x:v>
       </x:c>
       <x:c r="B106" s="0" t="s">
         <x:v>116</x:v>
@@ -3310,38 +3280,38 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D106" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E106" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F106" s="0" t="n">
-        <x:v>67432010</x:v>
+        <x:v>14326480</x:v>
       </x:c>
     </x:row>
     <x:row r="107" spans="1:14">
       <x:c r="A107" s="1">
-        <x:v>45418.1006944444</x:v>
+        <x:v>45418.1263888889</x:v>
       </x:c>
       <x:c r="B107" s="0" t="s">
         <x:v>117</x:v>
       </x:c>
       <x:c r="C107" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D107" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E107" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F107" s="0" t="n">
-        <x:v>66099165</x:v>
+        <x:v>58010259</x:v>
       </x:c>
     </x:row>
     <x:row r="108" spans="1:14">
       <x:c r="A108" s="1">
-        <x:v>45418.1020833333</x:v>
+        <x:v>45418.1284722222</x:v>
       </x:c>
       <x:c r="B108" s="0" t="s">
         <x:v>118</x:v>
@@ -3350,18 +3320,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D108" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E108" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F108" s="0" t="n">
-        <x:v>66053161</x:v>
+        <x:v>88958354</x:v>
       </x:c>
     </x:row>
     <x:row r="109" spans="1:14">
       <x:c r="A109" s="1">
-        <x:v>45418.1055555556</x:v>
+        <x:v>45418.1305555556</x:v>
       </x:c>
       <x:c r="B109" s="0" t="s">
         <x:v>119</x:v>
@@ -3370,158 +3340,158 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D109" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E109" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F109" s="0" t="n">
-        <x:v>26731814</x:v>
+        <x:v>70288477</x:v>
       </x:c>
     </x:row>
     <x:row r="110" spans="1:14">
       <x:c r="A110" s="1">
-        <x:v>45418.1083333333</x:v>
+        <x:v>45418.1333333333</x:v>
       </x:c>
       <x:c r="B110" s="0" t="s">
         <x:v>120</x:v>
       </x:c>
       <x:c r="C110" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D110" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E110" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F110" s="0" t="n">
-        <x:v>51554360</x:v>
+        <x:v>24330105</x:v>
       </x:c>
     </x:row>
     <x:row r="111" spans="1:14">
       <x:c r="A111" s="1">
-        <x:v>45418.1111111111</x:v>
+        <x:v>45418.1333333333</x:v>
       </x:c>
       <x:c r="B111" s="0" t="s">
         <x:v>121</x:v>
       </x:c>
       <x:c r="C111" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D111" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E111" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F111" s="0" t="n">
-        <x:v>34364597</x:v>
+        <x:v>56566845</x:v>
       </x:c>
     </x:row>
     <x:row r="112" spans="1:14">
       <x:c r="A112" s="1">
-        <x:v>45418.1145833333</x:v>
+        <x:v>45418.1368055556</x:v>
       </x:c>
       <x:c r="B112" s="0" t="s">
         <x:v>122</x:v>
       </x:c>
       <x:c r="C112" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D112" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E112" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F112" s="0" t="n">
-        <x:v>21930895</x:v>
+        <x:v>95951957</x:v>
       </x:c>
     </x:row>
     <x:row r="113" spans="1:14">
       <x:c r="A113" s="1">
-        <x:v>45418.1180555556</x:v>
+        <x:v>45418.1381944444</x:v>
       </x:c>
       <x:c r="B113" s="0" t="s">
         <x:v>123</x:v>
       </x:c>
       <x:c r="C113" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D113" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E113" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F113" s="0" t="n">
-        <x:v>33905104</x:v>
+        <x:v>10428667</x:v>
       </x:c>
     </x:row>
     <x:row r="114" spans="1:14">
       <x:c r="A114" s="1">
-        <x:v>45418.1194444444</x:v>
+        <x:v>45418.1409722222</x:v>
       </x:c>
       <x:c r="B114" s="0" t="s">
         <x:v>124</x:v>
       </x:c>
       <x:c r="C114" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D114" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E114" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F114" s="0" t="n">
-        <x:v>70030295</x:v>
+        <x:v>98819760</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:14">
       <x:c r="A115" s="1">
-        <x:v>45418.1215277778</x:v>
+        <x:v>45418.1416666667</x:v>
       </x:c>
       <x:c r="B115" s="0" t="s">
         <x:v>125</x:v>
       </x:c>
       <x:c r="C115" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D115" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E115" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F115" s="0" t="n">
-        <x:v>96291852</x:v>
+        <x:v>91816476</x:v>
       </x:c>
     </x:row>
     <x:row r="116" spans="1:14">
       <x:c r="A116" s="1">
-        <x:v>45418.1243055556</x:v>
+        <x:v>45418.1423611111</x:v>
       </x:c>
       <x:c r="B116" s="0" t="s">
         <x:v>126</x:v>
       </x:c>
       <x:c r="C116" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D116" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E116" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F116" s="0" t="n">
-        <x:v>14326480</x:v>
+        <x:v>45994672</x:v>
       </x:c>
     </x:row>
     <x:row r="117" spans="1:14">
       <x:c r="A117" s="1">
-        <x:v>45418.1263888889</x:v>
+        <x:v>45418.1444444444</x:v>
       </x:c>
       <x:c r="B117" s="0" t="s">
         <x:v>127</x:v>
@@ -3530,58 +3500,58 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D117" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E117" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F117" s="0" t="n">
-        <x:v>58010259</x:v>
+        <x:v>78104274</x:v>
       </x:c>
     </x:row>
     <x:row r="118" spans="1:14">
       <x:c r="A118" s="1">
-        <x:v>45418.1284722222</x:v>
+        <x:v>45418.1465277778</x:v>
       </x:c>
       <x:c r="B118" s="0" t="s">
         <x:v>128</x:v>
       </x:c>
       <x:c r="C118" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D118" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E118" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F118" s="0" t="n">
-        <x:v>88958354</x:v>
+        <x:v>38407318</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:14">
       <x:c r="A119" s="1">
-        <x:v>45418.1305555556</x:v>
+        <x:v>45418.1493055556</x:v>
       </x:c>
       <x:c r="B119" s="0" t="s">
         <x:v>129</x:v>
       </x:c>
       <x:c r="C119" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D119" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E119" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F119" s="0" t="n">
-        <x:v>70288477</x:v>
+        <x:v>48566742</x:v>
       </x:c>
     </x:row>
     <x:row r="120" spans="1:14">
       <x:c r="A120" s="1">
-        <x:v>45418.1333333333</x:v>
+        <x:v>45418.1506944444</x:v>
       </x:c>
       <x:c r="B120" s="0" t="s">
         <x:v>130</x:v>
@@ -3590,58 +3560,58 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D120" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E120" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F120" s="0" t="n">
-        <x:v>24330105</x:v>
+        <x:v>30832031</x:v>
       </x:c>
     </x:row>
     <x:row r="121" spans="1:14">
       <x:c r="A121" s="1">
-        <x:v>45418.1333333333</x:v>
+        <x:v>45418.1541666667</x:v>
       </x:c>
       <x:c r="B121" s="0" t="s">
         <x:v>131</x:v>
       </x:c>
       <x:c r="C121" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D121" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E121" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F121" s="0" t="n">
-        <x:v>56566845</x:v>
+        <x:v>52814396</x:v>
       </x:c>
     </x:row>
     <x:row r="122" spans="1:14">
       <x:c r="A122" s="1">
-        <x:v>45418.1368055556</x:v>
+        <x:v>45418.15625</x:v>
       </x:c>
       <x:c r="B122" s="0" t="s">
         <x:v>132</x:v>
       </x:c>
       <x:c r="C122" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D122" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E122" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F122" s="0" t="n">
-        <x:v>95951957</x:v>
+        <x:v>59642140</x:v>
       </x:c>
     </x:row>
     <x:row r="123" spans="1:14">
       <x:c r="A123" s="1">
-        <x:v>45418.1381944444</x:v>
+        <x:v>45418.1590277778</x:v>
       </x:c>
       <x:c r="B123" s="0" t="s">
         <x:v>133</x:v>
@@ -3656,12 +3626,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F123" s="0" t="n">
-        <x:v>10428667</x:v>
+        <x:v>58733626</x:v>
       </x:c>
     </x:row>
     <x:row r="124" spans="1:14">
       <x:c r="A124" s="1">
-        <x:v>45418.1409722222</x:v>
+        <x:v>45418.1618055556</x:v>
       </x:c>
       <x:c r="B124" s="0" t="s">
         <x:v>134</x:v>
@@ -3670,38 +3640,38 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D124" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E124" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F124" s="0" t="n">
-        <x:v>98819760</x:v>
+        <x:v>84835830</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:14">
       <x:c r="A125" s="1">
-        <x:v>45418.1416666667</x:v>
+        <x:v>45418.1638888889</x:v>
       </x:c>
       <x:c r="B125" s="0" t="s">
         <x:v>135</x:v>
       </x:c>
       <x:c r="C125" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D125" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E125" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F125" s="0" t="n">
-        <x:v>91816476</x:v>
+        <x:v>82127022</x:v>
       </x:c>
     </x:row>
     <x:row r="126" spans="1:14">
       <x:c r="A126" s="1">
-        <x:v>45418.1423611111</x:v>
+        <x:v>45418.1645833333</x:v>
       </x:c>
       <x:c r="B126" s="0" t="s">
         <x:v>136</x:v>
@@ -3710,84 +3680,84 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D126" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E126" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F126" s="0" t="n">
-        <x:v>45994672</x:v>
+        <x:v>10048868</x:v>
       </x:c>
     </x:row>
     <x:row r="127" spans="1:14">
       <x:c r="A127" s="1">
-        <x:v>45418.1444444444</x:v>
+        <x:v>45418.1666666667</x:v>
       </x:c>
       <x:c r="B127" s="0" t="s">
         <x:v>137</x:v>
       </x:c>
       <x:c r="C127" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D127" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E127" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F127" s="0" t="n">
-        <x:v>78104274</x:v>
+        <x:v>47740838</x:v>
       </x:c>
     </x:row>
     <x:row r="128" spans="1:14">
       <x:c r="A128" s="1">
-        <x:v>45418.1465277778</x:v>
+        <x:v>45418.1694444444</x:v>
       </x:c>
       <x:c r="B128" s="0" t="s">
         <x:v>138</x:v>
       </x:c>
       <x:c r="C128" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D128" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E128" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F128" s="0" t="n">
-        <x:v>38407318</x:v>
+        <x:v>16509642</x:v>
       </x:c>
     </x:row>
     <x:row r="129" spans="1:14">
       <x:c r="A129" s="1">
-        <x:v>45418.1493055556</x:v>
+        <x:v>45418.1708333333</x:v>
       </x:c>
       <x:c r="B129" s="0" t="s">
         <x:v>139</x:v>
       </x:c>
       <x:c r="C129" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D129" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E129" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F129" s="0" t="n">
-        <x:v>48566742</x:v>
+        <x:v>83459193</x:v>
       </x:c>
     </x:row>
     <x:row r="130" spans="1:14">
       <x:c r="A130" s="1">
-        <x:v>45418.1506944444</x:v>
+        <x:v>45418.1722222222</x:v>
       </x:c>
       <x:c r="B130" s="0" t="s">
         <x:v>140</x:v>
       </x:c>
       <x:c r="C130" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D130" s="0" t="s">
         <x:v>8</x:v>
@@ -3796,32 +3766,32 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F130" s="0" t="n">
-        <x:v>30832031</x:v>
+        <x:v>81577080</x:v>
       </x:c>
     </x:row>
     <x:row r="131" spans="1:14">
       <x:c r="A131" s="1">
-        <x:v>45418.1541666667</x:v>
+        <x:v>45418.1736111111</x:v>
       </x:c>
       <x:c r="B131" s="0" t="s">
         <x:v>141</x:v>
       </x:c>
       <x:c r="C131" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D131" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E131" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F131" s="0" t="n">
-        <x:v>52814396</x:v>
+        <x:v>45703844</x:v>
       </x:c>
     </x:row>
     <x:row r="132" spans="1:14">
       <x:c r="A132" s="1">
-        <x:v>45418.15625</x:v>
+        <x:v>45418.175</x:v>
       </x:c>
       <x:c r="B132" s="0" t="s">
         <x:v>142</x:v>
@@ -3830,58 +3800,58 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D132" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E132" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F132" s="0" t="n">
-        <x:v>59642140</x:v>
+        <x:v>11713264</x:v>
       </x:c>
     </x:row>
     <x:row r="133" spans="1:14">
       <x:c r="A133" s="1">
-        <x:v>45418.1590277778</x:v>
+        <x:v>45418.1756944444</x:v>
       </x:c>
       <x:c r="B133" s="0" t="s">
         <x:v>143</x:v>
       </x:c>
       <x:c r="C133" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D133" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E133" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F133" s="0" t="n">
-        <x:v>58733626</x:v>
+        <x:v>69587729</x:v>
       </x:c>
     </x:row>
     <x:row r="134" spans="1:14">
       <x:c r="A134" s="1">
-        <x:v>45418.1618055556</x:v>
+        <x:v>45418.1763888889</x:v>
       </x:c>
       <x:c r="B134" s="0" t="s">
         <x:v>144</x:v>
       </x:c>
       <x:c r="C134" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D134" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E134" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F134" s="0" t="n">
-        <x:v>84835830</x:v>
+        <x:v>67430415</x:v>
       </x:c>
     </x:row>
     <x:row r="135" spans="1:14">
       <x:c r="A135" s="1">
-        <x:v>45418.1638888889</x:v>
+        <x:v>45418.1791666667</x:v>
       </x:c>
       <x:c r="B135" s="0" t="s">
         <x:v>145</x:v>
@@ -3890,98 +3860,98 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D135" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E135" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F135" s="0" t="n">
-        <x:v>82127022</x:v>
+        <x:v>10637388</x:v>
       </x:c>
     </x:row>
     <x:row r="136" spans="1:14">
       <x:c r="A136" s="1">
-        <x:v>45418.1645833333</x:v>
+        <x:v>45418.1798611111</x:v>
       </x:c>
       <x:c r="B136" s="0" t="s">
         <x:v>146</x:v>
       </x:c>
       <x:c r="C136" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D136" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E136" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F136" s="0" t="n">
-        <x:v>10048868</x:v>
+        <x:v>54315890</x:v>
       </x:c>
     </x:row>
     <x:row r="137" spans="1:14">
       <x:c r="A137" s="1">
-        <x:v>45418.1666666667</x:v>
+        <x:v>45418.1826388889</x:v>
       </x:c>
       <x:c r="B137" s="0" t="s">
         <x:v>147</x:v>
       </x:c>
       <x:c r="C137" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D137" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E137" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F137" s="0" t="n">
-        <x:v>47740838</x:v>
+        <x:v>56749466</x:v>
       </x:c>
     </x:row>
     <x:row r="138" spans="1:14">
       <x:c r="A138" s="1">
-        <x:v>45418.1694444444</x:v>
+        <x:v>45418.1847222222</x:v>
       </x:c>
       <x:c r="B138" s="0" t="s">
         <x:v>148</x:v>
       </x:c>
       <x:c r="C138" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D138" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E138" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F138" s="0" t="n">
-        <x:v>16509642</x:v>
+        <x:v>64522412</x:v>
       </x:c>
     </x:row>
     <x:row r="139" spans="1:14">
       <x:c r="A139" s="1">
-        <x:v>45418.1708333333</x:v>
+        <x:v>45418.1861111111</x:v>
       </x:c>
       <x:c r="B139" s="0" t="s">
         <x:v>149</x:v>
       </x:c>
       <x:c r="C139" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D139" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E139" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F139" s="0" t="n">
-        <x:v>83459193</x:v>
+        <x:v>15220599</x:v>
       </x:c>
     </x:row>
     <x:row r="140" spans="1:14">
       <x:c r="A140" s="1">
-        <x:v>45418.1722222222</x:v>
+        <x:v>45418.1881944444</x:v>
       </x:c>
       <x:c r="B140" s="0" t="s">
         <x:v>150</x:v>
@@ -3990,178 +3960,178 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D140" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E140" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F140" s="0" t="n">
-        <x:v>81577080</x:v>
+        <x:v>74865690</x:v>
       </x:c>
     </x:row>
     <x:row r="141" spans="1:14">
       <x:c r="A141" s="1">
-        <x:v>45418.1736111111</x:v>
+        <x:v>45418.1895833333</x:v>
       </x:c>
       <x:c r="B141" s="0" t="s">
         <x:v>151</x:v>
       </x:c>
       <x:c r="C141" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D141" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E141" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F141" s="0" t="n">
-        <x:v>45703844</x:v>
+        <x:v>72860080</x:v>
       </x:c>
     </x:row>
     <x:row r="142" spans="1:14">
       <x:c r="A142" s="1">
-        <x:v>45418.175</x:v>
+        <x:v>45418.1916666667</x:v>
       </x:c>
       <x:c r="B142" s="0" t="s">
         <x:v>152</x:v>
       </x:c>
       <x:c r="C142" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D142" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E142" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F142" s="0" t="n">
-        <x:v>11713264</x:v>
+        <x:v>29167681</x:v>
       </x:c>
     </x:row>
     <x:row r="143" spans="1:14">
       <x:c r="A143" s="1">
-        <x:v>45418.1756944444</x:v>
+        <x:v>45418.1930555556</x:v>
       </x:c>
       <x:c r="B143" s="0" t="s">
         <x:v>153</x:v>
       </x:c>
       <x:c r="C143" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D143" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E143" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F143" s="0" t="n">
-        <x:v>69587729</x:v>
+        <x:v>87008694</x:v>
       </x:c>
     </x:row>
     <x:row r="144" spans="1:14">
       <x:c r="A144" s="1">
-        <x:v>45418.1763888889</x:v>
+        <x:v>45418.1944444444</x:v>
       </x:c>
       <x:c r="B144" s="0" t="s">
         <x:v>154</x:v>
       </x:c>
       <x:c r="C144" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D144" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E144" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F144" s="0" t="n">
-        <x:v>67430415</x:v>
+        <x:v>34166513</x:v>
       </x:c>
     </x:row>
     <x:row r="145" spans="1:14">
       <x:c r="A145" s="1">
-        <x:v>45418.1791666667</x:v>
+        <x:v>45418.1979166667</x:v>
       </x:c>
       <x:c r="B145" s="0" t="s">
         <x:v>155</x:v>
       </x:c>
       <x:c r="C145" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D145" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E145" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F145" s="0" t="n">
-        <x:v>10637388</x:v>
+        <x:v>97220671</x:v>
       </x:c>
     </x:row>
     <x:row r="146" spans="1:14">
       <x:c r="A146" s="1">
-        <x:v>45418.1798611111</x:v>
+        <x:v>45418.2006944444</x:v>
       </x:c>
       <x:c r="B146" s="0" t="s">
         <x:v>156</x:v>
       </x:c>
       <x:c r="C146" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D146" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E146" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F146" s="0" t="n">
-        <x:v>54315890</x:v>
+        <x:v>92169949</x:v>
       </x:c>
     </x:row>
     <x:row r="147" spans="1:14">
       <x:c r="A147" s="1">
-        <x:v>45418.1826388889</x:v>
+        <x:v>45418.2020833333</x:v>
       </x:c>
       <x:c r="B147" s="0" t="s">
         <x:v>157</x:v>
       </x:c>
       <x:c r="C147" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D147" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E147" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F147" s="0" t="n">
-        <x:v>56749466</x:v>
+        <x:v>89791560</x:v>
       </x:c>
     </x:row>
     <x:row r="148" spans="1:14">
       <x:c r="A148" s="1">
-        <x:v>45418.1847222222</x:v>
+        <x:v>45418.2027777778</x:v>
       </x:c>
       <x:c r="B148" s="0" t="s">
         <x:v>158</x:v>
       </x:c>
       <x:c r="C148" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D148" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E148" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F148" s="0" t="n">
-        <x:v>64522412</x:v>
+        <x:v>37363478</x:v>
       </x:c>
     </x:row>
     <x:row r="149" spans="1:14">
       <x:c r="A149" s="1">
-        <x:v>45418.1861111111</x:v>
+        <x:v>45418.2048611111</x:v>
       </x:c>
       <x:c r="B149" s="0" t="s">
         <x:v>159</x:v>
@@ -4170,24 +4140,24 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D149" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E149" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F149" s="0" t="n">
-        <x:v>15220599</x:v>
+        <x:v>57112826</x:v>
       </x:c>
     </x:row>
     <x:row r="150" spans="1:14">
       <x:c r="A150" s="1">
-        <x:v>45418.1881944444</x:v>
+        <x:v>45418.2069444444</x:v>
       </x:c>
       <x:c r="B150" s="0" t="s">
         <x:v>160</x:v>
       </x:c>
       <x:c r="C150" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D150" s="0" t="s">
         <x:v>8</x:v>
@@ -4196,52 +4166,52 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F150" s="0" t="n">
-        <x:v>74865690</x:v>
+        <x:v>51435636</x:v>
       </x:c>
     </x:row>
     <x:row r="151" spans="1:14">
       <x:c r="A151" s="1">
-        <x:v>45418.1895833333</x:v>
+        <x:v>45418.2104166667</x:v>
       </x:c>
       <x:c r="B151" s="0" t="s">
         <x:v>161</x:v>
       </x:c>
       <x:c r="C151" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D151" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E151" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F151" s="0" t="n">
-        <x:v>72860080</x:v>
+        <x:v>80018979</x:v>
       </x:c>
     </x:row>
     <x:row r="152" spans="1:14">
       <x:c r="A152" s="1">
-        <x:v>45418.1916666667</x:v>
+        <x:v>45418.2125</x:v>
       </x:c>
       <x:c r="B152" s="0" t="s">
         <x:v>162</x:v>
       </x:c>
       <x:c r="C152" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D152" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E152" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F152" s="0" t="n">
-        <x:v>29167681</x:v>
+        <x:v>90469641</x:v>
       </x:c>
     </x:row>
     <x:row r="153" spans="1:14">
       <x:c r="A153" s="1">
-        <x:v>45418.1930555556</x:v>
+        <x:v>45418.2131944444</x:v>
       </x:c>
       <x:c r="B153" s="0" t="s">
         <x:v>163</x:v>
@@ -4250,44 +4220,44 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D153" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E153" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F153" s="0" t="n">
-        <x:v>87008694</x:v>
+        <x:v>28351360</x:v>
       </x:c>
     </x:row>
     <x:row r="154" spans="1:14">
       <x:c r="A154" s="1">
-        <x:v>45418.1944444444</x:v>
+        <x:v>45418.2152777778</x:v>
       </x:c>
       <x:c r="B154" s="0" t="s">
         <x:v>164</x:v>
       </x:c>
       <x:c r="C154" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D154" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E154" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F154" s="0" t="n">
-        <x:v>34166513</x:v>
+        <x:v>13523149</x:v>
       </x:c>
     </x:row>
     <x:row r="155" spans="1:14">
       <x:c r="A155" s="1">
-        <x:v>45418.1979166667</x:v>
+        <x:v>45418.2173611111</x:v>
       </x:c>
       <x:c r="B155" s="0" t="s">
         <x:v>165</x:v>
       </x:c>
       <x:c r="C155" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D155" s="0" t="s">
         <x:v>8</x:v>
@@ -4296,172 +4266,172 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F155" s="0" t="n">
-        <x:v>97220671</x:v>
+        <x:v>11614637</x:v>
       </x:c>
     </x:row>
     <x:row r="156" spans="1:14">
       <x:c r="A156" s="1">
-        <x:v>45418.2006944444</x:v>
+        <x:v>45418.2180555556</x:v>
       </x:c>
       <x:c r="B156" s="0" t="s">
         <x:v>166</x:v>
       </x:c>
       <x:c r="C156" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D156" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E156" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F156" s="0" t="n">
-        <x:v>92169949</x:v>
+        <x:v>76468184</x:v>
       </x:c>
     </x:row>
     <x:row r="157" spans="1:14">
       <x:c r="A157" s="1">
-        <x:v>45418.2020833333</x:v>
+        <x:v>45418.2194444444</x:v>
       </x:c>
       <x:c r="B157" s="0" t="s">
         <x:v>167</x:v>
       </x:c>
       <x:c r="C157" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D157" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E157" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F157" s="0" t="n">
-        <x:v>89791560</x:v>
+        <x:v>81297455</x:v>
       </x:c>
     </x:row>
     <x:row r="158" spans="1:14">
       <x:c r="A158" s="1">
-        <x:v>45418.2027777778</x:v>
+        <x:v>45418.2222222222</x:v>
       </x:c>
       <x:c r="B158" s="0" t="s">
         <x:v>168</x:v>
       </x:c>
       <x:c r="C158" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D158" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E158" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F158" s="0" t="n">
-        <x:v>37363478</x:v>
+        <x:v>10067834</x:v>
       </x:c>
     </x:row>
     <x:row r="159" spans="1:14">
       <x:c r="A159" s="1">
-        <x:v>45418.2048611111</x:v>
+        <x:v>45418.2243055556</x:v>
       </x:c>
       <x:c r="B159" s="0" t="s">
         <x:v>169</x:v>
       </x:c>
       <x:c r="C159" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D159" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E159" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F159" s="0" t="n">
-        <x:v>57112826</x:v>
+        <x:v>93286797</x:v>
       </x:c>
     </x:row>
     <x:row r="160" spans="1:14">
       <x:c r="A160" s="1">
-        <x:v>45418.2069444444</x:v>
+        <x:v>45418.225</x:v>
       </x:c>
       <x:c r="B160" s="0" t="s">
         <x:v>170</x:v>
       </x:c>
       <x:c r="C160" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D160" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E160" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F160" s="0" t="n">
-        <x:v>51435636</x:v>
+        <x:v>63934467</x:v>
       </x:c>
     </x:row>
     <x:row r="161" spans="1:14">
       <x:c r="A161" s="1">
-        <x:v>45418.2104166667</x:v>
+        <x:v>45418.2263888889</x:v>
       </x:c>
       <x:c r="B161" s="0" t="s">
         <x:v>171</x:v>
       </x:c>
       <x:c r="C161" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D161" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E161" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F161" s="0" t="n">
-        <x:v>80018979</x:v>
+        <x:v>45724011</x:v>
       </x:c>
     </x:row>
     <x:row r="162" spans="1:14">
       <x:c r="A162" s="1">
-        <x:v>45418.2125</x:v>
+        <x:v>45418.2270833333</x:v>
       </x:c>
       <x:c r="B162" s="0" t="s">
         <x:v>172</x:v>
       </x:c>
       <x:c r="C162" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D162" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E162" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F162" s="0" t="n">
-        <x:v>90469641</x:v>
+        <x:v>23953863</x:v>
       </x:c>
     </x:row>
     <x:row r="163" spans="1:14">
       <x:c r="A163" s="1">
-        <x:v>45418.2131944444</x:v>
+        <x:v>45418.2270833333</x:v>
       </x:c>
       <x:c r="B163" s="0" t="s">
         <x:v>173</x:v>
       </x:c>
       <x:c r="C163" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D163" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E163" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F163" s="0" t="n">
-        <x:v>28351360</x:v>
+        <x:v>78782052</x:v>
       </x:c>
     </x:row>
     <x:row r="164" spans="1:14">
       <x:c r="A164" s="1">
-        <x:v>45418.2152777778</x:v>
+        <x:v>45418.2284722222</x:v>
       </x:c>
       <x:c r="B164" s="0" t="s">
         <x:v>174</x:v>
@@ -4470,98 +4440,98 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D164" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E164" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F164" s="0" t="n">
-        <x:v>13523149</x:v>
+        <x:v>28827175</x:v>
       </x:c>
     </x:row>
     <x:row r="165" spans="1:14">
       <x:c r="A165" s="1">
-        <x:v>45418.2173611111</x:v>
+        <x:v>45418.23125</x:v>
       </x:c>
       <x:c r="B165" s="0" t="s">
         <x:v>175</x:v>
       </x:c>
       <x:c r="C165" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D165" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E165" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F165" s="0" t="n">
-        <x:v>11614637</x:v>
+        <x:v>52186430</x:v>
       </x:c>
     </x:row>
     <x:row r="166" spans="1:14">
       <x:c r="A166" s="1">
-        <x:v>45418.2180555556</x:v>
+        <x:v>45418.2333333333</x:v>
       </x:c>
       <x:c r="B166" s="0" t="s">
         <x:v>176</x:v>
       </x:c>
       <x:c r="C166" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D166" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E166" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F166" s="0" t="n">
-        <x:v>76468184</x:v>
+        <x:v>82878653</x:v>
       </x:c>
     </x:row>
     <x:row r="167" spans="1:14">
       <x:c r="A167" s="1">
-        <x:v>45418.2194444444</x:v>
+        <x:v>45418.2340277778</x:v>
       </x:c>
       <x:c r="B167" s="0" t="s">
         <x:v>177</x:v>
       </x:c>
       <x:c r="C167" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D167" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E167" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F167" s="0" t="n">
-        <x:v>81297455</x:v>
+        <x:v>67616121</x:v>
       </x:c>
     </x:row>
     <x:row r="168" spans="1:14">
       <x:c r="A168" s="1">
-        <x:v>45418.2222222222</x:v>
+        <x:v>45418.2354166667</x:v>
       </x:c>
       <x:c r="B168" s="0" t="s">
         <x:v>178</x:v>
       </x:c>
       <x:c r="C168" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D168" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E168" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F168" s="0" t="n">
-        <x:v>10067834</x:v>
+        <x:v>98448265</x:v>
       </x:c>
     </x:row>
     <x:row r="169" spans="1:14">
       <x:c r="A169" s="1">
-        <x:v>45418.2243055556</x:v>
+        <x:v>45418.2381944444</x:v>
       </x:c>
       <x:c r="B169" s="0" t="s">
         <x:v>179</x:v>
@@ -4570,124 +4540,124 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D169" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E169" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F169" s="0" t="n">
-        <x:v>93286797</x:v>
+        <x:v>92430107</x:v>
       </x:c>
     </x:row>
     <x:row r="170" spans="1:14">
       <x:c r="A170" s="1">
-        <x:v>45418.225</x:v>
+        <x:v>45418.2395833333</x:v>
       </x:c>
       <x:c r="B170" s="0" t="s">
         <x:v>180</x:v>
       </x:c>
       <x:c r="C170" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D170" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E170" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F170" s="0" t="n">
-        <x:v>63934467</x:v>
+        <x:v>64604465</x:v>
       </x:c>
     </x:row>
     <x:row r="171" spans="1:14">
       <x:c r="A171" s="1">
-        <x:v>45418.2263888889</x:v>
+        <x:v>45418.2402777778</x:v>
       </x:c>
       <x:c r="B171" s="0" t="s">
         <x:v>181</x:v>
       </x:c>
       <x:c r="C171" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D171" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E171" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F171" s="0" t="n">
-        <x:v>45724011</x:v>
+        <x:v>84974385</x:v>
       </x:c>
     </x:row>
     <x:row r="172" spans="1:14">
       <x:c r="A172" s="1">
-        <x:v>45418.2270833333</x:v>
+        <x:v>45418.2402777778</x:v>
       </x:c>
       <x:c r="B172" s="0" t="s">
         <x:v>182</x:v>
       </x:c>
       <x:c r="C172" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D172" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E172" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F172" s="0" t="n">
-        <x:v>23953863</x:v>
+        <x:v>73222964</x:v>
       </x:c>
     </x:row>
     <x:row r="173" spans="1:14">
       <x:c r="A173" s="1">
-        <x:v>45418.2270833333</x:v>
+        <x:v>45418.2409722222</x:v>
       </x:c>
       <x:c r="B173" s="0" t="s">
         <x:v>183</x:v>
       </x:c>
       <x:c r="C173" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D173" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E173" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F173" s="0" t="n">
-        <x:v>78782052</x:v>
+        <x:v>35417724</x:v>
       </x:c>
     </x:row>
     <x:row r="174" spans="1:14">
       <x:c r="A174" s="1">
-        <x:v>45418.2284722222</x:v>
+        <x:v>45418.2444444444</x:v>
       </x:c>
       <x:c r="B174" s="0" t="s">
         <x:v>184</x:v>
       </x:c>
       <x:c r="C174" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D174" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E174" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F174" s="0" t="n">
-        <x:v>28827175</x:v>
+        <x:v>47898636</x:v>
       </x:c>
     </x:row>
     <x:row r="175" spans="1:14">
       <x:c r="A175" s="1">
-        <x:v>45418.23125</x:v>
+        <x:v>45418.2458333333</x:v>
       </x:c>
       <x:c r="B175" s="0" t="s">
         <x:v>185</x:v>
       </x:c>
       <x:c r="C175" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D175" s="0" t="s">
         <x:v>8</x:v>
@@ -4696,12 +4666,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F175" s="0" t="n">
-        <x:v>52186430</x:v>
+        <x:v>88866622</x:v>
       </x:c>
     </x:row>
     <x:row r="176" spans="1:14">
       <x:c r="A176" s="1">
-        <x:v>45418.2333333333</x:v>
+        <x:v>45418.2472222222</x:v>
       </x:c>
       <x:c r="B176" s="0" t="s">
         <x:v>186</x:v>
@@ -4710,98 +4680,98 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D176" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E176" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F176" s="0" t="n">
-        <x:v>82878653</x:v>
+        <x:v>46055816</x:v>
       </x:c>
     </x:row>
     <x:row r="177" spans="1:14">
       <x:c r="A177" s="1">
-        <x:v>45418.2340277778</x:v>
+        <x:v>45418.2493055556</x:v>
       </x:c>
       <x:c r="B177" s="0" t="s">
         <x:v>187</x:v>
       </x:c>
       <x:c r="C177" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D177" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E177" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F177" s="0" t="n">
-        <x:v>67616121</x:v>
+        <x:v>80522682</x:v>
       </x:c>
     </x:row>
     <x:row r="178" spans="1:14">
       <x:c r="A178" s="1">
-        <x:v>45418.2354166667</x:v>
+        <x:v>45418.2493055556</x:v>
       </x:c>
       <x:c r="B178" s="0" t="s">
         <x:v>188</x:v>
       </x:c>
       <x:c r="C178" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D178" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E178" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F178" s="0" t="n">
-        <x:v>98448265</x:v>
+        <x:v>41326641</x:v>
       </x:c>
     </x:row>
     <x:row r="179" spans="1:14">
       <x:c r="A179" s="1">
-        <x:v>45418.2381944444</x:v>
+        <x:v>45418.2506944444</x:v>
       </x:c>
       <x:c r="B179" s="0" t="s">
         <x:v>189</x:v>
       </x:c>
       <x:c r="C179" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D179" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E179" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F179" s="0" t="n">
-        <x:v>92430107</x:v>
+        <x:v>91493800</x:v>
       </x:c>
     </x:row>
     <x:row r="180" spans="1:14">
       <x:c r="A180" s="1">
-        <x:v>45418.2395833333</x:v>
+        <x:v>45418.2513888889</x:v>
       </x:c>
       <x:c r="B180" s="0" t="s">
         <x:v>190</x:v>
       </x:c>
       <x:c r="C180" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D180" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E180" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F180" s="0" t="n">
-        <x:v>64604465</x:v>
+        <x:v>88265359</x:v>
       </x:c>
     </x:row>
     <x:row r="181" spans="1:14">
       <x:c r="A181" s="1">
-        <x:v>45418.2402777778</x:v>
+        <x:v>45418.2527777778</x:v>
       </x:c>
       <x:c r="B181" s="0" t="s">
         <x:v>191</x:v>
@@ -4810,38 +4780,38 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D181" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E181" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F181" s="0" t="n">
-        <x:v>84974385</x:v>
+        <x:v>14116377</x:v>
       </x:c>
     </x:row>
     <x:row r="182" spans="1:14">
       <x:c r="A182" s="1">
-        <x:v>45418.2402777778</x:v>
+        <x:v>45418.2534722222</x:v>
       </x:c>
       <x:c r="B182" s="0" t="s">
         <x:v>192</x:v>
       </x:c>
       <x:c r="C182" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D182" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E182" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F182" s="0" t="n">
-        <x:v>73222964</x:v>
+        <x:v>61196937</x:v>
       </x:c>
     </x:row>
     <x:row r="183" spans="1:14">
       <x:c r="A183" s="1">
-        <x:v>45418.2409722222</x:v>
+        <x:v>45418.2555555556</x:v>
       </x:c>
       <x:c r="B183" s="0" t="s">
         <x:v>193</x:v>
@@ -4850,38 +4820,38 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D183" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E183" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F183" s="0" t="n">
-        <x:v>35417724</x:v>
+        <x:v>81496798</x:v>
       </x:c>
     </x:row>
     <x:row r="184" spans="1:14">
       <x:c r="A184" s="1">
-        <x:v>45418.2444444444</x:v>
+        <x:v>45418.25625</x:v>
       </x:c>
       <x:c r="B184" s="0" t="s">
         <x:v>194</x:v>
       </x:c>
       <x:c r="C184" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D184" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E184" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F184" s="0" t="n">
-        <x:v>47898636</x:v>
+        <x:v>73634687</x:v>
       </x:c>
     </x:row>
     <x:row r="185" spans="1:14">
       <x:c r="A185" s="1">
-        <x:v>45418.2458333333</x:v>
+        <x:v>45418.2576388889</x:v>
       </x:c>
       <x:c r="B185" s="0" t="s">
         <x:v>195</x:v>
@@ -4890,98 +4860,98 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D185" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E185" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F185" s="0" t="n">
-        <x:v>88866622</x:v>
+        <x:v>69377633</x:v>
       </x:c>
     </x:row>
     <x:row r="186" spans="1:14">
       <x:c r="A186" s="1">
-        <x:v>45418.2472222222</x:v>
+        <x:v>45418.2611111111</x:v>
       </x:c>
       <x:c r="B186" s="0" t="s">
         <x:v>196</x:v>
       </x:c>
       <x:c r="C186" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D186" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E186" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F186" s="0" t="n">
-        <x:v>46055816</x:v>
+        <x:v>34362899</x:v>
       </x:c>
     </x:row>
     <x:row r="187" spans="1:14">
       <x:c r="A187" s="1">
-        <x:v>45418.2493055556</x:v>
+        <x:v>45418.2625</x:v>
       </x:c>
       <x:c r="B187" s="0" t="s">
         <x:v>197</x:v>
       </x:c>
       <x:c r="C187" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D187" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E187" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F187" s="0" t="n">
-        <x:v>80522682</x:v>
+        <x:v>35527146</x:v>
       </x:c>
     </x:row>
     <x:row r="188" spans="1:14">
       <x:c r="A188" s="1">
-        <x:v>45418.2493055556</x:v>
+        <x:v>45418.2631944444</x:v>
       </x:c>
       <x:c r="B188" s="0" t="s">
         <x:v>198</x:v>
       </x:c>
       <x:c r="C188" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D188" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E188" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F188" s="0" t="n">
-        <x:v>41326641</x:v>
+        <x:v>59052559</x:v>
       </x:c>
     </x:row>
     <x:row r="189" spans="1:14">
       <x:c r="A189" s="1">
-        <x:v>45418.2506944444</x:v>
+        <x:v>45418.2652777778</x:v>
       </x:c>
       <x:c r="B189" s="0" t="s">
         <x:v>199</x:v>
       </x:c>
       <x:c r="C189" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D189" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E189" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F189" s="0" t="n">
-        <x:v>91493800</x:v>
+        <x:v>55610792</x:v>
       </x:c>
     </x:row>
     <x:row r="190" spans="1:14">
       <x:c r="A190" s="1">
-        <x:v>45418.2513888889</x:v>
+        <x:v>45418.2659722222</x:v>
       </x:c>
       <x:c r="B190" s="0" t="s">
         <x:v>200</x:v>
@@ -4996,32 +4966,32 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F190" s="0" t="n">
-        <x:v>88265359</x:v>
+        <x:v>76765480</x:v>
       </x:c>
     </x:row>
     <x:row r="191" spans="1:14">
       <x:c r="A191" s="1">
-        <x:v>45418.2527777778</x:v>
+        <x:v>45418.26875</x:v>
       </x:c>
       <x:c r="B191" s="0" t="s">
         <x:v>201</x:v>
       </x:c>
       <x:c r="C191" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D191" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E191" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F191" s="0" t="n">
-        <x:v>14116377</x:v>
+        <x:v>48664364</x:v>
       </x:c>
     </x:row>
     <x:row r="192" spans="1:14">
       <x:c r="A192" s="1">
-        <x:v>45418.2534722222</x:v>
+        <x:v>45418.2701388889</x:v>
       </x:c>
       <x:c r="B192" s="0" t="s">
         <x:v>202</x:v>
@@ -5030,24 +5000,24 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D192" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E192" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F192" s="0" t="n">
-        <x:v>61196937</x:v>
+        <x:v>76827061</x:v>
       </x:c>
     </x:row>
     <x:row r="193" spans="1:14">
       <x:c r="A193" s="1">
-        <x:v>45418.2555555556</x:v>
+        <x:v>45418.2729166667</x:v>
       </x:c>
       <x:c r="B193" s="0" t="s">
         <x:v>203</x:v>
       </x:c>
       <x:c r="C193" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D193" s="0" t="s">
         <x:v>8</x:v>
@@ -5056,12 +5026,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F193" s="0" t="n">
-        <x:v>81496798</x:v>
+        <x:v>99512062</x:v>
       </x:c>
     </x:row>
     <x:row r="194" spans="1:14">
       <x:c r="A194" s="1">
-        <x:v>45418.25625</x:v>
+        <x:v>45418.2743055556</x:v>
       </x:c>
       <x:c r="B194" s="0" t="s">
         <x:v>204</x:v>
@@ -5070,24 +5040,24 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D194" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E194" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F194" s="0" t="n">
-        <x:v>73634687</x:v>
+        <x:v>67462763</x:v>
       </x:c>
     </x:row>
     <x:row r="195" spans="1:14">
       <x:c r="A195" s="1">
-        <x:v>45418.2576388889</x:v>
+        <x:v>45418.2756944444</x:v>
       </x:c>
       <x:c r="B195" s="0" t="s">
         <x:v>205</x:v>
       </x:c>
       <x:c r="C195" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D195" s="0" t="s">
         <x:v>8</x:v>
@@ -5096,12 +5066,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F195" s="0" t="n">
-        <x:v>69377633</x:v>
+        <x:v>85992056</x:v>
       </x:c>
     </x:row>
     <x:row r="196" spans="1:14">
       <x:c r="A196" s="1">
-        <x:v>45418.2611111111</x:v>
+        <x:v>45418.2763888889</x:v>
       </x:c>
       <x:c r="B196" s="0" t="s">
         <x:v>206</x:v>
@@ -5110,18 +5080,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D196" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E196" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F196" s="0" t="n">
-        <x:v>34362899</x:v>
+        <x:v>36876610</x:v>
       </x:c>
     </x:row>
     <x:row r="197" spans="1:14">
       <x:c r="A197" s="1">
-        <x:v>45418.2625</x:v>
+        <x:v>45418.2777777778</x:v>
       </x:c>
       <x:c r="B197" s="0" t="s">
         <x:v>207</x:v>
@@ -5130,18 +5100,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D197" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E197" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F197" s="0" t="n">
-        <x:v>35527146</x:v>
+        <x:v>14237391</x:v>
       </x:c>
     </x:row>
     <x:row r="198" spans="1:14">
       <x:c r="A198" s="1">
-        <x:v>45418.2631944444</x:v>
+        <x:v>45418.2798611111</x:v>
       </x:c>
       <x:c r="B198" s="0" t="s">
         <x:v>208</x:v>
@@ -5150,98 +5120,98 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D198" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E198" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F198" s="0" t="n">
-        <x:v>59052559</x:v>
+        <x:v>42980468</x:v>
       </x:c>
     </x:row>
     <x:row r="199" spans="1:14">
       <x:c r="A199" s="1">
-        <x:v>45418.2652777778</x:v>
+        <x:v>45418.2805555556</x:v>
       </x:c>
       <x:c r="B199" s="0" t="s">
         <x:v>209</x:v>
       </x:c>
       <x:c r="C199" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D199" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E199" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F199" s="0" t="n">
-        <x:v>55610792</x:v>
+        <x:v>58462429</x:v>
       </x:c>
     </x:row>
     <x:row r="200" spans="1:14">
       <x:c r="A200" s="1">
-        <x:v>45418.2659722222</x:v>
+        <x:v>45418.2826388889</x:v>
       </x:c>
       <x:c r="B200" s="0" t="s">
         <x:v>210</x:v>
       </x:c>
       <x:c r="C200" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D200" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E200" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F200" s="0" t="n">
-        <x:v>76765480</x:v>
+        <x:v>40104132</x:v>
       </x:c>
     </x:row>
     <x:row r="201" spans="1:14">
       <x:c r="A201" s="1">
-        <x:v>45418.26875</x:v>
+        <x:v>45418.2861111111</x:v>
       </x:c>
       <x:c r="B201" s="0" t="s">
         <x:v>211</x:v>
       </x:c>
       <x:c r="C201" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D201" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E201" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F201" s="0" t="n">
-        <x:v>48664364</x:v>
+        <x:v>11430228</x:v>
       </x:c>
     </x:row>
     <x:row r="202" spans="1:14">
       <x:c r="A202" s="1">
-        <x:v>45418.2701388889</x:v>
+        <x:v>45418.2881944444</x:v>
       </x:c>
       <x:c r="B202" s="0" t="s">
         <x:v>212</x:v>
       </x:c>
       <x:c r="C202" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D202" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E202" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F202" s="0" t="n">
-        <x:v>76827061</x:v>
+        <x:v>59140876</x:v>
       </x:c>
     </x:row>
     <x:row r="203" spans="1:14">
       <x:c r="A203" s="1">
-        <x:v>45418.2729166667</x:v>
+        <x:v>45418.2916666667</x:v>
       </x:c>
       <x:c r="B203" s="0" t="s">
         <x:v>213</x:v>
@@ -5250,24 +5220,24 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D203" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E203" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F203" s="0" t="n">
-        <x:v>99512062</x:v>
+        <x:v>88018258</x:v>
       </x:c>
     </x:row>
     <x:row r="204" spans="1:14">
       <x:c r="A204" s="1">
-        <x:v>45418.2743055556</x:v>
+        <x:v>45418.2944444444</x:v>
       </x:c>
       <x:c r="B204" s="0" t="s">
         <x:v>214</x:v>
       </x:c>
       <x:c r="C204" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D204" s="0" t="s">
         <x:v>8</x:v>
@@ -5276,38 +5246,38 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F204" s="0" t="n">
-        <x:v>67462763</x:v>
+        <x:v>54103450</x:v>
       </x:c>
     </x:row>
     <x:row r="205" spans="1:14">
       <x:c r="A205" s="1">
-        <x:v>45418.2756944444</x:v>
+        <x:v>45418.2965277778</x:v>
       </x:c>
       <x:c r="B205" s="0" t="s">
         <x:v>215</x:v>
       </x:c>
       <x:c r="C205" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D205" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E205" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F205" s="0" t="n">
-        <x:v>85992056</x:v>
+        <x:v>35846970</x:v>
       </x:c>
     </x:row>
     <x:row r="206" spans="1:14">
       <x:c r="A206" s="1">
-        <x:v>45418.2763888889</x:v>
+        <x:v>45418.3</x:v>
       </x:c>
       <x:c r="B206" s="0" t="s">
         <x:v>216</x:v>
       </x:c>
       <x:c r="C206" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D206" s="0" t="s">
         <x:v>8</x:v>
@@ -5316,152 +5286,152 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F206" s="0" t="n">
-        <x:v>36876610</x:v>
+        <x:v>82165228</x:v>
       </x:c>
     </x:row>
     <x:row r="207" spans="1:14">
       <x:c r="A207" s="1">
-        <x:v>45418.2777777778</x:v>
+        <x:v>45418.3020833333</x:v>
       </x:c>
       <x:c r="B207" s="0" t="s">
         <x:v>217</x:v>
       </x:c>
       <x:c r="C207" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D207" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E207" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F207" s="0" t="n">
-        <x:v>14237391</x:v>
+        <x:v>95526033</x:v>
       </x:c>
     </x:row>
     <x:row r="208" spans="1:14">
       <x:c r="A208" s="1">
-        <x:v>45418.2798611111</x:v>
+        <x:v>45418.3041666667</x:v>
       </x:c>
       <x:c r="B208" s="0" t="s">
         <x:v>218</x:v>
       </x:c>
       <x:c r="C208" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D208" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E208" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F208" s="0" t="n">
-        <x:v>42980468</x:v>
+        <x:v>55398856</x:v>
       </x:c>
     </x:row>
     <x:row r="209" spans="1:14">
       <x:c r="A209" s="1">
-        <x:v>45418.2805555556</x:v>
+        <x:v>45418.3055555556</x:v>
       </x:c>
       <x:c r="B209" s="0" t="s">
         <x:v>219</x:v>
       </x:c>
       <x:c r="C209" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D209" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E209" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F209" s="0" t="n">
-        <x:v>58462429</x:v>
+        <x:v>51443919</x:v>
       </x:c>
     </x:row>
     <x:row r="210" spans="1:14">
       <x:c r="A210" s="1">
-        <x:v>45418.2826388889</x:v>
+        <x:v>45418.30625</x:v>
       </x:c>
       <x:c r="B210" s="0" t="s">
         <x:v>220</x:v>
       </x:c>
       <x:c r="C210" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D210" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E210" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F210" s="0" t="n">
-        <x:v>40104132</x:v>
+        <x:v>60791226</x:v>
       </x:c>
     </x:row>
     <x:row r="211" spans="1:14">
       <x:c r="A211" s="1">
-        <x:v>45418.2861111111</x:v>
+        <x:v>45418.3090277778</x:v>
       </x:c>
       <x:c r="B211" s="0" t="s">
         <x:v>221</x:v>
       </x:c>
       <x:c r="C211" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D211" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E211" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F211" s="0" t="n">
-        <x:v>11430228</x:v>
+        <x:v>98382096</x:v>
       </x:c>
     </x:row>
     <x:row r="212" spans="1:14">
       <x:c r="A212" s="1">
-        <x:v>45418.2881944444</x:v>
+        <x:v>45418.3118055556</x:v>
       </x:c>
       <x:c r="B212" s="0" t="s">
         <x:v>222</x:v>
       </x:c>
       <x:c r="C212" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D212" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E212" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F212" s="0" t="n">
-        <x:v>59140876</x:v>
+        <x:v>69130554</x:v>
       </x:c>
     </x:row>
     <x:row r="213" spans="1:14">
       <x:c r="A213" s="1">
-        <x:v>45418.2916666667</x:v>
+        <x:v>45418.3145833333</x:v>
       </x:c>
       <x:c r="B213" s="0" t="s">
         <x:v>223</x:v>
       </x:c>
       <x:c r="C213" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D213" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E213" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F213" s="0" t="n">
-        <x:v>88018258</x:v>
+        <x:v>87550105</x:v>
       </x:c>
     </x:row>
     <x:row r="214" spans="1:14">
       <x:c r="A214" s="1">
-        <x:v>45418.2944444444</x:v>
+        <x:v>45418.3152777778</x:v>
       </x:c>
       <x:c r="B214" s="0" t="s">
         <x:v>224</x:v>
@@ -5470,58 +5440,58 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D214" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E214" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F214" s="0" t="n">
-        <x:v>54103450</x:v>
+        <x:v>86717784</x:v>
       </x:c>
     </x:row>
     <x:row r="215" spans="1:14">
       <x:c r="A215" s="1">
-        <x:v>45418.2965277778</x:v>
+        <x:v>45418.3173611111</x:v>
       </x:c>
       <x:c r="B215" s="0" t="s">
         <x:v>225</x:v>
       </x:c>
       <x:c r="C215" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D215" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E215" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F215" s="0" t="n">
-        <x:v>35846970</x:v>
+        <x:v>96022898</x:v>
       </x:c>
     </x:row>
     <x:row r="216" spans="1:14">
       <x:c r="A216" s="1">
-        <x:v>45418.3</x:v>
+        <x:v>45418.3208333333</x:v>
       </x:c>
       <x:c r="B216" s="0" t="s">
         <x:v>226</x:v>
       </x:c>
       <x:c r="C216" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D216" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E216" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F216" s="0" t="n">
-        <x:v>82165228</x:v>
+        <x:v>18974938</x:v>
       </x:c>
     </x:row>
     <x:row r="217" spans="1:14">
       <x:c r="A217" s="1">
-        <x:v>45418.3020833333</x:v>
+        <x:v>45418.3208333333</x:v>
       </x:c>
       <x:c r="B217" s="0" t="s">
         <x:v>227</x:v>
@@ -5530,24 +5500,24 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D217" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E217" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F217" s="0" t="n">
-        <x:v>95526033</x:v>
+        <x:v>78906923</x:v>
       </x:c>
     </x:row>
     <x:row r="218" spans="1:14">
       <x:c r="A218" s="1">
-        <x:v>45418.3041666667</x:v>
+        <x:v>45418.3236111111</x:v>
       </x:c>
       <x:c r="B218" s="0" t="s">
         <x:v>228</x:v>
       </x:c>
       <x:c r="C218" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D218" s="0" t="s">
         <x:v>8</x:v>
@@ -5556,12 +5526,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F218" s="0" t="n">
-        <x:v>55398856</x:v>
+        <x:v>28748213</x:v>
       </x:c>
     </x:row>
     <x:row r="219" spans="1:14">
       <x:c r="A219" s="1">
-        <x:v>45418.3055555556</x:v>
+        <x:v>45418.3243055556</x:v>
       </x:c>
       <x:c r="B219" s="0" t="s">
         <x:v>229</x:v>
@@ -5570,18 +5540,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D219" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E219" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F219" s="0" t="n">
-        <x:v>51443919</x:v>
+        <x:v>98183367</x:v>
       </x:c>
     </x:row>
     <x:row r="220" spans="1:14">
       <x:c r="A220" s="1">
-        <x:v>45418.30625</x:v>
+        <x:v>45418.3256944444</x:v>
       </x:c>
       <x:c r="B220" s="0" t="s">
         <x:v>230</x:v>
@@ -5590,118 +5560,118 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D220" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E220" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F220" s="0" t="n">
-        <x:v>60791226</x:v>
+        <x:v>76265236</x:v>
       </x:c>
     </x:row>
     <x:row r="221" spans="1:14">
       <x:c r="A221" s="1">
-        <x:v>45418.3090277778</x:v>
+        <x:v>45418.3291666667</x:v>
       </x:c>
       <x:c r="B221" s="0" t="s">
         <x:v>231</x:v>
       </x:c>
       <x:c r="C221" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D221" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E221" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F221" s="0" t="n">
-        <x:v>98382096</x:v>
+        <x:v>26250892</x:v>
       </x:c>
     </x:row>
     <x:row r="222" spans="1:14">
       <x:c r="A222" s="1">
-        <x:v>45418.3118055556</x:v>
+        <x:v>45418.3298611111</x:v>
       </x:c>
       <x:c r="B222" s="0" t="s">
         <x:v>232</x:v>
       </x:c>
       <x:c r="C222" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D222" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E222" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F222" s="0" t="n">
-        <x:v>69130554</x:v>
+        <x:v>74984015</x:v>
       </x:c>
     </x:row>
     <x:row r="223" spans="1:14">
       <x:c r="A223" s="1">
-        <x:v>45418.3145833333</x:v>
+        <x:v>45418.3326388889</x:v>
       </x:c>
       <x:c r="B223" s="0" t="s">
         <x:v>233</x:v>
       </x:c>
       <x:c r="C223" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D223" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E223" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F223" s="0" t="n">
-        <x:v>87550105</x:v>
+        <x:v>76975211</x:v>
       </x:c>
     </x:row>
     <x:row r="224" spans="1:14">
       <x:c r="A224" s="1">
-        <x:v>45418.3152777778</x:v>
+        <x:v>45418.3340277778</x:v>
       </x:c>
       <x:c r="B224" s="0" t="s">
         <x:v>234</x:v>
       </x:c>
       <x:c r="C224" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D224" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E224" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F224" s="0" t="n">
-        <x:v>86717784</x:v>
+        <x:v>64621408</x:v>
       </x:c>
     </x:row>
     <x:row r="225" spans="1:14">
       <x:c r="A225" s="1">
-        <x:v>45418.3173611111</x:v>
+        <x:v>45418.3347222222</x:v>
       </x:c>
       <x:c r="B225" s="0" t="s">
         <x:v>235</x:v>
       </x:c>
       <x:c r="C225" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D225" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E225" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F225" s="0" t="n">
-        <x:v>96022898</x:v>
+        <x:v>92592247</x:v>
       </x:c>
     </x:row>
     <x:row r="226" spans="1:14">
       <x:c r="A226" s="1">
-        <x:v>45418.3208333333</x:v>
+        <x:v>45418.3361111111</x:v>
       </x:c>
       <x:c r="B226" s="0" t="s">
         <x:v>236</x:v>
@@ -5710,38 +5680,38 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D226" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E226" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F226" s="0" t="n">
-        <x:v>18974938</x:v>
+        <x:v>50327738</x:v>
       </x:c>
     </x:row>
     <x:row r="227" spans="1:14">
       <x:c r="A227" s="1">
-        <x:v>45418.3208333333</x:v>
+        <x:v>45418.3375</x:v>
       </x:c>
       <x:c r="B227" s="0" t="s">
         <x:v>237</x:v>
       </x:c>
       <x:c r="C227" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D227" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E227" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F227" s="0" t="n">
-        <x:v>78906923</x:v>
+        <x:v>64120818</x:v>
       </x:c>
     </x:row>
     <x:row r="228" spans="1:14">
       <x:c r="A228" s="1">
-        <x:v>45418.3236111111</x:v>
+        <x:v>45418.3409722222</x:v>
       </x:c>
       <x:c r="B228" s="0" t="s">
         <x:v>238</x:v>
@@ -5750,224 +5720,224 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D228" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E228" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F228" s="0" t="n">
-        <x:v>28748213</x:v>
+        <x:v>60072046</x:v>
       </x:c>
     </x:row>
     <x:row r="229" spans="1:14">
       <x:c r="A229" s="1">
-        <x:v>45418.3243055556</x:v>
+        <x:v>45418.3423611111</x:v>
       </x:c>
       <x:c r="B229" s="0" t="s">
         <x:v>239</x:v>
       </x:c>
       <x:c r="C229" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D229" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E229" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F229" s="0" t="n">
-        <x:v>98183367</x:v>
+        <x:v>37644531</x:v>
       </x:c>
     </x:row>
     <x:row r="230" spans="1:14">
       <x:c r="A230" s="1">
-        <x:v>45418.3256944444</x:v>
+        <x:v>45418.3451388889</x:v>
       </x:c>
       <x:c r="B230" s="0" t="s">
         <x:v>240</x:v>
       </x:c>
       <x:c r="C230" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D230" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E230" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F230" s="0" t="n">
-        <x:v>76265236</x:v>
+        <x:v>44336410</x:v>
       </x:c>
     </x:row>
     <x:row r="231" spans="1:14">
       <x:c r="A231" s="1">
-        <x:v>45418.3291666667</x:v>
+        <x:v>45418.3472222222</x:v>
       </x:c>
       <x:c r="B231" s="0" t="s">
         <x:v>241</x:v>
       </x:c>
       <x:c r="C231" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D231" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E231" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F231" s="0" t="n">
-        <x:v>26250892</x:v>
+        <x:v>44953650</x:v>
       </x:c>
     </x:row>
     <x:row r="232" spans="1:14">
       <x:c r="A232" s="1">
-        <x:v>45418.3298611111</x:v>
+        <x:v>45418.3486111111</x:v>
       </x:c>
       <x:c r="B232" s="0" t="s">
         <x:v>242</x:v>
       </x:c>
       <x:c r="C232" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D232" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E232" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F232" s="0" t="n">
-        <x:v>74984015</x:v>
+        <x:v>46988533</x:v>
       </x:c>
     </x:row>
     <x:row r="233" spans="1:14">
       <x:c r="A233" s="1">
-        <x:v>45418.3326388889</x:v>
+        <x:v>45418.3520833333</x:v>
       </x:c>
       <x:c r="B233" s="0" t="s">
         <x:v>243</x:v>
       </x:c>
       <x:c r="C233" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D233" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E233" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F233" s="0" t="n">
-        <x:v>76975211</x:v>
+        <x:v>95154048</x:v>
       </x:c>
     </x:row>
     <x:row r="234" spans="1:14">
       <x:c r="A234" s="1">
-        <x:v>45418.3340277778</x:v>
+        <x:v>45418.3541666667</x:v>
       </x:c>
       <x:c r="B234" s="0" t="s">
         <x:v>244</x:v>
       </x:c>
       <x:c r="C234" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D234" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E234" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F234" s="0" t="n">
-        <x:v>64621408</x:v>
+        <x:v>22642147</x:v>
       </x:c>
     </x:row>
     <x:row r="235" spans="1:14">
       <x:c r="A235" s="1">
-        <x:v>45418.3347222222</x:v>
+        <x:v>45418.3569444444</x:v>
       </x:c>
       <x:c r="B235" s="0" t="s">
         <x:v>245</x:v>
       </x:c>
       <x:c r="C235" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D235" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E235" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F235" s="0" t="n">
-        <x:v>92592247</x:v>
+        <x:v>11051756</x:v>
       </x:c>
     </x:row>
     <x:row r="236" spans="1:14">
       <x:c r="A236" s="1">
-        <x:v>45418.3361111111</x:v>
+        <x:v>45418.3583333333</x:v>
       </x:c>
       <x:c r="B236" s="0" t="s">
         <x:v>246</x:v>
       </x:c>
       <x:c r="C236" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D236" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E236" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F236" s="0" t="n">
-        <x:v>50327738</x:v>
+        <x:v>60269654</x:v>
       </x:c>
     </x:row>
     <x:row r="237" spans="1:14">
       <x:c r="A237" s="1">
-        <x:v>45418.3375</x:v>
+        <x:v>45418.3597222222</x:v>
       </x:c>
       <x:c r="B237" s="0" t="s">
         <x:v>247</x:v>
       </x:c>
       <x:c r="C237" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D237" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E237" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F237" s="0" t="n">
-        <x:v>64120818</x:v>
+        <x:v>51403242</x:v>
       </x:c>
     </x:row>
     <x:row r="238" spans="1:14">
       <x:c r="A238" s="1">
-        <x:v>45418.3409722222</x:v>
+        <x:v>45418.3611111111</x:v>
       </x:c>
       <x:c r="B238" s="0" t="s">
         <x:v>248</x:v>
       </x:c>
       <x:c r="C238" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D238" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E238" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F238" s="0" t="n">
-        <x:v>60072046</x:v>
+        <x:v>23554685</x:v>
       </x:c>
     </x:row>
     <x:row r="239" spans="1:14">
       <x:c r="A239" s="1">
-        <x:v>45418.3423611111</x:v>
+        <x:v>45418.3625</x:v>
       </x:c>
       <x:c r="B239" s="0" t="s">
         <x:v>249</x:v>
       </x:c>
       <x:c r="C239" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D239" s="0" t="s">
         <x:v>8</x:v>
@@ -5976,12 +5946,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F239" s="0" t="n">
-        <x:v>37644531</x:v>
+        <x:v>24863987</x:v>
       </x:c>
     </x:row>
     <x:row r="240" spans="1:14">
       <x:c r="A240" s="1">
-        <x:v>45418.3451388889</x:v>
+        <x:v>45418.3638888889</x:v>
       </x:c>
       <x:c r="B240" s="0" t="s">
         <x:v>250</x:v>
@@ -5990,98 +5960,98 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D240" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E240" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F240" s="0" t="n">
-        <x:v>44336410</x:v>
+        <x:v>98063611</x:v>
       </x:c>
     </x:row>
     <x:row r="241" spans="1:14">
       <x:c r="A241" s="1">
-        <x:v>45418.3472222222</x:v>
+        <x:v>45418.3666666667</x:v>
       </x:c>
       <x:c r="B241" s="0" t="s">
         <x:v>251</x:v>
       </x:c>
       <x:c r="C241" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D241" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E241" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F241" s="0" t="n">
-        <x:v>44953650</x:v>
+        <x:v>52037889</x:v>
       </x:c>
     </x:row>
     <x:row r="242" spans="1:14">
       <x:c r="A242" s="1">
-        <x:v>45418.3486111111</x:v>
+        <x:v>45418.3680555556</x:v>
       </x:c>
       <x:c r="B242" s="0" t="s">
         <x:v>252</x:v>
       </x:c>
       <x:c r="C242" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D242" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E242" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F242" s="0" t="n">
-        <x:v>46988533</x:v>
+        <x:v>58568313</x:v>
       </x:c>
     </x:row>
     <x:row r="243" spans="1:14">
       <x:c r="A243" s="1">
-        <x:v>45418.3520833333</x:v>
+        <x:v>45418.3708333333</x:v>
       </x:c>
       <x:c r="B243" s="0" t="s">
         <x:v>253</x:v>
       </x:c>
       <x:c r="C243" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D243" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E243" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F243" s="0" t="n">
-        <x:v>95154048</x:v>
+        <x:v>41802058</x:v>
       </x:c>
     </x:row>
     <x:row r="244" spans="1:14">
       <x:c r="A244" s="1">
-        <x:v>45418.3541666667</x:v>
+        <x:v>45418.3715277778</x:v>
       </x:c>
       <x:c r="B244" s="0" t="s">
         <x:v>254</x:v>
       </x:c>
       <x:c r="C244" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D244" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E244" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F244" s="0" t="n">
-        <x:v>22642147</x:v>
+        <x:v>41189497</x:v>
       </x:c>
     </x:row>
     <x:row r="245" spans="1:14">
       <x:c r="A245" s="1">
-        <x:v>45418.3569444444</x:v>
+        <x:v>45418.3743055556</x:v>
       </x:c>
       <x:c r="B245" s="0" t="s">
         <x:v>255</x:v>
@@ -6090,18 +6060,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D245" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E245" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F245" s="0" t="n">
-        <x:v>11051756</x:v>
+        <x:v>25723020</x:v>
       </x:c>
     </x:row>
     <x:row r="246" spans="1:14">
       <x:c r="A246" s="1">
-        <x:v>45418.3583333333</x:v>
+        <x:v>45418.3763888889</x:v>
       </x:c>
       <x:c r="B246" s="0" t="s">
         <x:v>256</x:v>
@@ -6110,18 +6080,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D246" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E246" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F246" s="0" t="n">
-        <x:v>60269654</x:v>
+        <x:v>83739665</x:v>
       </x:c>
     </x:row>
     <x:row r="247" spans="1:14">
       <x:c r="A247" s="1">
-        <x:v>45418.3597222222</x:v>
+        <x:v>45418.3784722222</x:v>
       </x:c>
       <x:c r="B247" s="0" t="s">
         <x:v>257</x:v>
@@ -6130,78 +6100,78 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D247" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E247" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F247" s="0" t="n">
-        <x:v>51403242</x:v>
+        <x:v>94440068</x:v>
       </x:c>
     </x:row>
     <x:row r="248" spans="1:14">
       <x:c r="A248" s="1">
-        <x:v>45418.3611111111</x:v>
+        <x:v>45418.3805555556</x:v>
       </x:c>
       <x:c r="B248" s="0" t="s">
         <x:v>258</x:v>
       </x:c>
       <x:c r="C248" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D248" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E248" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F248" s="0" t="n">
-        <x:v>23554685</x:v>
+        <x:v>79673521</x:v>
       </x:c>
     </x:row>
     <x:row r="249" spans="1:14">
       <x:c r="A249" s="1">
-        <x:v>45418.3625</x:v>
+        <x:v>45418.3833333333</x:v>
       </x:c>
       <x:c r="B249" s="0" t="s">
         <x:v>259</x:v>
       </x:c>
       <x:c r="C249" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D249" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E249" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F249" s="0" t="n">
-        <x:v>24863987</x:v>
+        <x:v>69694990</x:v>
       </x:c>
     </x:row>
     <x:row r="250" spans="1:14">
       <x:c r="A250" s="1">
-        <x:v>45418.3638888889</x:v>
+        <x:v>45418.3847222222</x:v>
       </x:c>
       <x:c r="B250" s="0" t="s">
         <x:v>260</x:v>
       </x:c>
       <x:c r="C250" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D250" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E250" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F250" s="0" t="n">
-        <x:v>98063611</x:v>
+        <x:v>46094520</x:v>
       </x:c>
     </x:row>
     <x:row r="251" spans="1:14">
       <x:c r="A251" s="1">
-        <x:v>45418.3666666667</x:v>
+        <x:v>45418.3875</x:v>
       </x:c>
       <x:c r="B251" s="0" t="s">
         <x:v>261</x:v>
@@ -6210,144 +6180,144 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D251" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E251" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F251" s="0" t="n">
-        <x:v>52037889</x:v>
+        <x:v>15170018</x:v>
       </x:c>
     </x:row>
     <x:row r="252" spans="1:14">
       <x:c r="A252" s="1">
-        <x:v>45418.3680555556</x:v>
+        <x:v>45418.3236111111</x:v>
       </x:c>
       <x:c r="B252" s="0" t="s">
-        <x:v>262</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="C252" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D252" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E252" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F252" s="0" t="n">
-        <x:v>58568313</x:v>
+        <x:v>28748213</x:v>
       </x:c>
     </x:row>
     <x:row r="253" spans="1:14">
       <x:c r="A253" s="1">
-        <x:v>45418.3708333333</x:v>
+        <x:v>45418.3243055556</x:v>
       </x:c>
       <x:c r="B253" s="0" t="s">
-        <x:v>263</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="C253" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D253" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E253" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F253" s="0" t="n">
-        <x:v>41802058</x:v>
+        <x:v>98183367</x:v>
       </x:c>
     </x:row>
     <x:row r="254" spans="1:14">
       <x:c r="A254" s="1">
-        <x:v>45418.3715277778</x:v>
+        <x:v>45418.3256944444</x:v>
       </x:c>
       <x:c r="B254" s="0" t="s">
-        <x:v>264</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="C254" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D254" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E254" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F254" s="0" t="n">
-        <x:v>41189497</x:v>
+        <x:v>76265236</x:v>
       </x:c>
     </x:row>
     <x:row r="255" spans="1:14">
       <x:c r="A255" s="1">
-        <x:v>45418.3743055556</x:v>
+        <x:v>45418.3291666667</x:v>
       </x:c>
       <x:c r="B255" s="0" t="s">
-        <x:v>265</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="C255" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D255" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E255" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F255" s="0" t="n">
-        <x:v>25723020</x:v>
+        <x:v>26250892</x:v>
       </x:c>
     </x:row>
     <x:row r="256" spans="1:14">
       <x:c r="A256" s="1">
-        <x:v>45418.3763888889</x:v>
+        <x:v>45418.3298611111</x:v>
       </x:c>
       <x:c r="B256" s="0" t="s">
-        <x:v>266</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="C256" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D256" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E256" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F256" s="0" t="n">
-        <x:v>83739665</x:v>
+        <x:v>74984015</x:v>
       </x:c>
     </x:row>
     <x:row r="257" spans="1:14">
       <x:c r="A257" s="1">
-        <x:v>45418.3784722222</x:v>
+        <x:v>45418.3326388889</x:v>
       </x:c>
       <x:c r="B257" s="0" t="s">
-        <x:v>267</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="C257" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D257" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E257" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F257" s="0" t="n">
-        <x:v>94440068</x:v>
+        <x:v>76975211</x:v>
       </x:c>
     </x:row>
     <x:row r="258" spans="1:14">
       <x:c r="A258" s="1">
-        <x:v>45418.3805555556</x:v>
+        <x:v>45418.3340277778</x:v>
       </x:c>
       <x:c r="B258" s="0" t="s">
-        <x:v>268</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="C258" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D258" s="0" t="s">
         <x:v>8</x:v>
@@ -6356,67 +6326,407 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F258" s="0" t="n">
-        <x:v>79673521</x:v>
+        <x:v>64621408</x:v>
       </x:c>
     </x:row>
     <x:row r="259" spans="1:14">
       <x:c r="A259" s="1">
-        <x:v>45418.3833333333</x:v>
+        <x:v>45418.3347222222</x:v>
       </x:c>
       <x:c r="B259" s="0" t="s">
-        <x:v>269</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="C259" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D259" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E259" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F259" s="0" t="n">
-        <x:v>69694990</x:v>
+        <x:v>92592247</x:v>
       </x:c>
     </x:row>
     <x:row r="260" spans="1:14">
       <x:c r="A260" s="1">
-        <x:v>45418.3847222222</x:v>
+        <x:v>45418.3361111111</x:v>
       </x:c>
       <x:c r="B260" s="0" t="s">
-        <x:v>270</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="C260" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D260" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E260" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F260" s="0" t="n">
-        <x:v>46094520</x:v>
+        <x:v>50327738</x:v>
       </x:c>
     </x:row>
     <x:row r="261" spans="1:14">
       <x:c r="A261" s="1">
-        <x:v>45418.3875</x:v>
+        <x:v>45418.3375</x:v>
       </x:c>
       <x:c r="B261" s="0" t="s">
-        <x:v>271</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="C261" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D261" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E261" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F261" s="0" t="n">
-        <x:v>15170018</x:v>
+        <x:v>64120818</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="262" spans="1:14">
+      <x:c r="A262" s="1">
+        <x:v>45418.3409722222</x:v>
+      </x:c>
+      <x:c r="B262" s="0" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="C262" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D262" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E262" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F262" s="0" t="n">
+        <x:v>60072046</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="263" spans="1:14">
+      <x:c r="A263" s="1">
+        <x:v>45418.3423611111</x:v>
+      </x:c>
+      <x:c r="B263" s="0" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="C263" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D263" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E263" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F263" s="0" t="n">
+        <x:v>37644531</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="264" spans="1:14">
+      <x:c r="A264" s="1">
+        <x:v>45418.3451388889</x:v>
+      </x:c>
+      <x:c r="B264" s="0" t="s">
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="C264" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D264" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E264" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F264" s="0" t="n">
+        <x:v>44336410</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="265" spans="1:14">
+      <x:c r="A265" s="1">
+        <x:v>45418.3472222222</x:v>
+      </x:c>
+      <x:c r="B265" s="0" t="s">
+        <x:v>241</x:v>
+      </x:c>
+      <x:c r="C265" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D265" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E265" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F265" s="0" t="n">
+        <x:v>44953650</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="266" spans="1:14">
+      <x:c r="A266" s="1">
+        <x:v>45418.3486111111</x:v>
+      </x:c>
+      <x:c r="B266" s="0" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="C266" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D266" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E266" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F266" s="0" t="n">
+        <x:v>46988533</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="267" spans="1:14">
+      <x:c r="A267" s="1">
+        <x:v>45418.3520833333</x:v>
+      </x:c>
+      <x:c r="B267" s="0" t="s">
+        <x:v>243</x:v>
+      </x:c>
+      <x:c r="C267" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D267" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E267" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F267" s="0" t="n">
+        <x:v>95154048</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="268" spans="1:14">
+      <x:c r="A268" s="1">
+        <x:v>45418.3541666667</x:v>
+      </x:c>
+      <x:c r="B268" s="0" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="C268" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D268" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E268" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F268" s="0" t="n">
+        <x:v>22642147</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="269" spans="1:14">
+      <x:c r="A269" s="1">
+        <x:v>45418.3569444444</x:v>
+      </x:c>
+      <x:c r="B269" s="0" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="C269" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D269" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E269" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F269" s="0" t="n">
+        <x:v>11051756</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="270" spans="1:14">
+      <x:c r="A270" s="1">
+        <x:v>45418.3583333333</x:v>
+      </x:c>
+      <x:c r="B270" s="0" t="s">
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="C270" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D270" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E270" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F270" s="0" t="n">
+        <x:v>60269654</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="271" spans="1:14">
+      <x:c r="A271" s="1">
+        <x:v>45418.3597222222</x:v>
+      </x:c>
+      <x:c r="B271" s="0" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="C271" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D271" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E271" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F271" s="0" t="n">
+        <x:v>51403242</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="272" spans="1:14">
+      <x:c r="A272" s="1">
+        <x:v>45418.3611111111</x:v>
+      </x:c>
+      <x:c r="B272" s="0" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="C272" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D272" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E272" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F272" s="0" t="n">
+        <x:v>23554685</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="273" spans="1:14">
+      <x:c r="A273" s="1">
+        <x:v>45418.3625</x:v>
+      </x:c>
+      <x:c r="B273" s="0" t="s">
+        <x:v>249</x:v>
+      </x:c>
+      <x:c r="C273" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D273" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E273" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F273" s="0" t="n">
+        <x:v>24863987</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="274" spans="1:14">
+      <x:c r="A274" s="1">
+        <x:v>45418.3638888889</x:v>
+      </x:c>
+      <x:c r="B274" s="0" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="C274" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D274" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E274" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F274" s="0" t="n">
+        <x:v>98063611</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="275" spans="1:14">
+      <x:c r="A275" s="1">
+        <x:v>45418.3666666667</x:v>
+      </x:c>
+      <x:c r="B275" s="0" t="s">
+        <x:v>251</x:v>
+      </x:c>
+      <x:c r="C275" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D275" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E275" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F275" s="0" t="n">
+        <x:v>52037889</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="276" spans="1:14">
+      <x:c r="A276" s="1">
+        <x:v>45418.3680555556</x:v>
+      </x:c>
+      <x:c r="B276" s="0" t="s">
+        <x:v>252</x:v>
+      </x:c>
+      <x:c r="C276" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D276" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E276" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F276" s="0" t="n">
+        <x:v>58568313</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="277" spans="1:14">
+      <x:c r="A277" s="1">
+        <x:v>45418.3708333333</x:v>
+      </x:c>
+      <x:c r="B277" s="0" t="s">
+        <x:v>253</x:v>
+      </x:c>
+      <x:c r="C277" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D277" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E277" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F277" s="0" t="n">
+        <x:v>41802058</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="278" spans="1:14">
+      <x:c r="A278" s="1">
+        <x:v>45418.3715277778</x:v>
+      </x:c>
+      <x:c r="B278" s="0" t="s">
+        <x:v>254</x:v>
+      </x:c>
+      <x:c r="C278" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D278" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E278" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F278" s="0" t="n">
+        <x:v>41189497</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/NotSelectedParticipants.xlsx
+++ b/NotSelectedParticipants.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="262">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="252">
   <x:si>
     <x:t>Timestamp</x:t>
   </x:si>
@@ -41,121 +41,91 @@
     <x:t>Contact Number</x:t>
   </x:si>
   <x:si>
-    <x:t>Michelle Kelly</x:t>
+    <x:t>Brittany Baker</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Male</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test@abc.com.sg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Amber Lucas</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Julie Woods</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31-40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hunter Estes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Robin Medina</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Samantha Young</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jessica Sanchez</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Joshua Cannon</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Anna Carrillo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jessica Lowery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Samuel Kelly</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Robin Williams</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Angel Gonzales</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jose Torres</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Joseph Flores</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Christian Bowman</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jose Thompson</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Carl Howard</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Casey Payne PhD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Benjamin White</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ethan Livingston</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41-50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jill Hansen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nicholas Williams</x:t>
   </x:si>
   <x:si>
     <x:t>Female</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41-50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>test@abc.com.sg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Christopher Chavez</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Male</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31-40</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jon Wood</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21-30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Briana Griffin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Brittany Baker</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Amber Lucas</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Robert Lutz</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Julie Woods</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hunter Estes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>David Green</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Robin Medina</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Samantha Young</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jessica Sanchez</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Brittney Nelson</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Joshua Cannon</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Anna Carrillo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Megan Osborne</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jessica Lowery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Samuel Kelly</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Robin Williams</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Angel Gonzales</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Shawn Gomez</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jose Torres</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Joseph Flores</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Christian Bowman</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hannah Alvarez</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jose Thompson</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Carl Howard</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Casey Payne PhD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Benjamin White</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ethan Livingston</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jill Hansen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nicholas Williams</x:t>
   </x:si>
   <x:si>
     <x:t>James Richardson</x:t>
@@ -1191,7 +1161,7 @@
     </x:row>
     <x:row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A2" s="1">
-        <x:v>45417.9076388889</x:v>
+        <x:v>45417.9256944444</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
         <x:v>6</x:v>
@@ -1206,118 +1176,118 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>29597549</x:v>
+        <x:v>10389353</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A3" s="1">
-        <x:v>45417.9145833333</x:v>
+        <x:v>45417.9284722222</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>95350918</x:v>
+        <x:v>80276072</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A4" s="1">
-        <x:v>45417.9194444444</x:v>
+        <x:v>45417.9375</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
-        <x:v>83650172</x:v>
+        <x:v>95466287</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A5" s="1">
-        <x:v>45417.9229166667</x:v>
+        <x:v>45417.9430555556</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
-        <x:v>41823611</x:v>
+        <x:v>75899760</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A6" s="1">
-        <x:v>45417.9256944444</x:v>
+        <x:v>45417.9479166667</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
-        <x:v>10389353</x:v>
+        <x:v>79920980</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A7" s="1">
-        <x:v>45417.9284722222</x:v>
+        <x:v>45417.9486111111</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>80276072</x:v>
+        <x:v>20272573</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A8" s="1">
-        <x:v>45417.9361111111</x:v>
+        <x:v>45417.9520833333</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
         <x:v>12</x:v>
@@ -1326,18 +1296,18 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
-        <x:v>95828882</x:v>
+        <x:v>51235820</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A9" s="1">
-        <x:v>45417.9375</x:v>
+        <x:v>45417.9555555556</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
         <x:v>12</x:v>
@@ -1346,18 +1316,18 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
-        <x:v>95466287</x:v>
+        <x:v>43869042</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A10" s="1">
-        <x:v>45417.9430555556</x:v>
+        <x:v>45417.9597222222</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
         <x:v>12</x:v>
@@ -1366,118 +1336,118 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
-        <x:v>75899760</x:v>
+        <x:v>18996598</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A11" s="1">
-        <x:v>45417.9451388889</x:v>
+        <x:v>45417.9638888889</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F11" s="0" t="n">
-        <x:v>64714222</x:v>
+        <x:v>51685815</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A12" s="1">
-        <x:v>45417.9479166667</x:v>
+        <x:v>45417.9652777778</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
-        <x:v>79920980</x:v>
+        <x:v>42016440</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A13" s="1">
-        <x:v>45417.9486111111</x:v>
+        <x:v>45417.9659722222</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F13" s="0" t="n">
-        <x:v>20272573</x:v>
+        <x:v>49147219</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A14" s="1">
-        <x:v>45417.9520833333</x:v>
+        <x:v>45417.9680555556</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
-        <x:v>51235820</x:v>
+        <x:v>47518687</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A15" s="1">
-        <x:v>45417.9534722222</x:v>
+        <x:v>45417.96875</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>76810268</x:v>
+        <x:v>37130984</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A16" s="1">
-        <x:v>45417.9555555556</x:v>
+        <x:v>45417.9708333333</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
         <x:v>12</x:v>
@@ -1486,18 +1456,18 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>43869042</x:v>
+        <x:v>35497334</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A17" s="1">
-        <x:v>45417.9597222222</x:v>
+        <x:v>45417.9722222222</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
         <x:v>12</x:v>
@@ -1506,15 +1476,15 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>18996598</x:v>
+        <x:v>43668577</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A18" s="1">
-        <x:v>45417.9618055556</x:v>
+        <x:v>45417.9743055556</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
         <x:v>7</x:v>
@@ -1526,18 +1496,18 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>73261856</x:v>
+        <x:v>23172841</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A19" s="1">
-        <x:v>45417.9638888889</x:v>
+        <x:v>45417.9770833333</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
         <x:v>12</x:v>
@@ -1546,198 +1516,198 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
-        <x:v>51685815</x:v>
+        <x:v>77020975</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A20" s="1">
-        <x:v>45417.9652777778</x:v>
+        <x:v>45417.9791666667</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F20" s="0" t="n">
-        <x:v>42016440</x:v>
+        <x:v>58493323</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A21" s="1">
-        <x:v>45417.9659722222</x:v>
+        <x:v>45417.98125</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E21" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F21" s="0" t="n">
-        <x:v>49147219</x:v>
+        <x:v>10734113</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A22" s="1">
-        <x:v>45417.9680555556</x:v>
+        <x:v>45417.9826388889</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E22" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F22" s="0" t="n">
-        <x:v>47518687</x:v>
+        <x:v>30890990</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:14">
       <x:c r="A23" s="1">
-        <x:v>45417.9680555556</x:v>
+        <x:v>45417.9847222222</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E23" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F23" s="0" t="n">
-        <x:v>94511350</x:v>
+        <x:v>72415145</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:14">
       <x:c r="A24" s="1">
-        <x:v>45417.96875</x:v>
+        <x:v>45417.9854166667</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E24" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F24" s="0" t="n">
-        <x:v>37130984</x:v>
+        <x:v>70622792</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:14">
       <x:c r="A25" s="1">
-        <x:v>45417.9708333333</x:v>
+        <x:v>45417.9861111111</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E25" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F25" s="0" t="n">
-        <x:v>35497334</x:v>
+        <x:v>92386611</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:14">
       <x:c r="A26" s="1">
-        <x:v>45417.9722222222</x:v>
+        <x:v>45417.9881944444</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E26" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
-        <x:v>43668577</x:v>
+        <x:v>47936639</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:14">
       <x:c r="A27" s="1">
-        <x:v>45417.9729166667</x:v>
+        <x:v>45417.9895833333</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E27" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
-        <x:v>31337203</x:v>
+        <x:v>87130517</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:14">
       <x:c r="A28" s="1">
-        <x:v>45417.9743055556</x:v>
+        <x:v>45417.9923611111</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
         <x:v>38</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E28" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F28" s="0" t="n">
-        <x:v>23172841</x:v>
+        <x:v>21268147</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:14">
       <x:c r="A29" s="1">
-        <x:v>45417.9770833333</x:v>
+        <x:v>45417.99375</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
         <x:v>12</x:v>
@@ -1746,38 +1716,38 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F29" s="0" t="n">
-        <x:v>77020975</x:v>
+        <x:v>99479268</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:14">
       <x:c r="A30" s="1">
-        <x:v>45417.9791666667</x:v>
+        <x:v>45417.9958333333</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E30" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F30" s="0" t="n">
-        <x:v>58493323</x:v>
+        <x:v>84465016</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:14">
       <x:c r="A31" s="1">
-        <x:v>45417.98125</x:v>
+        <x:v>45417.9979166667</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D31" s="0" t="s">
         <x:v>12</x:v>
@@ -1786,38 +1756,38 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F31" s="0" t="n">
-        <x:v>10734113</x:v>
+        <x:v>25276200</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:14">
       <x:c r="A32" s="1">
-        <x:v>45417.9826388889</x:v>
+        <x:v>45418</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>42</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E32" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F32" s="0" t="n">
-        <x:v>30890990</x:v>
+        <x:v>55144869</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:14">
       <x:c r="A33" s="1">
-        <x:v>45417.9847222222</x:v>
+        <x:v>45418.0006944444</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>43</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D33" s="0" t="s">
         <x:v>8</x:v>
@@ -1826,78 +1796,78 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
-        <x:v>72415145</x:v>
+        <x:v>10990288</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:14">
       <x:c r="A34" s="1">
-        <x:v>45417.9854166667</x:v>
+        <x:v>45418.0041666667</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>44</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D34" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E34" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F34" s="0" t="n">
-        <x:v>70622792</x:v>
+        <x:v>62780801</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:14">
       <x:c r="A35" s="1">
-        <x:v>45417.9861111111</x:v>
+        <x:v>45418.0055555556</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>45</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D35" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E35" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F35" s="0" t="n">
-        <x:v>92386611</x:v>
+        <x:v>70340243</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:14">
       <x:c r="A36" s="1">
-        <x:v>45417.9881944444</x:v>
+        <x:v>45418.0069444444</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D36" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E36" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
-        <x:v>47936639</x:v>
+        <x:v>50657040</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:14">
       <x:c r="A37" s="1">
-        <x:v>45417.9895833333</x:v>
+        <x:v>45418.0097222222</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>47</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D37" s="0" t="s">
         <x:v>12</x:v>
@@ -1906,112 +1876,112 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
-        <x:v>87130517</x:v>
+        <x:v>15461399</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:14">
       <x:c r="A38" s="1">
-        <x:v>45417.9923611111</x:v>
+        <x:v>45418.0118055556</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>48</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D38" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E38" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
-        <x:v>21268147</x:v>
+        <x:v>97545204</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:14">
       <x:c r="A39" s="1">
-        <x:v>45417.99375</x:v>
+        <x:v>45418.0145833333</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D39" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E39" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F39" s="0" t="n">
-        <x:v>99479268</x:v>
+        <x:v>45349550</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:14">
       <x:c r="A40" s="1">
-        <x:v>45417.9958333333</x:v>
+        <x:v>45418.0173611111</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>50</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D40" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E40" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F40" s="0" t="n">
-        <x:v>84465016</x:v>
+        <x:v>34076498</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:14">
       <x:c r="A41" s="1">
-        <x:v>45417.9979166667</x:v>
+        <x:v>45418.0201388889</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>51</x:v>
       </x:c>
       <x:c r="C41" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D41" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E41" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
-        <x:v>25276200</x:v>
+        <x:v>92040698</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:14">
       <x:c r="A42" s="2">
-        <x:v>45418</x:v>
+        <x:v>45418.0229166667</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>52</x:v>
       </x:c>
       <x:c r="C42" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D42" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E42" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F42" s="0" t="n">
-        <x:v>55144869</x:v>
+        <x:v>52744048</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:14">
       <x:c r="A43" s="1">
-        <x:v>45418.0006944444</x:v>
+        <x:v>45418.0236111111</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>53</x:v>
@@ -2020,18 +1990,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D43" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E43" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F43" s="0" t="n">
-        <x:v>10990288</x:v>
+        <x:v>89653477</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:14">
       <x:c r="A44" s="1">
-        <x:v>45418.0041666667</x:v>
+        <x:v>45418.0243055556</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>54</x:v>
@@ -2040,18 +2010,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D44" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E44" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F44" s="0" t="n">
-        <x:v>62780801</x:v>
+        <x:v>80629070</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:14">
       <x:c r="A45" s="1">
-        <x:v>45418.0055555556</x:v>
+        <x:v>45418.025</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>55</x:v>
@@ -2060,24 +2030,24 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D45" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E45" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F45" s="0" t="n">
-        <x:v>70340243</x:v>
+        <x:v>94465009</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:14">
       <x:c r="A46" s="1">
-        <x:v>45418.0069444444</x:v>
+        <x:v>45418.0263888889</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>56</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D46" s="0" t="s">
         <x:v>8</x:v>
@@ -2086,32 +2056,32 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F46" s="0" t="n">
-        <x:v>50657040</x:v>
+        <x:v>37502353</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:14">
       <x:c r="A47" s="1">
-        <x:v>45418.0097222222</x:v>
+        <x:v>45418.0284722222</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
         <x:v>57</x:v>
       </x:c>
       <x:c r="C47" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D47" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E47" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
-        <x:v>15461399</x:v>
+        <x:v>67626671</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:14">
       <x:c r="A48" s="1">
-        <x:v>45418.0118055556</x:v>
+        <x:v>45418.0298611111</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
         <x:v>58</x:v>
@@ -2120,64 +2090,64 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D48" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E48" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F48" s="0" t="n">
-        <x:v>97545204</x:v>
+        <x:v>25175278</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:14">
       <x:c r="A49" s="1">
-        <x:v>45418.0145833333</x:v>
+        <x:v>45418.0319444444</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
         <x:v>59</x:v>
       </x:c>
       <x:c r="C49" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D49" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E49" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
-        <x:v>45349550</x:v>
+        <x:v>54919380</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:14">
       <x:c r="A50" s="1">
-        <x:v>45418.0173611111</x:v>
+        <x:v>45418.0333333333</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
         <x:v>60</x:v>
       </x:c>
       <x:c r="C50" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D50" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E50" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F50" s="0" t="n">
-        <x:v>34076498</x:v>
+        <x:v>48801212</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:14">
       <x:c r="A51" s="1">
-        <x:v>45418.0201388889</x:v>
+        <x:v>45418.0347222222</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
         <x:v>61</x:v>
       </x:c>
       <x:c r="C51" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D51" s="0" t="s">
         <x:v>8</x:v>
@@ -2186,58 +2156,58 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F51" s="0" t="n">
-        <x:v>92040698</x:v>
+        <x:v>42251006</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:14">
       <x:c r="A52" s="1">
-        <x:v>45418.0229166667</x:v>
+        <x:v>45418.0347222222</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
         <x:v>62</x:v>
       </x:c>
       <x:c r="C52" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D52" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E52" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F52" s="0" t="n">
-        <x:v>52744048</x:v>
+        <x:v>46841664</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:14">
       <x:c r="A53" s="1">
-        <x:v>45418.0236111111</x:v>
+        <x:v>45418.0368055556</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
         <x:v>63</x:v>
       </x:c>
       <x:c r="C53" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D53" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E53" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F53" s="0" t="n">
-        <x:v>89653477</x:v>
+        <x:v>49346569</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:14">
       <x:c r="A54" s="1">
-        <x:v>45418.0243055556</x:v>
+        <x:v>45418.0388888889</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
         <x:v>64</x:v>
       </x:c>
       <x:c r="C54" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D54" s="0" t="s">
         <x:v>8</x:v>
@@ -2246,18 +2216,18 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F54" s="0" t="n">
-        <x:v>80629070</x:v>
+        <x:v>74000167</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:14">
       <x:c r="A55" s="1">
-        <x:v>45418.025</x:v>
+        <x:v>45418.0416666667</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
         <x:v>65</x:v>
       </x:c>
       <x:c r="C55" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D55" s="0" t="s">
         <x:v>8</x:v>
@@ -2266,32 +2236,32 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F55" s="0" t="n">
-        <x:v>94465009</x:v>
+        <x:v>39297038</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:14">
       <x:c r="A56" s="1">
-        <x:v>45418.0263888889</x:v>
+        <x:v>45418.0444444444</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
         <x:v>66</x:v>
       </x:c>
       <x:c r="C56" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D56" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E56" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F56" s="0" t="n">
-        <x:v>37502353</x:v>
+        <x:v>90250492</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:14">
       <x:c r="A57" s="1">
-        <x:v>45418.0284722222</x:v>
+        <x:v>45418.0465277778</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
         <x:v>67</x:v>
@@ -2300,24 +2270,24 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D57" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E57" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F57" s="0" t="n">
-        <x:v>67626671</x:v>
+        <x:v>45436512</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:14">
       <x:c r="A58" s="1">
-        <x:v>45418.0298611111</x:v>
+        <x:v>45418.0472222222</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
         <x:v>68</x:v>
       </x:c>
       <x:c r="C58" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D58" s="0" t="s">
         <x:v>12</x:v>
@@ -2326,12 +2296,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F58" s="0" t="n">
-        <x:v>25175278</x:v>
+        <x:v>91746455</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:14">
       <x:c r="A59" s="1">
-        <x:v>45418.0319444444</x:v>
+        <x:v>45418.0506944444</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
         <x:v>69</x:v>
@@ -2340,58 +2310,58 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D59" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E59" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F59" s="0" t="n">
-        <x:v>54919380</x:v>
+        <x:v>90086945</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:14">
       <x:c r="A60" s="1">
-        <x:v>45418.0333333333</x:v>
+        <x:v>45418.0527777778</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
         <x:v>70</x:v>
       </x:c>
       <x:c r="C60" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D60" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E60" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F60" s="0" t="n">
-        <x:v>48801212</x:v>
+        <x:v>31168820</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:14">
       <x:c r="A61" s="1">
-        <x:v>45418.0347222222</x:v>
+        <x:v>45418.0534722222</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
         <x:v>71</x:v>
       </x:c>
       <x:c r="C61" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D61" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E61" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F61" s="0" t="n">
-        <x:v>42251006</x:v>
+        <x:v>23420293</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:14">
       <x:c r="A62" s="1">
-        <x:v>45418.0347222222</x:v>
+        <x:v>45418.05625</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>72</x:v>
@@ -2400,18 +2370,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D62" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E62" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F62" s="0" t="n">
-        <x:v>46841664</x:v>
+        <x:v>28345932</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:14">
       <x:c r="A63" s="1">
-        <x:v>45418.0368055556</x:v>
+        <x:v>45418.0583333333</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
         <x:v>73</x:v>
@@ -2420,38 +2390,38 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D63" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E63" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F63" s="0" t="n">
-        <x:v>49346569</x:v>
+        <x:v>59338978</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:14">
       <x:c r="A64" s="1">
-        <x:v>45418.0388888889</x:v>
+        <x:v>45418.0604166667</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
         <x:v>74</x:v>
       </x:c>
       <x:c r="C64" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D64" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E64" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F64" s="0" t="n">
-        <x:v>74000167</x:v>
+        <x:v>43006939</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:14">
       <x:c r="A65" s="1">
-        <x:v>45418.0416666667</x:v>
+        <x:v>45418.0618055556</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>75</x:v>
@@ -2460,24 +2430,24 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D65" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E65" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F65" s="0" t="n">
-        <x:v>39297038</x:v>
+        <x:v>16253635</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:14">
       <x:c r="A66" s="1">
-        <x:v>45418.0444444444</x:v>
+        <x:v>45418.0638888889</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
         <x:v>76</x:v>
       </x:c>
       <x:c r="C66" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D66" s="0" t="s">
         <x:v>12</x:v>
@@ -2486,58 +2456,58 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F66" s="0" t="n">
-        <x:v>90250492</x:v>
+        <x:v>57173971</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:14">
       <x:c r="A67" s="1">
-        <x:v>45418.0465277778</x:v>
+        <x:v>45418.0645833333</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
         <x:v>77</x:v>
       </x:c>
       <x:c r="C67" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D67" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E67" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F67" s="0" t="n">
-        <x:v>45436512</x:v>
+        <x:v>93036177</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:14">
       <x:c r="A68" s="1">
-        <x:v>45418.0472222222</x:v>
+        <x:v>45418.0666666667</x:v>
       </x:c>
       <x:c r="B68" s="0" t="s">
         <x:v>78</x:v>
       </x:c>
       <x:c r="C68" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D68" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E68" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F68" s="0" t="n">
-        <x:v>91746455</x:v>
+        <x:v>50885281</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:14">
       <x:c r="A69" s="1">
-        <x:v>45418.0506944444</x:v>
+        <x:v>45418.0673611111</x:v>
       </x:c>
       <x:c r="B69" s="0" t="s">
         <x:v>79</x:v>
       </x:c>
       <x:c r="C69" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D69" s="0" t="s">
         <x:v>8</x:v>
@@ -2546,18 +2516,18 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F69" s="0" t="n">
-        <x:v>90086945</x:v>
+        <x:v>61710343</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:14">
       <x:c r="A70" s="1">
-        <x:v>45418.0527777778</x:v>
+        <x:v>45418.06875</x:v>
       </x:c>
       <x:c r="B70" s="0" t="s">
         <x:v>80</x:v>
       </x:c>
       <x:c r="C70" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D70" s="0" t="s">
         <x:v>8</x:v>
@@ -2566,12 +2536,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F70" s="0" t="n">
-        <x:v>31168820</x:v>
+        <x:v>61400524</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:14">
       <x:c r="A71" s="1">
-        <x:v>45418.0534722222</x:v>
+        <x:v>45418.0715277778</x:v>
       </x:c>
       <x:c r="B71" s="0" t="s">
         <x:v>81</x:v>
@@ -2586,38 +2556,38 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F71" s="0" t="n">
-        <x:v>23420293</x:v>
+        <x:v>39175690</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:14">
       <x:c r="A72" s="1">
-        <x:v>45418.05625</x:v>
+        <x:v>45418.0736111111</x:v>
       </x:c>
       <x:c r="B72" s="0" t="s">
         <x:v>82</x:v>
       </x:c>
       <x:c r="C72" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D72" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E72" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F72" s="0" t="n">
-        <x:v>28345932</x:v>
+        <x:v>46685084</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:14">
       <x:c r="A73" s="1">
-        <x:v>45418.0583333333</x:v>
+        <x:v>45418.0763888889</x:v>
       </x:c>
       <x:c r="B73" s="0" t="s">
         <x:v>83</x:v>
       </x:c>
       <x:c r="C73" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D73" s="0" t="s">
         <x:v>12</x:v>
@@ -2626,38 +2596,38 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F73" s="0" t="n">
-        <x:v>59338978</x:v>
+        <x:v>95957014</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:14">
       <x:c r="A74" s="1">
-        <x:v>45418.0604166667</x:v>
+        <x:v>45418.0763888889</x:v>
       </x:c>
       <x:c r="B74" s="0" t="s">
         <x:v>84</x:v>
       </x:c>
       <x:c r="C74" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D74" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E74" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F74" s="0" t="n">
-        <x:v>43006939</x:v>
+        <x:v>76837030</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:14">
       <x:c r="A75" s="1">
-        <x:v>45418.0618055556</x:v>
+        <x:v>45418.0777777778</x:v>
       </x:c>
       <x:c r="B75" s="0" t="s">
         <x:v>85</x:v>
       </x:c>
       <x:c r="C75" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D75" s="0" t="s">
         <x:v>12</x:v>
@@ -2666,12 +2636,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F75" s="0" t="n">
-        <x:v>16253635</x:v>
+        <x:v>46832417</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:14">
       <x:c r="A76" s="1">
-        <x:v>45418.0638888889</x:v>
+        <x:v>45418.0805555556</x:v>
       </x:c>
       <x:c r="B76" s="0" t="s">
         <x:v>86</x:v>
@@ -2686,18 +2656,18 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F76" s="0" t="n">
-        <x:v>57173971</x:v>
+        <x:v>77130877</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:14">
       <x:c r="A77" s="1">
-        <x:v>45418.0645833333</x:v>
+        <x:v>45418.08125</x:v>
       </x:c>
       <x:c r="B77" s="0" t="s">
         <x:v>87</x:v>
       </x:c>
       <x:c r="C77" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D77" s="0" t="s">
         <x:v>12</x:v>
@@ -2706,32 +2676,32 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F77" s="0" t="n">
-        <x:v>93036177</x:v>
+        <x:v>70581907</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:14">
       <x:c r="A78" s="1">
-        <x:v>45418.0666666667</x:v>
+        <x:v>45418.0840277778</x:v>
       </x:c>
       <x:c r="B78" s="0" t="s">
         <x:v>88</x:v>
       </x:c>
       <x:c r="C78" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D78" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E78" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F78" s="0" t="n">
-        <x:v>50885281</x:v>
+        <x:v>12717983</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:14">
       <x:c r="A79" s="1">
-        <x:v>45418.0673611111</x:v>
+        <x:v>45418.0847222222</x:v>
       </x:c>
       <x:c r="B79" s="0" t="s">
         <x:v>89</x:v>
@@ -2740,118 +2710,118 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D79" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E79" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F79" s="0" t="n">
-        <x:v>61710343</x:v>
+        <x:v>70569694</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:14">
       <x:c r="A80" s="1">
-        <x:v>45418.06875</x:v>
+        <x:v>45418.0875</x:v>
       </x:c>
       <x:c r="B80" s="0" t="s">
         <x:v>90</x:v>
       </x:c>
       <x:c r="C80" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D80" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E80" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F80" s="0" t="n">
-        <x:v>61400524</x:v>
+        <x:v>84782703</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:14">
       <x:c r="A81" s="1">
-        <x:v>45418.0715277778</x:v>
+        <x:v>45418.0895833333</x:v>
       </x:c>
       <x:c r="B81" s="0" t="s">
         <x:v>91</x:v>
       </x:c>
       <x:c r="C81" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D81" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E81" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F81" s="0" t="n">
-        <x:v>39175690</x:v>
+        <x:v>33138593</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:14">
       <x:c r="A82" s="1">
-        <x:v>45418.0736111111</x:v>
+        <x:v>45418.0923611111</x:v>
       </x:c>
       <x:c r="B82" s="0" t="s">
         <x:v>92</x:v>
       </x:c>
       <x:c r="C82" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D82" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E82" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F82" s="0" t="n">
-        <x:v>46685084</x:v>
+        <x:v>67772525</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:14">
       <x:c r="A83" s="1">
-        <x:v>45418.0763888889</x:v>
+        <x:v>45418.0930555556</x:v>
       </x:c>
       <x:c r="B83" s="0" t="s">
         <x:v>93</x:v>
       </x:c>
       <x:c r="C83" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D83" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E83" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F83" s="0" t="n">
-        <x:v>95957014</x:v>
+        <x:v>94344798</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:14">
       <x:c r="A84" s="1">
-        <x:v>45418.0763888889</x:v>
+        <x:v>45418.0930555556</x:v>
       </x:c>
       <x:c r="B84" s="0" t="s">
         <x:v>94</x:v>
       </x:c>
       <x:c r="C84" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D84" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E84" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F84" s="0" t="n">
-        <x:v>76837030</x:v>
+        <x:v>77436532</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:14">
       <x:c r="A85" s="1">
-        <x:v>45418.0777777778</x:v>
+        <x:v>45418.0965277778</x:v>
       </x:c>
       <x:c r="B85" s="0" t="s">
         <x:v>95</x:v>
@@ -2860,38 +2830,38 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D85" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E85" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F85" s="0" t="n">
-        <x:v>46832417</x:v>
+        <x:v>85537968</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:14">
       <x:c r="A86" s="1">
-        <x:v>45418.0805555556</x:v>
+        <x:v>45418.0993055556</x:v>
       </x:c>
       <x:c r="B86" s="0" t="s">
         <x:v>96</x:v>
       </x:c>
       <x:c r="C86" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D86" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E86" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F86" s="0" t="n">
-        <x:v>77130877</x:v>
+        <x:v>67432010</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:14">
       <x:c r="A87" s="1">
-        <x:v>45418.08125</x:v>
+        <x:v>45418.1006944444</x:v>
       </x:c>
       <x:c r="B87" s="0" t="s">
         <x:v>97</x:v>
@@ -2906,12 +2876,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F87" s="0" t="n">
-        <x:v>70581907</x:v>
+        <x:v>66099165</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:14">
       <x:c r="A88" s="1">
-        <x:v>45418.0840277778</x:v>
+        <x:v>45418.1020833333</x:v>
       </x:c>
       <x:c r="B88" s="0" t="s">
         <x:v>98</x:v>
@@ -2920,38 +2890,38 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D88" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E88" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F88" s="0" t="n">
-        <x:v>12717983</x:v>
+        <x:v>66053161</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:14">
       <x:c r="A89" s="1">
-        <x:v>45418.0847222222</x:v>
+        <x:v>45418.1055555556</x:v>
       </x:c>
       <x:c r="B89" s="0" t="s">
         <x:v>99</x:v>
       </x:c>
       <x:c r="C89" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D89" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E89" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F89" s="0" t="n">
-        <x:v>70569694</x:v>
+        <x:v>26731814</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:14">
       <x:c r="A90" s="1">
-        <x:v>45418.0875</x:v>
+        <x:v>45418.1083333333</x:v>
       </x:c>
       <x:c r="B90" s="0" t="s">
         <x:v>100</x:v>
@@ -2966,52 +2936,52 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F90" s="0" t="n">
-        <x:v>84782703</x:v>
+        <x:v>51554360</x:v>
       </x:c>
     </x:row>
     <x:row r="91" spans="1:14">
       <x:c r="A91" s="1">
-        <x:v>45418.0895833333</x:v>
+        <x:v>45418.1111111111</x:v>
       </x:c>
       <x:c r="B91" s="0" t="s">
         <x:v>101</x:v>
       </x:c>
       <x:c r="C91" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D91" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E91" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F91" s="0" t="n">
-        <x:v>33138593</x:v>
+        <x:v>34364597</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:14">
       <x:c r="A92" s="1">
-        <x:v>45418.0923611111</x:v>
+        <x:v>45418.1145833333</x:v>
       </x:c>
       <x:c r="B92" s="0" t="s">
         <x:v>102</x:v>
       </x:c>
       <x:c r="C92" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D92" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E92" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F92" s="0" t="n">
-        <x:v>67772525</x:v>
+        <x:v>21930895</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:14">
       <x:c r="A93" s="1">
-        <x:v>45418.0930555556</x:v>
+        <x:v>45418.1180555556</x:v>
       </x:c>
       <x:c r="B93" s="0" t="s">
         <x:v>103</x:v>
@@ -3020,18 +2990,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D93" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E93" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F93" s="0" t="n">
-        <x:v>94344798</x:v>
+        <x:v>33905104</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:14">
       <x:c r="A94" s="1">
-        <x:v>45418.0930555556</x:v>
+        <x:v>45418.1194444444</x:v>
       </x:c>
       <x:c r="B94" s="0" t="s">
         <x:v>104</x:v>
@@ -3040,144 +3010,144 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D94" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E94" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F94" s="0" t="n">
-        <x:v>77436532</x:v>
+        <x:v>70030295</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="1:14">
       <x:c r="A95" s="1">
-        <x:v>45418.0965277778</x:v>
+        <x:v>45418.1215277778</x:v>
       </x:c>
       <x:c r="B95" s="0" t="s">
         <x:v>105</x:v>
       </x:c>
       <x:c r="C95" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D95" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E95" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F95" s="0" t="n">
-        <x:v>85537968</x:v>
+        <x:v>96291852</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:14">
       <x:c r="A96" s="1">
-        <x:v>45418.0993055556</x:v>
+        <x:v>45418.1243055556</x:v>
       </x:c>
       <x:c r="B96" s="0" t="s">
         <x:v>106</x:v>
       </x:c>
       <x:c r="C96" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D96" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E96" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F96" s="0" t="n">
-        <x:v>67432010</x:v>
+        <x:v>14326480</x:v>
       </x:c>
     </x:row>
     <x:row r="97" spans="1:14">
       <x:c r="A97" s="1">
-        <x:v>45418.1006944444</x:v>
+        <x:v>45418.1263888889</x:v>
       </x:c>
       <x:c r="B97" s="0" t="s">
         <x:v>107</x:v>
       </x:c>
       <x:c r="C97" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D97" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E97" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F97" s="0" t="n">
-        <x:v>66099165</x:v>
+        <x:v>58010259</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:14">
       <x:c r="A98" s="1">
-        <x:v>45418.1020833333</x:v>
+        <x:v>45418.1284722222</x:v>
       </x:c>
       <x:c r="B98" s="0" t="s">
         <x:v>108</x:v>
       </x:c>
       <x:c r="C98" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D98" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E98" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F98" s="0" t="n">
-        <x:v>66053161</x:v>
+        <x:v>88958354</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="1:14">
       <x:c r="A99" s="1">
-        <x:v>45418.1055555556</x:v>
+        <x:v>45418.1305555556</x:v>
       </x:c>
       <x:c r="B99" s="0" t="s">
         <x:v>109</x:v>
       </x:c>
       <x:c r="C99" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D99" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E99" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F99" s="0" t="n">
-        <x:v>26731814</x:v>
+        <x:v>70288477</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="1:14">
       <x:c r="A100" s="1">
-        <x:v>45418.1083333333</x:v>
+        <x:v>45418.1333333333</x:v>
       </x:c>
       <x:c r="B100" s="0" t="s">
         <x:v>110</x:v>
       </x:c>
       <x:c r="C100" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D100" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E100" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F100" s="0" t="n">
-        <x:v>51554360</x:v>
+        <x:v>24330105</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:14">
       <x:c r="A101" s="1">
-        <x:v>45418.1111111111</x:v>
+        <x:v>45418.1333333333</x:v>
       </x:c>
       <x:c r="B101" s="0" t="s">
         <x:v>111</x:v>
       </x:c>
       <x:c r="C101" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D101" s="0" t="s">
         <x:v>8</x:v>
@@ -3186,38 +3156,38 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F101" s="0" t="n">
-        <x:v>34364597</x:v>
+        <x:v>56566845</x:v>
       </x:c>
     </x:row>
     <x:row r="102" spans="1:14">
       <x:c r="A102" s="1">
-        <x:v>45418.1145833333</x:v>
+        <x:v>45418.1368055556</x:v>
       </x:c>
       <x:c r="B102" s="0" t="s">
         <x:v>112</x:v>
       </x:c>
       <x:c r="C102" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D102" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E102" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F102" s="0" t="n">
-        <x:v>21930895</x:v>
+        <x:v>95951957</x:v>
       </x:c>
     </x:row>
     <x:row r="103" spans="1:14">
       <x:c r="A103" s="1">
-        <x:v>45418.1180555556</x:v>
+        <x:v>45418.1381944444</x:v>
       </x:c>
       <x:c r="B103" s="0" t="s">
         <x:v>113</x:v>
       </x:c>
       <x:c r="C103" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D103" s="0" t="s">
         <x:v>12</x:v>
@@ -3226,52 +3196,52 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F103" s="0" t="n">
-        <x:v>33905104</x:v>
+        <x:v>10428667</x:v>
       </x:c>
     </x:row>
     <x:row r="104" spans="1:14">
       <x:c r="A104" s="1">
-        <x:v>45418.1194444444</x:v>
+        <x:v>45418.1409722222</x:v>
       </x:c>
       <x:c r="B104" s="0" t="s">
         <x:v>114</x:v>
       </x:c>
       <x:c r="C104" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D104" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E104" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F104" s="0" t="n">
-        <x:v>70030295</x:v>
+        <x:v>98819760</x:v>
       </x:c>
     </x:row>
     <x:row r="105" spans="1:14">
       <x:c r="A105" s="1">
-        <x:v>45418.1215277778</x:v>
+        <x:v>45418.1416666667</x:v>
       </x:c>
       <x:c r="B105" s="0" t="s">
         <x:v>115</x:v>
       </x:c>
       <x:c r="C105" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D105" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E105" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F105" s="0" t="n">
-        <x:v>96291852</x:v>
+        <x:v>91816476</x:v>
       </x:c>
     </x:row>
     <x:row r="106" spans="1:14">
       <x:c r="A106" s="1">
-        <x:v>45418.1243055556</x:v>
+        <x:v>45418.1423611111</x:v>
       </x:c>
       <x:c r="B106" s="0" t="s">
         <x:v>116</x:v>
@@ -3280,38 +3250,38 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D106" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E106" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F106" s="0" t="n">
-        <x:v>14326480</x:v>
+        <x:v>45994672</x:v>
       </x:c>
     </x:row>
     <x:row r="107" spans="1:14">
       <x:c r="A107" s="1">
-        <x:v>45418.1263888889</x:v>
+        <x:v>45418.1444444444</x:v>
       </x:c>
       <x:c r="B107" s="0" t="s">
         <x:v>117</x:v>
       </x:c>
       <x:c r="C107" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D107" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E107" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F107" s="0" t="n">
-        <x:v>58010259</x:v>
+        <x:v>78104274</x:v>
       </x:c>
     </x:row>
     <x:row r="108" spans="1:14">
       <x:c r="A108" s="1">
-        <x:v>45418.1284722222</x:v>
+        <x:v>45418.1465277778</x:v>
       </x:c>
       <x:c r="B108" s="0" t="s">
         <x:v>118</x:v>
@@ -3320,138 +3290,138 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D108" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E108" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F108" s="0" t="n">
-        <x:v>88958354</x:v>
+        <x:v>38407318</x:v>
       </x:c>
     </x:row>
     <x:row r="109" spans="1:14">
       <x:c r="A109" s="1">
-        <x:v>45418.1305555556</x:v>
+        <x:v>45418.1493055556</x:v>
       </x:c>
       <x:c r="B109" s="0" t="s">
         <x:v>119</x:v>
       </x:c>
       <x:c r="C109" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D109" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E109" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F109" s="0" t="n">
-        <x:v>70288477</x:v>
+        <x:v>48566742</x:v>
       </x:c>
     </x:row>
     <x:row r="110" spans="1:14">
       <x:c r="A110" s="1">
-        <x:v>45418.1333333333</x:v>
+        <x:v>45418.1506944444</x:v>
       </x:c>
       <x:c r="B110" s="0" t="s">
         <x:v>120</x:v>
       </x:c>
       <x:c r="C110" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D110" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E110" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F110" s="0" t="n">
-        <x:v>24330105</x:v>
+        <x:v>30832031</x:v>
       </x:c>
     </x:row>
     <x:row r="111" spans="1:14">
       <x:c r="A111" s="1">
-        <x:v>45418.1333333333</x:v>
+        <x:v>45418.1541666667</x:v>
       </x:c>
       <x:c r="B111" s="0" t="s">
         <x:v>121</x:v>
       </x:c>
       <x:c r="C111" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D111" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E111" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F111" s="0" t="n">
-        <x:v>56566845</x:v>
+        <x:v>52814396</x:v>
       </x:c>
     </x:row>
     <x:row r="112" spans="1:14">
       <x:c r="A112" s="1">
-        <x:v>45418.1368055556</x:v>
+        <x:v>45418.15625</x:v>
       </x:c>
       <x:c r="B112" s="0" t="s">
         <x:v>122</x:v>
       </x:c>
       <x:c r="C112" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D112" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E112" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F112" s="0" t="n">
-        <x:v>95951957</x:v>
+        <x:v>59642140</x:v>
       </x:c>
     </x:row>
     <x:row r="113" spans="1:14">
       <x:c r="A113" s="1">
-        <x:v>45418.1381944444</x:v>
+        <x:v>45418.1590277778</x:v>
       </x:c>
       <x:c r="B113" s="0" t="s">
         <x:v>123</x:v>
       </x:c>
       <x:c r="C113" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D113" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E113" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F113" s="0" t="n">
-        <x:v>10428667</x:v>
+        <x:v>58733626</x:v>
       </x:c>
     </x:row>
     <x:row r="114" spans="1:14">
       <x:c r="A114" s="1">
-        <x:v>45418.1409722222</x:v>
+        <x:v>45418.1618055556</x:v>
       </x:c>
       <x:c r="B114" s="0" t="s">
         <x:v>124</x:v>
       </x:c>
       <x:c r="C114" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D114" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E114" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F114" s="0" t="n">
-        <x:v>98819760</x:v>
+        <x:v>84835830</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:14">
       <x:c r="A115" s="1">
-        <x:v>45418.1416666667</x:v>
+        <x:v>45418.1638888889</x:v>
       </x:c>
       <x:c r="B115" s="0" t="s">
         <x:v>125</x:v>
@@ -3466,58 +3436,58 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F115" s="0" t="n">
-        <x:v>91816476</x:v>
+        <x:v>82127022</x:v>
       </x:c>
     </x:row>
     <x:row r="116" spans="1:14">
       <x:c r="A116" s="1">
-        <x:v>45418.1423611111</x:v>
+        <x:v>45418.1645833333</x:v>
       </x:c>
       <x:c r="B116" s="0" t="s">
         <x:v>126</x:v>
       </x:c>
       <x:c r="C116" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D116" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E116" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F116" s="0" t="n">
-        <x:v>45994672</x:v>
+        <x:v>10048868</x:v>
       </x:c>
     </x:row>
     <x:row r="117" spans="1:14">
       <x:c r="A117" s="1">
-        <x:v>45418.1444444444</x:v>
+        <x:v>45418.1666666667</x:v>
       </x:c>
       <x:c r="B117" s="0" t="s">
         <x:v>127</x:v>
       </x:c>
       <x:c r="C117" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D117" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E117" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F117" s="0" t="n">
-        <x:v>78104274</x:v>
+        <x:v>47740838</x:v>
       </x:c>
     </x:row>
     <x:row r="118" spans="1:14">
       <x:c r="A118" s="1">
-        <x:v>45418.1465277778</x:v>
+        <x:v>45418.1694444444</x:v>
       </x:c>
       <x:c r="B118" s="0" t="s">
         <x:v>128</x:v>
       </x:c>
       <x:c r="C118" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D118" s="0" t="s">
         <x:v>12</x:v>
@@ -3526,32 +3496,32 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F118" s="0" t="n">
-        <x:v>38407318</x:v>
+        <x:v>16509642</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:14">
       <x:c r="A119" s="1">
-        <x:v>45418.1493055556</x:v>
+        <x:v>45418.1708333333</x:v>
       </x:c>
       <x:c r="B119" s="0" t="s">
         <x:v>129</x:v>
       </x:c>
       <x:c r="C119" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D119" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E119" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F119" s="0" t="n">
-        <x:v>48566742</x:v>
+        <x:v>83459193</x:v>
       </x:c>
     </x:row>
     <x:row r="120" spans="1:14">
       <x:c r="A120" s="1">
-        <x:v>45418.1506944444</x:v>
+        <x:v>45418.1722222222</x:v>
       </x:c>
       <x:c r="B120" s="0" t="s">
         <x:v>130</x:v>
@@ -3560,44 +3530,44 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D120" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E120" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F120" s="0" t="n">
-        <x:v>30832031</x:v>
+        <x:v>81577080</x:v>
       </x:c>
     </x:row>
     <x:row r="121" spans="1:14">
       <x:c r="A121" s="1">
-        <x:v>45418.1541666667</x:v>
+        <x:v>45418.1736111111</x:v>
       </x:c>
       <x:c r="B121" s="0" t="s">
         <x:v>131</x:v>
       </x:c>
       <x:c r="C121" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D121" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E121" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F121" s="0" t="n">
-        <x:v>52814396</x:v>
+        <x:v>45703844</x:v>
       </x:c>
     </x:row>
     <x:row r="122" spans="1:14">
       <x:c r="A122" s="1">
-        <x:v>45418.15625</x:v>
+        <x:v>45418.175</x:v>
       </x:c>
       <x:c r="B122" s="0" t="s">
         <x:v>132</x:v>
       </x:c>
       <x:c r="C122" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D122" s="0" t="s">
         <x:v>12</x:v>
@@ -3606,78 +3576,78 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F122" s="0" t="n">
-        <x:v>59642140</x:v>
+        <x:v>11713264</x:v>
       </x:c>
     </x:row>
     <x:row r="123" spans="1:14">
       <x:c r="A123" s="1">
-        <x:v>45418.1590277778</x:v>
+        <x:v>45418.1756944444</x:v>
       </x:c>
       <x:c r="B123" s="0" t="s">
         <x:v>133</x:v>
       </x:c>
       <x:c r="C123" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D123" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E123" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F123" s="0" t="n">
-        <x:v>58733626</x:v>
+        <x:v>69587729</x:v>
       </x:c>
     </x:row>
     <x:row r="124" spans="1:14">
       <x:c r="A124" s="1">
-        <x:v>45418.1618055556</x:v>
+        <x:v>45418.1763888889</x:v>
       </x:c>
       <x:c r="B124" s="0" t="s">
         <x:v>134</x:v>
       </x:c>
       <x:c r="C124" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D124" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E124" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F124" s="0" t="n">
-        <x:v>84835830</x:v>
+        <x:v>67430415</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:14">
       <x:c r="A125" s="1">
-        <x:v>45418.1638888889</x:v>
+        <x:v>45418.1791666667</x:v>
       </x:c>
       <x:c r="B125" s="0" t="s">
         <x:v>135</x:v>
       </x:c>
       <x:c r="C125" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D125" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E125" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F125" s="0" t="n">
-        <x:v>82127022</x:v>
+        <x:v>10637388</x:v>
       </x:c>
     </x:row>
     <x:row r="126" spans="1:14">
       <x:c r="A126" s="1">
-        <x:v>45418.1645833333</x:v>
+        <x:v>45418.1798611111</x:v>
       </x:c>
       <x:c r="B126" s="0" t="s">
         <x:v>136</x:v>
       </x:c>
       <x:c r="C126" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D126" s="0" t="s">
         <x:v>12</x:v>
@@ -3686,52 +3656,52 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F126" s="0" t="n">
-        <x:v>10048868</x:v>
+        <x:v>54315890</x:v>
       </x:c>
     </x:row>
     <x:row r="127" spans="1:14">
       <x:c r="A127" s="1">
-        <x:v>45418.1666666667</x:v>
+        <x:v>45418.1826388889</x:v>
       </x:c>
       <x:c r="B127" s="0" t="s">
         <x:v>137</x:v>
       </x:c>
       <x:c r="C127" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D127" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E127" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F127" s="0" t="n">
-        <x:v>47740838</x:v>
+        <x:v>56749466</x:v>
       </x:c>
     </x:row>
     <x:row r="128" spans="1:14">
       <x:c r="A128" s="1">
-        <x:v>45418.1694444444</x:v>
+        <x:v>45418.1847222222</x:v>
       </x:c>
       <x:c r="B128" s="0" t="s">
         <x:v>138</x:v>
       </x:c>
       <x:c r="C128" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D128" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E128" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F128" s="0" t="n">
-        <x:v>16509642</x:v>
+        <x:v>64522412</x:v>
       </x:c>
     </x:row>
     <x:row r="129" spans="1:14">
       <x:c r="A129" s="1">
-        <x:v>45418.1708333333</x:v>
+        <x:v>45418.1861111111</x:v>
       </x:c>
       <x:c r="B129" s="0" t="s">
         <x:v>139</x:v>
@@ -3746,52 +3716,52 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F129" s="0" t="n">
-        <x:v>83459193</x:v>
+        <x:v>15220599</x:v>
       </x:c>
     </x:row>
     <x:row r="130" spans="1:14">
       <x:c r="A130" s="1">
-        <x:v>45418.1722222222</x:v>
+        <x:v>45418.1881944444</x:v>
       </x:c>
       <x:c r="B130" s="0" t="s">
         <x:v>140</x:v>
       </x:c>
       <x:c r="C130" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D130" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E130" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F130" s="0" t="n">
-        <x:v>81577080</x:v>
+        <x:v>74865690</x:v>
       </x:c>
     </x:row>
     <x:row r="131" spans="1:14">
       <x:c r="A131" s="1">
-        <x:v>45418.1736111111</x:v>
+        <x:v>45418.1895833333</x:v>
       </x:c>
       <x:c r="B131" s="0" t="s">
         <x:v>141</x:v>
       </x:c>
       <x:c r="C131" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D131" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E131" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F131" s="0" t="n">
-        <x:v>45703844</x:v>
+        <x:v>72860080</x:v>
       </x:c>
     </x:row>
     <x:row r="132" spans="1:14">
       <x:c r="A132" s="1">
-        <x:v>45418.175</x:v>
+        <x:v>45418.1916666667</x:v>
       </x:c>
       <x:c r="B132" s="0" t="s">
         <x:v>142</x:v>
@@ -3800,18 +3770,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D132" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E132" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F132" s="0" t="n">
-        <x:v>11713264</x:v>
+        <x:v>29167681</x:v>
       </x:c>
     </x:row>
     <x:row r="133" spans="1:14">
       <x:c r="A133" s="1">
-        <x:v>45418.1756944444</x:v>
+        <x:v>45418.1930555556</x:v>
       </x:c>
       <x:c r="B133" s="0" t="s">
         <x:v>143</x:v>
@@ -3820,24 +3790,24 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D133" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E133" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F133" s="0" t="n">
-        <x:v>69587729</x:v>
+        <x:v>87008694</x:v>
       </x:c>
     </x:row>
     <x:row r="134" spans="1:14">
       <x:c r="A134" s="1">
-        <x:v>45418.1763888889</x:v>
+        <x:v>45418.1944444444</x:v>
       </x:c>
       <x:c r="B134" s="0" t="s">
         <x:v>144</x:v>
       </x:c>
       <x:c r="C134" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D134" s="0" t="s">
         <x:v>12</x:v>
@@ -3846,32 +3816,32 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F134" s="0" t="n">
-        <x:v>67430415</x:v>
+        <x:v>34166513</x:v>
       </x:c>
     </x:row>
     <x:row r="135" spans="1:14">
       <x:c r="A135" s="1">
-        <x:v>45418.1791666667</x:v>
+        <x:v>45418.1979166667</x:v>
       </x:c>
       <x:c r="B135" s="0" t="s">
         <x:v>145</x:v>
       </x:c>
       <x:c r="C135" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D135" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E135" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F135" s="0" t="n">
-        <x:v>10637388</x:v>
+        <x:v>97220671</x:v>
       </x:c>
     </x:row>
     <x:row r="136" spans="1:14">
       <x:c r="A136" s="1">
-        <x:v>45418.1798611111</x:v>
+        <x:v>45418.2006944444</x:v>
       </x:c>
       <x:c r="B136" s="0" t="s">
         <x:v>146</x:v>
@@ -3880,104 +3850,104 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D136" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E136" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F136" s="0" t="n">
-        <x:v>54315890</x:v>
+        <x:v>92169949</x:v>
       </x:c>
     </x:row>
     <x:row r="137" spans="1:14">
       <x:c r="A137" s="1">
-        <x:v>45418.1826388889</x:v>
+        <x:v>45418.2020833333</x:v>
       </x:c>
       <x:c r="B137" s="0" t="s">
         <x:v>147</x:v>
       </x:c>
       <x:c r="C137" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D137" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E137" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F137" s="0" t="n">
-        <x:v>56749466</x:v>
+        <x:v>89791560</x:v>
       </x:c>
     </x:row>
     <x:row r="138" spans="1:14">
       <x:c r="A138" s="1">
-        <x:v>45418.1847222222</x:v>
+        <x:v>45418.2027777778</x:v>
       </x:c>
       <x:c r="B138" s="0" t="s">
         <x:v>148</x:v>
       </x:c>
       <x:c r="C138" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D138" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E138" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F138" s="0" t="n">
-        <x:v>64522412</x:v>
+        <x:v>37363478</x:v>
       </x:c>
     </x:row>
     <x:row r="139" spans="1:14">
       <x:c r="A139" s="1">
-        <x:v>45418.1861111111</x:v>
+        <x:v>45418.2048611111</x:v>
       </x:c>
       <x:c r="B139" s="0" t="s">
         <x:v>149</x:v>
       </x:c>
       <x:c r="C139" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D139" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E139" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F139" s="0" t="n">
-        <x:v>15220599</x:v>
+        <x:v>57112826</x:v>
       </x:c>
     </x:row>
     <x:row r="140" spans="1:14">
       <x:c r="A140" s="1">
-        <x:v>45418.1881944444</x:v>
+        <x:v>45418.2069444444</x:v>
       </x:c>
       <x:c r="B140" s="0" t="s">
         <x:v>150</x:v>
       </x:c>
       <x:c r="C140" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D140" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E140" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F140" s="0" t="n">
-        <x:v>74865690</x:v>
+        <x:v>51435636</x:v>
       </x:c>
     </x:row>
     <x:row r="141" spans="1:14">
       <x:c r="A141" s="1">
-        <x:v>45418.1895833333</x:v>
+        <x:v>45418.2104166667</x:v>
       </x:c>
       <x:c r="B141" s="0" t="s">
         <x:v>151</x:v>
       </x:c>
       <x:c r="C141" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D141" s="0" t="s">
         <x:v>12</x:v>
@@ -3986,52 +3956,52 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F141" s="0" t="n">
-        <x:v>72860080</x:v>
+        <x:v>80018979</x:v>
       </x:c>
     </x:row>
     <x:row r="142" spans="1:14">
       <x:c r="A142" s="1">
-        <x:v>45418.1916666667</x:v>
+        <x:v>45418.2125</x:v>
       </x:c>
       <x:c r="B142" s="0" t="s">
         <x:v>152</x:v>
       </x:c>
       <x:c r="C142" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D142" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E142" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F142" s="0" t="n">
-        <x:v>29167681</x:v>
+        <x:v>90469641</x:v>
       </x:c>
     </x:row>
     <x:row r="143" spans="1:14">
       <x:c r="A143" s="1">
-        <x:v>45418.1930555556</x:v>
+        <x:v>45418.2131944444</x:v>
       </x:c>
       <x:c r="B143" s="0" t="s">
         <x:v>153</x:v>
       </x:c>
       <x:c r="C143" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D143" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E143" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F143" s="0" t="n">
-        <x:v>87008694</x:v>
+        <x:v>28351360</x:v>
       </x:c>
     </x:row>
     <x:row r="144" spans="1:14">
       <x:c r="A144" s="1">
-        <x:v>45418.1944444444</x:v>
+        <x:v>45418.2152777778</x:v>
       </x:c>
       <x:c r="B144" s="0" t="s">
         <x:v>154</x:v>
@@ -4040,18 +4010,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D144" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E144" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F144" s="0" t="n">
-        <x:v>34166513</x:v>
+        <x:v>13523149</x:v>
       </x:c>
     </x:row>
     <x:row r="145" spans="1:14">
       <x:c r="A145" s="1">
-        <x:v>45418.1979166667</x:v>
+        <x:v>45418.2173611111</x:v>
       </x:c>
       <x:c r="B145" s="0" t="s">
         <x:v>155</x:v>
@@ -4060,78 +4030,78 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D145" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E145" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F145" s="0" t="n">
-        <x:v>97220671</x:v>
+        <x:v>11614637</x:v>
       </x:c>
     </x:row>
     <x:row r="146" spans="1:14">
       <x:c r="A146" s="1">
-        <x:v>45418.2006944444</x:v>
+        <x:v>45418.2180555556</x:v>
       </x:c>
       <x:c r="B146" s="0" t="s">
         <x:v>156</x:v>
       </x:c>
       <x:c r="C146" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D146" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E146" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F146" s="0" t="n">
-        <x:v>92169949</x:v>
+        <x:v>76468184</x:v>
       </x:c>
     </x:row>
     <x:row r="147" spans="1:14">
       <x:c r="A147" s="1">
-        <x:v>45418.2020833333</x:v>
+        <x:v>45418.2194444444</x:v>
       </x:c>
       <x:c r="B147" s="0" t="s">
         <x:v>157</x:v>
       </x:c>
       <x:c r="C147" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D147" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E147" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F147" s="0" t="n">
-        <x:v>89791560</x:v>
+        <x:v>81297455</x:v>
       </x:c>
     </x:row>
     <x:row r="148" spans="1:14">
       <x:c r="A148" s="1">
-        <x:v>45418.2027777778</x:v>
+        <x:v>45418.2222222222</x:v>
       </x:c>
       <x:c r="B148" s="0" t="s">
         <x:v>158</x:v>
       </x:c>
       <x:c r="C148" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D148" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E148" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F148" s="0" t="n">
-        <x:v>37363478</x:v>
+        <x:v>10067834</x:v>
       </x:c>
     </x:row>
     <x:row r="149" spans="1:14">
       <x:c r="A149" s="1">
-        <x:v>45418.2048611111</x:v>
+        <x:v>45418.2243055556</x:v>
       </x:c>
       <x:c r="B149" s="0" t="s">
         <x:v>159</x:v>
@@ -4140,38 +4110,38 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D149" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E149" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F149" s="0" t="n">
-        <x:v>57112826</x:v>
+        <x:v>93286797</x:v>
       </x:c>
     </x:row>
     <x:row r="150" spans="1:14">
       <x:c r="A150" s="1">
-        <x:v>45418.2069444444</x:v>
+        <x:v>45418.225</x:v>
       </x:c>
       <x:c r="B150" s="0" t="s">
         <x:v>160</x:v>
       </x:c>
       <x:c r="C150" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D150" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E150" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F150" s="0" t="n">
-        <x:v>51435636</x:v>
+        <x:v>63934467</x:v>
       </x:c>
     </x:row>
     <x:row r="151" spans="1:14">
       <x:c r="A151" s="1">
-        <x:v>45418.2104166667</x:v>
+        <x:v>45418.2263888889</x:v>
       </x:c>
       <x:c r="B151" s="0" t="s">
         <x:v>161</x:v>
@@ -4186,98 +4156,98 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F151" s="0" t="n">
-        <x:v>80018979</x:v>
+        <x:v>45724011</x:v>
       </x:c>
     </x:row>
     <x:row r="152" spans="1:14">
       <x:c r="A152" s="1">
-        <x:v>45418.2125</x:v>
+        <x:v>45418.2270833333</x:v>
       </x:c>
       <x:c r="B152" s="0" t="s">
         <x:v>162</x:v>
       </x:c>
       <x:c r="C152" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D152" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E152" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F152" s="0" t="n">
-        <x:v>90469641</x:v>
+        <x:v>23953863</x:v>
       </x:c>
     </x:row>
     <x:row r="153" spans="1:14">
       <x:c r="A153" s="1">
-        <x:v>45418.2131944444</x:v>
+        <x:v>45418.2270833333</x:v>
       </x:c>
       <x:c r="B153" s="0" t="s">
         <x:v>163</x:v>
       </x:c>
       <x:c r="C153" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D153" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E153" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F153" s="0" t="n">
-        <x:v>28351360</x:v>
+        <x:v>78782052</x:v>
       </x:c>
     </x:row>
     <x:row r="154" spans="1:14">
       <x:c r="A154" s="1">
-        <x:v>45418.2152777778</x:v>
+        <x:v>45418.2284722222</x:v>
       </x:c>
       <x:c r="B154" s="0" t="s">
         <x:v>164</x:v>
       </x:c>
       <x:c r="C154" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D154" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E154" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F154" s="0" t="n">
-        <x:v>13523149</x:v>
+        <x:v>28827175</x:v>
       </x:c>
     </x:row>
     <x:row r="155" spans="1:14">
       <x:c r="A155" s="1">
-        <x:v>45418.2173611111</x:v>
+        <x:v>45418.23125</x:v>
       </x:c>
       <x:c r="B155" s="0" t="s">
         <x:v>165</x:v>
       </x:c>
       <x:c r="C155" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D155" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E155" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F155" s="0" t="n">
-        <x:v>11614637</x:v>
+        <x:v>52186430</x:v>
       </x:c>
     </x:row>
     <x:row r="156" spans="1:14">
       <x:c r="A156" s="1">
-        <x:v>45418.2180555556</x:v>
+        <x:v>45418.2333333333</x:v>
       </x:c>
       <x:c r="B156" s="0" t="s">
         <x:v>166</x:v>
       </x:c>
       <x:c r="C156" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D156" s="0" t="s">
         <x:v>12</x:v>
@@ -4286,12 +4256,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F156" s="0" t="n">
-        <x:v>76468184</x:v>
+        <x:v>82878653</x:v>
       </x:c>
     </x:row>
     <x:row r="157" spans="1:14">
       <x:c r="A157" s="1">
-        <x:v>45418.2194444444</x:v>
+        <x:v>45418.2340277778</x:v>
       </x:c>
       <x:c r="B157" s="0" t="s">
         <x:v>167</x:v>
@@ -4306,52 +4276,52 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F157" s="0" t="n">
-        <x:v>81297455</x:v>
+        <x:v>67616121</x:v>
       </x:c>
     </x:row>
     <x:row r="158" spans="1:14">
       <x:c r="A158" s="1">
-        <x:v>45418.2222222222</x:v>
+        <x:v>45418.2354166667</x:v>
       </x:c>
       <x:c r="B158" s="0" t="s">
         <x:v>168</x:v>
       </x:c>
       <x:c r="C158" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D158" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E158" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F158" s="0" t="n">
-        <x:v>10067834</x:v>
+        <x:v>98448265</x:v>
       </x:c>
     </x:row>
     <x:row r="159" spans="1:14">
       <x:c r="A159" s="1">
-        <x:v>45418.2243055556</x:v>
+        <x:v>45418.2381944444</x:v>
       </x:c>
       <x:c r="B159" s="0" t="s">
         <x:v>169</x:v>
       </x:c>
       <x:c r="C159" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D159" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E159" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F159" s="0" t="n">
-        <x:v>93286797</x:v>
+        <x:v>92430107</x:v>
       </x:c>
     </x:row>
     <x:row r="160" spans="1:14">
       <x:c r="A160" s="1">
-        <x:v>45418.225</x:v>
+        <x:v>45418.2395833333</x:v>
       </x:c>
       <x:c r="B160" s="0" t="s">
         <x:v>170</x:v>
@@ -4360,24 +4330,24 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D160" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E160" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F160" s="0" t="n">
-        <x:v>63934467</x:v>
+        <x:v>64604465</x:v>
       </x:c>
     </x:row>
     <x:row r="161" spans="1:14">
       <x:c r="A161" s="1">
-        <x:v>45418.2263888889</x:v>
+        <x:v>45418.2402777778</x:v>
       </x:c>
       <x:c r="B161" s="0" t="s">
         <x:v>171</x:v>
       </x:c>
       <x:c r="C161" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D161" s="0" t="s">
         <x:v>12</x:v>
@@ -4386,32 +4356,32 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F161" s="0" t="n">
-        <x:v>45724011</x:v>
+        <x:v>84974385</x:v>
       </x:c>
     </x:row>
     <x:row r="162" spans="1:14">
       <x:c r="A162" s="1">
-        <x:v>45418.2270833333</x:v>
+        <x:v>45418.2402777778</x:v>
       </x:c>
       <x:c r="B162" s="0" t="s">
         <x:v>172</x:v>
       </x:c>
       <x:c r="C162" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D162" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E162" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F162" s="0" t="n">
-        <x:v>23953863</x:v>
+        <x:v>73222964</x:v>
       </x:c>
     </x:row>
     <x:row r="163" spans="1:14">
       <x:c r="A163" s="1">
-        <x:v>45418.2270833333</x:v>
+        <x:v>45418.2409722222</x:v>
       </x:c>
       <x:c r="B163" s="0" t="s">
         <x:v>173</x:v>
@@ -4420,24 +4390,24 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D163" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E163" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F163" s="0" t="n">
-        <x:v>78782052</x:v>
+        <x:v>35417724</x:v>
       </x:c>
     </x:row>
     <x:row r="164" spans="1:14">
       <x:c r="A164" s="1">
-        <x:v>45418.2284722222</x:v>
+        <x:v>45418.2444444444</x:v>
       </x:c>
       <x:c r="B164" s="0" t="s">
         <x:v>174</x:v>
       </x:c>
       <x:c r="C164" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D164" s="0" t="s">
         <x:v>12</x:v>
@@ -4446,192 +4416,192 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F164" s="0" t="n">
-        <x:v>28827175</x:v>
+        <x:v>47898636</x:v>
       </x:c>
     </x:row>
     <x:row r="165" spans="1:14">
       <x:c r="A165" s="1">
-        <x:v>45418.23125</x:v>
+        <x:v>45418.2458333333</x:v>
       </x:c>
       <x:c r="B165" s="0" t="s">
         <x:v>175</x:v>
       </x:c>
       <x:c r="C165" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D165" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E165" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F165" s="0" t="n">
-        <x:v>52186430</x:v>
+        <x:v>88866622</x:v>
       </x:c>
     </x:row>
     <x:row r="166" spans="1:14">
       <x:c r="A166" s="1">
-        <x:v>45418.2333333333</x:v>
+        <x:v>45418.2472222222</x:v>
       </x:c>
       <x:c r="B166" s="0" t="s">
         <x:v>176</x:v>
       </x:c>
       <x:c r="C166" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D166" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E166" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F166" s="0" t="n">
-        <x:v>82878653</x:v>
+        <x:v>46055816</x:v>
       </x:c>
     </x:row>
     <x:row r="167" spans="1:14">
       <x:c r="A167" s="1">
-        <x:v>45418.2340277778</x:v>
+        <x:v>45418.2493055556</x:v>
       </x:c>
       <x:c r="B167" s="0" t="s">
         <x:v>177</x:v>
       </x:c>
       <x:c r="C167" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D167" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E167" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F167" s="0" t="n">
-        <x:v>67616121</x:v>
+        <x:v>80522682</x:v>
       </x:c>
     </x:row>
     <x:row r="168" spans="1:14">
       <x:c r="A168" s="1">
-        <x:v>45418.2354166667</x:v>
+        <x:v>45418.2493055556</x:v>
       </x:c>
       <x:c r="B168" s="0" t="s">
         <x:v>178</x:v>
       </x:c>
       <x:c r="C168" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D168" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E168" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F168" s="0" t="n">
-        <x:v>98448265</x:v>
+        <x:v>41326641</x:v>
       </x:c>
     </x:row>
     <x:row r="169" spans="1:14">
       <x:c r="A169" s="1">
-        <x:v>45418.2381944444</x:v>
+        <x:v>45418.2506944444</x:v>
       </x:c>
       <x:c r="B169" s="0" t="s">
         <x:v>179</x:v>
       </x:c>
       <x:c r="C169" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D169" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E169" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F169" s="0" t="n">
-        <x:v>92430107</x:v>
+        <x:v>91493800</x:v>
       </x:c>
     </x:row>
     <x:row r="170" spans="1:14">
       <x:c r="A170" s="1">
-        <x:v>45418.2395833333</x:v>
+        <x:v>45418.2513888889</x:v>
       </x:c>
       <x:c r="B170" s="0" t="s">
         <x:v>180</x:v>
       </x:c>
       <x:c r="C170" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D170" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E170" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F170" s="0" t="n">
-        <x:v>64604465</x:v>
+        <x:v>88265359</x:v>
       </x:c>
     </x:row>
     <x:row r="171" spans="1:14">
       <x:c r="A171" s="1">
-        <x:v>45418.2402777778</x:v>
+        <x:v>45418.2527777778</x:v>
       </x:c>
       <x:c r="B171" s="0" t="s">
         <x:v>181</x:v>
       </x:c>
       <x:c r="C171" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D171" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E171" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F171" s="0" t="n">
-        <x:v>84974385</x:v>
+        <x:v>14116377</x:v>
       </x:c>
     </x:row>
     <x:row r="172" spans="1:14">
       <x:c r="A172" s="1">
-        <x:v>45418.2402777778</x:v>
+        <x:v>45418.2534722222</x:v>
       </x:c>
       <x:c r="B172" s="0" t="s">
         <x:v>182</x:v>
       </x:c>
       <x:c r="C172" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D172" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E172" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F172" s="0" t="n">
-        <x:v>73222964</x:v>
+        <x:v>61196937</x:v>
       </x:c>
     </x:row>
     <x:row r="173" spans="1:14">
       <x:c r="A173" s="1">
-        <x:v>45418.2409722222</x:v>
+        <x:v>45418.2555555556</x:v>
       </x:c>
       <x:c r="B173" s="0" t="s">
         <x:v>183</x:v>
       </x:c>
       <x:c r="C173" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D173" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E173" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F173" s="0" t="n">
-        <x:v>35417724</x:v>
+        <x:v>81496798</x:v>
       </x:c>
     </x:row>
     <x:row r="174" spans="1:14">
       <x:c r="A174" s="1">
-        <x:v>45418.2444444444</x:v>
+        <x:v>45418.25625</x:v>
       </x:c>
       <x:c r="B174" s="0" t="s">
         <x:v>184</x:v>
@@ -4640,38 +4610,38 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D174" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E174" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F174" s="0" t="n">
-        <x:v>47898636</x:v>
+        <x:v>73634687</x:v>
       </x:c>
     </x:row>
     <x:row r="175" spans="1:14">
       <x:c r="A175" s="1">
-        <x:v>45418.2458333333</x:v>
+        <x:v>45418.2576388889</x:v>
       </x:c>
       <x:c r="B175" s="0" t="s">
         <x:v>185</x:v>
       </x:c>
       <x:c r="C175" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D175" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E175" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F175" s="0" t="n">
-        <x:v>88866622</x:v>
+        <x:v>69377633</x:v>
       </x:c>
     </x:row>
     <x:row r="176" spans="1:14">
       <x:c r="A176" s="1">
-        <x:v>45418.2472222222</x:v>
+        <x:v>45418.2611111111</x:v>
       </x:c>
       <x:c r="B176" s="0" t="s">
         <x:v>186</x:v>
@@ -4680,58 +4650,58 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D176" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E176" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F176" s="0" t="n">
-        <x:v>46055816</x:v>
+        <x:v>34362899</x:v>
       </x:c>
     </x:row>
     <x:row r="177" spans="1:14">
       <x:c r="A177" s="1">
-        <x:v>45418.2493055556</x:v>
+        <x:v>45418.2625</x:v>
       </x:c>
       <x:c r="B177" s="0" t="s">
         <x:v>187</x:v>
       </x:c>
       <x:c r="C177" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D177" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E177" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F177" s="0" t="n">
-        <x:v>80522682</x:v>
+        <x:v>35527146</x:v>
       </x:c>
     </x:row>
     <x:row r="178" spans="1:14">
       <x:c r="A178" s="1">
-        <x:v>45418.2493055556</x:v>
+        <x:v>45418.2631944444</x:v>
       </x:c>
       <x:c r="B178" s="0" t="s">
         <x:v>188</x:v>
       </x:c>
       <x:c r="C178" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D178" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E178" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F178" s="0" t="n">
-        <x:v>41326641</x:v>
+        <x:v>59052559</x:v>
       </x:c>
     </x:row>
     <x:row r="179" spans="1:14">
       <x:c r="A179" s="1">
-        <x:v>45418.2506944444</x:v>
+        <x:v>45418.2652777778</x:v>
       </x:c>
       <x:c r="B179" s="0" t="s">
         <x:v>189</x:v>
@@ -4740,38 +4710,38 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D179" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E179" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F179" s="0" t="n">
-        <x:v>91493800</x:v>
+        <x:v>55610792</x:v>
       </x:c>
     </x:row>
     <x:row r="180" spans="1:14">
       <x:c r="A180" s="1">
-        <x:v>45418.2513888889</x:v>
+        <x:v>45418.2659722222</x:v>
       </x:c>
       <x:c r="B180" s="0" t="s">
         <x:v>190</x:v>
       </x:c>
       <x:c r="C180" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D180" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E180" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F180" s="0" t="n">
-        <x:v>88265359</x:v>
+        <x:v>76765480</x:v>
       </x:c>
     </x:row>
     <x:row r="181" spans="1:14">
       <x:c r="A181" s="1">
-        <x:v>45418.2527777778</x:v>
+        <x:v>45418.26875</x:v>
       </x:c>
       <x:c r="B181" s="0" t="s">
         <x:v>191</x:v>
@@ -4780,38 +4750,38 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D181" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E181" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F181" s="0" t="n">
-        <x:v>14116377</x:v>
+        <x:v>48664364</x:v>
       </x:c>
     </x:row>
     <x:row r="182" spans="1:14">
       <x:c r="A182" s="1">
-        <x:v>45418.2534722222</x:v>
+        <x:v>45418.2701388889</x:v>
       </x:c>
       <x:c r="B182" s="0" t="s">
         <x:v>192</x:v>
       </x:c>
       <x:c r="C182" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D182" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E182" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F182" s="0" t="n">
-        <x:v>61196937</x:v>
+        <x:v>76827061</x:v>
       </x:c>
     </x:row>
     <x:row r="183" spans="1:14">
       <x:c r="A183" s="1">
-        <x:v>45418.2555555556</x:v>
+        <x:v>45418.2729166667</x:v>
       </x:c>
       <x:c r="B183" s="0" t="s">
         <x:v>193</x:v>
@@ -4820,38 +4790,38 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D183" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E183" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F183" s="0" t="n">
-        <x:v>81496798</x:v>
+        <x:v>99512062</x:v>
       </x:c>
     </x:row>
     <x:row r="184" spans="1:14">
       <x:c r="A184" s="1">
-        <x:v>45418.25625</x:v>
+        <x:v>45418.2743055556</x:v>
       </x:c>
       <x:c r="B184" s="0" t="s">
         <x:v>194</x:v>
       </x:c>
       <x:c r="C184" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D184" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E184" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F184" s="0" t="n">
-        <x:v>73634687</x:v>
+        <x:v>67462763</x:v>
       </x:c>
     </x:row>
     <x:row r="185" spans="1:14">
       <x:c r="A185" s="1">
-        <x:v>45418.2576388889</x:v>
+        <x:v>45418.2756944444</x:v>
       </x:c>
       <x:c r="B185" s="0" t="s">
         <x:v>195</x:v>
@@ -4860,84 +4830,84 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D185" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E185" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F185" s="0" t="n">
-        <x:v>69377633</x:v>
+        <x:v>85992056</x:v>
       </x:c>
     </x:row>
     <x:row r="186" spans="1:14">
       <x:c r="A186" s="1">
-        <x:v>45418.2611111111</x:v>
+        <x:v>45418.2763888889</x:v>
       </x:c>
       <x:c r="B186" s="0" t="s">
         <x:v>196</x:v>
       </x:c>
       <x:c r="C186" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D186" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E186" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F186" s="0" t="n">
-        <x:v>34362899</x:v>
+        <x:v>36876610</x:v>
       </x:c>
     </x:row>
     <x:row r="187" spans="1:14">
       <x:c r="A187" s="1">
-        <x:v>45418.2625</x:v>
+        <x:v>45418.2777777778</x:v>
       </x:c>
       <x:c r="B187" s="0" t="s">
         <x:v>197</x:v>
       </x:c>
       <x:c r="C187" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D187" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E187" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F187" s="0" t="n">
-        <x:v>35527146</x:v>
+        <x:v>14237391</x:v>
       </x:c>
     </x:row>
     <x:row r="188" spans="1:14">
       <x:c r="A188" s="1">
-        <x:v>45418.2631944444</x:v>
+        <x:v>45418.2798611111</x:v>
       </x:c>
       <x:c r="B188" s="0" t="s">
         <x:v>198</x:v>
       </x:c>
       <x:c r="C188" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D188" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E188" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F188" s="0" t="n">
-        <x:v>59052559</x:v>
+        <x:v>42980468</x:v>
       </x:c>
     </x:row>
     <x:row r="189" spans="1:14">
       <x:c r="A189" s="1">
-        <x:v>45418.2652777778</x:v>
+        <x:v>45418.2805555556</x:v>
       </x:c>
       <x:c r="B189" s="0" t="s">
         <x:v>199</x:v>
       </x:c>
       <x:c r="C189" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D189" s="0" t="s">
         <x:v>12</x:v>
@@ -4946,18 +4916,18 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F189" s="0" t="n">
-        <x:v>55610792</x:v>
+        <x:v>58462429</x:v>
       </x:c>
     </x:row>
     <x:row r="190" spans="1:14">
       <x:c r="A190" s="1">
-        <x:v>45418.2659722222</x:v>
+        <x:v>45418.2826388889</x:v>
       </x:c>
       <x:c r="B190" s="0" t="s">
         <x:v>200</x:v>
       </x:c>
       <x:c r="C190" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D190" s="0" t="s">
         <x:v>8</x:v>
@@ -4966,32 +4936,32 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F190" s="0" t="n">
-        <x:v>76765480</x:v>
+        <x:v>40104132</x:v>
       </x:c>
     </x:row>
     <x:row r="191" spans="1:14">
       <x:c r="A191" s="1">
-        <x:v>45418.26875</x:v>
+        <x:v>45418.2861111111</x:v>
       </x:c>
       <x:c r="B191" s="0" t="s">
         <x:v>201</x:v>
       </x:c>
       <x:c r="C191" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D191" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E191" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F191" s="0" t="n">
-        <x:v>48664364</x:v>
+        <x:v>11430228</x:v>
       </x:c>
     </x:row>
     <x:row r="192" spans="1:14">
       <x:c r="A192" s="1">
-        <x:v>45418.2701388889</x:v>
+        <x:v>45418.2881944444</x:v>
       </x:c>
       <x:c r="B192" s="0" t="s">
         <x:v>202</x:v>
@@ -5000,24 +4970,24 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D192" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E192" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F192" s="0" t="n">
-        <x:v>76827061</x:v>
+        <x:v>59140876</x:v>
       </x:c>
     </x:row>
     <x:row r="193" spans="1:14">
       <x:c r="A193" s="1">
-        <x:v>45418.2729166667</x:v>
+        <x:v>45418.2916666667</x:v>
       </x:c>
       <x:c r="B193" s="0" t="s">
         <x:v>203</x:v>
       </x:c>
       <x:c r="C193" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D193" s="0" t="s">
         <x:v>8</x:v>
@@ -5026,12 +4996,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F193" s="0" t="n">
-        <x:v>99512062</x:v>
+        <x:v>88018258</x:v>
       </x:c>
     </x:row>
     <x:row r="194" spans="1:14">
       <x:c r="A194" s="1">
-        <x:v>45418.2743055556</x:v>
+        <x:v>45418.2944444444</x:v>
       </x:c>
       <x:c r="B194" s="0" t="s">
         <x:v>204</x:v>
@@ -5040,38 +5010,38 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D194" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E194" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F194" s="0" t="n">
-        <x:v>67462763</x:v>
+        <x:v>54103450</x:v>
       </x:c>
     </x:row>
     <x:row r="195" spans="1:14">
       <x:c r="A195" s="1">
-        <x:v>45418.2756944444</x:v>
+        <x:v>45418.2965277778</x:v>
       </x:c>
       <x:c r="B195" s="0" t="s">
         <x:v>205</x:v>
       </x:c>
       <x:c r="C195" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D195" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E195" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F195" s="0" t="n">
-        <x:v>85992056</x:v>
+        <x:v>35846970</x:v>
       </x:c>
     </x:row>
     <x:row r="196" spans="1:14">
       <x:c r="A196" s="1">
-        <x:v>45418.2763888889</x:v>
+        <x:v>45418.3</x:v>
       </x:c>
       <x:c r="B196" s="0" t="s">
         <x:v>206</x:v>
@@ -5080,18 +5050,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D196" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E196" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F196" s="0" t="n">
-        <x:v>36876610</x:v>
+        <x:v>82165228</x:v>
       </x:c>
     </x:row>
     <x:row r="197" spans="1:14">
       <x:c r="A197" s="1">
-        <x:v>45418.2777777778</x:v>
+        <x:v>45418.3020833333</x:v>
       </x:c>
       <x:c r="B197" s="0" t="s">
         <x:v>207</x:v>
@@ -5106,12 +5076,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F197" s="0" t="n">
-        <x:v>14237391</x:v>
+        <x:v>95526033</x:v>
       </x:c>
     </x:row>
     <x:row r="198" spans="1:14">
       <x:c r="A198" s="1">
-        <x:v>45418.2798611111</x:v>
+        <x:v>45418.3041666667</x:v>
       </x:c>
       <x:c r="B198" s="0" t="s">
         <x:v>208</x:v>
@@ -5126,32 +5096,32 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F198" s="0" t="n">
-        <x:v>42980468</x:v>
+        <x:v>55398856</x:v>
       </x:c>
     </x:row>
     <x:row r="199" spans="1:14">
       <x:c r="A199" s="1">
-        <x:v>45418.2805555556</x:v>
+        <x:v>45418.3055555556</x:v>
       </x:c>
       <x:c r="B199" s="0" t="s">
         <x:v>209</x:v>
       </x:c>
       <x:c r="C199" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D199" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E199" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F199" s="0" t="n">
-        <x:v>58462429</x:v>
+        <x:v>51443919</x:v>
       </x:c>
     </x:row>
     <x:row r="200" spans="1:14">
       <x:c r="A200" s="1">
-        <x:v>45418.2826388889</x:v>
+        <x:v>45418.30625</x:v>
       </x:c>
       <x:c r="B200" s="0" t="s">
         <x:v>210</x:v>
@@ -5160,58 +5130,58 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D200" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E200" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F200" s="0" t="n">
-        <x:v>40104132</x:v>
+        <x:v>60791226</x:v>
       </x:c>
     </x:row>
     <x:row r="201" spans="1:14">
       <x:c r="A201" s="1">
-        <x:v>45418.2861111111</x:v>
+        <x:v>45418.3090277778</x:v>
       </x:c>
       <x:c r="B201" s="0" t="s">
         <x:v>211</x:v>
       </x:c>
       <x:c r="C201" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D201" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E201" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F201" s="0" t="n">
-        <x:v>11430228</x:v>
+        <x:v>98382096</x:v>
       </x:c>
     </x:row>
     <x:row r="202" spans="1:14">
       <x:c r="A202" s="1">
-        <x:v>45418.2881944444</x:v>
+        <x:v>45418.3118055556</x:v>
       </x:c>
       <x:c r="B202" s="0" t="s">
         <x:v>212</x:v>
       </x:c>
       <x:c r="C202" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D202" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E202" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F202" s="0" t="n">
-        <x:v>59140876</x:v>
+        <x:v>69130554</x:v>
       </x:c>
     </x:row>
     <x:row r="203" spans="1:14">
       <x:c r="A203" s="1">
-        <x:v>45418.2916666667</x:v>
+        <x:v>45418.3145833333</x:v>
       </x:c>
       <x:c r="B203" s="0" t="s">
         <x:v>213</x:v>
@@ -5220,24 +5190,24 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D203" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E203" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F203" s="0" t="n">
-        <x:v>88018258</x:v>
+        <x:v>87550105</x:v>
       </x:c>
     </x:row>
     <x:row r="204" spans="1:14">
       <x:c r="A204" s="1">
-        <x:v>45418.2944444444</x:v>
+        <x:v>45418.3152777778</x:v>
       </x:c>
       <x:c r="B204" s="0" t="s">
         <x:v>214</x:v>
       </x:c>
       <x:c r="C204" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D204" s="0" t="s">
         <x:v>8</x:v>
@@ -5246,38 +5216,38 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F204" s="0" t="n">
-        <x:v>54103450</x:v>
+        <x:v>86717784</x:v>
       </x:c>
     </x:row>
     <x:row r="205" spans="1:14">
       <x:c r="A205" s="1">
-        <x:v>45418.2965277778</x:v>
+        <x:v>45418.3173611111</x:v>
       </x:c>
       <x:c r="B205" s="0" t="s">
         <x:v>215</x:v>
       </x:c>
       <x:c r="C205" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D205" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E205" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F205" s="0" t="n">
-        <x:v>35846970</x:v>
+        <x:v>96022898</x:v>
       </x:c>
     </x:row>
     <x:row r="206" spans="1:14">
       <x:c r="A206" s="1">
-        <x:v>45418.3</x:v>
+        <x:v>45418.3208333333</x:v>
       </x:c>
       <x:c r="B206" s="0" t="s">
         <x:v>216</x:v>
       </x:c>
       <x:c r="C206" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D206" s="0" t="s">
         <x:v>8</x:v>
@@ -5286,138 +5256,138 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F206" s="0" t="n">
-        <x:v>82165228</x:v>
+        <x:v>18974938</x:v>
       </x:c>
     </x:row>
     <x:row r="207" spans="1:14">
       <x:c r="A207" s="1">
-        <x:v>45418.3020833333</x:v>
+        <x:v>45418.3208333333</x:v>
       </x:c>
       <x:c r="B207" s="0" t="s">
         <x:v>217</x:v>
       </x:c>
       <x:c r="C207" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D207" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E207" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F207" s="0" t="n">
-        <x:v>95526033</x:v>
+        <x:v>78906923</x:v>
       </x:c>
     </x:row>
     <x:row r="208" spans="1:14">
       <x:c r="A208" s="1">
-        <x:v>45418.3041666667</x:v>
+        <x:v>45418.3236111111</x:v>
       </x:c>
       <x:c r="B208" s="0" t="s">
         <x:v>218</x:v>
       </x:c>
       <x:c r="C208" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D208" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E208" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F208" s="0" t="n">
-        <x:v>55398856</x:v>
+        <x:v>28748213</x:v>
       </x:c>
     </x:row>
     <x:row r="209" spans="1:14">
       <x:c r="A209" s="1">
-        <x:v>45418.3055555556</x:v>
+        <x:v>45418.3243055556</x:v>
       </x:c>
       <x:c r="B209" s="0" t="s">
         <x:v>219</x:v>
       </x:c>
       <x:c r="C209" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D209" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E209" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F209" s="0" t="n">
-        <x:v>51443919</x:v>
+        <x:v>98183367</x:v>
       </x:c>
     </x:row>
     <x:row r="210" spans="1:14">
       <x:c r="A210" s="1">
-        <x:v>45418.30625</x:v>
+        <x:v>45418.3256944444</x:v>
       </x:c>
       <x:c r="B210" s="0" t="s">
         <x:v>220</x:v>
       </x:c>
       <x:c r="C210" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D210" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E210" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F210" s="0" t="n">
-        <x:v>60791226</x:v>
+        <x:v>76265236</x:v>
       </x:c>
     </x:row>
     <x:row r="211" spans="1:14">
       <x:c r="A211" s="1">
-        <x:v>45418.3090277778</x:v>
+        <x:v>45418.3291666667</x:v>
       </x:c>
       <x:c r="B211" s="0" t="s">
         <x:v>221</x:v>
       </x:c>
       <x:c r="C211" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D211" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E211" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F211" s="0" t="n">
-        <x:v>98382096</x:v>
+        <x:v>26250892</x:v>
       </x:c>
     </x:row>
     <x:row r="212" spans="1:14">
       <x:c r="A212" s="1">
-        <x:v>45418.3118055556</x:v>
+        <x:v>45418.3298611111</x:v>
       </x:c>
       <x:c r="B212" s="0" t="s">
         <x:v>222</x:v>
       </x:c>
       <x:c r="C212" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D212" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E212" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F212" s="0" t="n">
-        <x:v>69130554</x:v>
+        <x:v>74984015</x:v>
       </x:c>
     </x:row>
     <x:row r="213" spans="1:14">
       <x:c r="A213" s="1">
-        <x:v>45418.3145833333</x:v>
+        <x:v>45418.3326388889</x:v>
       </x:c>
       <x:c r="B213" s="0" t="s">
         <x:v>223</x:v>
       </x:c>
       <x:c r="C213" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D213" s="0" t="s">
         <x:v>8</x:v>
@@ -5426,38 +5396,38 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F213" s="0" t="n">
-        <x:v>87550105</x:v>
+        <x:v>76975211</x:v>
       </x:c>
     </x:row>
     <x:row r="214" spans="1:14">
       <x:c r="A214" s="1">
-        <x:v>45418.3152777778</x:v>
+        <x:v>45418.3340277778</x:v>
       </x:c>
       <x:c r="B214" s="0" t="s">
         <x:v>224</x:v>
       </x:c>
       <x:c r="C214" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D214" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E214" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F214" s="0" t="n">
-        <x:v>86717784</x:v>
+        <x:v>64621408</x:v>
       </x:c>
     </x:row>
     <x:row r="215" spans="1:14">
       <x:c r="A215" s="1">
-        <x:v>45418.3173611111</x:v>
+        <x:v>45418.3347222222</x:v>
       </x:c>
       <x:c r="B215" s="0" t="s">
         <x:v>225</x:v>
       </x:c>
       <x:c r="C215" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D215" s="0" t="s">
         <x:v>12</x:v>
@@ -5466,32 +5436,32 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F215" s="0" t="n">
-        <x:v>96022898</x:v>
+        <x:v>92592247</x:v>
       </x:c>
     </x:row>
     <x:row r="216" spans="1:14">
       <x:c r="A216" s="1">
-        <x:v>45418.3208333333</x:v>
+        <x:v>45418.3361111111</x:v>
       </x:c>
       <x:c r="B216" s="0" t="s">
         <x:v>226</x:v>
       </x:c>
       <x:c r="C216" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D216" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E216" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F216" s="0" t="n">
-        <x:v>18974938</x:v>
+        <x:v>50327738</x:v>
       </x:c>
     </x:row>
     <x:row r="217" spans="1:14">
       <x:c r="A217" s="1">
-        <x:v>45418.3208333333</x:v>
+        <x:v>45418.3375</x:v>
       </x:c>
       <x:c r="B217" s="0" t="s">
         <x:v>227</x:v>
@@ -5500,58 +5470,58 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D217" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E217" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F217" s="0" t="n">
-        <x:v>78906923</x:v>
+        <x:v>64120818</x:v>
       </x:c>
     </x:row>
     <x:row r="218" spans="1:14">
       <x:c r="A218" s="1">
-        <x:v>45418.3236111111</x:v>
+        <x:v>45418.3409722222</x:v>
       </x:c>
       <x:c r="B218" s="0" t="s">
         <x:v>228</x:v>
       </x:c>
       <x:c r="C218" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D218" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E218" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F218" s="0" t="n">
-        <x:v>28748213</x:v>
+        <x:v>60072046</x:v>
       </x:c>
     </x:row>
     <x:row r="219" spans="1:14">
       <x:c r="A219" s="1">
-        <x:v>45418.3243055556</x:v>
+        <x:v>45418.3423611111</x:v>
       </x:c>
       <x:c r="B219" s="0" t="s">
         <x:v>229</x:v>
       </x:c>
       <x:c r="C219" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D219" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E219" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F219" s="0" t="n">
-        <x:v>98183367</x:v>
+        <x:v>37644531</x:v>
       </x:c>
     </x:row>
     <x:row r="220" spans="1:14">
       <x:c r="A220" s="1">
-        <x:v>45418.3256944444</x:v>
+        <x:v>45418.3451388889</x:v>
       </x:c>
       <x:c r="B220" s="0" t="s">
         <x:v>230</x:v>
@@ -5566,18 +5536,18 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F220" s="0" t="n">
-        <x:v>76265236</x:v>
+        <x:v>44336410</x:v>
       </x:c>
     </x:row>
     <x:row r="221" spans="1:14">
       <x:c r="A221" s="1">
-        <x:v>45418.3291666667</x:v>
+        <x:v>45418.3472222222</x:v>
       </x:c>
       <x:c r="B221" s="0" t="s">
         <x:v>231</x:v>
       </x:c>
       <x:c r="C221" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D221" s="0" t="s">
         <x:v>12</x:v>
@@ -5586,78 +5556,78 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F221" s="0" t="n">
-        <x:v>26250892</x:v>
+        <x:v>44953650</x:v>
       </x:c>
     </x:row>
     <x:row r="222" spans="1:14">
       <x:c r="A222" s="1">
-        <x:v>45418.3298611111</x:v>
+        <x:v>45418.3486111111</x:v>
       </x:c>
       <x:c r="B222" s="0" t="s">
         <x:v>232</x:v>
       </x:c>
       <x:c r="C222" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D222" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E222" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F222" s="0" t="n">
-        <x:v>74984015</x:v>
+        <x:v>46988533</x:v>
       </x:c>
     </x:row>
     <x:row r="223" spans="1:14">
       <x:c r="A223" s="1">
-        <x:v>45418.3326388889</x:v>
+        <x:v>45418.3520833333</x:v>
       </x:c>
       <x:c r="B223" s="0" t="s">
         <x:v>233</x:v>
       </x:c>
       <x:c r="C223" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D223" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E223" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F223" s="0" t="n">
-        <x:v>76975211</x:v>
+        <x:v>95154048</x:v>
       </x:c>
     </x:row>
     <x:row r="224" spans="1:14">
       <x:c r="A224" s="1">
-        <x:v>45418.3340277778</x:v>
+        <x:v>45418.3541666667</x:v>
       </x:c>
       <x:c r="B224" s="0" t="s">
         <x:v>234</x:v>
       </x:c>
       <x:c r="C224" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D224" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E224" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F224" s="0" t="n">
-        <x:v>64621408</x:v>
+        <x:v>22642147</x:v>
       </x:c>
     </x:row>
     <x:row r="225" spans="1:14">
       <x:c r="A225" s="1">
-        <x:v>45418.3347222222</x:v>
+        <x:v>45418.3569444444</x:v>
       </x:c>
       <x:c r="B225" s="0" t="s">
         <x:v>235</x:v>
       </x:c>
       <x:c r="C225" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D225" s="0" t="s">
         <x:v>12</x:v>
@@ -5666,12 +5636,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F225" s="0" t="n">
-        <x:v>92592247</x:v>
+        <x:v>11051756</x:v>
       </x:c>
     </x:row>
     <x:row r="226" spans="1:14">
       <x:c r="A226" s="1">
-        <x:v>45418.3361111111</x:v>
+        <x:v>45418.3583333333</x:v>
       </x:c>
       <x:c r="B226" s="0" t="s">
         <x:v>236</x:v>
@@ -5686,38 +5656,38 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F226" s="0" t="n">
-        <x:v>50327738</x:v>
+        <x:v>60269654</x:v>
       </x:c>
     </x:row>
     <x:row r="227" spans="1:14">
       <x:c r="A227" s="1">
-        <x:v>45418.3375</x:v>
+        <x:v>45418.3597222222</x:v>
       </x:c>
       <x:c r="B227" s="0" t="s">
         <x:v>237</x:v>
       </x:c>
       <x:c r="C227" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D227" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E227" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F227" s="0" t="n">
-        <x:v>64120818</x:v>
+        <x:v>51403242</x:v>
       </x:c>
     </x:row>
     <x:row r="228" spans="1:14">
       <x:c r="A228" s="1">
-        <x:v>45418.3409722222</x:v>
+        <x:v>45418.3611111111</x:v>
       </x:c>
       <x:c r="B228" s="0" t="s">
         <x:v>238</x:v>
       </x:c>
       <x:c r="C228" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D228" s="0" t="s">
         <x:v>8</x:v>
@@ -5726,58 +5696,58 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F228" s="0" t="n">
-        <x:v>60072046</x:v>
+        <x:v>23554685</x:v>
       </x:c>
     </x:row>
     <x:row r="229" spans="1:14">
       <x:c r="A229" s="1">
-        <x:v>45418.3423611111</x:v>
+        <x:v>45418.3625</x:v>
       </x:c>
       <x:c r="B229" s="0" t="s">
         <x:v>239</x:v>
       </x:c>
       <x:c r="C229" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D229" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E229" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F229" s="0" t="n">
-        <x:v>37644531</x:v>
+        <x:v>24863987</x:v>
       </x:c>
     </x:row>
     <x:row r="230" spans="1:14">
       <x:c r="A230" s="1">
-        <x:v>45418.3451388889</x:v>
+        <x:v>45418.3638888889</x:v>
       </x:c>
       <x:c r="B230" s="0" t="s">
         <x:v>240</x:v>
       </x:c>
       <x:c r="C230" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D230" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E230" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F230" s="0" t="n">
-        <x:v>44336410</x:v>
+        <x:v>98063611</x:v>
       </x:c>
     </x:row>
     <x:row r="231" spans="1:14">
       <x:c r="A231" s="1">
-        <x:v>45418.3472222222</x:v>
+        <x:v>45418.3666666667</x:v>
       </x:c>
       <x:c r="B231" s="0" t="s">
         <x:v>241</x:v>
       </x:c>
       <x:c r="C231" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D231" s="0" t="s">
         <x:v>12</x:v>
@@ -5786,58 +5756,58 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F231" s="0" t="n">
-        <x:v>44953650</x:v>
+        <x:v>52037889</x:v>
       </x:c>
     </x:row>
     <x:row r="232" spans="1:14">
       <x:c r="A232" s="1">
-        <x:v>45418.3486111111</x:v>
+        <x:v>45418.3680555556</x:v>
       </x:c>
       <x:c r="B232" s="0" t="s">
         <x:v>242</x:v>
       </x:c>
       <x:c r="C232" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D232" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E232" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F232" s="0" t="n">
-        <x:v>46988533</x:v>
+        <x:v>58568313</x:v>
       </x:c>
     </x:row>
     <x:row r="233" spans="1:14">
       <x:c r="A233" s="1">
-        <x:v>45418.3520833333</x:v>
+        <x:v>45418.3708333333</x:v>
       </x:c>
       <x:c r="B233" s="0" t="s">
         <x:v>243</x:v>
       </x:c>
       <x:c r="C233" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D233" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E233" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F233" s="0" t="n">
-        <x:v>95154048</x:v>
+        <x:v>41802058</x:v>
       </x:c>
     </x:row>
     <x:row r="234" spans="1:14">
       <x:c r="A234" s="1">
-        <x:v>45418.3541666667</x:v>
+        <x:v>45418.3715277778</x:v>
       </x:c>
       <x:c r="B234" s="0" t="s">
         <x:v>244</x:v>
       </x:c>
       <x:c r="C234" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D234" s="0" t="s">
         <x:v>8</x:v>
@@ -5846,18 +5816,18 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F234" s="0" t="n">
-        <x:v>22642147</x:v>
+        <x:v>41189497</x:v>
       </x:c>
     </x:row>
     <x:row r="235" spans="1:14">
       <x:c r="A235" s="1">
-        <x:v>45418.3569444444</x:v>
+        <x:v>45418.3743055556</x:v>
       </x:c>
       <x:c r="B235" s="0" t="s">
         <x:v>245</x:v>
       </x:c>
       <x:c r="C235" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D235" s="0" t="s">
         <x:v>12</x:v>
@@ -5866,72 +5836,72 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F235" s="0" t="n">
-        <x:v>11051756</x:v>
+        <x:v>25723020</x:v>
       </x:c>
     </x:row>
     <x:row r="236" spans="1:14">
       <x:c r="A236" s="1">
-        <x:v>45418.3583333333</x:v>
+        <x:v>45418.3763888889</x:v>
       </x:c>
       <x:c r="B236" s="0" t="s">
         <x:v>246</x:v>
       </x:c>
       <x:c r="C236" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D236" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E236" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F236" s="0" t="n">
-        <x:v>60269654</x:v>
+        <x:v>83739665</x:v>
       </x:c>
     </x:row>
     <x:row r="237" spans="1:14">
       <x:c r="A237" s="1">
-        <x:v>45418.3597222222</x:v>
+        <x:v>45418.3784722222</x:v>
       </x:c>
       <x:c r="B237" s="0" t="s">
         <x:v>247</x:v>
       </x:c>
       <x:c r="C237" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D237" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E237" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F237" s="0" t="n">
-        <x:v>51403242</x:v>
+        <x:v>94440068</x:v>
       </x:c>
     </x:row>
     <x:row r="238" spans="1:14">
       <x:c r="A238" s="1">
-        <x:v>45418.3611111111</x:v>
+        <x:v>45418.3805555556</x:v>
       </x:c>
       <x:c r="B238" s="0" t="s">
         <x:v>248</x:v>
       </x:c>
       <x:c r="C238" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D238" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E238" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F238" s="0" t="n">
-        <x:v>23554685</x:v>
+        <x:v>79673521</x:v>
       </x:c>
     </x:row>
     <x:row r="239" spans="1:14">
       <x:c r="A239" s="1">
-        <x:v>45418.3625</x:v>
+        <x:v>45418.3833333333</x:v>
       </x:c>
       <x:c r="B239" s="0" t="s">
         <x:v>249</x:v>
@@ -5940,18 +5910,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D239" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E239" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F239" s="0" t="n">
-        <x:v>24863987</x:v>
+        <x:v>69694990</x:v>
       </x:c>
     </x:row>
     <x:row r="240" spans="1:14">
       <x:c r="A240" s="1">
-        <x:v>45418.3638888889</x:v>
+        <x:v>45418.3847222222</x:v>
       </x:c>
       <x:c r="B240" s="0" t="s">
         <x:v>250</x:v>
@@ -5960,33 +5930,33 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D240" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E240" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F240" s="0" t="n">
-        <x:v>98063611</x:v>
+        <x:v>46094520</x:v>
       </x:c>
     </x:row>
     <x:row r="241" spans="1:14">
       <x:c r="A241" s="1">
-        <x:v>45418.3666666667</x:v>
+        <x:v>45418.3875</x:v>
       </x:c>
       <x:c r="B241" s="0" t="s">
         <x:v>251</x:v>
       </x:c>
       <x:c r="C241" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D241" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E241" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F241" s="0" t="n">
-        <x:v>52037889</x:v>
+        <x:v>15170018</x:v>
       </x:c>
     </x:row>
     <x:row r="242" spans="1:14">
@@ -5994,13 +5964,13 @@
         <x:v>45418.3680555556</x:v>
       </x:c>
       <x:c r="B242" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="C242" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D242" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E242" s="0" t="s">
         <x:v>9</x:v>
@@ -6014,13 +5984,13 @@
         <x:v>45418.3708333333</x:v>
       </x:c>
       <x:c r="B243" s="0" t="s">
-        <x:v>253</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="C243" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D243" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E243" s="0" t="s">
         <x:v>9</x:v>
@@ -6034,13 +6004,13 @@
         <x:v>45418.3715277778</x:v>
       </x:c>
       <x:c r="B244" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="C244" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D244" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E244" s="0" t="s">
         <x:v>9</x:v>
@@ -6054,10 +6024,10 @@
         <x:v>45418.3743055556</x:v>
       </x:c>
       <x:c r="B245" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="C245" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D245" s="0" t="s">
         <x:v>12</x:v>
@@ -6074,13 +6044,13 @@
         <x:v>45418.3763888889</x:v>
       </x:c>
       <x:c r="B246" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="C246" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D246" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E246" s="0" t="s">
         <x:v>9</x:v>
@@ -6094,13 +6064,13 @@
         <x:v>45418.3784722222</x:v>
       </x:c>
       <x:c r="B247" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="C247" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D247" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E247" s="0" t="s">
         <x:v>9</x:v>
@@ -6114,10 +6084,10 @@
         <x:v>45418.3805555556</x:v>
       </x:c>
       <x:c r="B248" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="C248" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D248" s="0" t="s">
         <x:v>12</x:v>
@@ -6134,13 +6104,13 @@
         <x:v>45418.3833333333</x:v>
       </x:c>
       <x:c r="B249" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="C249" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D249" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E249" s="0" t="s">
         <x:v>9</x:v>
@@ -6154,13 +6124,13 @@
         <x:v>45418.3847222222</x:v>
       </x:c>
       <x:c r="B250" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="C250" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D250" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E250" s="0" t="s">
         <x:v>9</x:v>
@@ -6174,13 +6144,13 @@
         <x:v>45418.3875</x:v>
       </x:c>
       <x:c r="B251" s="0" t="s">
-        <x:v>261</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="C251" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D251" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E251" s="0" t="s">
         <x:v>9</x:v>
@@ -6194,13 +6164,13 @@
         <x:v>45418.3236111111</x:v>
       </x:c>
       <x:c r="B252" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="C252" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D252" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E252" s="0" t="s">
         <x:v>9</x:v>
@@ -6214,13 +6184,13 @@
         <x:v>45418.3243055556</x:v>
       </x:c>
       <x:c r="B253" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="C253" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D253" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E253" s="0" t="s">
         <x:v>9</x:v>
@@ -6234,10 +6204,10 @@
         <x:v>45418.3256944444</x:v>
       </x:c>
       <x:c r="B254" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="C254" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D254" s="0" t="s">
         <x:v>12</x:v>
@@ -6254,10 +6224,10 @@
         <x:v>45418.3291666667</x:v>
       </x:c>
       <x:c r="B255" s="0" t="s">
-        <x:v>231</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="C255" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D255" s="0" t="s">
         <x:v>12</x:v>
@@ -6274,10 +6244,10 @@
         <x:v>45418.3298611111</x:v>
       </x:c>
       <x:c r="B256" s="0" t="s">
-        <x:v>232</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="C256" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D256" s="0" t="s">
         <x:v>12</x:v>
@@ -6294,13 +6264,13 @@
         <x:v>45418.3326388889</x:v>
       </x:c>
       <x:c r="B257" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="C257" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D257" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E257" s="0" t="s">
         <x:v>9</x:v>
@@ -6314,13 +6284,13 @@
         <x:v>45418.3340277778</x:v>
       </x:c>
       <x:c r="B258" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="C258" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D258" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E258" s="0" t="s">
         <x:v>9</x:v>
@@ -6334,10 +6304,10 @@
         <x:v>45418.3347222222</x:v>
       </x:c>
       <x:c r="B259" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="C259" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D259" s="0" t="s">
         <x:v>12</x:v>
@@ -6354,10 +6324,10 @@
         <x:v>45418.3361111111</x:v>
       </x:c>
       <x:c r="B260" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="C260" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D260" s="0" t="s">
         <x:v>12</x:v>
@@ -6374,13 +6344,13 @@
         <x:v>45418.3375</x:v>
       </x:c>
       <x:c r="B261" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="C261" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D261" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E261" s="0" t="s">
         <x:v>9</x:v>
@@ -6394,13 +6364,13 @@
         <x:v>45418.3409722222</x:v>
       </x:c>
       <x:c r="B262" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="C262" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D262" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E262" s="0" t="s">
         <x:v>9</x:v>
@@ -6414,10 +6384,10 @@
         <x:v>45418.3423611111</x:v>
       </x:c>
       <x:c r="B263" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="C263" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D263" s="0" t="s">
         <x:v>12</x:v>
@@ -6434,10 +6404,10 @@
         <x:v>45418.3451388889</x:v>
       </x:c>
       <x:c r="B264" s="0" t="s">
-        <x:v>240</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="C264" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D264" s="0" t="s">
         <x:v>12</x:v>
@@ -6454,10 +6424,10 @@
         <x:v>45418.3472222222</x:v>
       </x:c>
       <x:c r="B265" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="C265" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D265" s="0" t="s">
         <x:v>12</x:v>
@@ -6474,13 +6444,13 @@
         <x:v>45418.3486111111</x:v>
       </x:c>
       <x:c r="B266" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="C266" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D266" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E266" s="0" t="s">
         <x:v>9</x:v>
@@ -6494,10 +6464,10 @@
         <x:v>45418.3520833333</x:v>
       </x:c>
       <x:c r="B267" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="C267" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D267" s="0" t="s">
         <x:v>12</x:v>
@@ -6514,13 +6484,13 @@
         <x:v>45418.3541666667</x:v>
       </x:c>
       <x:c r="B268" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="C268" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D268" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E268" s="0" t="s">
         <x:v>9</x:v>
@@ -6534,10 +6504,10 @@
         <x:v>45418.3569444444</x:v>
       </x:c>
       <x:c r="B269" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="C269" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D269" s="0" t="s">
         <x:v>12</x:v>
@@ -6554,10 +6524,10 @@
         <x:v>45418.3583333333</x:v>
       </x:c>
       <x:c r="B270" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="C270" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D270" s="0" t="s">
         <x:v>12</x:v>
@@ -6574,13 +6544,13 @@
         <x:v>45418.3597222222</x:v>
       </x:c>
       <x:c r="B271" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="C271" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D271" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E271" s="0" t="s">
         <x:v>9</x:v>
@@ -6594,13 +6564,13 @@
         <x:v>45418.3611111111</x:v>
       </x:c>
       <x:c r="B272" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="C272" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D272" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E272" s="0" t="s">
         <x:v>9</x:v>
@@ -6614,13 +6584,13 @@
         <x:v>45418.3625</x:v>
       </x:c>
       <x:c r="B273" s="0" t="s">
-        <x:v>249</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="C273" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D273" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E273" s="0" t="s">
         <x:v>9</x:v>
@@ -6634,13 +6604,13 @@
         <x:v>45418.3638888889</x:v>
       </x:c>
       <x:c r="B274" s="0" t="s">
-        <x:v>250</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="C274" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D274" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E274" s="0" t="s">
         <x:v>9</x:v>
@@ -6654,10 +6624,10 @@
         <x:v>45418.3666666667</x:v>
       </x:c>
       <x:c r="B275" s="0" t="s">
-        <x:v>251</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C275" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D275" s="0" t="s">
         <x:v>12</x:v>
@@ -6674,13 +6644,13 @@
         <x:v>45418.3680555556</x:v>
       </x:c>
       <x:c r="B276" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="C276" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D276" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E276" s="0" t="s">
         <x:v>9</x:v>
@@ -6694,13 +6664,13 @@
         <x:v>45418.3708333333</x:v>
       </x:c>
       <x:c r="B277" s="0" t="s">
-        <x:v>253</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="C277" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D277" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E277" s="0" t="s">
         <x:v>9</x:v>
@@ -6714,13 +6684,13 @@
         <x:v>45418.3715277778</x:v>
       </x:c>
       <x:c r="B278" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="C278" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D278" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E278" s="0" t="s">
         <x:v>9</x:v>

--- a/NotSelectedParticipants.xlsx
+++ b/NotSelectedParticipants.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="252">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="262">
   <x:si>
     <x:t>Timestamp</x:t>
   </x:si>
@@ -41,30 +41,54 @@
     <x:t>Contact Number</x:t>
   </x:si>
   <x:si>
+    <x:t>Michelle Kelly</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Female</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41-50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test@abc.com.sg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Christopher Chavez</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Male</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31-40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jon Wood</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Briana Griffin</x:t>
+  </x:si>
+  <x:si>
     <x:t>Brittany Baker</x:t>
   </x:si>
   <x:si>
-    <x:t>Male</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21-30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>test@abc.com.sg</x:t>
-  </x:si>
-  <x:si>
     <x:t>Amber Lucas</x:t>
   </x:si>
   <x:si>
+    <x:t>Robert Lutz</x:t>
+  </x:si>
+  <x:si>
     <x:t>Julie Woods</x:t>
   </x:si>
   <x:si>
-    <x:t>31-40</x:t>
-  </x:si>
-  <x:si>
     <x:t>Hunter Estes</x:t>
   </x:si>
   <x:si>
+    <x:t>David Green</x:t>
+  </x:si>
+  <x:si>
     <x:t>Robin Medina</x:t>
   </x:si>
   <x:si>
@@ -74,12 +98,18 @@
     <x:t>Jessica Sanchez</x:t>
   </x:si>
   <x:si>
+    <x:t>Brittney Nelson</x:t>
+  </x:si>
+  <x:si>
     <x:t>Joshua Cannon</x:t>
   </x:si>
   <x:si>
     <x:t>Anna Carrillo</x:t>
   </x:si>
   <x:si>
+    <x:t>Megan Osborne</x:t>
+  </x:si>
+  <x:si>
     <x:t>Jessica Lowery</x:t>
   </x:si>
   <x:si>
@@ -92,6 +122,9 @@
     <x:t>Angel Gonzales</x:t>
   </x:si>
   <x:si>
+    <x:t>Shawn Gomez</x:t>
+  </x:si>
+  <x:si>
     <x:t>Jose Torres</x:t>
   </x:si>
   <x:si>
@@ -101,6 +134,9 @@
     <x:t>Christian Bowman</x:t>
   </x:si>
   <x:si>
+    <x:t>Hannah Alvarez</x:t>
+  </x:si>
+  <x:si>
     <x:t>Jose Thompson</x:t>
   </x:si>
   <x:si>
@@ -116,16 +152,10 @@
     <x:t>Ethan Livingston</x:t>
   </x:si>
   <x:si>
-    <x:t>41-50</x:t>
-  </x:si>
-  <x:si>
     <x:t>Jill Hansen</x:t>
   </x:si>
   <x:si>
     <x:t>Nicholas Williams</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Female</x:t>
   </x:si>
   <x:si>
     <x:t>James Richardson</x:t>
@@ -1161,7 +1191,7 @@
     </x:row>
     <x:row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A2" s="1">
-        <x:v>45417.9256944444</x:v>
+        <x:v>45417.9076388889</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
         <x:v>6</x:v>
@@ -1176,118 +1206,118 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>10389353</x:v>
+        <x:v>29597549</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A3" s="1">
-        <x:v>45417.9284722222</x:v>
+        <x:v>45417.9145833333</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>80276072</x:v>
+        <x:v>95350918</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A4" s="1">
-        <x:v>45417.9375</x:v>
+        <x:v>45417.9194444444</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
-        <x:v>95466287</x:v>
+        <x:v>83650172</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A5" s="1">
-        <x:v>45417.9430555556</x:v>
+        <x:v>45417.9229166667</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
-        <x:v>75899760</x:v>
+        <x:v>41823611</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A6" s="1">
-        <x:v>45417.9479166667</x:v>
+        <x:v>45417.9256944444</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
-        <x:v>79920980</x:v>
+        <x:v>10389353</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A7" s="1">
-        <x:v>45417.9486111111</x:v>
+        <x:v>45417.9284722222</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>20272573</x:v>
+        <x:v>80276072</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A8" s="1">
-        <x:v>45417.9520833333</x:v>
+        <x:v>45417.9361111111</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
         <x:v>12</x:v>
@@ -1296,18 +1326,18 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
-        <x:v>51235820</x:v>
+        <x:v>95828882</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A9" s="1">
-        <x:v>45417.9555555556</x:v>
+        <x:v>45417.9375</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
         <x:v>12</x:v>
@@ -1316,18 +1346,18 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
-        <x:v>43869042</x:v>
+        <x:v>95466287</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A10" s="1">
-        <x:v>45417.9597222222</x:v>
+        <x:v>45417.9430555556</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
         <x:v>12</x:v>
@@ -1336,118 +1366,118 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
-        <x:v>18996598</x:v>
+        <x:v>75899760</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A11" s="1">
-        <x:v>45417.9638888889</x:v>
+        <x:v>45417.9451388889</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F11" s="0" t="n">
-        <x:v>51685815</x:v>
+        <x:v>64714222</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A12" s="1">
-        <x:v>45417.9652777778</x:v>
+        <x:v>45417.9479166667</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
-        <x:v>42016440</x:v>
+        <x:v>79920980</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A13" s="1">
-        <x:v>45417.9659722222</x:v>
+        <x:v>45417.9486111111</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F13" s="0" t="n">
-        <x:v>49147219</x:v>
+        <x:v>20272573</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A14" s="1">
-        <x:v>45417.9680555556</x:v>
+        <x:v>45417.9520833333</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
-        <x:v>47518687</x:v>
+        <x:v>51235820</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A15" s="1">
-        <x:v>45417.96875</x:v>
+        <x:v>45417.9534722222</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>37130984</x:v>
+        <x:v>76810268</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A16" s="1">
-        <x:v>45417.9708333333</x:v>
+        <x:v>45417.9555555556</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
         <x:v>12</x:v>
@@ -1456,18 +1486,18 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>35497334</x:v>
+        <x:v>43869042</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A17" s="1">
-        <x:v>45417.9722222222</x:v>
+        <x:v>45417.9597222222</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
         <x:v>12</x:v>
@@ -1476,15 +1506,15 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>43668577</x:v>
+        <x:v>18996598</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A18" s="1">
-        <x:v>45417.9743055556</x:v>
+        <x:v>45417.9618055556</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
         <x:v>7</x:v>
@@ -1496,18 +1526,18 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>23172841</x:v>
+        <x:v>73261856</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A19" s="1">
-        <x:v>45417.9770833333</x:v>
+        <x:v>45417.9638888889</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
         <x:v>12</x:v>
@@ -1516,198 +1546,198 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
-        <x:v>77020975</x:v>
+        <x:v>51685815</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A20" s="1">
-        <x:v>45417.9791666667</x:v>
+        <x:v>45417.9652777778</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F20" s="0" t="n">
-        <x:v>58493323</x:v>
+        <x:v>42016440</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A21" s="1">
-        <x:v>45417.98125</x:v>
+        <x:v>45417.9659722222</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E21" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F21" s="0" t="n">
-        <x:v>10734113</x:v>
+        <x:v>49147219</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <x:c r="A22" s="1">
-        <x:v>45417.9826388889</x:v>
+        <x:v>45417.9680555556</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E22" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F22" s="0" t="n">
-        <x:v>30890990</x:v>
+        <x:v>47518687</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:14">
       <x:c r="A23" s="1">
-        <x:v>45417.9847222222</x:v>
+        <x:v>45417.9680555556</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E23" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F23" s="0" t="n">
-        <x:v>72415145</x:v>
+        <x:v>94511350</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:14">
       <x:c r="A24" s="1">
-        <x:v>45417.9854166667</x:v>
+        <x:v>45417.96875</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E24" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F24" s="0" t="n">
-        <x:v>70622792</x:v>
+        <x:v>37130984</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:14">
       <x:c r="A25" s="1">
-        <x:v>45417.9861111111</x:v>
+        <x:v>45417.9708333333</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E25" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F25" s="0" t="n">
-        <x:v>92386611</x:v>
+        <x:v>35497334</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:14">
       <x:c r="A26" s="1">
-        <x:v>45417.9881944444</x:v>
+        <x:v>45417.9722222222</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E26" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
-        <x:v>47936639</x:v>
+        <x:v>43668577</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:14">
       <x:c r="A27" s="1">
-        <x:v>45417.9895833333</x:v>
+        <x:v>45417.9729166667</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E27" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
-        <x:v>87130517</x:v>
+        <x:v>31337203</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:14">
       <x:c r="A28" s="1">
-        <x:v>45417.9923611111</x:v>
+        <x:v>45417.9743055556</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
         <x:v>38</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E28" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F28" s="0" t="n">
-        <x:v>21268147</x:v>
+        <x:v>23172841</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:14">
       <x:c r="A29" s="1">
-        <x:v>45417.99375</x:v>
+        <x:v>45417.9770833333</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
         <x:v>12</x:v>
@@ -1716,38 +1746,38 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F29" s="0" t="n">
-        <x:v>99479268</x:v>
+        <x:v>77020975</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:14">
       <x:c r="A30" s="1">
-        <x:v>45417.9958333333</x:v>
+        <x:v>45417.9791666667</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E30" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F30" s="0" t="n">
-        <x:v>84465016</x:v>
+        <x:v>58493323</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:14">
       <x:c r="A31" s="1">
-        <x:v>45417.9979166667</x:v>
+        <x:v>45417.98125</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D31" s="0" t="s">
         <x:v>12</x:v>
@@ -1756,38 +1786,38 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F31" s="0" t="n">
-        <x:v>25276200</x:v>
+        <x:v>10734113</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:14">
       <x:c r="A32" s="1">
-        <x:v>45418</x:v>
+        <x:v>45417.9826388889</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>42</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E32" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F32" s="0" t="n">
-        <x:v>55144869</x:v>
+        <x:v>30890990</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:14">
       <x:c r="A33" s="1">
-        <x:v>45418.0006944444</x:v>
+        <x:v>45417.9847222222</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>43</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D33" s="0" t="s">
         <x:v>8</x:v>
@@ -1796,78 +1826,78 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
-        <x:v>10990288</x:v>
+        <x:v>72415145</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:14">
       <x:c r="A34" s="1">
-        <x:v>45418.0041666667</x:v>
+        <x:v>45417.9854166667</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>44</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D34" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E34" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F34" s="0" t="n">
-        <x:v>62780801</x:v>
+        <x:v>70622792</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:14">
       <x:c r="A35" s="1">
-        <x:v>45418.0055555556</x:v>
+        <x:v>45417.9861111111</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>45</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D35" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E35" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F35" s="0" t="n">
-        <x:v>70340243</x:v>
+        <x:v>92386611</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:14">
       <x:c r="A36" s="1">
-        <x:v>45418.0069444444</x:v>
+        <x:v>45417.9881944444</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D36" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E36" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
-        <x:v>50657040</x:v>
+        <x:v>47936639</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:14">
       <x:c r="A37" s="1">
-        <x:v>45418.0097222222</x:v>
+        <x:v>45417.9895833333</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>47</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D37" s="0" t="s">
         <x:v>12</x:v>
@@ -1876,112 +1906,112 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
-        <x:v>15461399</x:v>
+        <x:v>87130517</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:14">
       <x:c r="A38" s="1">
-        <x:v>45418.0118055556</x:v>
+        <x:v>45417.9923611111</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>48</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D38" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E38" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
-        <x:v>97545204</x:v>
+        <x:v>21268147</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:14">
       <x:c r="A39" s="1">
-        <x:v>45418.0145833333</x:v>
+        <x:v>45417.99375</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D39" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E39" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F39" s="0" t="n">
-        <x:v>45349550</x:v>
+        <x:v>99479268</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:14">
       <x:c r="A40" s="1">
-        <x:v>45418.0173611111</x:v>
+        <x:v>45417.9958333333</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>50</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D40" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E40" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F40" s="0" t="n">
-        <x:v>34076498</x:v>
+        <x:v>84465016</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:14">
       <x:c r="A41" s="1">
-        <x:v>45418.0201388889</x:v>
+        <x:v>45417.9979166667</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>51</x:v>
       </x:c>
       <x:c r="C41" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D41" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E41" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
-        <x:v>92040698</x:v>
+        <x:v>25276200</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:14">
       <x:c r="A42" s="2">
-        <x:v>45418.0229166667</x:v>
+        <x:v>45418</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>52</x:v>
       </x:c>
       <x:c r="C42" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D42" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E42" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F42" s="0" t="n">
-        <x:v>52744048</x:v>
+        <x:v>55144869</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:14">
       <x:c r="A43" s="1">
-        <x:v>45418.0236111111</x:v>
+        <x:v>45418.0006944444</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>53</x:v>
@@ -1990,18 +2020,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D43" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E43" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F43" s="0" t="n">
-        <x:v>89653477</x:v>
+        <x:v>10990288</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:14">
       <x:c r="A44" s="1">
-        <x:v>45418.0243055556</x:v>
+        <x:v>45418.0041666667</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>54</x:v>
@@ -2010,18 +2040,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D44" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E44" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F44" s="0" t="n">
-        <x:v>80629070</x:v>
+        <x:v>62780801</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:14">
       <x:c r="A45" s="1">
-        <x:v>45418.025</x:v>
+        <x:v>45418.0055555556</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>55</x:v>
@@ -2030,24 +2060,24 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D45" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E45" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F45" s="0" t="n">
-        <x:v>94465009</x:v>
+        <x:v>70340243</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:14">
       <x:c r="A46" s="1">
-        <x:v>45418.0263888889</x:v>
+        <x:v>45418.0069444444</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>56</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D46" s="0" t="s">
         <x:v>8</x:v>
@@ -2056,32 +2086,32 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F46" s="0" t="n">
-        <x:v>37502353</x:v>
+        <x:v>50657040</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:14">
       <x:c r="A47" s="1">
-        <x:v>45418.0284722222</x:v>
+        <x:v>45418.0097222222</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
         <x:v>57</x:v>
       </x:c>
       <x:c r="C47" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D47" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E47" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
-        <x:v>67626671</x:v>
+        <x:v>15461399</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:14">
       <x:c r="A48" s="1">
-        <x:v>45418.0298611111</x:v>
+        <x:v>45418.0118055556</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
         <x:v>58</x:v>
@@ -2090,64 +2120,64 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D48" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E48" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F48" s="0" t="n">
-        <x:v>25175278</x:v>
+        <x:v>97545204</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:14">
       <x:c r="A49" s="1">
-        <x:v>45418.0319444444</x:v>
+        <x:v>45418.0145833333</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
         <x:v>59</x:v>
       </x:c>
       <x:c r="C49" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D49" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E49" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
-        <x:v>54919380</x:v>
+        <x:v>45349550</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:14">
       <x:c r="A50" s="1">
-        <x:v>45418.0333333333</x:v>
+        <x:v>45418.0173611111</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
         <x:v>60</x:v>
       </x:c>
       <x:c r="C50" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D50" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E50" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F50" s="0" t="n">
-        <x:v>48801212</x:v>
+        <x:v>34076498</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:14">
       <x:c r="A51" s="1">
-        <x:v>45418.0347222222</x:v>
+        <x:v>45418.0201388889</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
         <x:v>61</x:v>
       </x:c>
       <x:c r="C51" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D51" s="0" t="s">
         <x:v>8</x:v>
@@ -2156,58 +2186,58 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F51" s="0" t="n">
-        <x:v>42251006</x:v>
+        <x:v>92040698</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:14">
       <x:c r="A52" s="1">
-        <x:v>45418.0347222222</x:v>
+        <x:v>45418.0229166667</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
         <x:v>62</x:v>
       </x:c>
       <x:c r="C52" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D52" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E52" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F52" s="0" t="n">
-        <x:v>46841664</x:v>
+        <x:v>52744048</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:14">
       <x:c r="A53" s="1">
-        <x:v>45418.0368055556</x:v>
+        <x:v>45418.0236111111</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
         <x:v>63</x:v>
       </x:c>
       <x:c r="C53" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D53" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E53" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F53" s="0" t="n">
-        <x:v>49346569</x:v>
+        <x:v>89653477</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:14">
       <x:c r="A54" s="1">
-        <x:v>45418.0388888889</x:v>
+        <x:v>45418.0243055556</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
         <x:v>64</x:v>
       </x:c>
       <x:c r="C54" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D54" s="0" t="s">
         <x:v>8</x:v>
@@ -2216,18 +2246,18 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F54" s="0" t="n">
-        <x:v>74000167</x:v>
+        <x:v>80629070</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:14">
       <x:c r="A55" s="1">
-        <x:v>45418.0416666667</x:v>
+        <x:v>45418.025</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
         <x:v>65</x:v>
       </x:c>
       <x:c r="C55" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D55" s="0" t="s">
         <x:v>8</x:v>
@@ -2236,32 +2266,32 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F55" s="0" t="n">
-        <x:v>39297038</x:v>
+        <x:v>94465009</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:14">
       <x:c r="A56" s="1">
-        <x:v>45418.0444444444</x:v>
+        <x:v>45418.0263888889</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
         <x:v>66</x:v>
       </x:c>
       <x:c r="C56" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D56" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E56" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F56" s="0" t="n">
-        <x:v>90250492</x:v>
+        <x:v>37502353</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:14">
       <x:c r="A57" s="1">
-        <x:v>45418.0465277778</x:v>
+        <x:v>45418.0284722222</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
         <x:v>67</x:v>
@@ -2270,24 +2300,24 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D57" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E57" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F57" s="0" t="n">
-        <x:v>45436512</x:v>
+        <x:v>67626671</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:14">
       <x:c r="A58" s="1">
-        <x:v>45418.0472222222</x:v>
+        <x:v>45418.0298611111</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
         <x:v>68</x:v>
       </x:c>
       <x:c r="C58" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D58" s="0" t="s">
         <x:v>12</x:v>
@@ -2296,12 +2326,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F58" s="0" t="n">
-        <x:v>91746455</x:v>
+        <x:v>25175278</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:14">
       <x:c r="A59" s="1">
-        <x:v>45418.0506944444</x:v>
+        <x:v>45418.0319444444</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
         <x:v>69</x:v>
@@ -2310,58 +2340,58 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D59" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E59" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F59" s="0" t="n">
-        <x:v>90086945</x:v>
+        <x:v>54919380</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:14">
       <x:c r="A60" s="1">
-        <x:v>45418.0527777778</x:v>
+        <x:v>45418.0333333333</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
         <x:v>70</x:v>
       </x:c>
       <x:c r="C60" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D60" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E60" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F60" s="0" t="n">
-        <x:v>31168820</x:v>
+        <x:v>48801212</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:14">
       <x:c r="A61" s="1">
-        <x:v>45418.0534722222</x:v>
+        <x:v>45418.0347222222</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
         <x:v>71</x:v>
       </x:c>
       <x:c r="C61" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D61" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E61" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F61" s="0" t="n">
-        <x:v>23420293</x:v>
+        <x:v>42251006</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:14">
       <x:c r="A62" s="1">
-        <x:v>45418.05625</x:v>
+        <x:v>45418.0347222222</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>72</x:v>
@@ -2370,18 +2400,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D62" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E62" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F62" s="0" t="n">
-        <x:v>28345932</x:v>
+        <x:v>46841664</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:14">
       <x:c r="A63" s="1">
-        <x:v>45418.0583333333</x:v>
+        <x:v>45418.0368055556</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
         <x:v>73</x:v>
@@ -2390,38 +2420,38 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D63" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E63" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F63" s="0" t="n">
-        <x:v>59338978</x:v>
+        <x:v>49346569</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:14">
       <x:c r="A64" s="1">
-        <x:v>45418.0604166667</x:v>
+        <x:v>45418.0388888889</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
         <x:v>74</x:v>
       </x:c>
       <x:c r="C64" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D64" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E64" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F64" s="0" t="n">
-        <x:v>43006939</x:v>
+        <x:v>74000167</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:14">
       <x:c r="A65" s="1">
-        <x:v>45418.0618055556</x:v>
+        <x:v>45418.0416666667</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>75</x:v>
@@ -2430,24 +2460,24 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D65" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E65" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F65" s="0" t="n">
-        <x:v>16253635</x:v>
+        <x:v>39297038</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:14">
       <x:c r="A66" s="1">
-        <x:v>45418.0638888889</x:v>
+        <x:v>45418.0444444444</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
         <x:v>76</x:v>
       </x:c>
       <x:c r="C66" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D66" s="0" t="s">
         <x:v>12</x:v>
@@ -2456,58 +2486,58 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F66" s="0" t="n">
-        <x:v>57173971</x:v>
+        <x:v>90250492</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:14">
       <x:c r="A67" s="1">
-        <x:v>45418.0645833333</x:v>
+        <x:v>45418.0465277778</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
         <x:v>77</x:v>
       </x:c>
       <x:c r="C67" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D67" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E67" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F67" s="0" t="n">
-        <x:v>93036177</x:v>
+        <x:v>45436512</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:14">
       <x:c r="A68" s="1">
-        <x:v>45418.0666666667</x:v>
+        <x:v>45418.0472222222</x:v>
       </x:c>
       <x:c r="B68" s="0" t="s">
         <x:v>78</x:v>
       </x:c>
       <x:c r="C68" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D68" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E68" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F68" s="0" t="n">
-        <x:v>50885281</x:v>
+        <x:v>91746455</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:14">
       <x:c r="A69" s="1">
-        <x:v>45418.0673611111</x:v>
+        <x:v>45418.0506944444</x:v>
       </x:c>
       <x:c r="B69" s="0" t="s">
         <x:v>79</x:v>
       </x:c>
       <x:c r="C69" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D69" s="0" t="s">
         <x:v>8</x:v>
@@ -2516,18 +2546,18 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F69" s="0" t="n">
-        <x:v>61710343</x:v>
+        <x:v>90086945</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:14">
       <x:c r="A70" s="1">
-        <x:v>45418.06875</x:v>
+        <x:v>45418.0527777778</x:v>
       </x:c>
       <x:c r="B70" s="0" t="s">
         <x:v>80</x:v>
       </x:c>
       <x:c r="C70" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D70" s="0" t="s">
         <x:v>8</x:v>
@@ -2536,12 +2566,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F70" s="0" t="n">
-        <x:v>61400524</x:v>
+        <x:v>31168820</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:14">
       <x:c r="A71" s="1">
-        <x:v>45418.0715277778</x:v>
+        <x:v>45418.0534722222</x:v>
       </x:c>
       <x:c r="B71" s="0" t="s">
         <x:v>81</x:v>
@@ -2556,38 +2586,38 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F71" s="0" t="n">
-        <x:v>39175690</x:v>
+        <x:v>23420293</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:14">
       <x:c r="A72" s="1">
-        <x:v>45418.0736111111</x:v>
+        <x:v>45418.05625</x:v>
       </x:c>
       <x:c r="B72" s="0" t="s">
         <x:v>82</x:v>
       </x:c>
       <x:c r="C72" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D72" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E72" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F72" s="0" t="n">
-        <x:v>46685084</x:v>
+        <x:v>28345932</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:14">
       <x:c r="A73" s="1">
-        <x:v>45418.0763888889</x:v>
+        <x:v>45418.0583333333</x:v>
       </x:c>
       <x:c r="B73" s="0" t="s">
         <x:v>83</x:v>
       </x:c>
       <x:c r="C73" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D73" s="0" t="s">
         <x:v>12</x:v>
@@ -2596,38 +2626,38 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F73" s="0" t="n">
-        <x:v>95957014</x:v>
+        <x:v>59338978</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:14">
       <x:c r="A74" s="1">
-        <x:v>45418.0763888889</x:v>
+        <x:v>45418.0604166667</x:v>
       </x:c>
       <x:c r="B74" s="0" t="s">
         <x:v>84</x:v>
       </x:c>
       <x:c r="C74" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D74" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E74" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F74" s="0" t="n">
-        <x:v>76837030</x:v>
+        <x:v>43006939</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:14">
       <x:c r="A75" s="1">
-        <x:v>45418.0777777778</x:v>
+        <x:v>45418.0618055556</x:v>
       </x:c>
       <x:c r="B75" s="0" t="s">
         <x:v>85</x:v>
       </x:c>
       <x:c r="C75" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D75" s="0" t="s">
         <x:v>12</x:v>
@@ -2636,12 +2666,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F75" s="0" t="n">
-        <x:v>46832417</x:v>
+        <x:v>16253635</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:14">
       <x:c r="A76" s="1">
-        <x:v>45418.0805555556</x:v>
+        <x:v>45418.0638888889</x:v>
       </x:c>
       <x:c r="B76" s="0" t="s">
         <x:v>86</x:v>
@@ -2656,18 +2686,18 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F76" s="0" t="n">
-        <x:v>77130877</x:v>
+        <x:v>57173971</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:14">
       <x:c r="A77" s="1">
-        <x:v>45418.08125</x:v>
+        <x:v>45418.0645833333</x:v>
       </x:c>
       <x:c r="B77" s="0" t="s">
         <x:v>87</x:v>
       </x:c>
       <x:c r="C77" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D77" s="0" t="s">
         <x:v>12</x:v>
@@ -2676,32 +2706,32 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F77" s="0" t="n">
-        <x:v>70581907</x:v>
+        <x:v>93036177</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:14">
       <x:c r="A78" s="1">
-        <x:v>45418.0840277778</x:v>
+        <x:v>45418.0666666667</x:v>
       </x:c>
       <x:c r="B78" s="0" t="s">
         <x:v>88</x:v>
       </x:c>
       <x:c r="C78" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D78" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E78" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F78" s="0" t="n">
-        <x:v>12717983</x:v>
+        <x:v>50885281</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:14">
       <x:c r="A79" s="1">
-        <x:v>45418.0847222222</x:v>
+        <x:v>45418.0673611111</x:v>
       </x:c>
       <x:c r="B79" s="0" t="s">
         <x:v>89</x:v>
@@ -2710,118 +2740,118 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D79" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E79" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F79" s="0" t="n">
-        <x:v>70569694</x:v>
+        <x:v>61710343</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:14">
       <x:c r="A80" s="1">
-        <x:v>45418.0875</x:v>
+        <x:v>45418.06875</x:v>
       </x:c>
       <x:c r="B80" s="0" t="s">
         <x:v>90</x:v>
       </x:c>
       <x:c r="C80" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D80" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E80" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F80" s="0" t="n">
-        <x:v>84782703</x:v>
+        <x:v>61400524</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:14">
       <x:c r="A81" s="1">
-        <x:v>45418.0895833333</x:v>
+        <x:v>45418.0715277778</x:v>
       </x:c>
       <x:c r="B81" s="0" t="s">
         <x:v>91</x:v>
       </x:c>
       <x:c r="C81" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D81" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E81" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F81" s="0" t="n">
-        <x:v>33138593</x:v>
+        <x:v>39175690</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:14">
       <x:c r="A82" s="1">
-        <x:v>45418.0923611111</x:v>
+        <x:v>45418.0736111111</x:v>
       </x:c>
       <x:c r="B82" s="0" t="s">
         <x:v>92</x:v>
       </x:c>
       <x:c r="C82" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D82" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E82" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F82" s="0" t="n">
-        <x:v>67772525</x:v>
+        <x:v>46685084</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:14">
       <x:c r="A83" s="1">
-        <x:v>45418.0930555556</x:v>
+        <x:v>45418.0763888889</x:v>
       </x:c>
       <x:c r="B83" s="0" t="s">
         <x:v>93</x:v>
       </x:c>
       <x:c r="C83" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D83" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E83" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F83" s="0" t="n">
-        <x:v>94344798</x:v>
+        <x:v>95957014</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:14">
       <x:c r="A84" s="1">
-        <x:v>45418.0930555556</x:v>
+        <x:v>45418.0763888889</x:v>
       </x:c>
       <x:c r="B84" s="0" t="s">
         <x:v>94</x:v>
       </x:c>
       <x:c r="C84" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D84" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E84" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F84" s="0" t="n">
-        <x:v>77436532</x:v>
+        <x:v>76837030</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:14">
       <x:c r="A85" s="1">
-        <x:v>45418.0965277778</x:v>
+        <x:v>45418.0777777778</x:v>
       </x:c>
       <x:c r="B85" s="0" t="s">
         <x:v>95</x:v>
@@ -2830,38 +2860,38 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D85" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E85" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F85" s="0" t="n">
-        <x:v>85537968</x:v>
+        <x:v>46832417</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:14">
       <x:c r="A86" s="1">
-        <x:v>45418.0993055556</x:v>
+        <x:v>45418.0805555556</x:v>
       </x:c>
       <x:c r="B86" s="0" t="s">
         <x:v>96</x:v>
       </x:c>
       <x:c r="C86" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D86" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E86" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F86" s="0" t="n">
-        <x:v>67432010</x:v>
+        <x:v>77130877</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:14">
       <x:c r="A87" s="1">
-        <x:v>45418.1006944444</x:v>
+        <x:v>45418.08125</x:v>
       </x:c>
       <x:c r="B87" s="0" t="s">
         <x:v>97</x:v>
@@ -2876,12 +2906,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F87" s="0" t="n">
-        <x:v>66099165</x:v>
+        <x:v>70581907</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:14">
       <x:c r="A88" s="1">
-        <x:v>45418.1020833333</x:v>
+        <x:v>45418.0840277778</x:v>
       </x:c>
       <x:c r="B88" s="0" t="s">
         <x:v>98</x:v>
@@ -2890,38 +2920,38 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D88" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E88" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F88" s="0" t="n">
-        <x:v>66053161</x:v>
+        <x:v>12717983</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:14">
       <x:c r="A89" s="1">
-        <x:v>45418.1055555556</x:v>
+        <x:v>45418.0847222222</x:v>
       </x:c>
       <x:c r="B89" s="0" t="s">
         <x:v>99</x:v>
       </x:c>
       <x:c r="C89" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D89" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E89" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F89" s="0" t="n">
-        <x:v>26731814</x:v>
+        <x:v>70569694</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:14">
       <x:c r="A90" s="1">
-        <x:v>45418.1083333333</x:v>
+        <x:v>45418.0875</x:v>
       </x:c>
       <x:c r="B90" s="0" t="s">
         <x:v>100</x:v>
@@ -2936,52 +2966,52 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F90" s="0" t="n">
-        <x:v>51554360</x:v>
+        <x:v>84782703</x:v>
       </x:c>
     </x:row>
     <x:row r="91" spans="1:14">
       <x:c r="A91" s="1">
-        <x:v>45418.1111111111</x:v>
+        <x:v>45418.0895833333</x:v>
       </x:c>
       <x:c r="B91" s="0" t="s">
         <x:v>101</x:v>
       </x:c>
       <x:c r="C91" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D91" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E91" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F91" s="0" t="n">
-        <x:v>34364597</x:v>
+        <x:v>33138593</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:14">
       <x:c r="A92" s="1">
-        <x:v>45418.1145833333</x:v>
+        <x:v>45418.0923611111</x:v>
       </x:c>
       <x:c r="B92" s="0" t="s">
         <x:v>102</x:v>
       </x:c>
       <x:c r="C92" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D92" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E92" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F92" s="0" t="n">
-        <x:v>21930895</x:v>
+        <x:v>67772525</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:14">
       <x:c r="A93" s="1">
-        <x:v>45418.1180555556</x:v>
+        <x:v>45418.0930555556</x:v>
       </x:c>
       <x:c r="B93" s="0" t="s">
         <x:v>103</x:v>
@@ -2990,18 +3020,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D93" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E93" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F93" s="0" t="n">
-        <x:v>33905104</x:v>
+        <x:v>94344798</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:14">
       <x:c r="A94" s="1">
-        <x:v>45418.1194444444</x:v>
+        <x:v>45418.0930555556</x:v>
       </x:c>
       <x:c r="B94" s="0" t="s">
         <x:v>104</x:v>
@@ -3010,144 +3040,144 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D94" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E94" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F94" s="0" t="n">
-        <x:v>70030295</x:v>
+        <x:v>77436532</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="1:14">
       <x:c r="A95" s="1">
-        <x:v>45418.1215277778</x:v>
+        <x:v>45418.0965277778</x:v>
       </x:c>
       <x:c r="B95" s="0" t="s">
         <x:v>105</x:v>
       </x:c>
       <x:c r="C95" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D95" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E95" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F95" s="0" t="n">
-        <x:v>96291852</x:v>
+        <x:v>85537968</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:14">
       <x:c r="A96" s="1">
-        <x:v>45418.1243055556</x:v>
+        <x:v>45418.0993055556</x:v>
       </x:c>
       <x:c r="B96" s="0" t="s">
         <x:v>106</x:v>
       </x:c>
       <x:c r="C96" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D96" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E96" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F96" s="0" t="n">
-        <x:v>14326480</x:v>
+        <x:v>67432010</x:v>
       </x:c>
     </x:row>
     <x:row r="97" spans="1:14">
       <x:c r="A97" s="1">
-        <x:v>45418.1263888889</x:v>
+        <x:v>45418.1006944444</x:v>
       </x:c>
       <x:c r="B97" s="0" t="s">
         <x:v>107</x:v>
       </x:c>
       <x:c r="C97" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D97" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E97" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F97" s="0" t="n">
-        <x:v>58010259</x:v>
+        <x:v>66099165</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:14">
       <x:c r="A98" s="1">
-        <x:v>45418.1284722222</x:v>
+        <x:v>45418.1020833333</x:v>
       </x:c>
       <x:c r="B98" s="0" t="s">
         <x:v>108</x:v>
       </x:c>
       <x:c r="C98" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D98" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E98" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F98" s="0" t="n">
-        <x:v>88958354</x:v>
+        <x:v>66053161</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="1:14">
       <x:c r="A99" s="1">
-        <x:v>45418.1305555556</x:v>
+        <x:v>45418.1055555556</x:v>
       </x:c>
       <x:c r="B99" s="0" t="s">
         <x:v>109</x:v>
       </x:c>
       <x:c r="C99" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D99" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E99" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F99" s="0" t="n">
-        <x:v>70288477</x:v>
+        <x:v>26731814</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="1:14">
       <x:c r="A100" s="1">
-        <x:v>45418.1333333333</x:v>
+        <x:v>45418.1083333333</x:v>
       </x:c>
       <x:c r="B100" s="0" t="s">
         <x:v>110</x:v>
       </x:c>
       <x:c r="C100" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D100" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E100" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F100" s="0" t="n">
-        <x:v>24330105</x:v>
+        <x:v>51554360</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:14">
       <x:c r="A101" s="1">
-        <x:v>45418.1333333333</x:v>
+        <x:v>45418.1111111111</x:v>
       </x:c>
       <x:c r="B101" s="0" t="s">
         <x:v>111</x:v>
       </x:c>
       <x:c r="C101" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D101" s="0" t="s">
         <x:v>8</x:v>
@@ -3156,38 +3186,38 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F101" s="0" t="n">
-        <x:v>56566845</x:v>
+        <x:v>34364597</x:v>
       </x:c>
     </x:row>
     <x:row r="102" spans="1:14">
       <x:c r="A102" s="1">
-        <x:v>45418.1368055556</x:v>
+        <x:v>45418.1145833333</x:v>
       </x:c>
       <x:c r="B102" s="0" t="s">
         <x:v>112</x:v>
       </x:c>
       <x:c r="C102" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D102" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E102" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F102" s="0" t="n">
-        <x:v>95951957</x:v>
+        <x:v>21930895</x:v>
       </x:c>
     </x:row>
     <x:row r="103" spans="1:14">
       <x:c r="A103" s="1">
-        <x:v>45418.1381944444</x:v>
+        <x:v>45418.1180555556</x:v>
       </x:c>
       <x:c r="B103" s="0" t="s">
         <x:v>113</x:v>
       </x:c>
       <x:c r="C103" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D103" s="0" t="s">
         <x:v>12</x:v>
@@ -3196,52 +3226,52 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F103" s="0" t="n">
-        <x:v>10428667</x:v>
+        <x:v>33905104</x:v>
       </x:c>
     </x:row>
     <x:row r="104" spans="1:14">
       <x:c r="A104" s="1">
-        <x:v>45418.1409722222</x:v>
+        <x:v>45418.1194444444</x:v>
       </x:c>
       <x:c r="B104" s="0" t="s">
         <x:v>114</x:v>
       </x:c>
       <x:c r="C104" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D104" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E104" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F104" s="0" t="n">
-        <x:v>98819760</x:v>
+        <x:v>70030295</x:v>
       </x:c>
     </x:row>
     <x:row r="105" spans="1:14">
       <x:c r="A105" s="1">
-        <x:v>45418.1416666667</x:v>
+        <x:v>45418.1215277778</x:v>
       </x:c>
       <x:c r="B105" s="0" t="s">
         <x:v>115</x:v>
       </x:c>
       <x:c r="C105" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D105" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E105" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F105" s="0" t="n">
-        <x:v>91816476</x:v>
+        <x:v>96291852</x:v>
       </x:c>
     </x:row>
     <x:row r="106" spans="1:14">
       <x:c r="A106" s="1">
-        <x:v>45418.1423611111</x:v>
+        <x:v>45418.1243055556</x:v>
       </x:c>
       <x:c r="B106" s="0" t="s">
         <x:v>116</x:v>
@@ -3250,38 +3280,38 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D106" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E106" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F106" s="0" t="n">
-        <x:v>45994672</x:v>
+        <x:v>14326480</x:v>
       </x:c>
     </x:row>
     <x:row r="107" spans="1:14">
       <x:c r="A107" s="1">
-        <x:v>45418.1444444444</x:v>
+        <x:v>45418.1263888889</x:v>
       </x:c>
       <x:c r="B107" s="0" t="s">
         <x:v>117</x:v>
       </x:c>
       <x:c r="C107" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D107" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E107" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F107" s="0" t="n">
-        <x:v>78104274</x:v>
+        <x:v>58010259</x:v>
       </x:c>
     </x:row>
     <x:row r="108" spans="1:14">
       <x:c r="A108" s="1">
-        <x:v>45418.1465277778</x:v>
+        <x:v>45418.1284722222</x:v>
       </x:c>
       <x:c r="B108" s="0" t="s">
         <x:v>118</x:v>
@@ -3290,138 +3320,138 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D108" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E108" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F108" s="0" t="n">
-        <x:v>38407318</x:v>
+        <x:v>88958354</x:v>
       </x:c>
     </x:row>
     <x:row r="109" spans="1:14">
       <x:c r="A109" s="1">
-        <x:v>45418.1493055556</x:v>
+        <x:v>45418.1305555556</x:v>
       </x:c>
       <x:c r="B109" s="0" t="s">
         <x:v>119</x:v>
       </x:c>
       <x:c r="C109" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D109" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E109" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F109" s="0" t="n">
-        <x:v>48566742</x:v>
+        <x:v>70288477</x:v>
       </x:c>
     </x:row>
     <x:row r="110" spans="1:14">
       <x:c r="A110" s="1">
-        <x:v>45418.1506944444</x:v>
+        <x:v>45418.1333333333</x:v>
       </x:c>
       <x:c r="B110" s="0" t="s">
         <x:v>120</x:v>
       </x:c>
       <x:c r="C110" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D110" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E110" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F110" s="0" t="n">
-        <x:v>30832031</x:v>
+        <x:v>24330105</x:v>
       </x:c>
     </x:row>
     <x:row r="111" spans="1:14">
       <x:c r="A111" s="1">
-        <x:v>45418.1541666667</x:v>
+        <x:v>45418.1333333333</x:v>
       </x:c>
       <x:c r="B111" s="0" t="s">
         <x:v>121</x:v>
       </x:c>
       <x:c r="C111" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D111" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E111" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F111" s="0" t="n">
-        <x:v>52814396</x:v>
+        <x:v>56566845</x:v>
       </x:c>
     </x:row>
     <x:row r="112" spans="1:14">
       <x:c r="A112" s="1">
-        <x:v>45418.15625</x:v>
+        <x:v>45418.1368055556</x:v>
       </x:c>
       <x:c r="B112" s="0" t="s">
         <x:v>122</x:v>
       </x:c>
       <x:c r="C112" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D112" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E112" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F112" s="0" t="n">
-        <x:v>59642140</x:v>
+        <x:v>95951957</x:v>
       </x:c>
     </x:row>
     <x:row r="113" spans="1:14">
       <x:c r="A113" s="1">
-        <x:v>45418.1590277778</x:v>
+        <x:v>45418.1381944444</x:v>
       </x:c>
       <x:c r="B113" s="0" t="s">
         <x:v>123</x:v>
       </x:c>
       <x:c r="C113" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D113" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E113" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F113" s="0" t="n">
-        <x:v>58733626</x:v>
+        <x:v>10428667</x:v>
       </x:c>
     </x:row>
     <x:row r="114" spans="1:14">
       <x:c r="A114" s="1">
-        <x:v>45418.1618055556</x:v>
+        <x:v>45418.1409722222</x:v>
       </x:c>
       <x:c r="B114" s="0" t="s">
         <x:v>124</x:v>
       </x:c>
       <x:c r="C114" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D114" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E114" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F114" s="0" t="n">
-        <x:v>84835830</x:v>
+        <x:v>98819760</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:14">
       <x:c r="A115" s="1">
-        <x:v>45418.1638888889</x:v>
+        <x:v>45418.1416666667</x:v>
       </x:c>
       <x:c r="B115" s="0" t="s">
         <x:v>125</x:v>
@@ -3436,58 +3466,58 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F115" s="0" t="n">
-        <x:v>82127022</x:v>
+        <x:v>91816476</x:v>
       </x:c>
     </x:row>
     <x:row r="116" spans="1:14">
       <x:c r="A116" s="1">
-        <x:v>45418.1645833333</x:v>
+        <x:v>45418.1423611111</x:v>
       </x:c>
       <x:c r="B116" s="0" t="s">
         <x:v>126</x:v>
       </x:c>
       <x:c r="C116" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D116" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E116" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F116" s="0" t="n">
-        <x:v>10048868</x:v>
+        <x:v>45994672</x:v>
       </x:c>
     </x:row>
     <x:row r="117" spans="1:14">
       <x:c r="A117" s="1">
-        <x:v>45418.1666666667</x:v>
+        <x:v>45418.1444444444</x:v>
       </x:c>
       <x:c r="B117" s="0" t="s">
         <x:v>127</x:v>
       </x:c>
       <x:c r="C117" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D117" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E117" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F117" s="0" t="n">
-        <x:v>47740838</x:v>
+        <x:v>78104274</x:v>
       </x:c>
     </x:row>
     <x:row r="118" spans="1:14">
       <x:c r="A118" s="1">
-        <x:v>45418.1694444444</x:v>
+        <x:v>45418.1465277778</x:v>
       </x:c>
       <x:c r="B118" s="0" t="s">
         <x:v>128</x:v>
       </x:c>
       <x:c r="C118" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D118" s="0" t="s">
         <x:v>12</x:v>
@@ -3496,32 +3526,32 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F118" s="0" t="n">
-        <x:v>16509642</x:v>
+        <x:v>38407318</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:14">
       <x:c r="A119" s="1">
-        <x:v>45418.1708333333</x:v>
+        <x:v>45418.1493055556</x:v>
       </x:c>
       <x:c r="B119" s="0" t="s">
         <x:v>129</x:v>
       </x:c>
       <x:c r="C119" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D119" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E119" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F119" s="0" t="n">
-        <x:v>83459193</x:v>
+        <x:v>48566742</x:v>
       </x:c>
     </x:row>
     <x:row r="120" spans="1:14">
       <x:c r="A120" s="1">
-        <x:v>45418.1722222222</x:v>
+        <x:v>45418.1506944444</x:v>
       </x:c>
       <x:c r="B120" s="0" t="s">
         <x:v>130</x:v>
@@ -3530,44 +3560,44 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D120" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E120" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F120" s="0" t="n">
-        <x:v>81577080</x:v>
+        <x:v>30832031</x:v>
       </x:c>
     </x:row>
     <x:row r="121" spans="1:14">
       <x:c r="A121" s="1">
-        <x:v>45418.1736111111</x:v>
+        <x:v>45418.1541666667</x:v>
       </x:c>
       <x:c r="B121" s="0" t="s">
         <x:v>131</x:v>
       </x:c>
       <x:c r="C121" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D121" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E121" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F121" s="0" t="n">
-        <x:v>45703844</x:v>
+        <x:v>52814396</x:v>
       </x:c>
     </x:row>
     <x:row r="122" spans="1:14">
       <x:c r="A122" s="1">
-        <x:v>45418.175</x:v>
+        <x:v>45418.15625</x:v>
       </x:c>
       <x:c r="B122" s="0" t="s">
         <x:v>132</x:v>
       </x:c>
       <x:c r="C122" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D122" s="0" t="s">
         <x:v>12</x:v>
@@ -3576,78 +3606,78 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F122" s="0" t="n">
-        <x:v>11713264</x:v>
+        <x:v>59642140</x:v>
       </x:c>
     </x:row>
     <x:row r="123" spans="1:14">
       <x:c r="A123" s="1">
-        <x:v>45418.1756944444</x:v>
+        <x:v>45418.1590277778</x:v>
       </x:c>
       <x:c r="B123" s="0" t="s">
         <x:v>133</x:v>
       </x:c>
       <x:c r="C123" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D123" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E123" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F123" s="0" t="n">
-        <x:v>69587729</x:v>
+        <x:v>58733626</x:v>
       </x:c>
     </x:row>
     <x:row r="124" spans="1:14">
       <x:c r="A124" s="1">
-        <x:v>45418.1763888889</x:v>
+        <x:v>45418.1618055556</x:v>
       </x:c>
       <x:c r="B124" s="0" t="s">
         <x:v>134</x:v>
       </x:c>
       <x:c r="C124" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D124" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E124" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F124" s="0" t="n">
-        <x:v>67430415</x:v>
+        <x:v>84835830</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:14">
       <x:c r="A125" s="1">
-        <x:v>45418.1791666667</x:v>
+        <x:v>45418.1638888889</x:v>
       </x:c>
       <x:c r="B125" s="0" t="s">
         <x:v>135</x:v>
       </x:c>
       <x:c r="C125" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D125" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E125" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F125" s="0" t="n">
-        <x:v>10637388</x:v>
+        <x:v>82127022</x:v>
       </x:c>
     </x:row>
     <x:row r="126" spans="1:14">
       <x:c r="A126" s="1">
-        <x:v>45418.1798611111</x:v>
+        <x:v>45418.1645833333</x:v>
       </x:c>
       <x:c r="B126" s="0" t="s">
         <x:v>136</x:v>
       </x:c>
       <x:c r="C126" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D126" s="0" t="s">
         <x:v>12</x:v>
@@ -3656,52 +3686,52 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F126" s="0" t="n">
-        <x:v>54315890</x:v>
+        <x:v>10048868</x:v>
       </x:c>
     </x:row>
     <x:row r="127" spans="1:14">
       <x:c r="A127" s="1">
-        <x:v>45418.1826388889</x:v>
+        <x:v>45418.1666666667</x:v>
       </x:c>
       <x:c r="B127" s="0" t="s">
         <x:v>137</x:v>
       </x:c>
       <x:c r="C127" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D127" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E127" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F127" s="0" t="n">
-        <x:v>56749466</x:v>
+        <x:v>47740838</x:v>
       </x:c>
     </x:row>
     <x:row r="128" spans="1:14">
       <x:c r="A128" s="1">
-        <x:v>45418.1847222222</x:v>
+        <x:v>45418.1694444444</x:v>
       </x:c>
       <x:c r="B128" s="0" t="s">
         <x:v>138</x:v>
       </x:c>
       <x:c r="C128" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D128" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E128" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F128" s="0" t="n">
-        <x:v>64522412</x:v>
+        <x:v>16509642</x:v>
       </x:c>
     </x:row>
     <x:row r="129" spans="1:14">
       <x:c r="A129" s="1">
-        <x:v>45418.1861111111</x:v>
+        <x:v>45418.1708333333</x:v>
       </x:c>
       <x:c r="B129" s="0" t="s">
         <x:v>139</x:v>
@@ -3716,52 +3746,52 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F129" s="0" t="n">
-        <x:v>15220599</x:v>
+        <x:v>83459193</x:v>
       </x:c>
     </x:row>
     <x:row r="130" spans="1:14">
       <x:c r="A130" s="1">
-        <x:v>45418.1881944444</x:v>
+        <x:v>45418.1722222222</x:v>
       </x:c>
       <x:c r="B130" s="0" t="s">
         <x:v>140</x:v>
       </x:c>
       <x:c r="C130" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D130" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E130" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F130" s="0" t="n">
-        <x:v>74865690</x:v>
+        <x:v>81577080</x:v>
       </x:c>
     </x:row>
     <x:row r="131" spans="1:14">
       <x:c r="A131" s="1">
-        <x:v>45418.1895833333</x:v>
+        <x:v>45418.1736111111</x:v>
       </x:c>
       <x:c r="B131" s="0" t="s">
         <x:v>141</x:v>
       </x:c>
       <x:c r="C131" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D131" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E131" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F131" s="0" t="n">
-        <x:v>72860080</x:v>
+        <x:v>45703844</x:v>
       </x:c>
     </x:row>
     <x:row r="132" spans="1:14">
       <x:c r="A132" s="1">
-        <x:v>45418.1916666667</x:v>
+        <x:v>45418.175</x:v>
       </x:c>
       <x:c r="B132" s="0" t="s">
         <x:v>142</x:v>
@@ -3770,18 +3800,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D132" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E132" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F132" s="0" t="n">
-        <x:v>29167681</x:v>
+        <x:v>11713264</x:v>
       </x:c>
     </x:row>
     <x:row r="133" spans="1:14">
       <x:c r="A133" s="1">
-        <x:v>45418.1930555556</x:v>
+        <x:v>45418.1756944444</x:v>
       </x:c>
       <x:c r="B133" s="0" t="s">
         <x:v>143</x:v>
@@ -3790,24 +3820,24 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D133" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E133" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F133" s="0" t="n">
-        <x:v>87008694</x:v>
+        <x:v>69587729</x:v>
       </x:c>
     </x:row>
     <x:row r="134" spans="1:14">
       <x:c r="A134" s="1">
-        <x:v>45418.1944444444</x:v>
+        <x:v>45418.1763888889</x:v>
       </x:c>
       <x:c r="B134" s="0" t="s">
         <x:v>144</x:v>
       </x:c>
       <x:c r="C134" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D134" s="0" t="s">
         <x:v>12</x:v>
@@ -3816,32 +3846,32 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F134" s="0" t="n">
-        <x:v>34166513</x:v>
+        <x:v>67430415</x:v>
       </x:c>
     </x:row>
     <x:row r="135" spans="1:14">
       <x:c r="A135" s="1">
-        <x:v>45418.1979166667</x:v>
+        <x:v>45418.1791666667</x:v>
       </x:c>
       <x:c r="B135" s="0" t="s">
         <x:v>145</x:v>
       </x:c>
       <x:c r="C135" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D135" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E135" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F135" s="0" t="n">
-        <x:v>97220671</x:v>
+        <x:v>10637388</x:v>
       </x:c>
     </x:row>
     <x:row r="136" spans="1:14">
       <x:c r="A136" s="1">
-        <x:v>45418.2006944444</x:v>
+        <x:v>45418.1798611111</x:v>
       </x:c>
       <x:c r="B136" s="0" t="s">
         <x:v>146</x:v>
@@ -3850,104 +3880,104 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D136" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E136" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F136" s="0" t="n">
-        <x:v>92169949</x:v>
+        <x:v>54315890</x:v>
       </x:c>
     </x:row>
     <x:row r="137" spans="1:14">
       <x:c r="A137" s="1">
-        <x:v>45418.2020833333</x:v>
+        <x:v>45418.1826388889</x:v>
       </x:c>
       <x:c r="B137" s="0" t="s">
         <x:v>147</x:v>
       </x:c>
       <x:c r="C137" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D137" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E137" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F137" s="0" t="n">
-        <x:v>89791560</x:v>
+        <x:v>56749466</x:v>
       </x:c>
     </x:row>
     <x:row r="138" spans="1:14">
       <x:c r="A138" s="1">
-        <x:v>45418.2027777778</x:v>
+        <x:v>45418.1847222222</x:v>
       </x:c>
       <x:c r="B138" s="0" t="s">
         <x:v>148</x:v>
       </x:c>
       <x:c r="C138" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D138" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E138" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F138" s="0" t="n">
-        <x:v>37363478</x:v>
+        <x:v>64522412</x:v>
       </x:c>
     </x:row>
     <x:row r="139" spans="1:14">
       <x:c r="A139" s="1">
-        <x:v>45418.2048611111</x:v>
+        <x:v>45418.1861111111</x:v>
       </x:c>
       <x:c r="B139" s="0" t="s">
         <x:v>149</x:v>
       </x:c>
       <x:c r="C139" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D139" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E139" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F139" s="0" t="n">
-        <x:v>57112826</x:v>
+        <x:v>15220599</x:v>
       </x:c>
     </x:row>
     <x:row r="140" spans="1:14">
       <x:c r="A140" s="1">
-        <x:v>45418.2069444444</x:v>
+        <x:v>45418.1881944444</x:v>
       </x:c>
       <x:c r="B140" s="0" t="s">
         <x:v>150</x:v>
       </x:c>
       <x:c r="C140" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D140" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E140" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F140" s="0" t="n">
-        <x:v>51435636</x:v>
+        <x:v>74865690</x:v>
       </x:c>
     </x:row>
     <x:row r="141" spans="1:14">
       <x:c r="A141" s="1">
-        <x:v>45418.2104166667</x:v>
+        <x:v>45418.1895833333</x:v>
       </x:c>
       <x:c r="B141" s="0" t="s">
         <x:v>151</x:v>
       </x:c>
       <x:c r="C141" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D141" s="0" t="s">
         <x:v>12</x:v>
@@ -3956,52 +3986,52 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F141" s="0" t="n">
-        <x:v>80018979</x:v>
+        <x:v>72860080</x:v>
       </x:c>
     </x:row>
     <x:row r="142" spans="1:14">
       <x:c r="A142" s="1">
-        <x:v>45418.2125</x:v>
+        <x:v>45418.1916666667</x:v>
       </x:c>
       <x:c r="B142" s="0" t="s">
         <x:v>152</x:v>
       </x:c>
       <x:c r="C142" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D142" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E142" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F142" s="0" t="n">
-        <x:v>90469641</x:v>
+        <x:v>29167681</x:v>
       </x:c>
     </x:row>
     <x:row r="143" spans="1:14">
       <x:c r="A143" s="1">
-        <x:v>45418.2131944444</x:v>
+        <x:v>45418.1930555556</x:v>
       </x:c>
       <x:c r="B143" s="0" t="s">
         <x:v>153</x:v>
       </x:c>
       <x:c r="C143" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D143" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E143" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F143" s="0" t="n">
-        <x:v>28351360</x:v>
+        <x:v>87008694</x:v>
       </x:c>
     </x:row>
     <x:row r="144" spans="1:14">
       <x:c r="A144" s="1">
-        <x:v>45418.2152777778</x:v>
+        <x:v>45418.1944444444</x:v>
       </x:c>
       <x:c r="B144" s="0" t="s">
         <x:v>154</x:v>
@@ -4010,18 +4040,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D144" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E144" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F144" s="0" t="n">
-        <x:v>13523149</x:v>
+        <x:v>34166513</x:v>
       </x:c>
     </x:row>
     <x:row r="145" spans="1:14">
       <x:c r="A145" s="1">
-        <x:v>45418.2173611111</x:v>
+        <x:v>45418.1979166667</x:v>
       </x:c>
       <x:c r="B145" s="0" t="s">
         <x:v>155</x:v>
@@ -4030,78 +4060,78 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D145" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E145" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F145" s="0" t="n">
-        <x:v>11614637</x:v>
+        <x:v>97220671</x:v>
       </x:c>
     </x:row>
     <x:row r="146" spans="1:14">
       <x:c r="A146" s="1">
-        <x:v>45418.2180555556</x:v>
+        <x:v>45418.2006944444</x:v>
       </x:c>
       <x:c r="B146" s="0" t="s">
         <x:v>156</x:v>
       </x:c>
       <x:c r="C146" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D146" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E146" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F146" s="0" t="n">
-        <x:v>76468184</x:v>
+        <x:v>92169949</x:v>
       </x:c>
     </x:row>
     <x:row r="147" spans="1:14">
       <x:c r="A147" s="1">
-        <x:v>45418.2194444444</x:v>
+        <x:v>45418.2020833333</x:v>
       </x:c>
       <x:c r="B147" s="0" t="s">
         <x:v>157</x:v>
       </x:c>
       <x:c r="C147" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D147" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E147" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F147" s="0" t="n">
-        <x:v>81297455</x:v>
+        <x:v>89791560</x:v>
       </x:c>
     </x:row>
     <x:row r="148" spans="1:14">
       <x:c r="A148" s="1">
-        <x:v>45418.2222222222</x:v>
+        <x:v>45418.2027777778</x:v>
       </x:c>
       <x:c r="B148" s="0" t="s">
         <x:v>158</x:v>
       </x:c>
       <x:c r="C148" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D148" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E148" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F148" s="0" t="n">
-        <x:v>10067834</x:v>
+        <x:v>37363478</x:v>
       </x:c>
     </x:row>
     <x:row r="149" spans="1:14">
       <x:c r="A149" s="1">
-        <x:v>45418.2243055556</x:v>
+        <x:v>45418.2048611111</x:v>
       </x:c>
       <x:c r="B149" s="0" t="s">
         <x:v>159</x:v>
@@ -4110,38 +4140,38 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D149" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E149" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F149" s="0" t="n">
-        <x:v>93286797</x:v>
+        <x:v>57112826</x:v>
       </x:c>
     </x:row>
     <x:row r="150" spans="1:14">
       <x:c r="A150" s="1">
-        <x:v>45418.225</x:v>
+        <x:v>45418.2069444444</x:v>
       </x:c>
       <x:c r="B150" s="0" t="s">
         <x:v>160</x:v>
       </x:c>
       <x:c r="C150" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D150" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E150" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F150" s="0" t="n">
-        <x:v>63934467</x:v>
+        <x:v>51435636</x:v>
       </x:c>
     </x:row>
     <x:row r="151" spans="1:14">
       <x:c r="A151" s="1">
-        <x:v>45418.2263888889</x:v>
+        <x:v>45418.2104166667</x:v>
       </x:c>
       <x:c r="B151" s="0" t="s">
         <x:v>161</x:v>
@@ -4156,98 +4186,98 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F151" s="0" t="n">
-        <x:v>45724011</x:v>
+        <x:v>80018979</x:v>
       </x:c>
     </x:row>
     <x:row r="152" spans="1:14">
       <x:c r="A152" s="1">
-        <x:v>45418.2270833333</x:v>
+        <x:v>45418.2125</x:v>
       </x:c>
       <x:c r="B152" s="0" t="s">
         <x:v>162</x:v>
       </x:c>
       <x:c r="C152" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D152" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E152" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F152" s="0" t="n">
-        <x:v>23953863</x:v>
+        <x:v>90469641</x:v>
       </x:c>
     </x:row>
     <x:row r="153" spans="1:14">
       <x:c r="A153" s="1">
-        <x:v>45418.2270833333</x:v>
+        <x:v>45418.2131944444</x:v>
       </x:c>
       <x:c r="B153" s="0" t="s">
         <x:v>163</x:v>
       </x:c>
       <x:c r="C153" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D153" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E153" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F153" s="0" t="n">
-        <x:v>78782052</x:v>
+        <x:v>28351360</x:v>
       </x:c>
     </x:row>
     <x:row r="154" spans="1:14">
       <x:c r="A154" s="1">
-        <x:v>45418.2284722222</x:v>
+        <x:v>45418.2152777778</x:v>
       </x:c>
       <x:c r="B154" s="0" t="s">
         <x:v>164</x:v>
       </x:c>
       <x:c r="C154" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D154" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E154" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F154" s="0" t="n">
-        <x:v>28827175</x:v>
+        <x:v>13523149</x:v>
       </x:c>
     </x:row>
     <x:row r="155" spans="1:14">
       <x:c r="A155" s="1">
-        <x:v>45418.23125</x:v>
+        <x:v>45418.2173611111</x:v>
       </x:c>
       <x:c r="B155" s="0" t="s">
         <x:v>165</x:v>
       </x:c>
       <x:c r="C155" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D155" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E155" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F155" s="0" t="n">
-        <x:v>52186430</x:v>
+        <x:v>11614637</x:v>
       </x:c>
     </x:row>
     <x:row r="156" spans="1:14">
       <x:c r="A156" s="1">
-        <x:v>45418.2333333333</x:v>
+        <x:v>45418.2180555556</x:v>
       </x:c>
       <x:c r="B156" s="0" t="s">
         <x:v>166</x:v>
       </x:c>
       <x:c r="C156" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D156" s="0" t="s">
         <x:v>12</x:v>
@@ -4256,12 +4286,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F156" s="0" t="n">
-        <x:v>82878653</x:v>
+        <x:v>76468184</x:v>
       </x:c>
     </x:row>
     <x:row r="157" spans="1:14">
       <x:c r="A157" s="1">
-        <x:v>45418.2340277778</x:v>
+        <x:v>45418.2194444444</x:v>
       </x:c>
       <x:c r="B157" s="0" t="s">
         <x:v>167</x:v>
@@ -4276,52 +4306,52 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F157" s="0" t="n">
-        <x:v>67616121</x:v>
+        <x:v>81297455</x:v>
       </x:c>
     </x:row>
     <x:row r="158" spans="1:14">
       <x:c r="A158" s="1">
-        <x:v>45418.2354166667</x:v>
+        <x:v>45418.2222222222</x:v>
       </x:c>
       <x:c r="B158" s="0" t="s">
         <x:v>168</x:v>
       </x:c>
       <x:c r="C158" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D158" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E158" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F158" s="0" t="n">
-        <x:v>98448265</x:v>
+        <x:v>10067834</x:v>
       </x:c>
     </x:row>
     <x:row r="159" spans="1:14">
       <x:c r="A159" s="1">
-        <x:v>45418.2381944444</x:v>
+        <x:v>45418.2243055556</x:v>
       </x:c>
       <x:c r="B159" s="0" t="s">
         <x:v>169</x:v>
       </x:c>
       <x:c r="C159" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D159" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E159" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F159" s="0" t="n">
-        <x:v>92430107</x:v>
+        <x:v>93286797</x:v>
       </x:c>
     </x:row>
     <x:row r="160" spans="1:14">
       <x:c r="A160" s="1">
-        <x:v>45418.2395833333</x:v>
+        <x:v>45418.225</x:v>
       </x:c>
       <x:c r="B160" s="0" t="s">
         <x:v>170</x:v>
@@ -4330,24 +4360,24 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D160" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E160" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F160" s="0" t="n">
-        <x:v>64604465</x:v>
+        <x:v>63934467</x:v>
       </x:c>
     </x:row>
     <x:row r="161" spans="1:14">
       <x:c r="A161" s="1">
-        <x:v>45418.2402777778</x:v>
+        <x:v>45418.2263888889</x:v>
       </x:c>
       <x:c r="B161" s="0" t="s">
         <x:v>171</x:v>
       </x:c>
       <x:c r="C161" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D161" s="0" t="s">
         <x:v>12</x:v>
@@ -4356,32 +4386,32 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F161" s="0" t="n">
-        <x:v>84974385</x:v>
+        <x:v>45724011</x:v>
       </x:c>
     </x:row>
     <x:row r="162" spans="1:14">
       <x:c r="A162" s="1">
-        <x:v>45418.2402777778</x:v>
+        <x:v>45418.2270833333</x:v>
       </x:c>
       <x:c r="B162" s="0" t="s">
         <x:v>172</x:v>
       </x:c>
       <x:c r="C162" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D162" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E162" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F162" s="0" t="n">
-        <x:v>73222964</x:v>
+        <x:v>23953863</x:v>
       </x:c>
     </x:row>
     <x:row r="163" spans="1:14">
       <x:c r="A163" s="1">
-        <x:v>45418.2409722222</x:v>
+        <x:v>45418.2270833333</x:v>
       </x:c>
       <x:c r="B163" s="0" t="s">
         <x:v>173</x:v>
@@ -4390,24 +4420,24 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D163" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E163" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F163" s="0" t="n">
-        <x:v>35417724</x:v>
+        <x:v>78782052</x:v>
       </x:c>
     </x:row>
     <x:row r="164" spans="1:14">
       <x:c r="A164" s="1">
-        <x:v>45418.2444444444</x:v>
+        <x:v>45418.2284722222</x:v>
       </x:c>
       <x:c r="B164" s="0" t="s">
         <x:v>174</x:v>
       </x:c>
       <x:c r="C164" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D164" s="0" t="s">
         <x:v>12</x:v>
@@ -4416,192 +4446,192 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F164" s="0" t="n">
-        <x:v>47898636</x:v>
+        <x:v>28827175</x:v>
       </x:c>
     </x:row>
     <x:row r="165" spans="1:14">
       <x:c r="A165" s="1">
-        <x:v>45418.2458333333</x:v>
+        <x:v>45418.23125</x:v>
       </x:c>
       <x:c r="B165" s="0" t="s">
         <x:v>175</x:v>
       </x:c>
       <x:c r="C165" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D165" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E165" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F165" s="0" t="n">
-        <x:v>88866622</x:v>
+        <x:v>52186430</x:v>
       </x:c>
     </x:row>
     <x:row r="166" spans="1:14">
       <x:c r="A166" s="1">
-        <x:v>45418.2472222222</x:v>
+        <x:v>45418.2333333333</x:v>
       </x:c>
       <x:c r="B166" s="0" t="s">
         <x:v>176</x:v>
       </x:c>
       <x:c r="C166" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D166" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E166" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F166" s="0" t="n">
-        <x:v>46055816</x:v>
+        <x:v>82878653</x:v>
       </x:c>
     </x:row>
     <x:row r="167" spans="1:14">
       <x:c r="A167" s="1">
-        <x:v>45418.2493055556</x:v>
+        <x:v>45418.2340277778</x:v>
       </x:c>
       <x:c r="B167" s="0" t="s">
         <x:v>177</x:v>
       </x:c>
       <x:c r="C167" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D167" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E167" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F167" s="0" t="n">
-        <x:v>80522682</x:v>
+        <x:v>67616121</x:v>
       </x:c>
     </x:row>
     <x:row r="168" spans="1:14">
       <x:c r="A168" s="1">
-        <x:v>45418.2493055556</x:v>
+        <x:v>45418.2354166667</x:v>
       </x:c>
       <x:c r="B168" s="0" t="s">
         <x:v>178</x:v>
       </x:c>
       <x:c r="C168" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D168" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E168" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F168" s="0" t="n">
-        <x:v>41326641</x:v>
+        <x:v>98448265</x:v>
       </x:c>
     </x:row>
     <x:row r="169" spans="1:14">
       <x:c r="A169" s="1">
-        <x:v>45418.2506944444</x:v>
+        <x:v>45418.2381944444</x:v>
       </x:c>
       <x:c r="B169" s="0" t="s">
         <x:v>179</x:v>
       </x:c>
       <x:c r="C169" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D169" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E169" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F169" s="0" t="n">
-        <x:v>91493800</x:v>
+        <x:v>92430107</x:v>
       </x:c>
     </x:row>
     <x:row r="170" spans="1:14">
       <x:c r="A170" s="1">
-        <x:v>45418.2513888889</x:v>
+        <x:v>45418.2395833333</x:v>
       </x:c>
       <x:c r="B170" s="0" t="s">
         <x:v>180</x:v>
       </x:c>
       <x:c r="C170" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D170" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E170" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F170" s="0" t="n">
-        <x:v>88265359</x:v>
+        <x:v>64604465</x:v>
       </x:c>
     </x:row>
     <x:row r="171" spans="1:14">
       <x:c r="A171" s="1">
-        <x:v>45418.2527777778</x:v>
+        <x:v>45418.2402777778</x:v>
       </x:c>
       <x:c r="B171" s="0" t="s">
         <x:v>181</x:v>
       </x:c>
       <x:c r="C171" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D171" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E171" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F171" s="0" t="n">
-        <x:v>14116377</x:v>
+        <x:v>84974385</x:v>
       </x:c>
     </x:row>
     <x:row r="172" spans="1:14">
       <x:c r="A172" s="1">
-        <x:v>45418.2534722222</x:v>
+        <x:v>45418.2402777778</x:v>
       </x:c>
       <x:c r="B172" s="0" t="s">
         <x:v>182</x:v>
       </x:c>
       <x:c r="C172" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D172" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E172" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F172" s="0" t="n">
-        <x:v>61196937</x:v>
+        <x:v>73222964</x:v>
       </x:c>
     </x:row>
     <x:row r="173" spans="1:14">
       <x:c r="A173" s="1">
-        <x:v>45418.2555555556</x:v>
+        <x:v>45418.2409722222</x:v>
       </x:c>
       <x:c r="B173" s="0" t="s">
         <x:v>183</x:v>
       </x:c>
       <x:c r="C173" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D173" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E173" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F173" s="0" t="n">
-        <x:v>81496798</x:v>
+        <x:v>35417724</x:v>
       </x:c>
     </x:row>
     <x:row r="174" spans="1:14">
       <x:c r="A174" s="1">
-        <x:v>45418.25625</x:v>
+        <x:v>45418.2444444444</x:v>
       </x:c>
       <x:c r="B174" s="0" t="s">
         <x:v>184</x:v>
@@ -4610,38 +4640,38 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D174" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E174" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F174" s="0" t="n">
-        <x:v>73634687</x:v>
+        <x:v>47898636</x:v>
       </x:c>
     </x:row>
     <x:row r="175" spans="1:14">
       <x:c r="A175" s="1">
-        <x:v>45418.2576388889</x:v>
+        <x:v>45418.2458333333</x:v>
       </x:c>
       <x:c r="B175" s="0" t="s">
         <x:v>185</x:v>
       </x:c>
       <x:c r="C175" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D175" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E175" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F175" s="0" t="n">
-        <x:v>69377633</x:v>
+        <x:v>88866622</x:v>
       </x:c>
     </x:row>
     <x:row r="176" spans="1:14">
       <x:c r="A176" s="1">
-        <x:v>45418.2611111111</x:v>
+        <x:v>45418.2472222222</x:v>
       </x:c>
       <x:c r="B176" s="0" t="s">
         <x:v>186</x:v>
@@ -4650,58 +4680,58 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D176" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E176" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F176" s="0" t="n">
-        <x:v>34362899</x:v>
+        <x:v>46055816</x:v>
       </x:c>
     </x:row>
     <x:row r="177" spans="1:14">
       <x:c r="A177" s="1">
-        <x:v>45418.2625</x:v>
+        <x:v>45418.2493055556</x:v>
       </x:c>
       <x:c r="B177" s="0" t="s">
         <x:v>187</x:v>
       </x:c>
       <x:c r="C177" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D177" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E177" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F177" s="0" t="n">
-        <x:v>35527146</x:v>
+        <x:v>80522682</x:v>
       </x:c>
     </x:row>
     <x:row r="178" spans="1:14">
       <x:c r="A178" s="1">
-        <x:v>45418.2631944444</x:v>
+        <x:v>45418.2493055556</x:v>
       </x:c>
       <x:c r="B178" s="0" t="s">
         <x:v>188</x:v>
       </x:c>
       <x:c r="C178" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D178" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E178" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F178" s="0" t="n">
-        <x:v>59052559</x:v>
+        <x:v>41326641</x:v>
       </x:c>
     </x:row>
     <x:row r="179" spans="1:14">
       <x:c r="A179" s="1">
-        <x:v>45418.2652777778</x:v>
+        <x:v>45418.2506944444</x:v>
       </x:c>
       <x:c r="B179" s="0" t="s">
         <x:v>189</x:v>
@@ -4710,38 +4740,38 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D179" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E179" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F179" s="0" t="n">
-        <x:v>55610792</x:v>
+        <x:v>91493800</x:v>
       </x:c>
     </x:row>
     <x:row r="180" spans="1:14">
       <x:c r="A180" s="1">
-        <x:v>45418.2659722222</x:v>
+        <x:v>45418.2513888889</x:v>
       </x:c>
       <x:c r="B180" s="0" t="s">
         <x:v>190</x:v>
       </x:c>
       <x:c r="C180" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D180" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E180" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F180" s="0" t="n">
-        <x:v>76765480</x:v>
+        <x:v>88265359</x:v>
       </x:c>
     </x:row>
     <x:row r="181" spans="1:14">
       <x:c r="A181" s="1">
-        <x:v>45418.26875</x:v>
+        <x:v>45418.2527777778</x:v>
       </x:c>
       <x:c r="B181" s="0" t="s">
         <x:v>191</x:v>
@@ -4750,38 +4780,38 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D181" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E181" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F181" s="0" t="n">
-        <x:v>48664364</x:v>
+        <x:v>14116377</x:v>
       </x:c>
     </x:row>
     <x:row r="182" spans="1:14">
       <x:c r="A182" s="1">
-        <x:v>45418.2701388889</x:v>
+        <x:v>45418.2534722222</x:v>
       </x:c>
       <x:c r="B182" s="0" t="s">
         <x:v>192</x:v>
       </x:c>
       <x:c r="C182" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D182" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E182" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F182" s="0" t="n">
-        <x:v>76827061</x:v>
+        <x:v>61196937</x:v>
       </x:c>
     </x:row>
     <x:row r="183" spans="1:14">
       <x:c r="A183" s="1">
-        <x:v>45418.2729166667</x:v>
+        <x:v>45418.2555555556</x:v>
       </x:c>
       <x:c r="B183" s="0" t="s">
         <x:v>193</x:v>
@@ -4790,38 +4820,38 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D183" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E183" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F183" s="0" t="n">
-        <x:v>99512062</x:v>
+        <x:v>81496798</x:v>
       </x:c>
     </x:row>
     <x:row r="184" spans="1:14">
       <x:c r="A184" s="1">
-        <x:v>45418.2743055556</x:v>
+        <x:v>45418.25625</x:v>
       </x:c>
       <x:c r="B184" s="0" t="s">
         <x:v>194</x:v>
       </x:c>
       <x:c r="C184" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D184" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E184" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F184" s="0" t="n">
-        <x:v>67462763</x:v>
+        <x:v>73634687</x:v>
       </x:c>
     </x:row>
     <x:row r="185" spans="1:14">
       <x:c r="A185" s="1">
-        <x:v>45418.2756944444</x:v>
+        <x:v>45418.2576388889</x:v>
       </x:c>
       <x:c r="B185" s="0" t="s">
         <x:v>195</x:v>
@@ -4830,84 +4860,84 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D185" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E185" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F185" s="0" t="n">
-        <x:v>85992056</x:v>
+        <x:v>69377633</x:v>
       </x:c>
     </x:row>
     <x:row r="186" spans="1:14">
       <x:c r="A186" s="1">
-        <x:v>45418.2763888889</x:v>
+        <x:v>45418.2611111111</x:v>
       </x:c>
       <x:c r="B186" s="0" t="s">
         <x:v>196</x:v>
       </x:c>
       <x:c r="C186" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D186" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E186" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F186" s="0" t="n">
-        <x:v>36876610</x:v>
+        <x:v>34362899</x:v>
       </x:c>
     </x:row>
     <x:row r="187" spans="1:14">
       <x:c r="A187" s="1">
-        <x:v>45418.2777777778</x:v>
+        <x:v>45418.2625</x:v>
       </x:c>
       <x:c r="B187" s="0" t="s">
         <x:v>197</x:v>
       </x:c>
       <x:c r="C187" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D187" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E187" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F187" s="0" t="n">
-        <x:v>14237391</x:v>
+        <x:v>35527146</x:v>
       </x:c>
     </x:row>
     <x:row r="188" spans="1:14">
       <x:c r="A188" s="1">
-        <x:v>45418.2798611111</x:v>
+        <x:v>45418.2631944444</x:v>
       </x:c>
       <x:c r="B188" s="0" t="s">
         <x:v>198</x:v>
       </x:c>
       <x:c r="C188" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D188" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E188" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F188" s="0" t="n">
-        <x:v>42980468</x:v>
+        <x:v>59052559</x:v>
       </x:c>
     </x:row>
     <x:row r="189" spans="1:14">
       <x:c r="A189" s="1">
-        <x:v>45418.2805555556</x:v>
+        <x:v>45418.2652777778</x:v>
       </x:c>
       <x:c r="B189" s="0" t="s">
         <x:v>199</x:v>
       </x:c>
       <x:c r="C189" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D189" s="0" t="s">
         <x:v>12</x:v>
@@ -4916,18 +4946,18 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F189" s="0" t="n">
-        <x:v>58462429</x:v>
+        <x:v>55610792</x:v>
       </x:c>
     </x:row>
     <x:row r="190" spans="1:14">
       <x:c r="A190" s="1">
-        <x:v>45418.2826388889</x:v>
+        <x:v>45418.2659722222</x:v>
       </x:c>
       <x:c r="B190" s="0" t="s">
         <x:v>200</x:v>
       </x:c>
       <x:c r="C190" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D190" s="0" t="s">
         <x:v>8</x:v>
@@ -4936,32 +4966,32 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F190" s="0" t="n">
-        <x:v>40104132</x:v>
+        <x:v>76765480</x:v>
       </x:c>
     </x:row>
     <x:row r="191" spans="1:14">
       <x:c r="A191" s="1">
-        <x:v>45418.2861111111</x:v>
+        <x:v>45418.26875</x:v>
       </x:c>
       <x:c r="B191" s="0" t="s">
         <x:v>201</x:v>
       </x:c>
       <x:c r="C191" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D191" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E191" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F191" s="0" t="n">
-        <x:v>11430228</x:v>
+        <x:v>48664364</x:v>
       </x:c>
     </x:row>
     <x:row r="192" spans="1:14">
       <x:c r="A192" s="1">
-        <x:v>45418.2881944444</x:v>
+        <x:v>45418.2701388889</x:v>
       </x:c>
       <x:c r="B192" s="0" t="s">
         <x:v>202</x:v>
@@ -4970,24 +5000,24 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D192" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E192" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F192" s="0" t="n">
-        <x:v>59140876</x:v>
+        <x:v>76827061</x:v>
       </x:c>
     </x:row>
     <x:row r="193" spans="1:14">
       <x:c r="A193" s="1">
-        <x:v>45418.2916666667</x:v>
+        <x:v>45418.2729166667</x:v>
       </x:c>
       <x:c r="B193" s="0" t="s">
         <x:v>203</x:v>
       </x:c>
       <x:c r="C193" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D193" s="0" t="s">
         <x:v>8</x:v>
@@ -4996,12 +5026,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F193" s="0" t="n">
-        <x:v>88018258</x:v>
+        <x:v>99512062</x:v>
       </x:c>
     </x:row>
     <x:row r="194" spans="1:14">
       <x:c r="A194" s="1">
-        <x:v>45418.2944444444</x:v>
+        <x:v>45418.2743055556</x:v>
       </x:c>
       <x:c r="B194" s="0" t="s">
         <x:v>204</x:v>
@@ -5010,38 +5040,38 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D194" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E194" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F194" s="0" t="n">
-        <x:v>54103450</x:v>
+        <x:v>67462763</x:v>
       </x:c>
     </x:row>
     <x:row r="195" spans="1:14">
       <x:c r="A195" s="1">
-        <x:v>45418.2965277778</x:v>
+        <x:v>45418.2756944444</x:v>
       </x:c>
       <x:c r="B195" s="0" t="s">
         <x:v>205</x:v>
       </x:c>
       <x:c r="C195" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D195" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E195" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F195" s="0" t="n">
-        <x:v>35846970</x:v>
+        <x:v>85992056</x:v>
       </x:c>
     </x:row>
     <x:row r="196" spans="1:14">
       <x:c r="A196" s="1">
-        <x:v>45418.3</x:v>
+        <x:v>45418.2763888889</x:v>
       </x:c>
       <x:c r="B196" s="0" t="s">
         <x:v>206</x:v>
@@ -5050,18 +5080,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D196" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E196" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F196" s="0" t="n">
-        <x:v>82165228</x:v>
+        <x:v>36876610</x:v>
       </x:c>
     </x:row>
     <x:row r="197" spans="1:14">
       <x:c r="A197" s="1">
-        <x:v>45418.3020833333</x:v>
+        <x:v>45418.2777777778</x:v>
       </x:c>
       <x:c r="B197" s="0" t="s">
         <x:v>207</x:v>
@@ -5076,12 +5106,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F197" s="0" t="n">
-        <x:v>95526033</x:v>
+        <x:v>14237391</x:v>
       </x:c>
     </x:row>
     <x:row r="198" spans="1:14">
       <x:c r="A198" s="1">
-        <x:v>45418.3041666667</x:v>
+        <x:v>45418.2798611111</x:v>
       </x:c>
       <x:c r="B198" s="0" t="s">
         <x:v>208</x:v>
@@ -5096,32 +5126,32 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F198" s="0" t="n">
-        <x:v>55398856</x:v>
+        <x:v>42980468</x:v>
       </x:c>
     </x:row>
     <x:row r="199" spans="1:14">
       <x:c r="A199" s="1">
-        <x:v>45418.3055555556</x:v>
+        <x:v>45418.2805555556</x:v>
       </x:c>
       <x:c r="B199" s="0" t="s">
         <x:v>209</x:v>
       </x:c>
       <x:c r="C199" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D199" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E199" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F199" s="0" t="n">
-        <x:v>51443919</x:v>
+        <x:v>58462429</x:v>
       </x:c>
     </x:row>
     <x:row r="200" spans="1:14">
       <x:c r="A200" s="1">
-        <x:v>45418.30625</x:v>
+        <x:v>45418.2826388889</x:v>
       </x:c>
       <x:c r="B200" s="0" t="s">
         <x:v>210</x:v>
@@ -5130,58 +5160,58 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D200" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E200" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F200" s="0" t="n">
-        <x:v>60791226</x:v>
+        <x:v>40104132</x:v>
       </x:c>
     </x:row>
     <x:row r="201" spans="1:14">
       <x:c r="A201" s="1">
-        <x:v>45418.3090277778</x:v>
+        <x:v>45418.2861111111</x:v>
       </x:c>
       <x:c r="B201" s="0" t="s">
         <x:v>211</x:v>
       </x:c>
       <x:c r="C201" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D201" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E201" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F201" s="0" t="n">
-        <x:v>98382096</x:v>
+        <x:v>11430228</x:v>
       </x:c>
     </x:row>
     <x:row r="202" spans="1:14">
       <x:c r="A202" s="1">
-        <x:v>45418.3118055556</x:v>
+        <x:v>45418.2881944444</x:v>
       </x:c>
       <x:c r="B202" s="0" t="s">
         <x:v>212</x:v>
       </x:c>
       <x:c r="C202" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D202" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E202" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F202" s="0" t="n">
-        <x:v>69130554</x:v>
+        <x:v>59140876</x:v>
       </x:c>
     </x:row>
     <x:row r="203" spans="1:14">
       <x:c r="A203" s="1">
-        <x:v>45418.3145833333</x:v>
+        <x:v>45418.2916666667</x:v>
       </x:c>
       <x:c r="B203" s="0" t="s">
         <x:v>213</x:v>
@@ -5190,24 +5220,24 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D203" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E203" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F203" s="0" t="n">
-        <x:v>87550105</x:v>
+        <x:v>88018258</x:v>
       </x:c>
     </x:row>
     <x:row r="204" spans="1:14">
       <x:c r="A204" s="1">
-        <x:v>45418.3152777778</x:v>
+        <x:v>45418.2944444444</x:v>
       </x:c>
       <x:c r="B204" s="0" t="s">
         <x:v>214</x:v>
       </x:c>
       <x:c r="C204" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D204" s="0" t="s">
         <x:v>8</x:v>
@@ -5216,38 +5246,38 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F204" s="0" t="n">
-        <x:v>86717784</x:v>
+        <x:v>54103450</x:v>
       </x:c>
     </x:row>
     <x:row r="205" spans="1:14">
       <x:c r="A205" s="1">
-        <x:v>45418.3173611111</x:v>
+        <x:v>45418.2965277778</x:v>
       </x:c>
       <x:c r="B205" s="0" t="s">
         <x:v>215</x:v>
       </x:c>
       <x:c r="C205" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D205" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E205" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F205" s="0" t="n">
-        <x:v>96022898</x:v>
+        <x:v>35846970</x:v>
       </x:c>
     </x:row>
     <x:row r="206" spans="1:14">
       <x:c r="A206" s="1">
-        <x:v>45418.3208333333</x:v>
+        <x:v>45418.3</x:v>
       </x:c>
       <x:c r="B206" s="0" t="s">
         <x:v>216</x:v>
       </x:c>
       <x:c r="C206" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D206" s="0" t="s">
         <x:v>8</x:v>
@@ -5256,138 +5286,138 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F206" s="0" t="n">
-        <x:v>18974938</x:v>
+        <x:v>82165228</x:v>
       </x:c>
     </x:row>
     <x:row r="207" spans="1:14">
       <x:c r="A207" s="1">
-        <x:v>45418.3208333333</x:v>
+        <x:v>45418.3020833333</x:v>
       </x:c>
       <x:c r="B207" s="0" t="s">
         <x:v>217</x:v>
       </x:c>
       <x:c r="C207" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D207" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E207" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F207" s="0" t="n">
-        <x:v>78906923</x:v>
+        <x:v>95526033</x:v>
       </x:c>
     </x:row>
     <x:row r="208" spans="1:14">
       <x:c r="A208" s="1">
-        <x:v>45418.3236111111</x:v>
+        <x:v>45418.3041666667</x:v>
       </x:c>
       <x:c r="B208" s="0" t="s">
         <x:v>218</x:v>
       </x:c>
       <x:c r="C208" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D208" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E208" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F208" s="0" t="n">
-        <x:v>28748213</x:v>
+        <x:v>55398856</x:v>
       </x:c>
     </x:row>
     <x:row r="209" spans="1:14">
       <x:c r="A209" s="1">
-        <x:v>45418.3243055556</x:v>
+        <x:v>45418.3055555556</x:v>
       </x:c>
       <x:c r="B209" s="0" t="s">
         <x:v>219</x:v>
       </x:c>
       <x:c r="C209" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D209" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E209" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F209" s="0" t="n">
-        <x:v>98183367</x:v>
+        <x:v>51443919</x:v>
       </x:c>
     </x:row>
     <x:row r="210" spans="1:14">
       <x:c r="A210" s="1">
-        <x:v>45418.3256944444</x:v>
+        <x:v>45418.30625</x:v>
       </x:c>
       <x:c r="B210" s="0" t="s">
         <x:v>220</x:v>
       </x:c>
       <x:c r="C210" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D210" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E210" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F210" s="0" t="n">
-        <x:v>76265236</x:v>
+        <x:v>60791226</x:v>
       </x:c>
     </x:row>
     <x:row r="211" spans="1:14">
       <x:c r="A211" s="1">
-        <x:v>45418.3291666667</x:v>
+        <x:v>45418.3090277778</x:v>
       </x:c>
       <x:c r="B211" s="0" t="s">
         <x:v>221</x:v>
       </x:c>
       <x:c r="C211" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D211" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E211" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F211" s="0" t="n">
-        <x:v>26250892</x:v>
+        <x:v>98382096</x:v>
       </x:c>
     </x:row>
     <x:row r="212" spans="1:14">
       <x:c r="A212" s="1">
-        <x:v>45418.3298611111</x:v>
+        <x:v>45418.3118055556</x:v>
       </x:c>
       <x:c r="B212" s="0" t="s">
         <x:v>222</x:v>
       </x:c>
       <x:c r="C212" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D212" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E212" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F212" s="0" t="n">
-        <x:v>74984015</x:v>
+        <x:v>69130554</x:v>
       </x:c>
     </x:row>
     <x:row r="213" spans="1:14">
       <x:c r="A213" s="1">
-        <x:v>45418.3326388889</x:v>
+        <x:v>45418.3145833333</x:v>
       </x:c>
       <x:c r="B213" s="0" t="s">
         <x:v>223</x:v>
       </x:c>
       <x:c r="C213" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D213" s="0" t="s">
         <x:v>8</x:v>
@@ -5396,38 +5426,38 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F213" s="0" t="n">
-        <x:v>76975211</x:v>
+        <x:v>87550105</x:v>
       </x:c>
     </x:row>
     <x:row r="214" spans="1:14">
       <x:c r="A214" s="1">
-        <x:v>45418.3340277778</x:v>
+        <x:v>45418.3152777778</x:v>
       </x:c>
       <x:c r="B214" s="0" t="s">
         <x:v>224</x:v>
       </x:c>
       <x:c r="C214" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D214" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E214" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F214" s="0" t="n">
-        <x:v>64621408</x:v>
+        <x:v>86717784</x:v>
       </x:c>
     </x:row>
     <x:row r="215" spans="1:14">
       <x:c r="A215" s="1">
-        <x:v>45418.3347222222</x:v>
+        <x:v>45418.3173611111</x:v>
       </x:c>
       <x:c r="B215" s="0" t="s">
         <x:v>225</x:v>
       </x:c>
       <x:c r="C215" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D215" s="0" t="s">
         <x:v>12</x:v>
@@ -5436,32 +5466,32 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F215" s="0" t="n">
-        <x:v>92592247</x:v>
+        <x:v>96022898</x:v>
       </x:c>
     </x:row>
     <x:row r="216" spans="1:14">
       <x:c r="A216" s="1">
-        <x:v>45418.3361111111</x:v>
+        <x:v>45418.3208333333</x:v>
       </x:c>
       <x:c r="B216" s="0" t="s">
         <x:v>226</x:v>
       </x:c>
       <x:c r="C216" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D216" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E216" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F216" s="0" t="n">
-        <x:v>50327738</x:v>
+        <x:v>18974938</x:v>
       </x:c>
     </x:row>
     <x:row r="217" spans="1:14">
       <x:c r="A217" s="1">
-        <x:v>45418.3375</x:v>
+        <x:v>45418.3208333333</x:v>
       </x:c>
       <x:c r="B217" s="0" t="s">
         <x:v>227</x:v>
@@ -5470,58 +5500,58 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D217" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E217" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F217" s="0" t="n">
-        <x:v>64120818</x:v>
+        <x:v>78906923</x:v>
       </x:c>
     </x:row>
     <x:row r="218" spans="1:14">
       <x:c r="A218" s="1">
-        <x:v>45418.3409722222</x:v>
+        <x:v>45418.3236111111</x:v>
       </x:c>
       <x:c r="B218" s="0" t="s">
         <x:v>228</x:v>
       </x:c>
       <x:c r="C218" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D218" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E218" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F218" s="0" t="n">
-        <x:v>60072046</x:v>
+        <x:v>28748213</x:v>
       </x:c>
     </x:row>
     <x:row r="219" spans="1:14">
       <x:c r="A219" s="1">
-        <x:v>45418.3423611111</x:v>
+        <x:v>45418.3243055556</x:v>
       </x:c>
       <x:c r="B219" s="0" t="s">
         <x:v>229</x:v>
       </x:c>
       <x:c r="C219" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D219" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E219" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F219" s="0" t="n">
-        <x:v>37644531</x:v>
+        <x:v>98183367</x:v>
       </x:c>
     </x:row>
     <x:row r="220" spans="1:14">
       <x:c r="A220" s="1">
-        <x:v>45418.3451388889</x:v>
+        <x:v>45418.3256944444</x:v>
       </x:c>
       <x:c r="B220" s="0" t="s">
         <x:v>230</x:v>
@@ -5536,18 +5566,18 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F220" s="0" t="n">
-        <x:v>44336410</x:v>
+        <x:v>76265236</x:v>
       </x:c>
     </x:row>
     <x:row r="221" spans="1:14">
       <x:c r="A221" s="1">
-        <x:v>45418.3472222222</x:v>
+        <x:v>45418.3291666667</x:v>
       </x:c>
       <x:c r="B221" s="0" t="s">
         <x:v>231</x:v>
       </x:c>
       <x:c r="C221" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D221" s="0" t="s">
         <x:v>12</x:v>
@@ -5556,78 +5586,78 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F221" s="0" t="n">
-        <x:v>44953650</x:v>
+        <x:v>26250892</x:v>
       </x:c>
     </x:row>
     <x:row r="222" spans="1:14">
       <x:c r="A222" s="1">
-        <x:v>45418.3486111111</x:v>
+        <x:v>45418.3298611111</x:v>
       </x:c>
       <x:c r="B222" s="0" t="s">
         <x:v>232</x:v>
       </x:c>
       <x:c r="C222" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D222" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E222" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F222" s="0" t="n">
-        <x:v>46988533</x:v>
+        <x:v>74984015</x:v>
       </x:c>
     </x:row>
     <x:row r="223" spans="1:14">
       <x:c r="A223" s="1">
-        <x:v>45418.3520833333</x:v>
+        <x:v>45418.3326388889</x:v>
       </x:c>
       <x:c r="B223" s="0" t="s">
         <x:v>233</x:v>
       </x:c>
       <x:c r="C223" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D223" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E223" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F223" s="0" t="n">
-        <x:v>95154048</x:v>
+        <x:v>76975211</x:v>
       </x:c>
     </x:row>
     <x:row r="224" spans="1:14">
       <x:c r="A224" s="1">
-        <x:v>45418.3541666667</x:v>
+        <x:v>45418.3340277778</x:v>
       </x:c>
       <x:c r="B224" s="0" t="s">
         <x:v>234</x:v>
       </x:c>
       <x:c r="C224" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D224" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E224" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F224" s="0" t="n">
-        <x:v>22642147</x:v>
+        <x:v>64621408</x:v>
       </x:c>
     </x:row>
     <x:row r="225" spans="1:14">
       <x:c r="A225" s="1">
-        <x:v>45418.3569444444</x:v>
+        <x:v>45418.3347222222</x:v>
       </x:c>
       <x:c r="B225" s="0" t="s">
         <x:v>235</x:v>
       </x:c>
       <x:c r="C225" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D225" s="0" t="s">
         <x:v>12</x:v>
@@ -5636,12 +5666,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F225" s="0" t="n">
-        <x:v>11051756</x:v>
+        <x:v>92592247</x:v>
       </x:c>
     </x:row>
     <x:row r="226" spans="1:14">
       <x:c r="A226" s="1">
-        <x:v>45418.3583333333</x:v>
+        <x:v>45418.3361111111</x:v>
       </x:c>
       <x:c r="B226" s="0" t="s">
         <x:v>236</x:v>
@@ -5656,38 +5686,38 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F226" s="0" t="n">
-        <x:v>60269654</x:v>
+        <x:v>50327738</x:v>
       </x:c>
     </x:row>
     <x:row r="227" spans="1:14">
       <x:c r="A227" s="1">
-        <x:v>45418.3597222222</x:v>
+        <x:v>45418.3375</x:v>
       </x:c>
       <x:c r="B227" s="0" t="s">
         <x:v>237</x:v>
       </x:c>
       <x:c r="C227" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D227" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E227" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F227" s="0" t="n">
-        <x:v>51403242</x:v>
+        <x:v>64120818</x:v>
       </x:c>
     </x:row>
     <x:row r="228" spans="1:14">
       <x:c r="A228" s="1">
-        <x:v>45418.3611111111</x:v>
+        <x:v>45418.3409722222</x:v>
       </x:c>
       <x:c r="B228" s="0" t="s">
         <x:v>238</x:v>
       </x:c>
       <x:c r="C228" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D228" s="0" t="s">
         <x:v>8</x:v>
@@ -5696,58 +5726,58 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F228" s="0" t="n">
-        <x:v>23554685</x:v>
+        <x:v>60072046</x:v>
       </x:c>
     </x:row>
     <x:row r="229" spans="1:14">
       <x:c r="A229" s="1">
-        <x:v>45418.3625</x:v>
+        <x:v>45418.3423611111</x:v>
       </x:c>
       <x:c r="B229" s="0" t="s">
         <x:v>239</x:v>
       </x:c>
       <x:c r="C229" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D229" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E229" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F229" s="0" t="n">
-        <x:v>24863987</x:v>
+        <x:v>37644531</x:v>
       </x:c>
     </x:row>
     <x:row r="230" spans="1:14">
       <x:c r="A230" s="1">
-        <x:v>45418.3638888889</x:v>
+        <x:v>45418.3451388889</x:v>
       </x:c>
       <x:c r="B230" s="0" t="s">
         <x:v>240</x:v>
       </x:c>
       <x:c r="C230" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D230" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E230" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F230" s="0" t="n">
-        <x:v>98063611</x:v>
+        <x:v>44336410</x:v>
       </x:c>
     </x:row>
     <x:row r="231" spans="1:14">
       <x:c r="A231" s="1">
-        <x:v>45418.3666666667</x:v>
+        <x:v>45418.3472222222</x:v>
       </x:c>
       <x:c r="B231" s="0" t="s">
         <x:v>241</x:v>
       </x:c>
       <x:c r="C231" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D231" s="0" t="s">
         <x:v>12</x:v>
@@ -5756,58 +5786,58 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F231" s="0" t="n">
-        <x:v>52037889</x:v>
+        <x:v>44953650</x:v>
       </x:c>
     </x:row>
     <x:row r="232" spans="1:14">
       <x:c r="A232" s="1">
-        <x:v>45418.3680555556</x:v>
+        <x:v>45418.3486111111</x:v>
       </x:c>
       <x:c r="B232" s="0" t="s">
         <x:v>242</x:v>
       </x:c>
       <x:c r="C232" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D232" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E232" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F232" s="0" t="n">
-        <x:v>58568313</x:v>
+        <x:v>46988533</x:v>
       </x:c>
     </x:row>
     <x:row r="233" spans="1:14">
       <x:c r="A233" s="1">
-        <x:v>45418.3708333333</x:v>
+        <x:v>45418.3520833333</x:v>
       </x:c>
       <x:c r="B233" s="0" t="s">
         <x:v>243</x:v>
       </x:c>
       <x:c r="C233" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D233" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E233" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F233" s="0" t="n">
-        <x:v>41802058</x:v>
+        <x:v>95154048</x:v>
       </x:c>
     </x:row>
     <x:row r="234" spans="1:14">
       <x:c r="A234" s="1">
-        <x:v>45418.3715277778</x:v>
+        <x:v>45418.3541666667</x:v>
       </x:c>
       <x:c r="B234" s="0" t="s">
         <x:v>244</x:v>
       </x:c>
       <x:c r="C234" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D234" s="0" t="s">
         <x:v>8</x:v>
@@ -5816,18 +5846,18 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F234" s="0" t="n">
-        <x:v>41189497</x:v>
+        <x:v>22642147</x:v>
       </x:c>
     </x:row>
     <x:row r="235" spans="1:14">
       <x:c r="A235" s="1">
-        <x:v>45418.3743055556</x:v>
+        <x:v>45418.3569444444</x:v>
       </x:c>
       <x:c r="B235" s="0" t="s">
         <x:v>245</x:v>
       </x:c>
       <x:c r="C235" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D235" s="0" t="s">
         <x:v>12</x:v>
@@ -5836,72 +5866,72 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F235" s="0" t="n">
-        <x:v>25723020</x:v>
+        <x:v>11051756</x:v>
       </x:c>
     </x:row>
     <x:row r="236" spans="1:14">
       <x:c r="A236" s="1">
-        <x:v>45418.3763888889</x:v>
+        <x:v>45418.3583333333</x:v>
       </x:c>
       <x:c r="B236" s="0" t="s">
         <x:v>246</x:v>
       </x:c>
       <x:c r="C236" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D236" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E236" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F236" s="0" t="n">
-        <x:v>83739665</x:v>
+        <x:v>60269654</x:v>
       </x:c>
     </x:row>
     <x:row r="237" spans="1:14">
       <x:c r="A237" s="1">
-        <x:v>45418.3784722222</x:v>
+        <x:v>45418.3597222222</x:v>
       </x:c>
       <x:c r="B237" s="0" t="s">
         <x:v>247</x:v>
       </x:c>
       <x:c r="C237" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D237" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E237" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F237" s="0" t="n">
-        <x:v>94440068</x:v>
+        <x:v>51403242</x:v>
       </x:c>
     </x:row>
     <x:row r="238" spans="1:14">
       <x:c r="A238" s="1">
-        <x:v>45418.3805555556</x:v>
+        <x:v>45418.3611111111</x:v>
       </x:c>
       <x:c r="B238" s="0" t="s">
         <x:v>248</x:v>
       </x:c>
       <x:c r="C238" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D238" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E238" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F238" s="0" t="n">
-        <x:v>79673521</x:v>
+        <x:v>23554685</x:v>
       </x:c>
     </x:row>
     <x:row r="239" spans="1:14">
       <x:c r="A239" s="1">
-        <x:v>45418.3833333333</x:v>
+        <x:v>45418.3625</x:v>
       </x:c>
       <x:c r="B239" s="0" t="s">
         <x:v>249</x:v>
@@ -5910,18 +5940,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D239" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E239" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F239" s="0" t="n">
-        <x:v>69694990</x:v>
+        <x:v>24863987</x:v>
       </x:c>
     </x:row>
     <x:row r="240" spans="1:14">
       <x:c r="A240" s="1">
-        <x:v>45418.3847222222</x:v>
+        <x:v>45418.3638888889</x:v>
       </x:c>
       <x:c r="B240" s="0" t="s">
         <x:v>250</x:v>
@@ -5930,33 +5960,33 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D240" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E240" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F240" s="0" t="n">
-        <x:v>46094520</x:v>
+        <x:v>98063611</x:v>
       </x:c>
     </x:row>
     <x:row r="241" spans="1:14">
       <x:c r="A241" s="1">
-        <x:v>45418.3875</x:v>
+        <x:v>45418.3666666667</x:v>
       </x:c>
       <x:c r="B241" s="0" t="s">
         <x:v>251</x:v>
       </x:c>
       <x:c r="C241" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D241" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E241" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F241" s="0" t="n">
-        <x:v>15170018</x:v>
+        <x:v>52037889</x:v>
       </x:c>
     </x:row>
     <x:row r="242" spans="1:14">
@@ -5964,13 +5994,13 @@
         <x:v>45418.3680555556</x:v>
       </x:c>
       <x:c r="B242" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="C242" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D242" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E242" s="0" t="s">
         <x:v>9</x:v>
@@ -5984,13 +6014,13 @@
         <x:v>45418.3708333333</x:v>
       </x:c>
       <x:c r="B243" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="C243" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D243" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E243" s="0" t="s">
         <x:v>9</x:v>
@@ -6004,13 +6034,13 @@
         <x:v>45418.3715277778</x:v>
       </x:c>
       <x:c r="B244" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="C244" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D244" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E244" s="0" t="s">
         <x:v>9</x:v>
@@ -6024,10 +6054,10 @@
         <x:v>45418.3743055556</x:v>
       </x:c>
       <x:c r="B245" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="C245" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D245" s="0" t="s">
         <x:v>12</x:v>
@@ -6044,13 +6074,13 @@
         <x:v>45418.3763888889</x:v>
       </x:c>
       <x:c r="B246" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="C246" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D246" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E246" s="0" t="s">
         <x:v>9</x:v>
@@ -6064,13 +6094,13 @@
         <x:v>45418.3784722222</x:v>
       </x:c>
       <x:c r="B247" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="C247" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D247" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E247" s="0" t="s">
         <x:v>9</x:v>
@@ -6084,10 +6114,10 @@
         <x:v>45418.3805555556</x:v>
       </x:c>
       <x:c r="B248" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="C248" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D248" s="0" t="s">
         <x:v>12</x:v>
@@ -6104,13 +6134,13 @@
         <x:v>45418.3833333333</x:v>
       </x:c>
       <x:c r="B249" s="0" t="s">
-        <x:v>249</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="C249" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D249" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E249" s="0" t="s">
         <x:v>9</x:v>
@@ -6124,13 +6154,13 @@
         <x:v>45418.3847222222</x:v>
       </x:c>
       <x:c r="B250" s="0" t="s">
-        <x:v>250</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="C250" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D250" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E250" s="0" t="s">
         <x:v>9</x:v>
@@ -6144,13 +6174,13 @@
         <x:v>45418.3875</x:v>
       </x:c>
       <x:c r="B251" s="0" t="s">
-        <x:v>251</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="C251" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D251" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E251" s="0" t="s">
         <x:v>9</x:v>
@@ -6164,13 +6194,13 @@
         <x:v>45418.3236111111</x:v>
       </x:c>
       <x:c r="B252" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="C252" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D252" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E252" s="0" t="s">
         <x:v>9</x:v>
@@ -6184,13 +6214,13 @@
         <x:v>45418.3243055556</x:v>
       </x:c>
       <x:c r="B253" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="C253" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D253" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E253" s="0" t="s">
         <x:v>9</x:v>
@@ -6204,10 +6234,10 @@
         <x:v>45418.3256944444</x:v>
       </x:c>
       <x:c r="B254" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="C254" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D254" s="0" t="s">
         <x:v>12</x:v>
@@ -6224,10 +6254,10 @@
         <x:v>45418.3291666667</x:v>
       </x:c>
       <x:c r="B255" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="C255" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D255" s="0" t="s">
         <x:v>12</x:v>
@@ -6244,10 +6274,10 @@
         <x:v>45418.3298611111</x:v>
       </x:c>
       <x:c r="B256" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="C256" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D256" s="0" t="s">
         <x:v>12</x:v>
@@ -6264,13 +6294,13 @@
         <x:v>45418.3326388889</x:v>
       </x:c>
       <x:c r="B257" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="C257" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D257" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E257" s="0" t="s">
         <x:v>9</x:v>
@@ -6284,13 +6314,13 @@
         <x:v>45418.3340277778</x:v>
       </x:c>
       <x:c r="B258" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="C258" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D258" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E258" s="0" t="s">
         <x:v>9</x:v>
@@ -6304,10 +6334,10 @@
         <x:v>45418.3347222222</x:v>
       </x:c>
       <x:c r="B259" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="C259" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D259" s="0" t="s">
         <x:v>12</x:v>
@@ -6324,10 +6354,10 @@
         <x:v>45418.3361111111</x:v>
       </x:c>
       <x:c r="B260" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="C260" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D260" s="0" t="s">
         <x:v>12</x:v>
@@ -6344,13 +6374,13 @@
         <x:v>45418.3375</x:v>
       </x:c>
       <x:c r="B261" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="C261" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D261" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E261" s="0" t="s">
         <x:v>9</x:v>
@@ -6364,13 +6394,13 @@
         <x:v>45418.3409722222</x:v>
       </x:c>
       <x:c r="B262" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="C262" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D262" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E262" s="0" t="s">
         <x:v>9</x:v>
@@ -6384,10 +6414,10 @@
         <x:v>45418.3423611111</x:v>
       </x:c>
       <x:c r="B263" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="C263" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D263" s="0" t="s">
         <x:v>12</x:v>
@@ -6404,10 +6434,10 @@
         <x:v>45418.3451388889</x:v>
       </x:c>
       <x:c r="B264" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="C264" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D264" s="0" t="s">
         <x:v>12</x:v>
@@ -6424,10 +6454,10 @@
         <x:v>45418.3472222222</x:v>
       </x:c>
       <x:c r="B265" s="0" t="s">
-        <x:v>231</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C265" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D265" s="0" t="s">
         <x:v>12</x:v>
@@ -6444,13 +6474,13 @@
         <x:v>45418.3486111111</x:v>
       </x:c>
       <x:c r="B266" s="0" t="s">
-        <x:v>232</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="C266" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D266" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E266" s="0" t="s">
         <x:v>9</x:v>
@@ -6464,10 +6494,10 @@
         <x:v>45418.3520833333</x:v>
       </x:c>
       <x:c r="B267" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="C267" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D267" s="0" t="s">
         <x:v>12</x:v>
@@ -6484,13 +6514,13 @@
         <x:v>45418.3541666667</x:v>
       </x:c>
       <x:c r="B268" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="C268" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D268" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E268" s="0" t="s">
         <x:v>9</x:v>
@@ -6504,10 +6534,10 @@
         <x:v>45418.3569444444</x:v>
       </x:c>
       <x:c r="B269" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="C269" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D269" s="0" t="s">
         <x:v>12</x:v>
@@ -6524,10 +6554,10 @@
         <x:v>45418.3583333333</x:v>
       </x:c>
       <x:c r="B270" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="C270" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D270" s="0" t="s">
         <x:v>12</x:v>
@@ -6544,13 +6574,13 @@
         <x:v>45418.3597222222</x:v>
       </x:c>
       <x:c r="B271" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="C271" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D271" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E271" s="0" t="s">
         <x:v>9</x:v>
@@ -6564,13 +6594,13 @@
         <x:v>45418.3611111111</x:v>
       </x:c>
       <x:c r="B272" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="C272" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D272" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E272" s="0" t="s">
         <x:v>9</x:v>
@@ -6584,13 +6614,13 @@
         <x:v>45418.3625</x:v>
       </x:c>
       <x:c r="B273" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="C273" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D273" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E273" s="0" t="s">
         <x:v>9</x:v>
@@ -6604,13 +6634,13 @@
         <x:v>45418.3638888889</x:v>
       </x:c>
       <x:c r="B274" s="0" t="s">
-        <x:v>240</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="C274" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D274" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E274" s="0" t="s">
         <x:v>9</x:v>
@@ -6624,10 +6654,10 @@
         <x:v>45418.3666666667</x:v>
       </x:c>
       <x:c r="B275" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="C275" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D275" s="0" t="s">
         <x:v>12</x:v>
@@ -6644,13 +6674,13 @@
         <x:v>45418.3680555556</x:v>
       </x:c>
       <x:c r="B276" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="C276" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D276" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E276" s="0" t="s">
         <x:v>9</x:v>
@@ -6664,13 +6694,13 @@
         <x:v>45418.3708333333</x:v>
       </x:c>
       <x:c r="B277" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="C277" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D277" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E277" s="0" t="s">
         <x:v>9</x:v>
@@ -6684,13 +6714,13 @@
         <x:v>45418.3715277778</x:v>
       </x:c>
       <x:c r="B278" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="C278" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D278" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E278" s="0" t="s">
         <x:v>9</x:v>
